--- a/Data/model_outputs_baseline/number_of_dwellings/s_delta_total.xlsx
+++ b/Data/model_outputs_baseline/number_of_dwellings/s_delta_total.xlsx
@@ -434,11 +434,6 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Year</t>
-        </is>
-      </c>
       <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
@@ -456,7 +451,7 @@
         <v>1601</v>
       </c>
       <c r="B3" t="n">
-        <v>86.01224443895444</v>
+        <v>86.01224443895445</v>
       </c>
     </row>
     <row r="4">
@@ -464,7 +459,7 @@
         <v>1602</v>
       </c>
       <c r="B4" t="n">
-        <v>87.24817320451538</v>
+        <v>87.2481732045172</v>
       </c>
     </row>
     <row r="5">
@@ -472,7 +467,7 @@
         <v>1603</v>
       </c>
       <c r="B5" t="n">
-        <v>88.50174149125191</v>
+        <v>88.50174149125009</v>
       </c>
     </row>
     <row r="6">
@@ -480,7 +475,7 @@
         <v>1604</v>
       </c>
       <c r="B6" t="n">
-        <v>89.77319772958572</v>
+        <v>89.77319772959298</v>
       </c>
     </row>
     <row r="7">
@@ -488,7 +483,7 @@
         <v>1605</v>
       </c>
       <c r="B7" t="n">
-        <v>91.06279375981418</v>
+        <v>91.06279375981055</v>
       </c>
     </row>
     <row r="8">
@@ -496,7 +491,7 @@
         <v>1606</v>
       </c>
       <c r="B8" t="n">
-        <v>92.37078487636624</v>
+        <v>92.37078487636626</v>
       </c>
     </row>
     <row r="9">
@@ -504,7 +499,7 @@
         <v>1607</v>
       </c>
       <c r="B9" t="n">
-        <v>93.69742987279662</v>
+        <v>93.6974298727966</v>
       </c>
     </row>
     <row r="10">
@@ -512,7 +507,7 @@
         <v>1608</v>
       </c>
       <c r="B10" t="n">
-        <v>95.04299108783137</v>
+        <v>95.0429910878259</v>
       </c>
     </row>
     <row r="11">
@@ -520,7 +515,7 @@
         <v>1609</v>
       </c>
       <c r="B11" t="n">
-        <v>96.40773445098046</v>
+        <v>96.40773445098593</v>
       </c>
     </row>
     <row r="12">
@@ -528,7 +523,7 @@
         <v>1610</v>
       </c>
       <c r="B12" t="n">
-        <v>97.79192952942675</v>
+        <v>97.79192952942677</v>
       </c>
     </row>
     <row r="13">
@@ -536,7 +531,7 @@
         <v>1611</v>
       </c>
       <c r="B13" t="n">
-        <v>99.19584957547835</v>
+        <v>99.19584957547106</v>
       </c>
     </row>
     <row r="14">
@@ -544,7 +539,7 @@
         <v>1612</v>
       </c>
       <c r="B14" t="n">
-        <v>100.6197715739567</v>
+        <v>100.6197715739694</v>
       </c>
     </row>
     <row r="15">
@@ -552,7 +547,7 @@
         <v>1613</v>
       </c>
       <c r="B15" t="n">
-        <v>102.0639762910253</v>
+        <v>102.0639762910162</v>
       </c>
     </row>
     <row r="16">
@@ -560,7 +555,7 @@
         <v>1614</v>
       </c>
       <c r="B16" t="n">
-        <v>103.5287483225705</v>
+        <v>103.528748322576</v>
       </c>
     </row>
     <row r="17">
@@ -568,7 +563,7 @@
         <v>1615</v>
       </c>
       <c r="B17" t="n">
-        <v>105.0143761442796</v>
+        <v>105.0143761442777</v>
       </c>
     </row>
     <row r="18">
@@ -576,7 +571,7 @@
         <v>1616</v>
       </c>
       <c r="B18" t="n">
-        <v>106.5211521613149</v>
+        <v>106.5211521613113</v>
       </c>
     </row>
     <row r="19">
@@ -584,7 +579,7 @@
         <v>1617</v>
       </c>
       <c r="B19" t="n">
-        <v>108.0493727590955</v>
+        <v>108.0493727590918</v>
       </c>
     </row>
     <row r="20">
@@ -592,7 +587,7 @@
         <v>1618</v>
       </c>
       <c r="B20" t="n">
-        <v>109.5993383547425</v>
+        <v>109.599338354748</v>
       </c>
     </row>
     <row r="21">
@@ -600,7 +595,7 @@
         <v>1619</v>
       </c>
       <c r="B21" t="n">
-        <v>111.1713534486076</v>
+        <v>111.1713534486057</v>
       </c>
     </row>
     <row r="22">
@@ -608,7 +603,7 @@
         <v>1620</v>
       </c>
       <c r="B22" t="n">
-        <v>112.7657266770653</v>
+        <v>112.7657266770689</v>
       </c>
     </row>
     <row r="23">
@@ -616,7 +611,7 @@
         <v>1621</v>
       </c>
       <c r="B23" t="n">
-        <v>114.3827708654296</v>
+        <v>114.3827708654278</v>
       </c>
     </row>
     <row r="24">
@@ -624,7 +619,7 @@
         <v>1622</v>
       </c>
       <c r="B24" t="n">
-        <v>116.0228030815448</v>
+        <v>116.0228030815484</v>
       </c>
     </row>
     <row r="25">
@@ -632,7 +627,7 @@
         <v>1623</v>
       </c>
       <c r="B25" t="n">
-        <v>117.6861446904563</v>
+        <v>117.6861446904545</v>
       </c>
     </row>
     <row r="26">
@@ -640,7 +635,7 @@
         <v>1624</v>
       </c>
       <c r="B26" t="n">
-        <v>119.3731214089923</v>
+        <v>119.3731214089959</v>
       </c>
     </row>
     <row r="27">
@@ -648,7 +643,7 @@
         <v>1625</v>
       </c>
       <c r="B27" t="n">
-        <v>121.0840633615777</v>
+        <v>121.0840633615705</v>
       </c>
     </row>
     <row r="28">
@@ -656,7 +651,7 @@
         <v>1626</v>
       </c>
       <c r="B28" t="n">
-        <v>122.8193051364356</v>
+        <v>122.8193051364392</v>
       </c>
     </row>
     <row r="29">
@@ -664,7 +659,7 @@
         <v>1627</v>
       </c>
       <c r="B29" t="n">
-        <v>124.5791858423361</v>
+        <v>124.5791858423379</v>
       </c>
     </row>
     <row r="30">
@@ -672,7 +667,7 @@
         <v>1628</v>
       </c>
       <c r="B30" t="n">
-        <v>126.364049166431</v>
+        <v>126.3640491664219</v>
       </c>
     </row>
     <row r="31">
@@ -680,7 +675,7 @@
         <v>1629</v>
       </c>
       <c r="B31" t="n">
-        <v>128.1742434321479</v>
+        <v>128.1742434321534</v>
       </c>
     </row>
     <row r="32">
@@ -696,7 +691,7 @@
         <v>1631</v>
       </c>
       <c r="B33" t="n">
-        <v>131.8720416185259</v>
+        <v>131.8720416185313</v>
       </c>
     </row>
     <row r="34">
@@ -704,7 +699,7 @@
         <v>1632</v>
       </c>
       <c r="B34" t="n">
-        <v>133.7603659016369</v>
+        <v>133.760365901635</v>
       </c>
     </row>
     <row r="35">
@@ -712,7 +707,7 @@
         <v>1633</v>
       </c>
       <c r="B35" t="n">
-        <v>135.6754619725232</v>
+        <v>135.6754619725196</v>
       </c>
     </row>
     <row r="36">
@@ -720,7 +715,7 @@
         <v>1634</v>
       </c>
       <c r="B36" t="n">
-        <v>137.6177022337723</v>
+        <v>137.6177022337669</v>
       </c>
     </row>
     <row r="37">
@@ -728,7 +723,7 @@
         <v>1635</v>
       </c>
       <c r="B37" t="n">
-        <v>139.5874640882345</v>
+        <v>139.58746408824</v>
       </c>
     </row>
     <row r="38">
@@ -736,7 +731,7 @@
         <v>1636</v>
       </c>
       <c r="B38" t="n">
-        <v>141.5851300017591</v>
+        <v>141.5851300017664</v>
       </c>
     </row>
     <row r="39">
@@ -744,7 +739,7 @@
         <v>1637</v>
       </c>
       <c r="B39" t="n">
-        <v>143.611087567325</v>
+        <v>143.6110875673178</v>
       </c>
     </row>
     <row r="40">
@@ -752,7 +747,7 @@
         <v>1638</v>
       </c>
       <c r="B40" t="n">
-        <v>145.6657295694564</v>
+        <v>145.6657295694563</v>
       </c>
     </row>
     <row r="41">
@@ -760,7 +755,7 @@
         <v>1639</v>
       </c>
       <c r="B41" t="n">
-        <v>147.7494540496906</v>
+        <v>147.7494540496924</v>
       </c>
     </row>
     <row r="42">
@@ -768,7 +763,7 @@
         <v>1640</v>
       </c>
       <c r="B42" t="n">
-        <v>149.8626643722096</v>
+        <v>149.8626643722041</v>
       </c>
     </row>
     <row r="43">
@@ -776,7 +771,7 @@
         <v>1641</v>
       </c>
       <c r="B43" t="n">
-        <v>152.0057692912673</v>
+        <v>152.0057692912746</v>
       </c>
     </row>
     <row r="44">
@@ -784,7 +779,7 @@
         <v>1642</v>
       </c>
       <c r="B44" t="n">
-        <v>154.1791830182819</v>
+        <v>154.1791830182782</v>
       </c>
     </row>
     <row r="45">
@@ -792,7 +787,7 @@
         <v>1643</v>
       </c>
       <c r="B45" t="n">
-        <v>156.3833252905181</v>
+        <v>156.3833252905127</v>
       </c>
     </row>
     <row r="46">
@@ -800,7 +795,7 @@
         <v>1644</v>
       </c>
       <c r="B46" t="n">
-        <v>158.6186214401978</v>
+        <v>158.6186214402088</v>
       </c>
     </row>
     <row r="47">
@@ -808,7 +803,7 @@
         <v>1645</v>
       </c>
       <c r="B47" t="n">
-        <v>160.8855024642853</v>
+        <v>160.8855024642816</v>
       </c>
     </row>
     <row r="48">
@@ -816,7 +811,7 @@
         <v>1646</v>
       </c>
       <c r="B48" t="n">
-        <v>163.1844050956383</v>
+        <v>163.1844050956327</v>
       </c>
     </row>
     <row r="49">
@@ -824,7 +819,7 @@
         <v>1647</v>
       </c>
       <c r="B49" t="n">
-        <v>165.5157718744221</v>
+        <v>165.5157718744259</v>
       </c>
     </row>
     <row r="50">
@@ -832,7 +827,7 @@
         <v>1648</v>
       </c>
       <c r="B50" t="n">
-        <v>167.8800512204917</v>
+        <v>167.8800512204934</v>
       </c>
     </row>
     <row r="51">
@@ -848,7 +843,7 @@
         <v>1650</v>
       </c>
       <c r="B52" t="n">
-        <v>172.7091711341478</v>
+        <v>172.7091711341533</v>
       </c>
     </row>
     <row r="53">
@@ -856,7 +851,7 @@
         <v>1651</v>
       </c>
       <c r="B53" t="n">
-        <v>175.1749386049108</v>
+        <v>175.1749386049071</v>
       </c>
     </row>
     <row r="54">
@@ -864,7 +859,7 @@
         <v>1652</v>
       </c>
       <c r="B54" t="n">
-        <v>177.675472600086</v>
+        <v>177.6754726000877</v>
       </c>
     </row>
     <row r="55">
@@ -880,7 +875,7 @@
         <v>1654</v>
       </c>
       <c r="B56" t="n">
-        <v>182.7827622416952</v>
+        <v>182.7827622416933</v>
       </c>
     </row>
     <row r="57">
@@ -888,7 +883,7 @@
         <v>1655</v>
       </c>
       <c r="B57" t="n">
-        <v>185.3904948376575</v>
+        <v>185.3904948376521</v>
       </c>
     </row>
     <row r="58">
@@ -912,7 +907,7 @@
         <v>1658</v>
       </c>
       <c r="B60" t="n">
-        <v>193.4360417473862</v>
+        <v>193.4360417473844</v>
       </c>
     </row>
     <row r="61">
@@ -920,7 +915,7 @@
         <v>1659</v>
       </c>
       <c r="B61" t="n">
-        <v>196.1937118305131</v>
+        <v>196.1937118305166</v>
       </c>
     </row>
     <row r="62">
@@ -928,7 +923,7 @@
         <v>1660</v>
       </c>
       <c r="B62" t="n">
-        <v>198.9901617221317</v>
+        <v>198.9901617221282</v>
       </c>
     </row>
     <row r="63">
@@ -936,7 +931,7 @@
         <v>1661</v>
       </c>
       <c r="B63" t="n">
-        <v>201.8259232785863</v>
+        <v>201.8259232785954</v>
       </c>
     </row>
     <row r="64">
@@ -944,7 +939,7 @@
         <v>1662</v>
       </c>
       <c r="B64" t="n">
-        <v>204.7015353464029</v>
+        <v>204.7015353463974</v>
       </c>
     </row>
     <row r="65">
@@ -952,7 +947,7 @@
         <v>1663</v>
       </c>
       <c r="B65" t="n">
-        <v>207.6175438479945</v>
+        <v>207.6175438479946</v>
       </c>
     </row>
     <row r="66">
@@ -960,7 +955,7 @@
         <v>1664</v>
       </c>
       <c r="B66" t="n">
-        <v>210.5745018704174</v>
+        <v>210.5745018704191</v>
       </c>
     </row>
     <row r="67">
@@ -968,7 +963,7 @@
         <v>1665</v>
       </c>
       <c r="B67" t="n">
-        <v>213.5729697535926</v>
+        <v>213.5729697535909</v>
       </c>
     </row>
     <row r="68">
@@ -976,7 +971,7 @@
         <v>1666</v>
       </c>
       <c r="B68" t="n">
-        <v>216.6135151804708</v>
+        <v>216.6135151804725</v>
       </c>
     </row>
     <row r="69">
@@ -984,7 +979,7 @@
         <v>1667</v>
       </c>
       <c r="B69" t="n">
-        <v>219.6967132683048</v>
+        <v>219.6967132683012</v>
       </c>
     </row>
     <row r="70">
@@ -992,7 +987,7 @@
         <v>1668</v>
       </c>
       <c r="B70" t="n">
-        <v>222.8231466610528</v>
+        <v>222.8231466610547</v>
       </c>
     </row>
     <row r="71">
@@ -1000,7 +995,7 @@
         <v>1669</v>
       </c>
       <c r="B71" t="n">
-        <v>225.9934056224981</v>
+        <v>225.9934056224999</v>
       </c>
     </row>
     <row r="72">
@@ -1008,7 +1003,7 @@
         <v>1670</v>
       </c>
       <c r="B72" t="n">
-        <v>229.2080881314919</v>
+        <v>229.2080881314899</v>
       </c>
     </row>
     <row r="73">
@@ -1024,7 +1019,7 @@
         <v>1672</v>
       </c>
       <c r="B74" t="n">
-        <v>235.7731548582628</v>
+        <v>235.7731548582575</v>
       </c>
     </row>
     <row r="75">
@@ -1032,7 +1027,7 @@
         <v>1673</v>
       </c>
       <c r="B75" t="n">
-        <v>239.1247744778657</v>
+        <v>239.1247744778729</v>
       </c>
     </row>
     <row r="76">
@@ -1040,7 +1035,7 @@
         <v>1674</v>
       </c>
       <c r="B76" t="n">
-        <v>242.5232886471377</v>
+        <v>242.523288647136</v>
       </c>
     </row>
     <row r="77">
@@ -1048,7 +1043,7 @@
         <v>1675</v>
       </c>
       <c r="B77" t="n">
-        <v>245.9693353844505</v>
+        <v>245.9693353844522</v>
       </c>
     </row>
     <row r="78">
@@ -1056,7 +1051,7 @@
         <v>1676</v>
       </c>
       <c r="B78" t="n">
-        <v>249.4635610187552</v>
+        <v>249.4635610187534</v>
       </c>
     </row>
     <row r="79">
@@ -1064,7 +1059,7 @@
         <v>1677</v>
       </c>
       <c r="B79" t="n">
-        <v>253.0066202932701</v>
+        <v>253.0066202932775</v>
       </c>
     </row>
     <row r="80">
@@ -1072,7 +1067,7 @@
         <v>1678</v>
       </c>
       <c r="B80" t="n">
-        <v>256.5991764713119</v>
+        <v>256.599176471308</v>
       </c>
     </row>
     <row r="81">
@@ -1080,7 +1075,7 @@
         <v>1679</v>
       </c>
       <c r="B81" t="n">
-        <v>260.241901443135</v>
+        <v>260.241901443128</v>
       </c>
     </row>
     <row r="82">
@@ -1088,7 +1083,7 @@
         <v>1680</v>
       </c>
       <c r="B82" t="n">
-        <v>263.9354758345331</v>
+        <v>263.9354758345311</v>
       </c>
     </row>
     <row r="83">
@@ -1096,7 +1091,7 @@
         <v>1681</v>
       </c>
       <c r="B83" t="n">
-        <v>267.6805891169106</v>
+        <v>267.6805891169198</v>
       </c>
     </row>
     <row r="84">
@@ -1104,7 +1099,7 @@
         <v>1682</v>
       </c>
       <c r="B84" t="n">
-        <v>271.4779397191824</v>
+        <v>271.477939719177</v>
       </c>
     </row>
     <row r="85">
@@ -1112,7 +1107,7 @@
         <v>1683</v>
       </c>
       <c r="B85" t="n">
-        <v>275.3282351408907</v>
+        <v>275.328235140896</v>
       </c>
     </row>
     <row r="86">
@@ -1120,7 +1115,7 @@
         <v>1684</v>
       </c>
       <c r="B86" t="n">
-        <v>279.2321920678766</v>
+        <v>279.2321920678749</v>
       </c>
     </row>
     <row r="87">
@@ -1128,7 +1123,7 @@
         <v>1685</v>
       </c>
       <c r="B87" t="n">
-        <v>283.190536488262</v>
+        <v>283.1905364882654</v>
       </c>
     </row>
     <row r="88">
@@ -1136,7 +1131,7 @@
         <v>1686</v>
       </c>
       <c r="B88" t="n">
-        <v>287.2040038117394</v>
+        <v>287.2040038117414</v>
       </c>
     </row>
     <row r="89">
@@ -1144,7 +1139,7 @@
         <v>1687</v>
       </c>
       <c r="B89" t="n">
-        <v>291.2733389901838</v>
+        <v>291.2733389901802</v>
       </c>
     </row>
     <row r="90">
@@ -1152,7 +1147,7 @@
         <v>1688</v>
       </c>
       <c r="B90" t="n">
-        <v>295.3992966394202</v>
+        <v>295.3992966394185</v>
       </c>
     </row>
     <row r="91">
@@ -1160,7 +1155,7 @@
         <v>1689</v>
       </c>
       <c r="B91" t="n">
-        <v>299.5826411640149</v>
+        <v>299.5826411640132</v>
       </c>
     </row>
     <row r="92">
@@ -1168,7 +1163,7 @@
         <v>1690</v>
       </c>
       <c r="B92" t="n">
-        <v>303.824146883785</v>
+        <v>303.8241468837886</v>
       </c>
     </row>
     <row r="93">
@@ -1176,7 +1171,7 @@
         <v>1691</v>
       </c>
       <c r="B93" t="n">
-        <v>308.1245981618316</v>
+        <v>308.1245981618283</v>
       </c>
     </row>
     <row r="94">
@@ -1184,7 +1179,7 @@
         <v>1692</v>
       </c>
       <c r="B94" t="n">
-        <v>312.4847895353182</v>
+        <v>312.4847895353181</v>
       </c>
     </row>
     <row r="95">
@@ -1192,7 +1187,7 @@
         <v>1693</v>
       </c>
       <c r="B95" t="n">
-        <v>316.9055258485188</v>
+        <v>316.9055258485226</v>
       </c>
     </row>
     <row r="96">
@@ -1200,7 +1195,7 @@
         <v>1694</v>
       </c>
       <c r="B96" t="n">
-        <v>321.3876223874744</v>
+        <v>321.387622387471</v>
       </c>
     </row>
     <row r="97">
@@ -1208,7 +1203,7 @@
         <v>1695</v>
       </c>
       <c r="B97" t="n">
-        <v>325.9319050176599</v>
+        <v>325.9319050176562</v>
       </c>
     </row>
     <row r="98">
@@ -1216,7 +1211,7 @@
         <v>1696</v>
       </c>
       <c r="B98" t="n">
-        <v>330.5392103237093</v>
+        <v>330.5392103237145</v>
       </c>
     </row>
     <row r="99">
@@ -1232,7 +1227,7 @@
         <v>1698</v>
       </c>
       <c r="B100" t="n">
-        <v>339.9462897552477</v>
+        <v>339.9462897552419</v>
       </c>
     </row>
     <row r="101">
@@ -1240,7 +1235,7 @@
         <v>1699</v>
       </c>
       <c r="B101" t="n">
-        <v>344.7477919402463</v>
+        <v>344.7477919402484</v>
       </c>
     </row>
     <row r="102">
@@ -1248,7 +1243,7 @@
         <v>1700</v>
       </c>
       <c r="B102" t="n">
-        <v>349.615773218344</v>
+        <v>349.6157732183478</v>
       </c>
     </row>
     <row r="103">
@@ -1264,7 +1259,7 @@
         <v>1702</v>
       </c>
       <c r="B104" t="n">
-        <v>359.5547541436842</v>
+        <v>359.5547541436787</v>
       </c>
     </row>
     <row r="105">
@@ -1272,7 +1267,7 @@
         <v>1703</v>
       </c>
       <c r="B105" t="n">
-        <v>364.6275735293982</v>
+        <v>364.6275735294</v>
       </c>
     </row>
     <row r="106">
@@ -1280,7 +1275,7 @@
         <v>1704</v>
       </c>
       <c r="B106" t="n">
-        <v>369.770511806877</v>
+        <v>369.7705118068788</v>
       </c>
     </row>
     <row r="107">
@@ -1288,7 +1283,7 @@
         <v>1705</v>
       </c>
       <c r="B107" t="n">
-        <v>374.9845087684351</v>
+        <v>374.9845087684352</v>
       </c>
     </row>
     <row r="108">
@@ -1296,7 +1291,7 @@
         <v>1706</v>
       </c>
       <c r="B108" t="n">
-        <v>380.2705164762528</v>
+        <v>380.2705164762583</v>
       </c>
     </row>
     <row r="109">
@@ -1304,7 +1299,7 @@
         <v>1707</v>
       </c>
       <c r="B109" t="n">
-        <v>385.6294994350749</v>
+        <v>385.6294994350714</v>
       </c>
     </row>
     <row r="110">
@@ -1320,7 +1315,7 @@
         <v>1709</v>
       </c>
       <c r="B111" t="n">
-        <v>396.5703123984881</v>
+        <v>396.5703123984827</v>
       </c>
     </row>
     <row r="112">
@@ -1328,7 +1323,7 @@
         <v>1710</v>
       </c>
       <c r="B112" t="n">
-        <v>402.1541352298369</v>
+        <v>402.1541352298389</v>
       </c>
     </row>
     <row r="113">
@@ -1336,7 +1331,7 @@
         <v>1711</v>
       </c>
       <c r="B113" t="n">
-        <v>407.8149193372912</v>
+        <v>407.8149193372892</v>
       </c>
     </row>
     <row r="114">
@@ -1344,7 +1339,7 @@
         <v>1712</v>
       </c>
       <c r="B114" t="n">
-        <v>413.5536941581038</v>
+        <v>413.5536941581074</v>
       </c>
     </row>
     <row r="115">
@@ -1352,7 +1347,7 @@
         <v>1713</v>
       </c>
       <c r="B115" t="n">
-        <v>419.3715026883032</v>
+        <v>419.3715026883033</v>
       </c>
     </row>
     <row r="116">
@@ -1360,7 +1355,7 @@
         <v>1714</v>
       </c>
       <c r="B116" t="n">
-        <v>425.2694016835031</v>
+        <v>425.2694016835026</v>
       </c>
     </row>
     <row r="117">
@@ -1376,7 +1371,7 @@
         <v>1716</v>
       </c>
       <c r="B118" t="n">
-        <v>437.3097681280237</v>
+        <v>437.3097681280242</v>
       </c>
     </row>
     <row r="119">
@@ -1384,7 +1379,7 @@
         <v>1717</v>
       </c>
       <c r="B119" t="n">
-        <v>443.45441976173</v>
+        <v>443.4544197617316</v>
       </c>
     </row>
     <row r="120">
@@ -1392,7 +1387,7 @@
         <v>1718</v>
       </c>
       <c r="B120" t="n">
-        <v>449.6835306652555</v>
+        <v>449.6835306652536</v>
       </c>
     </row>
     <row r="121">
@@ -1400,7 +1395,7 @@
         <v>1719</v>
       </c>
       <c r="B121" t="n">
-        <v>455.9982295762237</v>
+        <v>455.9982295762249</v>
       </c>
     </row>
     <row r="122">
@@ -1408,7 +1403,7 @@
         <v>1720</v>
       </c>
       <c r="B122" t="n">
-        <v>462.399660302136</v>
+        <v>462.3996603021359</v>
       </c>
     </row>
     <row r="123">
@@ -1416,7 +1411,7 @@
         <v>1721</v>
       </c>
       <c r="B123" t="n">
-        <v>468.8889819579244</v>
+        <v>468.888981957928</v>
       </c>
     </row>
     <row r="124">
@@ -1424,7 +1419,7 @@
         <v>1722</v>
       </c>
       <c r="B124" t="n">
-        <v>475.4673692097183</v>
+        <v>475.4673692097148</v>
       </c>
     </row>
     <row r="125">
@@ -1432,7 +1427,7 @@
         <v>1723</v>
       </c>
       <c r="B125" t="n">
-        <v>482.1360125247621</v>
+        <v>482.1360125247599</v>
       </c>
     </row>
     <row r="126">
@@ -1440,7 +1435,7 @@
         <v>1724</v>
       </c>
       <c r="B126" t="n">
-        <v>488.8961184282771</v>
+        <v>488.8961184282809</v>
       </c>
     </row>
     <row r="127">
@@ -1448,7 +1443,7 @@
         <v>1725</v>
       </c>
       <c r="B127" t="n">
-        <v>495.7489097665659</v>
+        <v>495.7489097665651</v>
       </c>
     </row>
     <row r="128">
@@ -1456,7 +1451,7 @@
         <v>1726</v>
       </c>
       <c r="B128" t="n">
-        <v>502.6956259778376</v>
+        <v>502.6956259778334</v>
       </c>
     </row>
     <row r="129">
@@ -1464,7 +1459,7 @@
         <v>1727</v>
       </c>
       <c r="B129" t="n">
-        <v>509.7375233696598</v>
+        <v>509.7375233696636</v>
       </c>
     </row>
     <row r="130">
@@ -1472,7 +1467,7 @@
         <v>1728</v>
       </c>
       <c r="B130" t="n">
-        <v>516.875875405129</v>
+        <v>516.8758754051278</v>
       </c>
     </row>
     <row r="131">
@@ -1480,7 +1475,7 @@
         <v>1729</v>
       </c>
       <c r="B131" t="n">
-        <v>524.1119729954571</v>
+        <v>524.1119729954587</v>
       </c>
     </row>
     <row r="132">
@@ -1488,7 +1483,7 @@
         <v>1730</v>
       </c>
       <c r="B132" t="n">
-        <v>531.4471248023127</v>
+        <v>531.4471248023107</v>
       </c>
     </row>
     <row r="133">
@@ -1496,7 +1491,7 @@
         <v>1731</v>
       </c>
       <c r="B133" t="n">
-        <v>538.8826575481482</v>
+        <v>538.8826575481467</v>
       </c>
     </row>
     <row r="134">
@@ -1504,7 +1499,7 @@
         <v>1732</v>
       </c>
       <c r="B134" t="n">
-        <v>546.4199163346955</v>
+        <v>546.4199163346977</v>
       </c>
     </row>
     <row r="135">
@@ -1512,7 +1507,7 @@
         <v>1733</v>
       </c>
       <c r="B135" t="n">
-        <v>554.0602649726111</v>
+        <v>554.0602649726088</v>
       </c>
     </row>
     <row r="136">
@@ -1520,7 +1515,7 @@
         <v>1734</v>
       </c>
       <c r="B136" t="n">
-        <v>561.80508631831</v>
+        <v>561.8050863183116</v>
       </c>
     </row>
     <row r="137">
@@ -1528,7 +1523,7 @@
         <v>1735</v>
       </c>
       <c r="B137" t="n">
-        <v>569.6557826229496</v>
+        <v>569.6557826229517</v>
       </c>
     </row>
     <row r="138">
@@ -1536,7 +1531,7 @@
         <v>1736</v>
       </c>
       <c r="B138" t="n">
-        <v>577.6137758908164</v>
+        <v>577.6137758908121</v>
       </c>
     </row>
     <row r="139">
@@ -1544,7 +1539,7 @@
         <v>1737</v>
       </c>
       <c r="B139" t="n">
-        <v>585.6805082482257</v>
+        <v>585.6805082482291</v>
       </c>
     </row>
     <row r="140">
@@ -1552,7 +1547,7 @@
         <v>1738</v>
       </c>
       <c r="B140" t="n">
-        <v>593.857442324578</v>
+        <v>593.8574423245777</v>
       </c>
     </row>
     <row r="141">
@@ -1560,7 +1555,7 @@
         <v>1739</v>
       </c>
       <c r="B141" t="n">
-        <v>602.1460616444433</v>
+        <v>602.1460616444435</v>
       </c>
     </row>
     <row r="142">
@@ -1568,7 +1563,7 @@
         <v>1740</v>
       </c>
       <c r="B142" t="n">
-        <v>610.5478710316062</v>
+        <v>610.5478710316042</v>
       </c>
     </row>
     <row r="143">
@@ -1576,7 +1571,7 @@
         <v>1741</v>
       </c>
       <c r="B143" t="n">
-        <v>619.0643970266367</v>
+        <v>619.0643970266329</v>
       </c>
     </row>
     <row r="144">
@@ -1584,7 +1579,7 @@
         <v>1742</v>
       </c>
       <c r="B144" t="n">
-        <v>627.6971883162836</v>
+        <v>627.6971883162859</v>
       </c>
     </row>
     <row r="145">
@@ -1592,7 +1587,7 @@
         <v>1743</v>
       </c>
       <c r="B145" t="n">
-        <v>636.4478161778358</v>
+        <v>636.4478161778375</v>
       </c>
     </row>
     <row r="146">
@@ -1600,7 +1595,7 @@
         <v>1744</v>
       </c>
       <c r="B146" t="n">
-        <v>645.3178749361391</v>
+        <v>645.3178749361396</v>
       </c>
     </row>
     <row r="147">
@@ -1608,7 +1603,7 @@
         <v>1745</v>
       </c>
       <c r="B147" t="n">
-        <v>654.3089824369534</v>
+        <v>654.3089824369558</v>
       </c>
     </row>
     <row r="148">
@@ -1616,7 +1611,7 @@
         <v>1746</v>
       </c>
       <c r="B148" t="n">
-        <v>663.4227805339063</v>
+        <v>663.4227805339046</v>
       </c>
     </row>
     <row r="149">
@@ -1624,7 +1619,7 @@
         <v>1747</v>
       </c>
       <c r="B149" t="n">
-        <v>672.660935592407</v>
+        <v>672.660935592404</v>
       </c>
     </row>
     <row r="150">
@@ -1632,7 +1627,7 @@
         <v>1748</v>
       </c>
       <c r="B150" t="n">
-        <v>682.0251390100391</v>
+        <v>682.0251390100398</v>
       </c>
     </row>
     <row r="151">
@@ -1640,7 +1635,7 @@
         <v>1749</v>
       </c>
       <c r="B151" t="n">
-        <v>691.5171077528458</v>
+        <v>691.5171077528478</v>
       </c>
     </row>
     <row r="152">
@@ -1648,7 +1643,7 @@
         <v>1750</v>
       </c>
       <c r="B152" t="n">
-        <v>701.1385849110604</v>
+        <v>701.1385849110605</v>
       </c>
     </row>
     <row r="153">
@@ -1656,7 +1651,7 @@
         <v>1751</v>
       </c>
       <c r="B153" t="n">
-        <v>710.891340271608</v>
+        <v>710.8913402716057</v>
       </c>
     </row>
     <row r="154">
@@ -1664,7 +1659,7 @@
         <v>1752</v>
       </c>
       <c r="B154" t="n">
-        <v>720.777170911177</v>
+        <v>720.7771709111802</v>
       </c>
     </row>
     <row r="155">
@@ -1672,7 +1667,7 @@
         <v>1753</v>
       </c>
       <c r="B155" t="n">
-        <v>730.7979018081403</v>
+        <v>730.7979018081392</v>
       </c>
     </row>
     <row r="156">
@@ -1680,7 +1675,7 @@
         <v>1754</v>
       </c>
       <c r="B156" t="n">
-        <v>740.9553864750442</v>
+        <v>740.955386475046</v>
       </c>
     </row>
     <row r="157">
@@ -1688,7 +1683,7 @@
         <v>1755</v>
       </c>
       <c r="B157" t="n">
-        <v>751.2515076137765</v>
+        <v>751.2515076137735</v>
       </c>
     </row>
     <row r="158">
@@ -1696,7 +1691,7 @@
         <v>1756</v>
       </c>
       <c r="B158" t="n">
-        <v>761.6881777908342</v>
+        <v>761.6881777908343</v>
       </c>
     </row>
     <row r="159">
@@ -1704,7 +1699,7 @@
         <v>1757</v>
       </c>
       <c r="B159" t="n">
-        <v>772.26734013763</v>
+        <v>772.2673401376303</v>
       </c>
     </row>
     <row r="160">
@@ -1712,7 +1707,7 @@
         <v>1758</v>
       </c>
       <c r="B160" t="n">
-        <v>782.9909690732425</v>
+        <v>782.9909690732441</v>
       </c>
     </row>
     <row r="161">
@@ -1720,7 +1715,7 @@
         <v>1759</v>
       </c>
       <c r="B161" t="n">
-        <v>793.8610710525979</v>
+        <v>793.8610710525953</v>
       </c>
     </row>
     <row r="162">
@@ -1728,7 +1723,7 @@
         <v>1760</v>
       </c>
       <c r="B162" t="n">
-        <v>804.879685340145</v>
+        <v>804.8796853401468</v>
       </c>
     </row>
     <row r="163">
@@ -1736,7 +1731,7 @@
         <v>1761</v>
       </c>
       <c r="B163" t="n">
-        <v>816.0488848100359</v>
+        <v>816.0488848100342</v>
       </c>
     </row>
     <row r="164">
@@ -1744,7 +1739,7 @@
         <v>1762</v>
       </c>
       <c r="B164" t="n">
-        <v>827.3707767744206</v>
+        <v>827.3707767744222</v>
       </c>
     </row>
     <row r="165">
@@ -1752,7 +1747,7 @@
         <v>1763</v>
       </c>
       <c r="B165" t="n">
-        <v>838.8475038392205</v>
+        <v>838.8475038392228</v>
       </c>
     </row>
     <row r="166">
@@ -1760,7 +1755,7 @@
         <v>1764</v>
       </c>
       <c r="B166" t="n">
-        <v>850.48124479052</v>
+        <v>850.4812447905188</v>
       </c>
     </row>
     <row r="167">
@@ -1768,7 +1763,7 @@
         <v>1765</v>
       </c>
       <c r="B167" t="n">
-        <v>862.2742155116081</v>
+        <v>862.2742155116086</v>
       </c>
     </row>
     <row r="168">
@@ -1776,7 +1771,7 @@
         <v>1766</v>
       </c>
       <c r="B168" t="n">
-        <v>874.2286699311385</v>
+        <v>874.2286699311361</v>
       </c>
     </row>
     <row r="169">
@@ -1784,7 +1779,7 @@
         <v>1767</v>
       </c>
       <c r="B169" t="n">
-        <v>886.3469010044988</v>
+        <v>886.3469010045</v>
       </c>
     </row>
     <row r="170">
@@ -1792,7 +1787,7 @@
         <v>1768</v>
       </c>
       <c r="B170" t="n">
-        <v>898.6312417297136</v>
+        <v>898.6312417297145</v>
       </c>
     </row>
     <row r="171">
@@ -1800,7 +1795,7 @@
         <v>1769</v>
       </c>
       <c r="B171" t="n">
-        <v>911.0840661979428</v>
+        <v>911.0840661979439</v>
       </c>
     </row>
     <row r="172">
@@ -1808,7 +1803,7 @@
         <v>1770</v>
       </c>
       <c r="B172" t="n">
-        <v>923.7077906807673</v>
+        <v>923.7077906807667</v>
       </c>
     </row>
     <row r="173">
@@ -1816,7 +1811,7 @@
         <v>1771</v>
       </c>
       <c r="B173" t="n">
-        <v>936.5048747553456</v>
+        <v>936.5048747553467</v>
       </c>
     </row>
     <row r="174">
@@ -1824,7 +1819,7 @@
         <v>1772</v>
       </c>
       <c r="B174" t="n">
-        <v>949.4778224685745</v>
+        <v>949.4778224685741</v>
       </c>
     </row>
     <row r="175">
@@ -1832,7 +1827,7 @@
         <v>1773</v>
       </c>
       <c r="B175" t="n">
-        <v>962.6291835414013</v>
+        <v>962.6291835414002</v>
       </c>
     </row>
     <row r="176">
@@ -1840,7 +1835,7 @@
         <v>1774</v>
       </c>
       <c r="B176" t="n">
-        <v>975.9615546151143</v>
+        <v>975.9615546151149</v>
       </c>
     </row>
     <row r="177">
@@ -1848,7 +1843,7 @@
         <v>1775</v>
       </c>
       <c r="B177" t="n">
-        <v>989.4775805409985</v>
+        <v>989.4775805409956</v>
       </c>
     </row>
     <row r="178">
@@ -1856,7 +1851,7 @@
         <v>1776</v>
       </c>
       <c r="B178" t="n">
-        <v>1003.179955714101</v>
+        <v>1003.179955714104</v>
       </c>
     </row>
     <row r="179">
@@ -1864,7 +1859,7 @@
         <v>1777</v>
       </c>
       <c r="B179" t="n">
-        <v>1017.071425453605</v>
+        <v>1017.071425453607</v>
       </c>
     </row>
     <row r="180">
@@ -1880,7 +1875,7 @@
         <v>1779</v>
       </c>
       <c r="B181" t="n">
-        <v>1045.432893142888</v>
+        <v>1045.432893142884</v>
       </c>
     </row>
     <row r="182">
@@ -1888,7 +1883,7 @@
         <v>1780</v>
       </c>
       <c r="B182" t="n">
-        <v>1059.908649447016</v>
+        <v>1059.908649447017</v>
       </c>
     </row>
     <row r="183">
@@ -1896,7 +1891,7 @@
         <v>1781</v>
       </c>
       <c r="B183" t="n">
-        <v>1074.585020133646</v>
+        <v>1074.585020133647</v>
       </c>
     </row>
     <row r="184">
@@ -1904,7 +1899,7 @@
         <v>1782</v>
       </c>
       <c r="B184" t="n">
-        <v>1089.465027563087</v>
+        <v>1089.465027563086</v>
       </c>
     </row>
     <row r="185">
@@ -1912,7 +1907,7 @@
         <v>1783</v>
       </c>
       <c r="B185" t="n">
-        <v>1104.551754354903</v>
+        <v>1104.551754354904</v>
       </c>
     </row>
     <row r="186">
@@ -1920,7 +1915,7 @@
         <v>1784</v>
       </c>
       <c r="B186" t="n">
-        <v>1119.848345134311</v>
+        <v>1119.84834513431</v>
       </c>
     </row>
     <row r="187">
@@ -1928,7 +1923,7 @@
         <v>1785</v>
       </c>
       <c r="B187" t="n">
-        <v>1135.358008337812</v>
+        <v>1135.358008337811</v>
       </c>
     </row>
     <row r="188">
@@ -1944,7 +1939,7 @@
         <v>1787</v>
       </c>
       <c r="B189" t="n">
-        <v>1167.029716084389</v>
+        <v>1167.029716084392</v>
       </c>
     </row>
     <row r="190">
@@ -1952,7 +1947,7 @@
         <v>1788</v>
       </c>
       <c r="B190" t="n">
-        <v>1183.198513673236</v>
+        <v>1183.198513673233</v>
       </c>
     </row>
     <row r="191">
@@ -1960,7 +1955,7 @@
         <v>1789</v>
       </c>
       <c r="B191" t="n">
-        <v>1199.59389383212</v>
+        <v>1199.593893832122</v>
       </c>
     </row>
     <row r="192">
@@ -1968,7 +1963,7 @@
         <v>1790</v>
       </c>
       <c r="B192" t="n">
-        <v>1216.219413335328</v>
+        <v>1216.219413335329</v>
       </c>
     </row>
     <row r="193">
@@ -1976,7 +1971,7 @@
         <v>1791</v>
       </c>
       <c r="B193" t="n">
-        <v>1233.078704945976</v>
+        <v>1233.078704945975</v>
       </c>
     </row>
     <row r="194">
@@ -1984,7 +1979,7 @@
         <v>1792</v>
       </c>
       <c r="B194" t="n">
-        <v>1250.175479685534</v>
+        <v>1250.175479685535</v>
       </c>
     </row>
     <row r="195">
@@ -2016,7 +2011,7 @@
         <v>1796</v>
       </c>
       <c r="B198" t="n">
-        <v>1321.014502842906</v>
+        <v>1321.014502842907</v>
       </c>
     </row>
     <row r="199">
@@ -2024,7 +2019,7 @@
         <v>1797</v>
       </c>
       <c r="B199" t="n">
-        <v>1339.357266018254</v>
+        <v>1339.357266018252</v>
       </c>
     </row>
     <row r="200">
@@ -2032,7 +2027,7 @@
         <v>1798</v>
       </c>
       <c r="B200" t="n">
-        <v>1357.961558596475</v>
+        <v>1357.961558596476</v>
       </c>
     </row>
     <row r="201">
@@ -2040,7 +2035,7 @@
         <v>1799</v>
       </c>
       <c r="B201" t="n">
-        <v>1376.831709443994</v>
+        <v>1376.831709443993</v>
       </c>
     </row>
     <row r="202">
@@ -2048,7 +2043,7 @@
         <v>1800</v>
       </c>
       <c r="B202" t="n">
-        <v>1395.972146678363</v>
+        <v>1395.972146678365</v>
       </c>
     </row>
     <row r="203">
@@ -2056,7 +2051,7 @@
         <v>1801</v>
       </c>
       <c r="B203" t="n">
-        <v>1415.38740067499</v>
+        <v>1415.387400674989</v>
       </c>
     </row>
     <row r="204">
@@ -2064,7 +2059,7 @@
         <v>1802</v>
       </c>
       <c r="B204" t="n">
-        <v>1435.08210716625</v>
+        <v>1435.082107166249</v>
       </c>
     </row>
     <row r="205">
@@ -2080,7 +2075,7 @@
         <v>1804</v>
       </c>
       <c r="B206" t="n">
-        <v>1475.32896660098</v>
+        <v>1475.328966600979</v>
       </c>
     </row>
     <row r="207">
@@ -2088,7 +2083,7 @@
         <v>1805</v>
       </c>
       <c r="B207" t="n">
-        <v>1495.890947008551</v>
+        <v>1495.890947008554</v>
       </c>
     </row>
     <row r="208">
@@ -2096,7 +2091,7 @@
         <v>1806</v>
       </c>
       <c r="B208" t="n">
-        <v>1516.75204170992</v>
+        <v>1516.752041709919</v>
       </c>
     </row>
     <row r="209">
@@ -2104,7 +2099,7 @@
         <v>1807</v>
       </c>
       <c r="B209" t="n">
-        <v>1537.917463051759</v>
+        <v>1537.917463051758</v>
       </c>
     </row>
     <row r="210">
@@ -2112,7 +2107,7 @@
         <v>1808</v>
       </c>
       <c r="B210" t="n">
-        <v>1559.392549363573</v>
+        <v>1559.392549363574</v>
       </c>
     </row>
     <row r="211">
@@ -2136,7 +2131,7 @@
         <v>1811</v>
       </c>
       <c r="B213" t="n">
-        <v>1625.731151553187</v>
+        <v>1625.731151553189</v>
       </c>
     </row>
     <row r="214">
@@ -2144,7 +2139,7 @@
         <v>1812</v>
       </c>
       <c r="B214" t="n">
-        <v>1648.500935687557</v>
+        <v>1648.500935687556</v>
       </c>
     </row>
     <row r="215">
@@ -2152,7 +2147,7 @@
         <v>1813</v>
       </c>
       <c r="B215" t="n">
-        <v>1671.609102676117</v>
+        <v>1671.60910267612</v>
       </c>
     </row>
     <row r="216">
@@ -2160,7 +2155,7 @@
         <v>1814</v>
       </c>
       <c r="B216" t="n">
-        <v>1695.061830156622</v>
+        <v>1695.06183015662</v>
       </c>
     </row>
     <row r="217">
@@ -2168,7 +2163,7 @@
         <v>1815</v>
       </c>
       <c r="B217" t="n">
-        <v>1718.865450573957</v>
+        <v>1718.865450573958</v>
       </c>
     </row>
     <row r="218">
@@ -2192,7 +2187,7 @@
         <v>1818</v>
       </c>
       <c r="B220" t="n">
-        <v>1792.447412607094</v>
+        <v>1792.447412607095</v>
       </c>
     </row>
     <row r="221">
@@ -2200,7 +2195,7 @@
         <v>1819</v>
       </c>
       <c r="B221" t="n">
-        <v>1817.72118743527</v>
+        <v>1817.721187435269</v>
       </c>
     </row>
     <row r="222">
@@ -2224,7 +2219,7 @@
         <v>1822</v>
       </c>
       <c r="B224" t="n">
-        <v>1895.882391086762</v>
+        <v>1895.882391086765</v>
       </c>
     </row>
     <row r="225">
@@ -2232,7 +2227,7 @@
         <v>1823</v>
       </c>
       <c r="B225" t="n">
-        <v>1922.741258193503</v>
+        <v>1922.741258193502</v>
       </c>
     </row>
     <row r="226">
@@ -2256,7 +2251,7 @@
         <v>1826</v>
       </c>
       <c r="B228" t="n">
-        <v>2005.84452263001</v>
+        <v>2005.844522630011</v>
       </c>
     </row>
     <row r="229">
@@ -2264,7 +2259,7 @@
         <v>1827</v>
       </c>
       <c r="B229" t="n">
-        <v>2034.415709583546</v>
+        <v>2034.415709583545</v>
       </c>
     </row>
     <row r="230">
@@ -2272,7 +2267,7 @@
         <v>1828</v>
       </c>
       <c r="B230" t="n">
-        <v>2063.436430541284</v>
+        <v>2063.436430541285</v>
       </c>
     </row>
     <row r="231">
@@ -2280,7 +2275,7 @@
         <v>1829</v>
       </c>
       <c r="B231" t="n">
-        <v>2092.91571618503</v>
+        <v>2092.915716185031</v>
       </c>
     </row>
     <row r="232">
@@ -2288,7 +2283,7 @@
         <v>1830</v>
       </c>
       <c r="B232" t="n">
-        <v>2122.862832327712</v>
+        <v>2122.862832327711</v>
       </c>
     </row>
     <row r="233">
@@ -2296,7 +2291,7 @@
         <v>1831</v>
       </c>
       <c r="B233" t="n">
-        <v>2153.287286128975</v>
+        <v>2153.287286128976</v>
       </c>
     </row>
     <row r="234">
@@ -2320,7 +2315,7 @@
         <v>1834</v>
       </c>
       <c r="B236" t="n">
-        <v>2247.523498367088</v>
+        <v>2247.523498367089</v>
       </c>
     </row>
     <row r="237">
@@ -2328,7 +2323,7 @@
         <v>1835</v>
       </c>
       <c r="B237" t="n">
-        <v>2279.957423932921</v>
+        <v>2279.95742393292</v>
       </c>
     </row>
     <row r="238">
@@ -2344,7 +2339,7 @@
         <v>1837</v>
       </c>
       <c r="B239" t="n">
-        <v>2346.422517904958</v>
+        <v>2346.422517904957</v>
       </c>
     </row>
     <row r="240">
@@ -2376,7 +2371,7 @@
         <v>1841</v>
       </c>
       <c r="B243" t="n">
-        <v>2486.062407375511</v>
+        <v>2486.062407375509</v>
       </c>
     </row>
     <row r="244">
@@ -2384,7 +2379,7 @@
         <v>1842</v>
       </c>
       <c r="B244" t="n">
-        <v>2522.440546392845</v>
+        <v>2522.440546392847</v>
       </c>
     </row>
     <row r="245">
@@ -2392,7 +2387,7 @@
         <v>1843</v>
       </c>
       <c r="B245" t="n">
-        <v>2559.431306207415</v>
+        <v>2559.431306207412</v>
       </c>
     </row>
     <row r="246">
@@ -2400,7 +2395,7 @@
         <v>1844</v>
       </c>
       <c r="B246" t="n">
-        <v>2597.047931161764</v>
+        <v>2597.047931161766</v>
       </c>
     </row>
     <row r="247">
@@ -2408,7 +2403,7 @@
         <v>1845</v>
       </c>
       <c r="B247" t="n">
-        <v>2635.304000738366</v>
+        <v>2635.304000738364</v>
       </c>
     </row>
     <row r="248">
@@ -2416,7 +2411,7 @@
         <v>1846</v>
       </c>
       <c r="B248" t="n">
-        <v>2674.213436377845</v>
+        <v>2674.213436377846</v>
       </c>
     </row>
     <row r="249">
@@ -2432,7 +2427,7 @@
         <v>1848</v>
       </c>
       <c r="B250" t="n">
-        <v>2754.049841927688</v>
+        <v>2754.049841927689</v>
       </c>
     </row>
     <row r="251">
@@ -2440,7 +2435,7 @@
         <v>1849</v>
       </c>
       <c r="B251" t="n">
-        <v>2795.006425041548</v>
+        <v>2795.006425041549</v>
       </c>
     </row>
     <row r="252">
@@ -2448,7 +2443,7 @@
         <v>1850</v>
       </c>
       <c r="B252" t="n">
-        <v>2836.675613733793</v>
+        <v>2836.675613733792</v>
       </c>
     </row>
     <row r="253">
@@ -2480,7 +2475,7 @@
         <v>1854</v>
       </c>
       <c r="B256" t="n">
-        <v>3010.798798198696</v>
+        <v>3010.798798198698</v>
       </c>
     </row>
     <row r="257">
@@ -2496,7 +2491,7 @@
         <v>1856</v>
       </c>
       <c r="B258" t="n">
-        <v>3102.563413155296</v>
+        <v>3102.563413155297</v>
       </c>
     </row>
     <row r="259">
@@ -2512,7 +2507,7 @@
         <v>1858</v>
       </c>
       <c r="B260" t="n">
-        <v>3197.652164028388</v>
+        <v>3197.65216402839</v>
       </c>
     </row>
     <row r="261">
@@ -2520,7 +2515,7 @@
         <v>1859</v>
       </c>
       <c r="B261" t="n">
-        <v>3246.489648205602</v>
+        <v>3246.489648205598</v>
       </c>
     </row>
     <row r="262">
@@ -2528,7 +2523,7 @@
         <v>1860</v>
       </c>
       <c r="B262" t="n">
-        <v>3296.214875315532</v>
+        <v>3296.214875315534</v>
       </c>
     </row>
     <row r="263">
@@ -2536,7 +2531,7 @@
         <v>1861</v>
       </c>
       <c r="B263" t="n">
-        <v>3346.847629622289</v>
+        <v>3346.84762962229</v>
       </c>
     </row>
     <row r="264">
@@ -2544,7 +2539,7 @@
         <v>1862</v>
       </c>
       <c r="B264" t="n">
-        <v>3398.4081243968</v>
+        <v>3398.408124396798</v>
       </c>
     </row>
     <row r="265">
@@ -2552,7 +2547,7 @@
         <v>1863</v>
       </c>
       <c r="B265" t="n">
-        <v>3450.917004559501</v>
+        <v>3450.917004559503</v>
       </c>
     </row>
     <row r="266">
@@ -2560,7 +2555,7 @@
         <v>1864</v>
       </c>
       <c r="B266" t="n">
-        <v>3504.395348767686</v>
+        <v>3504.395348767688</v>
       </c>
     </row>
     <row r="267">
@@ -2568,7 +2563,7 @@
         <v>1865</v>
       </c>
       <c r="B267" t="n">
-        <v>3558.864670923912</v>
+        <v>3558.864670923911</v>
       </c>
     </row>
     <row r="268">
@@ -2576,7 +2571,7 @@
         <v>1866</v>
       </c>
       <c r="B268" t="n">
-        <v>3614.346921043361</v>
+        <v>3614.346921043358</v>
       </c>
     </row>
     <row r="269">
@@ -2592,7 +2587,7 @@
         <v>1868</v>
       </c>
       <c r="B270" t="n">
-        <v>3728.440186154294</v>
+        <v>3728.440186154292</v>
       </c>
     </row>
     <row r="271">
@@ -2608,7 +2603,7 @@
         <v>1870</v>
       </c>
       <c r="B272" t="n">
-        <v>3846.859454623673</v>
+        <v>3846.859454623676</v>
       </c>
     </row>
     <row r="273">
@@ -2616,7 +2611,7 @@
         <v>1871</v>
       </c>
       <c r="B273" t="n">
-        <v>3907.750828873698</v>
+        <v>3907.750828873697</v>
       </c>
     </row>
     <row r="274">
@@ -2624,7 +2619,7 @@
         <v>1872</v>
       </c>
       <c r="B274" t="n">
-        <v>3969.795945326934</v>
+        <v>3969.795945326938</v>
       </c>
     </row>
     <row r="275">
@@ -2632,7 +2627,7 @@
         <v>1873</v>
       </c>
       <c r="B275" t="n">
-        <v>4033.01976694519</v>
+        <v>4033.019766945186</v>
       </c>
     </row>
     <row r="276">
@@ -2656,7 +2651,7 @@
         <v>1876</v>
       </c>
       <c r="B278" t="n">
-        <v>4230.019255978004</v>
+        <v>4230.019255978006</v>
       </c>
     </row>
     <row r="279">
@@ -2664,7 +2659,7 @@
         <v>1877</v>
       </c>
       <c r="B279" t="n">
-        <v>4298.215689232204</v>
+        <v>4298.215689232205</v>
       </c>
     </row>
     <row r="280">
@@ -2672,7 +2667,7 @@
         <v>1878</v>
       </c>
       <c r="B280" t="n">
-        <v>4367.721686620738</v>
+        <v>4367.721686620742</v>
       </c>
     </row>
     <row r="281">
@@ -2680,7 +2675,7 @@
         <v>1879</v>
       </c>
       <c r="B281" t="n">
-        <v>4438.564559906713</v>
+        <v>4438.56455990671</v>
       </c>
     </row>
     <row r="282">
@@ -2696,7 +2691,7 @@
         <v>1881</v>
       </c>
       <c r="B283" t="n">
-        <v>4584.371918546121</v>
+        <v>4584.37191854612</v>
       </c>
     </row>
     <row r="284">
@@ -2704,7 +2699,7 @@
         <v>1882</v>
       </c>
       <c r="B284" t="n">
-        <v>4659.392716228926</v>
+        <v>4659.39271622893</v>
       </c>
     </row>
     <row r="285">
@@ -2712,7 +2707,7 @@
         <v>1883</v>
       </c>
       <c r="B285" t="n">
-        <v>4735.862978200563</v>
+        <v>4735.862978200562</v>
       </c>
     </row>
     <row r="286">
@@ -2720,7 +2715,7 @@
         <v>1884</v>
       </c>
       <c r="B286" t="n">
-        <v>4813.811596072741</v>
+        <v>4813.811596072739</v>
       </c>
     </row>
     <row r="287">
@@ -2728,7 +2723,7 @@
         <v>1885</v>
       </c>
       <c r="B287" t="n">
-        <v>4893.267716678707</v>
+        <v>4893.267716678711</v>
       </c>
     </row>
     <row r="288">
@@ -2736,7 +2731,7 @@
         <v>1886</v>
       </c>
       <c r="B288" t="n">
-        <v>4974.260717437577</v>
+        <v>4974.260717437573</v>
       </c>
     </row>
     <row r="289">
@@ -2752,7 +2747,7 @@
         <v>1888</v>
       </c>
       <c r="B290" t="n">
-        <v>5140.975859838763</v>
+        <v>5140.975859838764</v>
       </c>
     </row>
     <row r="291">
@@ -2760,7 +2755,7 @@
         <v>1889</v>
       </c>
       <c r="B291" t="n">
-        <v>5226.757658488957</v>
+        <v>5226.757658488958</v>
       </c>
     </row>
     <row r="292">
@@ -2768,7 +2763,7 @@
         <v>1890</v>
       </c>
       <c r="B292" t="n">
-        <v>5314.195587050459</v>
+        <v>5314.195587050457</v>
       </c>
     </row>
     <row r="293">
@@ -2776,7 +2771,7 @@
         <v>1891</v>
       </c>
       <c r="B293" t="n">
-        <v>5403.319732184989</v>
+        <v>5403.31973218499</v>
       </c>
     </row>
     <row r="294">
@@ -2784,7 +2779,7 @@
         <v>1892</v>
       </c>
       <c r="B294" t="n">
-        <v>5494.160217750816</v>
+        <v>5494.160217750812</v>
       </c>
     </row>
     <row r="295">
@@ -2792,7 +2787,7 @@
         <v>1893</v>
       </c>
       <c r="B295" t="n">
-        <v>5586.747164252403</v>
+        <v>5586.747164252401</v>
       </c>
     </row>
     <row r="296">
@@ -2800,7 +2795,7 @@
         <v>1894</v>
       </c>
       <c r="B296" t="n">
-        <v>5681.110645724091</v>
+        <v>5681.110645724096</v>
       </c>
     </row>
     <row r="297">
@@ -2808,7 +2803,7 @@
         <v>1895</v>
       </c>
       <c r="B297" t="n">
-        <v>5777.280643969929</v>
+        <v>5777.280643969931</v>
       </c>
     </row>
     <row r="298">
@@ -2816,7 +2811,7 @@
         <v>1896</v>
       </c>
       <c r="B298" t="n">
-        <v>5875.287000096289</v>
+        <v>5875.287000096285</v>
       </c>
     </row>
     <row r="299">
@@ -2824,7 +2819,7 @@
         <v>1897</v>
       </c>
       <c r="B299" t="n">
-        <v>5975.15936327563</v>
+        <v>5975.159363275632</v>
       </c>
     </row>
     <row r="300">
@@ -2848,7 +2843,7 @@
         <v>1900</v>
       </c>
       <c r="B302" t="n">
-        <v>6286.264952408994</v>
+        <v>6286.264952408996</v>
       </c>
     </row>
     <row r="303">
@@ -2856,7 +2851,7 @@
         <v>1901</v>
       </c>
       <c r="B303" t="n">
-        <v>6393.892043996393</v>
+        <v>6393.892043996397</v>
       </c>
     </row>
     <row r="304">
@@ -2872,7 +2867,7 @@
         <v>1903</v>
       </c>
       <c r="B305" t="n">
-        <v>6615.201627652987</v>
+        <v>6615.201627652982</v>
       </c>
     </row>
     <row r="306">
@@ -2880,7 +2875,7 @@
         <v>1904</v>
       </c>
       <c r="B306" t="n">
-        <v>6728.938007662756</v>
+        <v>6728.938007662755</v>
       </c>
     </row>
     <row r="307">
@@ -2896,7 +2891,7 @@
         <v>1906</v>
       </c>
       <c r="B308" t="n">
-        <v>6962.703469656963</v>
+        <v>6962.703469656964</v>
       </c>
     </row>
     <row r="309">
@@ -2912,7 +2907,7 @@
         <v>1908</v>
       </c>
       <c r="B310" t="n">
-        <v>7205.022356469954</v>
+        <v>7205.022356469952</v>
       </c>
     </row>
     <row r="311">
@@ -2920,7 +2915,7 @@
         <v>1909</v>
       </c>
       <c r="B311" t="n">
-        <v>7329.446951129226</v>
+        <v>7329.446951129231</v>
       </c>
     </row>
     <row r="312">
@@ -2928,7 +2923,7 @@
         <v>1910</v>
       </c>
       <c r="B312" t="n">
-        <v>7456.076895219396</v>
+        <v>7456.076895219392</v>
       </c>
     </row>
     <row r="313">
@@ -2936,7 +2931,7 @@
         <v>1911</v>
       </c>
       <c r="B313" t="n">
-        <v>7584.932123300205</v>
+        <v>7584.932123300207</v>
       </c>
     </row>
     <row r="314">
@@ -2944,7 +2939,7 @@
         <v>1912</v>
       </c>
       <c r="B314" t="n">
-        <v>7716.031254217874</v>
+        <v>7716.031254217876</v>
       </c>
     </row>
     <row r="315">
@@ -2952,7 +2947,7 @@
         <v>1913</v>
       </c>
       <c r="B315" t="n">
-        <v>7849.391492773238</v>
+        <v>7849.391492773237</v>
       </c>
     </row>
     <row r="316">
@@ -2960,7 +2955,7 @@
         <v>1914</v>
       </c>
       <c r="B316" t="n">
-        <v>7985.028528794963</v>
+        <v>7985.028528794966</v>
       </c>
     </row>
     <row r="317">
@@ -2968,7 +2963,7 @@
         <v>1915</v>
       </c>
       <c r="B317" t="n">
-        <v>8122.956433740366</v>
+        <v>8122.956433740364</v>
       </c>
     </row>
     <row r="318">
@@ -2984,7 +2979,7 @@
         <v>1917</v>
       </c>
       <c r="B319" t="n">
-        <v>8405.732407908376</v>
+        <v>8405.732407908374</v>
       </c>
     </row>
     <row r="320">
@@ -2992,7 +2987,7 @@
         <v>1918</v>
       </c>
       <c r="B320" t="n">
-        <v>8550.599566078847</v>
+        <v>8550.599566078849</v>
       </c>
     </row>
     <row r="321">
@@ -3000,7 +2995,7 @@
         <v>1919</v>
       </c>
       <c r="B321" t="n">
-        <v>8697.795549557288</v>
+        <v>8697.795549557284</v>
       </c>
     </row>
     <row r="322">
@@ -3016,7 +3011,7 @@
         <v>1921</v>
       </c>
       <c r="B323" t="n">
-        <v>8999.189124665238</v>
+        <v>8999.189124665245</v>
       </c>
     </row>
     <row r="324">
@@ -3024,7 +3019,7 @@
         <v>1922</v>
       </c>
       <c r="B324" t="n">
-        <v>9153.388463745216</v>
+        <v>9153.388463745212</v>
       </c>
     </row>
     <row r="325">
@@ -3056,7 +3051,7 @@
         <v>1926</v>
       </c>
       <c r="B328" t="n">
-        <v>9793.438172369777</v>
+        <v>9793.438172369772</v>
       </c>
     </row>
     <row r="329">
@@ -3120,7 +3115,7 @@
         <v>1934</v>
       </c>
       <c r="B336" t="n">
-        <v>11182.00695127286</v>
+        <v>11182.00695127287</v>
       </c>
     </row>
     <row r="337">
@@ -3152,7 +3147,7 @@
         <v>1938</v>
       </c>
       <c r="B340" t="n">
-        <v>11926.77876925262</v>
+        <v>11926.77876925261</v>
       </c>
     </row>
     <row r="341">
@@ -3176,7 +3171,7 @@
         <v>1941</v>
       </c>
       <c r="B343" t="n">
-        <v>12504.97548019666</v>
+        <v>12504.97548019665</v>
       </c>
     </row>
     <row r="344">
@@ -3184,7 +3179,7 @@
         <v>1942</v>
       </c>
       <c r="B344" t="n">
-        <v>12701.10619833372</v>
+        <v>12701.10619833373</v>
       </c>
     </row>
     <row r="345">
@@ -3192,7 +3187,7 @@
         <v>1943</v>
       </c>
       <c r="B345" t="n">
-        <v>12898.81426611829</v>
+        <v>12898.81426611828</v>
       </c>
     </row>
     <row r="346">
@@ -3200,7 +3195,7 @@
         <v>1944</v>
       </c>
       <c r="B346" t="n">
-        <v>13098.0199454296</v>
+        <v>13098.01994542961</v>
       </c>
     </row>
     <row r="347">
@@ -3208,7 +3203,7 @@
         <v>1945</v>
       </c>
       <c r="B347" t="n">
-        <v>13298.63905953864</v>
+        <v>13298.63905953865</v>
       </c>
     </row>
     <row r="348">
@@ -3216,7 +3211,7 @@
         <v>1946</v>
       </c>
       <c r="B348" t="n">
-        <v>13500.58298080239</v>
+        <v>13500.58298080238</v>
       </c>
     </row>
     <row r="349">
@@ -3224,7 +3219,7 @@
         <v>1947</v>
       </c>
       <c r="B349" t="n">
-        <v>13703.75862924124</v>
+        <v>13703.75862924125</v>
       </c>
     </row>
     <row r="350">
@@ -3264,7 +3259,7 @@
         <v>1952</v>
       </c>
       <c r="B354" t="n">
-        <v>14734.54557214521</v>
+        <v>14734.5455721452</v>
       </c>
     </row>
     <row r="355">
@@ -3272,7 +3267,7 @@
         <v>1953</v>
       </c>
       <c r="B355" t="n">
-        <v>14942.91034525892</v>
+        <v>14942.91034525894</v>
       </c>
     </row>
     <row r="356">
@@ -3280,7 +3275,7 @@
         <v>1954</v>
       </c>
       <c r="B356" t="n">
-        <v>15151.73299270215</v>
+        <v>15151.73299270214</v>
       </c>
     </row>
     <row r="357">
@@ -3304,7 +3299,7 @@
         <v>1957</v>
       </c>
       <c r="B359" t="n">
-        <v>15779.65578280739</v>
+        <v>15779.65578280738</v>
       </c>
     </row>
     <row r="360">
@@ -3320,7 +3315,7 @@
         <v>1959</v>
       </c>
       <c r="B361" t="n">
-        <v>16198.1249417172</v>
+        <v>16198.12494171719</v>
       </c>
     </row>
     <row r="362">
@@ -3328,7 +3323,7 @@
         <v>1960</v>
       </c>
       <c r="B362" t="n">
-        <v>16406.88962426119</v>
+        <v>16406.8896242612</v>
       </c>
     </row>
     <row r="363">
@@ -3336,7 +3331,7 @@
         <v>1961</v>
       </c>
       <c r="B363" t="n">
-        <v>16615.14404920065</v>
+        <v>16615.14404920066</v>
       </c>
     </row>
     <row r="364">
@@ -3344,7 +3339,7 @@
         <v>1962</v>
       </c>
       <c r="B364" t="n">
-        <v>16822.736768188</v>
+        <v>16822.73676818798</v>
       </c>
     </row>
     <row r="365">
@@ -3352,7 +3347,7 @@
         <v>1963</v>
       </c>
       <c r="B365" t="n">
-        <v>17029.51362208925</v>
+        <v>17029.51362208926</v>
       </c>
     </row>
     <row r="366">
@@ -3360,7 +3355,7 @@
         <v>1964</v>
       </c>
       <c r="B366" t="n">
-        <v>17235.31796648459</v>
+        <v>17235.31796648458</v>
       </c>
     </row>
     <row r="367">
@@ -3376,7 +3371,7 @@
         <v>1966</v>
       </c>
       <c r="B368" t="n">
-        <v>17643.37156454247</v>
+        <v>17643.37156454248</v>
       </c>
     </row>
     <row r="369">
@@ -3392,7 +3387,7 @@
         <v>1968</v>
       </c>
       <c r="B370" t="n">
-        <v>18045.60405756398</v>
+        <v>18045.60405756397</v>
       </c>
     </row>
     <row r="371">
@@ -3400,7 +3395,7 @@
         <v>1969</v>
       </c>
       <c r="B371" t="n">
-        <v>18244.1265525408</v>
+        <v>18244.12655254082</v>
       </c>
     </row>
     <row r="372">
@@ -3416,7 +3411,7 @@
         <v>1971</v>
       </c>
       <c r="B373" t="n">
-        <v>18635.15362002793</v>
+        <v>18635.15362002794</v>
       </c>
     </row>
     <row r="374">
@@ -3432,7 +3427,7 @@
         <v>1973</v>
       </c>
       <c r="B375" t="n">
-        <v>19017.04424010006</v>
+        <v>19017.04424010005</v>
       </c>
     </row>
     <row r="376">
@@ -3440,7 +3435,7 @@
         <v>1974</v>
       </c>
       <c r="B376" t="n">
-        <v>19204.14635006029</v>
+        <v>19204.14635006028</v>
       </c>
     </row>
     <row r="377">
@@ -3456,7 +3451,7 @@
         <v>1976</v>
       </c>
       <c r="B378" t="n">
-        <v>19569.83504928208</v>
+        <v>19569.83504928209</v>
       </c>
     </row>
     <row r="379">
@@ -3472,7 +3467,7 @@
         <v>1978</v>
       </c>
       <c r="B380" t="n">
-        <v>19923.07776626086</v>
+        <v>19923.07776626085</v>
       </c>
     </row>
     <row r="381">
@@ -3480,7 +3475,7 @@
         <v>1979</v>
       </c>
       <c r="B381" t="n">
-        <v>20094.62875766506</v>
+        <v>20094.62875766508</v>
       </c>
     </row>
     <row r="382">
@@ -3488,7 +3483,7 @@
         <v>1980</v>
       </c>
       <c r="B382" t="n">
-        <v>20262.58883485329</v>
+        <v>20262.58883485328</v>
       </c>
     </row>
     <row r="383">
@@ -3496,7 +3491,7 @@
         <v>1981</v>
       </c>
       <c r="B383" t="n">
-        <v>20426.80328500544</v>
+        <v>20426.80328500543</v>
       </c>
     </row>
     <row r="384">
@@ -3520,7 +3515,7 @@
         <v>1984</v>
       </c>
       <c r="B386" t="n">
-        <v>20895.47307971387</v>
+        <v>20895.47307971388</v>
       </c>
     </row>
     <row r="387">
@@ -3544,7 +3539,7 @@
         <v>1987</v>
       </c>
       <c r="B389" t="n">
-        <v>21325.18949526379</v>
+        <v>21325.1894952638</v>
       </c>
     </row>
     <row r="390">
@@ -3552,7 +3547,7 @@
         <v>1988</v>
       </c>
       <c r="B390" t="n">
-        <v>21459.14676757983</v>
+        <v>21459.1467675798</v>
       </c>
     </row>
     <row r="391">
@@ -3560,7 +3555,7 @@
         <v>1989</v>
       </c>
       <c r="B391" t="n">
-        <v>21588.25595623844</v>
+        <v>21588.25595623847</v>
       </c>
     </row>
     <row r="392">
@@ -3600,7 +3595,7 @@
         <v>1994</v>
       </c>
       <c r="B396" t="n">
-        <v>22157.20563893934</v>
+        <v>22157.20563893936</v>
       </c>
     </row>
     <row r="397">
@@ -3608,7 +3603,7 @@
         <v>1995</v>
       </c>
       <c r="B397" t="n">
-        <v>22254.98491412384</v>
+        <v>22254.98491412383</v>
       </c>
     </row>
     <row r="398">
@@ -3616,7 +3611,7 @@
         <v>1996</v>
       </c>
       <c r="B398" t="n">
-        <v>22347.22633958184</v>
+        <v>22347.22633958183</v>
       </c>
     </row>
     <row r="399">
@@ -3624,7 +3619,7 @@
         <v>1997</v>
       </c>
       <c r="B399" t="n">
-        <v>22433.85703499136</v>
+        <v>22433.85703499137</v>
       </c>
     </row>
     <row r="400">
@@ -3632,7 +3627,7 @@
         <v>1998</v>
       </c>
       <c r="B400" t="n">
-        <v>22514.81098905553</v>
+        <v>22514.81098905552</v>
       </c>
     </row>
     <row r="401">
@@ -3648,7 +3643,7 @@
         <v>2000</v>
       </c>
       <c r="B402" t="n">
-        <v>22659.4595844642</v>
+        <v>22659.45958446421</v>
       </c>
     </row>
     <row r="403">
@@ -3656,7 +3651,7 @@
         <v>2001</v>
       </c>
       <c r="B403" t="n">
-        <v>22723.05739746073</v>
+        <v>22723.05739746074</v>
       </c>
     </row>
     <row r="404">
@@ -3672,7 +3667,7 @@
         <v>2003</v>
       </c>
       <c r="B405" t="n">
-        <v>22832.61168975728</v>
+        <v>22832.61168975727</v>
       </c>
     </row>
     <row r="406">
@@ -3688,7 +3683,7 @@
         <v>2005</v>
       </c>
       <c r="B407" t="n">
-        <v>22918.4770408211</v>
+        <v>22918.47704082112</v>
       </c>
     </row>
     <row r="408">
@@ -3696,7 +3691,7 @@
         <v>2006</v>
       </c>
       <c r="B408" t="n">
-        <v>22952.49064301148</v>
+        <v>22952.49064301149</v>
       </c>
     </row>
     <row r="409">
@@ -3712,7 +3707,7 @@
         <v>2008</v>
       </c>
       <c r="B410" t="n">
-        <v>23002.6706659736</v>
+        <v>23002.67066597359</v>
       </c>
     </row>
     <row r="411">
@@ -3720,7 +3715,7 @@
         <v>2009</v>
       </c>
       <c r="B411" t="n">
-        <v>23018.8545609114</v>
+        <v>23018.85456091141</v>
       </c>
     </row>
     <row r="412">
@@ -3728,7 +3723,7 @@
         <v>2010</v>
       </c>
       <c r="B412" t="n">
-        <v>23029.12419832208</v>
+        <v>23029.1241983221</v>
       </c>
     </row>
     <row r="413">
@@ -3736,7 +3731,7 @@
         <v>2011</v>
       </c>
       <c r="B413" t="n">
-        <v>23033.50540186868</v>
+        <v>23033.50540186867</v>
       </c>
     </row>
     <row r="414">
@@ -3776,7 +3771,7 @@
         <v>2016</v>
       </c>
       <c r="B418" t="n">
-        <v>22968.44263500309</v>
+        <v>22968.4426350031</v>
       </c>
     </row>
     <row r="419">
@@ -3784,7 +3779,7 @@
         <v>2017</v>
       </c>
       <c r="B419" t="n">
-        <v>22938.39443869</v>
+        <v>22938.39443868999</v>
       </c>
     </row>
     <row r="420">
@@ -3792,7 +3787,7 @@
         <v>2018</v>
       </c>
       <c r="B420" t="n">
-        <v>22902.81434368177</v>
+        <v>22902.81434368179</v>
       </c>
     </row>
     <row r="421">
@@ -3808,7 +3803,7 @@
         <v>2020</v>
       </c>
       <c r="B422" t="n">
-        <v>22815.35871860306</v>
+        <v>22815.35871860305</v>
       </c>
     </row>
     <row r="423">
@@ -3816,7 +3811,7 @@
         <v>2021</v>
       </c>
       <c r="B423" t="n">
-        <v>22763.64576706128</v>
+        <v>22763.64576706125</v>
       </c>
     </row>
     <row r="424">
@@ -3824,7 +3819,7 @@
         <v>2022</v>
       </c>
       <c r="B424" t="n">
-        <v>22706.72559614126</v>
+        <v>22706.7255961413</v>
       </c>
     </row>
     <row r="425">
@@ -3832,7 +3827,7 @@
         <v>2023</v>
       </c>
       <c r="B425" t="n">
-        <v>22644.69085798399</v>
+        <v>22644.69085798397</v>
       </c>
     </row>
     <row r="426">
@@ -3840,7 +3835,7 @@
         <v>2024</v>
       </c>
       <c r="B426" t="n">
-        <v>22577.63830100781</v>
+        <v>22577.63830100782</v>
       </c>
     </row>
     <row r="427">
@@ -3848,7 +3843,7 @@
         <v>2025</v>
       </c>
       <c r="B427" t="n">
-        <v>22505.66851450765</v>
+        <v>22505.66851450764</v>
       </c>
     </row>
     <row r="428">
@@ -3864,7 +3859,7 @@
         <v>2027</v>
       </c>
       <c r="B429" t="n">
-        <v>22347.3972654653</v>
+        <v>22347.39726546531</v>
       </c>
     </row>
     <row r="430">
@@ -3880,7 +3875,7 @@
         <v>2029</v>
       </c>
       <c r="B431" t="n">
-        <v>22170.74880978535</v>
+        <v>22170.74880978533</v>
       </c>
     </row>
     <row r="432">
@@ -3912,7 +3907,7 @@
         <v>2033</v>
       </c>
       <c r="B435" t="n">
-        <v>21766.02313780466</v>
+        <v>21766.02313780467</v>
       </c>
     </row>
     <row r="436">
@@ -3936,7 +3931,7 @@
         <v>2036</v>
       </c>
       <c r="B438" t="n">
-        <v>21421.30015198784</v>
+        <v>21421.30015198785</v>
       </c>
     </row>
     <row r="439">
@@ -3944,7 +3939,7 @@
         <v>2037</v>
       </c>
       <c r="B439" t="n">
-        <v>21299.21516352591</v>
+        <v>21299.21516352593</v>
       </c>
     </row>
     <row r="440">
@@ -3952,7 +3947,7 @@
         <v>2038</v>
       </c>
       <c r="B440" t="n">
-        <v>21173.75315817914</v>
+        <v>21173.75315817912</v>
       </c>
     </row>
     <row r="441">
@@ -3960,7 +3955,7 @@
         <v>2039</v>
       </c>
       <c r="B441" t="n">
-        <v>21045.04182346793</v>
+        <v>21045.04182346791</v>
       </c>
     </row>
     <row r="442">
@@ -3968,7 +3963,7 @@
         <v>2040</v>
       </c>
       <c r="B442" t="n">
-        <v>20913.2090137001</v>
+        <v>20913.20901370011</v>
       </c>
     </row>
     <row r="443">
@@ -3976,7 +3971,7 @@
         <v>2041</v>
       </c>
       <c r="B443" t="n">
-        <v>20778.38254563108</v>
+        <v>20778.38254563107</v>
       </c>
     </row>
     <row r="444">
@@ -3992,7 +3987,7 @@
         <v>2043</v>
       </c>
       <c r="B445" t="n">
-        <v>20500.25854211265</v>
+        <v>20500.25854211266</v>
       </c>
     </row>
     <row r="446">
@@ -4000,7 +3995,7 @@
         <v>2044</v>
       </c>
       <c r="B446" t="n">
-        <v>20357.21472285337</v>
+        <v>20357.21472285339</v>
       </c>
     </row>
     <row r="447">
@@ -4008,7 +4003,7 @@
         <v>2045</v>
       </c>
       <c r="B447" t="n">
-        <v>20211.68432502238</v>
+        <v>20211.68432502236</v>
       </c>
     </row>
     <row r="448">
@@ -4016,7 +4011,7 @@
         <v>2046</v>
       </c>
       <c r="B448" t="n">
-        <v>20063.79219039305</v>
+        <v>20063.79219039304</v>
       </c>
     </row>
     <row r="449">
@@ -4040,7 +4035,7 @@
         <v>2049</v>
       </c>
       <c r="B451" t="n">
-        <v>19607.17649881795</v>
+        <v>19607.17649881797</v>
       </c>
     </row>
     <row r="452">
@@ -4048,7 +4043,7 @@
         <v>2050</v>
       </c>
       <c r="B452" t="n">
-        <v>19451.06180315999</v>
+        <v>19451.06180315996</v>
       </c>
     </row>
   </sheetData>

--- a/Data/model_outputs_baseline/number_of_dwellings/s_delta_total.xlsx
+++ b/Data/model_outputs_baseline/number_of_dwellings/s_delta_total.xlsx
@@ -451,7 +451,7 @@
         <v>1601</v>
       </c>
       <c r="B3" t="n">
-        <v>86.01224443895445</v>
+        <v>86.01224443895785</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>1602</v>
       </c>
       <c r="B4" t="n">
-        <v>87.2481732045172</v>
+        <v>87.24817320451061</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>1603</v>
       </c>
       <c r="B5" t="n">
-        <v>88.50174149125009</v>
+        <v>88.50174149125371</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>1604</v>
       </c>
       <c r="B6" t="n">
-        <v>89.77319772959298</v>
+        <v>89.77319772958683</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>1605</v>
       </c>
       <c r="B7" t="n">
-        <v>91.06279375981055</v>
+        <v>91.06279375980762</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>1606</v>
       </c>
       <c r="B8" t="n">
-        <v>92.37078487636626</v>
+        <v>92.37078487637851</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>1607</v>
       </c>
       <c r="B9" t="n">
-        <v>93.6974298727966</v>
+        <v>93.69742987280092</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>1608</v>
       </c>
       <c r="B10" t="n">
-        <v>95.0429910878259</v>
+        <v>95.04299108781153</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>1609</v>
       </c>
       <c r="B11" t="n">
-        <v>96.40773445098593</v>
+        <v>96.40773445099074</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>1610</v>
       </c>
       <c r="B12" t="n">
-        <v>97.79192952942677</v>
+        <v>97.79192952942039</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>1611</v>
       </c>
       <c r="B13" t="n">
-        <v>99.19584957547106</v>
+        <v>99.19584957547835</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>1612</v>
       </c>
       <c r="B14" t="n">
-        <v>100.6197715739694</v>
+        <v>100.6197715739658</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>1613</v>
       </c>
       <c r="B15" t="n">
-        <v>102.0639762910162</v>
+        <v>102.0639762910183</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>1614</v>
       </c>
       <c r="B16" t="n">
-        <v>103.528748322576</v>
+        <v>103.5287483225728</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>1615</v>
       </c>
       <c r="B17" t="n">
-        <v>105.0143761442777</v>
+        <v>105.0143761442819</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>1616</v>
       </c>
       <c r="B18" t="n">
-        <v>106.5211521613113</v>
+        <v>106.5211521613072</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>1617</v>
       </c>
       <c r="B19" t="n">
-        <v>108.0493727590918</v>
+        <v>108.0493727590993</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>1618</v>
       </c>
       <c r="B20" t="n">
-        <v>109.599338354748</v>
+        <v>109.59933835474</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>1619</v>
       </c>
       <c r="B21" t="n">
-        <v>111.1713534486057</v>
+        <v>111.1713534486103</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>1620</v>
       </c>
       <c r="B22" t="n">
-        <v>112.7657266770689</v>
+        <v>112.7657266770637</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>1621</v>
       </c>
       <c r="B23" t="n">
-        <v>114.3827708654278</v>
+        <v>114.382770865443</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>1622</v>
       </c>
       <c r="B24" t="n">
-        <v>116.0228030815484</v>
+        <v>116.0228030815379</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>1623</v>
       </c>
       <c r="B25" t="n">
-        <v>117.6861446904545</v>
+        <v>117.686144690456</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>1624</v>
       </c>
       <c r="B26" t="n">
-        <v>119.3731214089959</v>
+        <v>119.3731214089887</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>1625</v>
       </c>
       <c r="B27" t="n">
-        <v>121.0840633615705</v>
+        <v>121.0840633615796</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>1626</v>
       </c>
       <c r="B28" t="n">
-        <v>122.8193051364392</v>
+        <v>122.8193051364319</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>1627</v>
       </c>
       <c r="B29" t="n">
-        <v>124.5791858423379</v>
+        <v>124.579185842347</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>1628</v>
       </c>
       <c r="B30" t="n">
-        <v>126.3640491664219</v>
+        <v>126.3640491664283</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>1629</v>
       </c>
       <c r="B31" t="n">
-        <v>128.1742434321534</v>
+        <v>128.1742434321446</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>1630</v>
       </c>
       <c r="B32" t="n">
-        <v>130.0101216582869</v>
+        <v>130.0101216582825</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>1631</v>
       </c>
       <c r="B33" t="n">
-        <v>131.8720416185313</v>
+        <v>131.8720416185355</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>1632</v>
       </c>
       <c r="B34" t="n">
-        <v>133.760365901635</v>
+        <v>133.7603659016348</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>1633</v>
       </c>
       <c r="B35" t="n">
-        <v>135.6754619725196</v>
+        <v>135.675461972528</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>1634</v>
       </c>
       <c r="B36" t="n">
-        <v>137.6177022337669</v>
+        <v>137.6177022337605</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>1635</v>
       </c>
       <c r="B37" t="n">
-        <v>139.58746408824</v>
+        <v>139.5874640882346</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>1636</v>
       </c>
       <c r="B38" t="n">
-        <v>141.5851300017664</v>
+        <v>141.5851300017702</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>1637</v>
       </c>
       <c r="B39" t="n">
-        <v>143.6110875673178</v>
+        <v>143.6110875673229</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>1638</v>
       </c>
       <c r="B40" t="n">
-        <v>145.6657295694563</v>
+        <v>145.6657295694464</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>1639</v>
       </c>
       <c r="B41" t="n">
-        <v>147.7494540496924</v>
+        <v>147.7494540496986</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>1640</v>
       </c>
       <c r="B42" t="n">
-        <v>149.8626643722041</v>
+        <v>149.8626643722</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>1641</v>
       </c>
       <c r="B43" t="n">
-        <v>152.0057692912746</v>
+        <v>152.005769291278</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>1642</v>
       </c>
       <c r="B44" t="n">
-        <v>154.1791830182782</v>
+        <v>154.1791830182737</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>1643</v>
       </c>
       <c r="B45" t="n">
-        <v>156.3833252905127</v>
+        <v>156.3833252905154</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>1644</v>
       </c>
       <c r="B46" t="n">
-        <v>158.6186214402088</v>
+        <v>158.6186214402053</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>1645</v>
       </c>
       <c r="B47" t="n">
-        <v>160.8855024642816</v>
+        <v>160.8855024642885</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>1646</v>
       </c>
       <c r="B48" t="n">
-        <v>163.1844050956327</v>
+        <v>163.1844050956345</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>1647</v>
       </c>
       <c r="B49" t="n">
-        <v>165.5157718744259</v>
+        <v>165.5157718744253</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>1648</v>
       </c>
       <c r="B50" t="n">
-        <v>167.8800512204934</v>
+        <v>167.8800512204959</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>1649</v>
       </c>
       <c r="B51" t="n">
-        <v>170.2776975069449</v>
+        <v>170.2776975069414</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>1650</v>
       </c>
       <c r="B52" t="n">
-        <v>172.7091711341533</v>
+        <v>172.7091711341443</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>1651</v>
       </c>
       <c r="B53" t="n">
-        <v>175.1749386049071</v>
+        <v>175.1749386049158</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>1652</v>
       </c>
       <c r="B54" t="n">
-        <v>177.6754726000877</v>
+        <v>177.67547260008</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>1653</v>
       </c>
       <c r="B55" t="n">
-        <v>180.2112520559977</v>
+        <v>180.211252055998</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>1654</v>
       </c>
       <c r="B56" t="n">
-        <v>182.7827622416933</v>
+        <v>182.7827622416994</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>1655</v>
       </c>
       <c r="B57" t="n">
-        <v>185.3904948376521</v>
+        <v>185.3904948376545</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>1656</v>
       </c>
       <c r="B58" t="n">
-        <v>188.0349480159516</v>
+        <v>188.0349480159523</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>1657</v>
       </c>
       <c r="B59" t="n">
-        <v>190.7166265201906</v>
+        <v>190.7166265201909</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>1658</v>
       </c>
       <c r="B60" t="n">
-        <v>193.4360417473844</v>
+        <v>193.4360417473814</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>1659</v>
       </c>
       <c r="B61" t="n">
-        <v>196.1937118305166</v>
+        <v>196.193711830519</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>1660</v>
       </c>
       <c r="B62" t="n">
-        <v>198.9901617221282</v>
+        <v>198.9901617221284</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>1661</v>
       </c>
       <c r="B63" t="n">
-        <v>201.8259232785954</v>
+        <v>201.8259232785876</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>1662</v>
       </c>
       <c r="B64" t="n">
-        <v>204.7015353463974</v>
+        <v>204.7015353463965</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>1663</v>
       </c>
       <c r="B65" t="n">
-        <v>207.6175438479946</v>
+        <v>207.6175438480012</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>1664</v>
       </c>
       <c r="B66" t="n">
-        <v>210.5745018704191</v>
+        <v>210.5745018704103</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>1665</v>
       </c>
       <c r="B67" t="n">
-        <v>213.5729697535909</v>
+        <v>213.5729697536031</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>1666</v>
       </c>
       <c r="B68" t="n">
-        <v>216.6135151804725</v>
+        <v>216.6135151804593</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>1667</v>
       </c>
       <c r="B69" t="n">
-        <v>219.6967132683012</v>
+        <v>219.6967132683111</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>1668</v>
       </c>
       <c r="B70" t="n">
-        <v>222.8231466610547</v>
+        <v>222.8231466610504</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>1669</v>
       </c>
       <c r="B71" t="n">
-        <v>225.9934056224999</v>
+        <v>225.9934056224961</v>
       </c>
     </row>
     <row r="72">
@@ -1003,7 +1003,7 @@
         <v>1670</v>
       </c>
       <c r="B72" t="n">
-        <v>229.2080881314899</v>
+        <v>229.2080881314902</v>
       </c>
     </row>
     <row r="73">
@@ -1011,7 +1011,7 @@
         <v>1671</v>
       </c>
       <c r="B73" t="n">
-        <v>232.4677999775443</v>
+        <v>232.4677999775587</v>
       </c>
     </row>
     <row r="74">
@@ -1019,7 +1019,7 @@
         <v>1672</v>
       </c>
       <c r="B74" t="n">
-        <v>235.7731548582575</v>
+        <v>235.7731548582571</v>
       </c>
     </row>
     <row r="75">
@@ -1027,7 +1027,7 @@
         <v>1673</v>
       </c>
       <c r="B75" t="n">
-        <v>239.1247744778729</v>
+        <v>239.1247744778638</v>
       </c>
     </row>
     <row r="76">
@@ -1035,7 +1035,7 @@
         <v>1674</v>
       </c>
       <c r="B76" t="n">
-        <v>242.523288647136</v>
+        <v>242.5232886471415</v>
       </c>
     </row>
     <row r="77">
@@ -1043,7 +1043,7 @@
         <v>1675</v>
       </c>
       <c r="B77" t="n">
-        <v>245.9693353844522</v>
+        <v>245.9693353844435</v>
       </c>
     </row>
     <row r="78">
@@ -1051,7 +1051,7 @@
         <v>1676</v>
       </c>
       <c r="B78" t="n">
-        <v>249.4635610187534</v>
+        <v>249.4635610187597</v>
       </c>
     </row>
     <row r="79">
@@ -1059,7 +1059,7 @@
         <v>1677</v>
       </c>
       <c r="B79" t="n">
-        <v>253.0066202932775</v>
+        <v>253.0066202932787</v>
       </c>
     </row>
     <row r="80">
@@ -1067,7 +1067,7 @@
         <v>1678</v>
       </c>
       <c r="B80" t="n">
-        <v>256.599176471308</v>
+        <v>256.5991764713021</v>
       </c>
     </row>
     <row r="81">
@@ -1075,7 +1075,7 @@
         <v>1679</v>
       </c>
       <c r="B81" t="n">
-        <v>260.241901443128</v>
+        <v>260.2419014431331</v>
       </c>
     </row>
     <row r="82">
@@ -1083,7 +1083,7 @@
         <v>1680</v>
       </c>
       <c r="B82" t="n">
-        <v>263.9354758345311</v>
+        <v>263.9354758345385</v>
       </c>
     </row>
     <row r="83">
@@ -1091,7 +1091,7 @@
         <v>1681</v>
       </c>
       <c r="B83" t="n">
-        <v>267.6805891169198</v>
+        <v>267.6805891169042</v>
       </c>
     </row>
     <row r="84">
@@ -1099,7 +1099,7 @@
         <v>1682</v>
       </c>
       <c r="B84" t="n">
-        <v>271.477939719177</v>
+        <v>271.4779397191875</v>
       </c>
     </row>
     <row r="85">
@@ -1107,7 +1107,7 @@
         <v>1683</v>
       </c>
       <c r="B85" t="n">
-        <v>275.328235140896</v>
+        <v>275.3282351408955</v>
       </c>
     </row>
     <row r="86">
@@ -1115,7 +1115,7 @@
         <v>1684</v>
       </c>
       <c r="B86" t="n">
-        <v>279.2321920678749</v>
+        <v>279.2321920678659</v>
       </c>
     </row>
     <row r="87">
@@ -1123,7 +1123,7 @@
         <v>1685</v>
       </c>
       <c r="B87" t="n">
-        <v>283.1905364882654</v>
+        <v>283.190536488265</v>
       </c>
     </row>
     <row r="88">
@@ -1131,7 +1131,7 @@
         <v>1686</v>
       </c>
       <c r="B88" t="n">
-        <v>287.2040038117414</v>
+        <v>287.2040038117442</v>
       </c>
     </row>
     <row r="89">
@@ -1139,7 +1139,7 @@
         <v>1687</v>
       </c>
       <c r="B89" t="n">
-        <v>291.2733389901802</v>
+        <v>291.2733389901787</v>
       </c>
     </row>
     <row r="90">
@@ -1147,7 +1147,7 @@
         <v>1688</v>
       </c>
       <c r="B90" t="n">
-        <v>295.3992966394185</v>
+        <v>295.3992966394255</v>
       </c>
     </row>
     <row r="91">
@@ -1155,7 +1155,7 @@
         <v>1689</v>
       </c>
       <c r="B91" t="n">
-        <v>299.5826411640132</v>
+        <v>299.5826411640139</v>
       </c>
     </row>
     <row r="92">
@@ -1163,7 +1163,7 @@
         <v>1690</v>
       </c>
       <c r="B92" t="n">
-        <v>303.8241468837886</v>
+        <v>303.8241468837834</v>
       </c>
     </row>
     <row r="93">
@@ -1171,7 +1171,7 @@
         <v>1691</v>
       </c>
       <c r="B93" t="n">
-        <v>308.1245981618283</v>
+        <v>308.1245981618306</v>
       </c>
     </row>
     <row r="94">
@@ -1179,7 +1179,7 @@
         <v>1692</v>
       </c>
       <c r="B94" t="n">
-        <v>312.4847895353181</v>
+        <v>312.4847895353213</v>
       </c>
     </row>
     <row r="95">
@@ -1187,7 +1187,7 @@
         <v>1693</v>
       </c>
       <c r="B95" t="n">
-        <v>316.9055258485226</v>
+        <v>316.9055258485166</v>
       </c>
     </row>
     <row r="96">
@@ -1195,7 +1195,7 @@
         <v>1694</v>
       </c>
       <c r="B96" t="n">
-        <v>321.387622387471</v>
+        <v>321.3876223874722</v>
       </c>
     </row>
     <row r="97">
@@ -1203,7 +1203,7 @@
         <v>1695</v>
       </c>
       <c r="B97" t="n">
-        <v>325.9319050176562</v>
+        <v>325.9319050176573</v>
       </c>
     </row>
     <row r="98">
@@ -1211,7 +1211,7 @@
         <v>1696</v>
       </c>
       <c r="B98" t="n">
-        <v>330.5392103237145</v>
+        <v>330.539210323711</v>
       </c>
     </row>
     <row r="99">
@@ -1219,7 +1219,7 @@
         <v>1697</v>
       </c>
       <c r="B99" t="n">
-        <v>335.2103857519531</v>
+        <v>335.2103857519574</v>
       </c>
     </row>
     <row r="100">
@@ -1227,7 +1227,7 @@
         <v>1698</v>
       </c>
       <c r="B100" t="n">
-        <v>339.9462897552419</v>
+        <v>339.9462897552417</v>
       </c>
     </row>
     <row r="101">
@@ -1235,7 +1235,7 @@
         <v>1699</v>
       </c>
       <c r="B101" t="n">
-        <v>344.7477919402484</v>
+        <v>344.7477919402514</v>
       </c>
     </row>
     <row r="102">
@@ -1243,7 +1243,7 @@
         <v>1700</v>
       </c>
       <c r="B102" t="n">
-        <v>349.6157732183478</v>
+        <v>349.6157732183439</v>
       </c>
     </row>
     <row r="103">
@@ -1259,7 +1259,7 @@
         <v>1702</v>
       </c>
       <c r="B104" t="n">
-        <v>359.5547541436787</v>
+        <v>359.5547541436829</v>
       </c>
     </row>
     <row r="105">
@@ -1267,7 +1267,7 @@
         <v>1703</v>
       </c>
       <c r="B105" t="n">
-        <v>364.6275735294</v>
+        <v>364.6275735293941</v>
       </c>
     </row>
     <row r="106">
@@ -1275,7 +1275,7 @@
         <v>1704</v>
       </c>
       <c r="B106" t="n">
-        <v>369.7705118068788</v>
+        <v>369.7705118068813</v>
       </c>
     </row>
     <row r="107">
@@ -1283,7 +1283,7 @@
         <v>1705</v>
       </c>
       <c r="B107" t="n">
-        <v>374.9845087684352</v>
+        <v>374.9845087684347</v>
       </c>
     </row>
     <row r="108">
@@ -1291,7 +1291,7 @@
         <v>1706</v>
       </c>
       <c r="B108" t="n">
-        <v>380.2705164762583</v>
+        <v>380.2705164762529</v>
       </c>
     </row>
     <row r="109">
@@ -1299,7 +1299,7 @@
         <v>1707</v>
       </c>
       <c r="B109" t="n">
-        <v>385.6294994350714</v>
+        <v>385.6294994350765</v>
       </c>
     </row>
     <row r="110">
@@ -1307,7 +1307,7 @@
         <v>1708</v>
       </c>
       <c r="B110" t="n">
-        <v>391.0624347684698</v>
+        <v>391.0624347684644</v>
       </c>
     </row>
     <row r="111">
@@ -1315,7 +1315,7 @@
         <v>1709</v>
       </c>
       <c r="B111" t="n">
-        <v>396.5703123984827</v>
+        <v>396.5703123984957</v>
       </c>
     </row>
     <row r="112">
@@ -1323,7 +1323,7 @@
         <v>1710</v>
       </c>
       <c r="B112" t="n">
-        <v>402.1541352298389</v>
+        <v>402.1541352298324</v>
       </c>
     </row>
     <row r="113">
@@ -1331,7 +1331,7 @@
         <v>1711</v>
       </c>
       <c r="B113" t="n">
-        <v>407.8149193372892</v>
+        <v>407.8149193372907</v>
       </c>
     </row>
     <row r="114">
@@ -1339,7 +1339,7 @@
         <v>1712</v>
       </c>
       <c r="B114" t="n">
-        <v>413.5536941581074</v>
+        <v>413.5536941581069</v>
       </c>
     </row>
     <row r="115">
@@ -1347,7 +1347,7 @@
         <v>1713</v>
       </c>
       <c r="B115" t="n">
-        <v>419.3715026883033</v>
+        <v>419.3715026883016</v>
       </c>
     </row>
     <row r="116">
@@ -1355,7 +1355,7 @@
         <v>1714</v>
       </c>
       <c r="B116" t="n">
-        <v>425.2694016835026</v>
+        <v>425.2694016835</v>
       </c>
     </row>
     <row r="117">
@@ -1363,7 +1363,7 @@
         <v>1715</v>
       </c>
       <c r="B117" t="n">
-        <v>431.248461864517</v>
+        <v>431.248461864515</v>
       </c>
     </row>
     <row r="118">
@@ -1371,7 +1371,7 @@
         <v>1716</v>
       </c>
       <c r="B118" t="n">
-        <v>437.3097681280242</v>
+        <v>437.3097681280265</v>
       </c>
     </row>
     <row r="119">
@@ -1379,7 +1379,7 @@
         <v>1717</v>
       </c>
       <c r="B119" t="n">
-        <v>443.4544197617316</v>
+        <v>443.4544197617321</v>
       </c>
     </row>
     <row r="120">
@@ -1387,7 +1387,7 @@
         <v>1718</v>
       </c>
       <c r="B120" t="n">
-        <v>449.6835306652536</v>
+        <v>449.6835306652507</v>
       </c>
     </row>
     <row r="121">
@@ -1395,7 +1395,7 @@
         <v>1719</v>
       </c>
       <c r="B121" t="n">
-        <v>455.9982295762249</v>
+        <v>455.9982295762279</v>
       </c>
     </row>
     <row r="122">
@@ -1403,7 +1403,7 @@
         <v>1720</v>
       </c>
       <c r="B122" t="n">
-        <v>462.3996603021359</v>
+        <v>462.3996603021413</v>
       </c>
     </row>
     <row r="123">
@@ -1411,7 +1411,7 @@
         <v>1721</v>
       </c>
       <c r="B123" t="n">
-        <v>468.888981957928</v>
+        <v>468.8889819579193</v>
       </c>
     </row>
     <row r="124">
@@ -1419,7 +1419,7 @@
         <v>1722</v>
       </c>
       <c r="B124" t="n">
-        <v>475.4673692097148</v>
+        <v>475.4673692097161</v>
       </c>
     </row>
     <row r="125">
@@ -1427,7 +1427,7 @@
         <v>1723</v>
       </c>
       <c r="B125" t="n">
-        <v>482.1360125247599</v>
+        <v>482.1360125247677</v>
       </c>
     </row>
     <row r="126">
@@ -1435,7 +1435,7 @@
         <v>1724</v>
       </c>
       <c r="B126" t="n">
-        <v>488.8961184282809</v>
+        <v>488.8961184282781</v>
       </c>
     </row>
     <row r="127">
@@ -1443,7 +1443,7 @@
         <v>1725</v>
       </c>
       <c r="B127" t="n">
-        <v>495.7489097665651</v>
+        <v>495.7489097665641</v>
       </c>
     </row>
     <row r="128">
@@ -1451,7 +1451,7 @@
         <v>1726</v>
       </c>
       <c r="B128" t="n">
-        <v>502.6956259778334</v>
+        <v>502.6956259778363</v>
       </c>
     </row>
     <row r="129">
@@ -1459,7 +1459,7 @@
         <v>1727</v>
       </c>
       <c r="B129" t="n">
-        <v>509.7375233696636</v>
+        <v>509.7375233696644</v>
       </c>
     </row>
     <row r="130">
@@ -1467,7 +1467,7 @@
         <v>1728</v>
       </c>
       <c r="B130" t="n">
-        <v>516.8758754051278</v>
+        <v>516.8758754051266</v>
       </c>
     </row>
     <row r="131">
@@ -1475,7 +1475,7 @@
         <v>1729</v>
       </c>
       <c r="B131" t="n">
-        <v>524.1119729954587</v>
+        <v>524.1119729954548</v>
       </c>
     </row>
     <row r="132">
@@ -1483,7 +1483,7 @@
         <v>1730</v>
       </c>
       <c r="B132" t="n">
-        <v>531.4471248023107</v>
+        <v>531.4471248023137</v>
       </c>
     </row>
     <row r="133">
@@ -1491,7 +1491,7 @@
         <v>1731</v>
       </c>
       <c r="B133" t="n">
-        <v>538.8826575481467</v>
+        <v>538.882657548148</v>
       </c>
     </row>
     <row r="134">
@@ -1499,7 +1499,7 @@
         <v>1732</v>
       </c>
       <c r="B134" t="n">
-        <v>546.4199163346977</v>
+        <v>546.4199163346974</v>
       </c>
     </row>
     <row r="135">
@@ -1507,7 +1507,7 @@
         <v>1733</v>
       </c>
       <c r="B135" t="n">
-        <v>554.0602649726088</v>
+        <v>554.0602649726084</v>
       </c>
     </row>
     <row r="136">
@@ -1515,7 +1515,7 @@
         <v>1734</v>
       </c>
       <c r="B136" t="n">
-        <v>561.8050863183116</v>
+        <v>561.805086318312</v>
       </c>
     </row>
     <row r="137">
@@ -1523,7 +1523,7 @@
         <v>1735</v>
       </c>
       <c r="B137" t="n">
-        <v>569.6557826229517</v>
+        <v>569.6557826229489</v>
       </c>
     </row>
     <row r="138">
@@ -1531,7 +1531,7 @@
         <v>1736</v>
       </c>
       <c r="B138" t="n">
-        <v>577.6137758908121</v>
+        <v>577.6137758908127</v>
       </c>
     </row>
     <row r="139">
@@ -1539,7 +1539,7 @@
         <v>1737</v>
       </c>
       <c r="B139" t="n">
-        <v>585.6805082482291</v>
+        <v>585.6805082482255</v>
       </c>
     </row>
     <row r="140">
@@ -1547,7 +1547,7 @@
         <v>1738</v>
       </c>
       <c r="B140" t="n">
-        <v>593.8574423245777</v>
+        <v>593.8574423245823</v>
       </c>
     </row>
     <row r="141">
@@ -1555,7 +1555,7 @@
         <v>1739</v>
       </c>
       <c r="B141" t="n">
-        <v>602.1460616444435</v>
+        <v>602.146061644443</v>
       </c>
     </row>
     <row r="142">
@@ -1563,7 +1563,7 @@
         <v>1740</v>
       </c>
       <c r="B142" t="n">
-        <v>610.5478710316042</v>
+        <v>610.5478710316085</v>
       </c>
     </row>
     <row r="143">
@@ -1571,7 +1571,7 @@
         <v>1741</v>
       </c>
       <c r="B143" t="n">
-        <v>619.0643970266329</v>
+        <v>619.0643970266348</v>
       </c>
     </row>
     <row r="144">
@@ -1579,7 +1579,7 @@
         <v>1742</v>
       </c>
       <c r="B144" t="n">
-        <v>627.6971883162859</v>
+        <v>627.697188316279</v>
       </c>
     </row>
     <row r="145">
@@ -1587,7 +1587,7 @@
         <v>1743</v>
       </c>
       <c r="B145" t="n">
-        <v>636.4478161778375</v>
+        <v>636.4478161778397</v>
       </c>
     </row>
     <row r="146">
@@ -1595,7 +1595,7 @@
         <v>1744</v>
       </c>
       <c r="B146" t="n">
-        <v>645.3178749361396</v>
+        <v>645.3178749361399</v>
       </c>
     </row>
     <row r="147">
@@ -1603,7 +1603,7 @@
         <v>1745</v>
       </c>
       <c r="B147" t="n">
-        <v>654.3089824369558</v>
+        <v>654.3089824369513</v>
       </c>
     </row>
     <row r="148">
@@ -1611,7 +1611,7 @@
         <v>1746</v>
       </c>
       <c r="B148" t="n">
-        <v>663.4227805339046</v>
+        <v>663.4227805339061</v>
       </c>
     </row>
     <row r="149">
@@ -1619,7 +1619,7 @@
         <v>1747</v>
       </c>
       <c r="B149" t="n">
-        <v>672.660935592404</v>
+        <v>672.6609355924071</v>
       </c>
     </row>
     <row r="150">
@@ -1627,7 +1627,7 @@
         <v>1748</v>
       </c>
       <c r="B150" t="n">
-        <v>682.0251390100398</v>
+        <v>682.025139010042</v>
       </c>
     </row>
     <row r="151">
@@ -1635,7 +1635,7 @@
         <v>1749</v>
       </c>
       <c r="B151" t="n">
-        <v>691.5171077528478</v>
+        <v>691.5171077528421</v>
       </c>
     </row>
     <row r="152">
@@ -1643,7 +1643,7 @@
         <v>1750</v>
       </c>
       <c r="B152" t="n">
-        <v>701.1385849110605</v>
+        <v>701.1385849110658</v>
       </c>
     </row>
     <row r="153">
@@ -1651,7 +1651,7 @@
         <v>1751</v>
       </c>
       <c r="B153" t="n">
-        <v>710.8913402716057</v>
+        <v>710.8913402716023</v>
       </c>
     </row>
     <row r="154">
@@ -1659,7 +1659,7 @@
         <v>1752</v>
       </c>
       <c r="B154" t="n">
-        <v>720.7771709111802</v>
+        <v>720.7771709111788</v>
       </c>
     </row>
     <row r="155">
@@ -1667,7 +1667,7 @@
         <v>1753</v>
       </c>
       <c r="B155" t="n">
-        <v>730.7979018081392</v>
+        <v>730.7979018081387</v>
       </c>
     </row>
     <row r="156">
@@ -1675,7 +1675,7 @@
         <v>1754</v>
       </c>
       <c r="B156" t="n">
-        <v>740.955386475046</v>
+        <v>740.9553864750463</v>
       </c>
     </row>
     <row r="157">
@@ -1683,7 +1683,7 @@
         <v>1755</v>
       </c>
       <c r="B157" t="n">
-        <v>751.2515076137735</v>
+        <v>751.2515076137744</v>
       </c>
     </row>
     <row r="158">
@@ -1691,7 +1691,7 @@
         <v>1756</v>
       </c>
       <c r="B158" t="n">
-        <v>761.6881777908343</v>
+        <v>761.6881777908354</v>
       </c>
     </row>
     <row r="159">
@@ -1699,7 +1699,7 @@
         <v>1757</v>
       </c>
       <c r="B159" t="n">
-        <v>772.2673401376303</v>
+        <v>772.2673401376313</v>
       </c>
     </row>
     <row r="160">
@@ -1707,7 +1707,7 @@
         <v>1758</v>
       </c>
       <c r="B160" t="n">
-        <v>782.9909690732441</v>
+        <v>782.9909690732431</v>
       </c>
     </row>
     <row r="161">
@@ -1715,7 +1715,7 @@
         <v>1759</v>
       </c>
       <c r="B161" t="n">
-        <v>793.8610710525953</v>
+        <v>793.8610710525957</v>
       </c>
     </row>
     <row r="162">
@@ -1723,7 +1723,7 @@
         <v>1760</v>
       </c>
       <c r="B162" t="n">
-        <v>804.8796853401468</v>
+        <v>804.8796853401439</v>
       </c>
     </row>
     <row r="163">
@@ -1731,7 +1731,7 @@
         <v>1761</v>
       </c>
       <c r="B163" t="n">
-        <v>816.0488848100342</v>
+        <v>816.0488848100372</v>
       </c>
     </row>
     <row r="164">
@@ -1739,7 +1739,7 @@
         <v>1762</v>
       </c>
       <c r="B164" t="n">
-        <v>827.3707767744222</v>
+        <v>827.3707767744216</v>
       </c>
     </row>
     <row r="165">
@@ -1747,7 +1747,7 @@
         <v>1763</v>
       </c>
       <c r="B165" t="n">
-        <v>838.8475038392228</v>
+        <v>838.8475038392207</v>
       </c>
     </row>
     <row r="166">
@@ -1755,7 +1755,7 @@
         <v>1764</v>
       </c>
       <c r="B166" t="n">
-        <v>850.4812447905188</v>
+        <v>850.4812447905213</v>
       </c>
     </row>
     <row r="167">
@@ -1763,7 +1763,7 @@
         <v>1765</v>
       </c>
       <c r="B167" t="n">
-        <v>862.2742155116086</v>
+        <v>862.2742155116069</v>
       </c>
     </row>
     <row r="168">
@@ -1771,7 +1771,7 @@
         <v>1766</v>
       </c>
       <c r="B168" t="n">
-        <v>874.2286699311361</v>
+        <v>874.2286699311367</v>
       </c>
     </row>
     <row r="169">
@@ -1779,7 +1779,7 @@
         <v>1767</v>
       </c>
       <c r="B169" t="n">
-        <v>886.3469010045</v>
+        <v>886.3469010045021</v>
       </c>
     </row>
     <row r="170">
@@ -1787,7 +1787,7 @@
         <v>1768</v>
       </c>
       <c r="B170" t="n">
-        <v>898.6312417297145</v>
+        <v>898.6312417297128</v>
       </c>
     </row>
     <row r="171">
@@ -1795,7 +1795,7 @@
         <v>1769</v>
       </c>
       <c r="B171" t="n">
-        <v>911.0840661979439</v>
+        <v>911.0840661979425</v>
       </c>
     </row>
     <row r="172">
@@ -1803,7 +1803,7 @@
         <v>1770</v>
       </c>
       <c r="B172" t="n">
-        <v>923.7077906807667</v>
+        <v>923.7077906807691</v>
       </c>
     </row>
     <row r="173">
@@ -1811,7 +1811,7 @@
         <v>1771</v>
       </c>
       <c r="B173" t="n">
-        <v>936.5048747553467</v>
+        <v>936.5048747553452</v>
       </c>
     </row>
     <row r="174">
@@ -1819,7 +1819,7 @@
         <v>1772</v>
       </c>
       <c r="B174" t="n">
-        <v>949.4778224685741</v>
+        <v>949.4778224685739</v>
       </c>
     </row>
     <row r="175">
@@ -1827,7 +1827,7 @@
         <v>1773</v>
       </c>
       <c r="B175" t="n">
-        <v>962.6291835414002</v>
+        <v>962.6291835414017</v>
       </c>
     </row>
     <row r="176">
@@ -1835,7 +1835,7 @@
         <v>1774</v>
       </c>
       <c r="B176" t="n">
-        <v>975.9615546151149</v>
+        <v>975.9615546151138</v>
       </c>
     </row>
     <row r="177">
@@ -1843,7 +1843,7 @@
         <v>1775</v>
       </c>
       <c r="B177" t="n">
-        <v>989.4775805409956</v>
+        <v>989.4775805409985</v>
       </c>
     </row>
     <row r="178">
@@ -1851,7 +1851,7 @@
         <v>1776</v>
       </c>
       <c r="B178" t="n">
-        <v>1003.179955714104</v>
+        <v>1003.1799557141</v>
       </c>
     </row>
     <row r="179">
@@ -1859,7 +1859,7 @@
         <v>1777</v>
       </c>
       <c r="B179" t="n">
-        <v>1017.071425453607</v>
+        <v>1017.071425453608</v>
       </c>
     </row>
     <row r="180">
@@ -1875,7 +1875,7 @@
         <v>1779</v>
       </c>
       <c r="B181" t="n">
-        <v>1045.432893142884</v>
+        <v>1045.432893142887</v>
       </c>
     </row>
     <row r="182">
@@ -1891,7 +1891,7 @@
         <v>1781</v>
       </c>
       <c r="B183" t="n">
-        <v>1074.585020133647</v>
+        <v>1074.585020133648</v>
       </c>
     </row>
     <row r="184">
@@ -1899,7 +1899,7 @@
         <v>1782</v>
       </c>
       <c r="B184" t="n">
-        <v>1089.465027563086</v>
+        <v>1089.46502756308</v>
       </c>
     </row>
     <row r="185">
@@ -1907,7 +1907,7 @@
         <v>1783</v>
       </c>
       <c r="B185" t="n">
-        <v>1104.551754354904</v>
+        <v>1104.551754354905</v>
       </c>
     </row>
     <row r="186">
@@ -1915,7 +1915,7 @@
         <v>1784</v>
       </c>
       <c r="B186" t="n">
-        <v>1119.84834513431</v>
+        <v>1119.848345134314</v>
       </c>
     </row>
     <row r="187">
@@ -1923,7 +1923,7 @@
         <v>1785</v>
       </c>
       <c r="B187" t="n">
-        <v>1135.358008337811</v>
+        <v>1135.35800833781</v>
       </c>
     </row>
     <row r="188">
@@ -1931,7 +1931,7 @@
         <v>1786</v>
       </c>
       <c r="B188" t="n">
-        <v>1151.084018080487</v>
+        <v>1151.084018080486</v>
       </c>
     </row>
     <row r="189">
@@ -1955,7 +1955,7 @@
         <v>1789</v>
       </c>
       <c r="B191" t="n">
-        <v>1199.593893832122</v>
+        <v>1199.593893832123</v>
       </c>
     </row>
     <row r="192">
@@ -1963,7 +1963,7 @@
         <v>1790</v>
       </c>
       <c r="B192" t="n">
-        <v>1216.219413335329</v>
+        <v>1216.219413335326</v>
       </c>
     </row>
     <row r="193">
@@ -1979,7 +1979,7 @@
         <v>1792</v>
       </c>
       <c r="B194" t="n">
-        <v>1250.175479685535</v>
+        <v>1250.175479685536</v>
       </c>
     </row>
     <row r="195">
@@ -1987,7 +1987,7 @@
         <v>1793</v>
       </c>
       <c r="B195" t="n">
-        <v>1267.513529178348</v>
+        <v>1267.513529178346</v>
       </c>
     </row>
     <row r="196">
@@ -1995,7 +1995,7 @@
         <v>1794</v>
       </c>
       <c r="B196" t="n">
-        <v>1285.096728072423</v>
+        <v>1285.096728072425</v>
       </c>
     </row>
     <row r="197">
@@ -2003,7 +2003,7 @@
         <v>1795</v>
       </c>
       <c r="B197" t="n">
-        <v>1302.929036537465</v>
+        <v>1302.929036537462</v>
       </c>
     </row>
     <row r="198">
@@ -2011,7 +2011,7 @@
         <v>1796</v>
       </c>
       <c r="B198" t="n">
-        <v>1321.014502842907</v>
+        <v>1321.014502842908</v>
       </c>
     </row>
     <row r="199">
@@ -2035,7 +2035,7 @@
         <v>1799</v>
       </c>
       <c r="B201" t="n">
-        <v>1376.831709443993</v>
+        <v>1376.831709443995</v>
       </c>
     </row>
     <row r="202">
@@ -2043,7 +2043,7 @@
         <v>1800</v>
       </c>
       <c r="B202" t="n">
-        <v>1395.972146678365</v>
+        <v>1395.972146678363</v>
       </c>
     </row>
     <row r="203">
@@ -2051,7 +2051,7 @@
         <v>1801</v>
       </c>
       <c r="B203" t="n">
-        <v>1415.387400674989</v>
+        <v>1415.38740067499</v>
       </c>
     </row>
     <row r="204">
@@ -2059,7 +2059,7 @@
         <v>1802</v>
       </c>
       <c r="B204" t="n">
-        <v>1435.082107166249</v>
+        <v>1435.082107166251</v>
       </c>
     </row>
     <row r="205">
@@ -2067,7 +2067,7 @@
         <v>1803</v>
       </c>
       <c r="B205" t="n">
-        <v>1455.061010434896</v>
+        <v>1455.061010434897</v>
       </c>
     </row>
     <row r="206">
@@ -2083,7 +2083,7 @@
         <v>1805</v>
       </c>
       <c r="B207" t="n">
-        <v>1495.890947008554</v>
+        <v>1495.890947008553</v>
       </c>
     </row>
     <row r="208">
@@ -2099,7 +2099,7 @@
         <v>1807</v>
       </c>
       <c r="B209" t="n">
-        <v>1537.917463051758</v>
+        <v>1537.91746305176</v>
       </c>
     </row>
     <row r="210">
@@ -2107,7 +2107,7 @@
         <v>1808</v>
       </c>
       <c r="B210" t="n">
-        <v>1559.392549363574</v>
+        <v>1559.392549363572</v>
       </c>
     </row>
     <row r="211">
@@ -2115,7 +2115,7 @@
         <v>1809</v>
       </c>
       <c r="B211" t="n">
-        <v>1581.18276875065</v>
+        <v>1581.182768750652</v>
       </c>
     </row>
     <row r="212">
@@ -2131,7 +2131,7 @@
         <v>1811</v>
       </c>
       <c r="B213" t="n">
-        <v>1625.731151553189</v>
+        <v>1625.731151553186</v>
       </c>
     </row>
     <row r="214">
@@ -2139,7 +2139,7 @@
         <v>1812</v>
       </c>
       <c r="B214" t="n">
-        <v>1648.500935687556</v>
+        <v>1648.500935687557</v>
       </c>
     </row>
     <row r="215">
@@ -2147,7 +2147,7 @@
         <v>1813</v>
       </c>
       <c r="B215" t="n">
-        <v>1671.60910267612</v>
+        <v>1671.609102676119</v>
       </c>
     </row>
     <row r="216">
@@ -2155,7 +2155,7 @@
         <v>1814</v>
       </c>
       <c r="B216" t="n">
-        <v>1695.06183015662</v>
+        <v>1695.061830156621</v>
       </c>
     </row>
     <row r="217">
@@ -2163,7 +2163,7 @@
         <v>1815</v>
       </c>
       <c r="B217" t="n">
-        <v>1718.865450573958</v>
+        <v>1718.865450573956</v>
       </c>
     </row>
     <row r="218">
@@ -2179,7 +2179,7 @@
         <v>1817</v>
       </c>
       <c r="B219" t="n">
-        <v>1767.551501521984</v>
+        <v>1767.551501521986</v>
       </c>
     </row>
     <row r="220">
@@ -2187,7 +2187,7 @@
         <v>1818</v>
       </c>
       <c r="B220" t="n">
-        <v>1792.447412607095</v>
+        <v>1792.447412607094</v>
       </c>
     </row>
     <row r="221">
@@ -2203,7 +2203,7 @@
         <v>1820</v>
       </c>
       <c r="B222" t="n">
-        <v>1843.380003203742</v>
+        <v>1843.380003203743</v>
       </c>
     </row>
     <row r="223">
@@ -2211,7 +2211,7 @@
         <v>1821</v>
       </c>
       <c r="B223" t="n">
-        <v>1869.431221007473</v>
+        <v>1869.431221007472</v>
       </c>
     </row>
     <row r="224">
@@ -2219,7 +2219,7 @@
         <v>1822</v>
       </c>
       <c r="B224" t="n">
-        <v>1895.882391086765</v>
+        <v>1895.882391086762</v>
       </c>
     </row>
     <row r="225">
@@ -2235,7 +2235,7 @@
         <v>1824</v>
       </c>
       <c r="B226" t="n">
-        <v>1950.015767064514</v>
+        <v>1950.015767064517</v>
       </c>
     </row>
     <row r="227">
@@ -2243,7 +2243,7 @@
         <v>1825</v>
       </c>
       <c r="B227" t="n">
-        <v>1977.714068013944</v>
+        <v>1977.714068013942</v>
       </c>
     </row>
     <row r="228">
@@ -2259,7 +2259,7 @@
         <v>1827</v>
       </c>
       <c r="B229" t="n">
-        <v>2034.415709583545</v>
+        <v>2034.415709583546</v>
       </c>
     </row>
     <row r="230">
@@ -2275,7 +2275,7 @@
         <v>1829</v>
       </c>
       <c r="B231" t="n">
-        <v>2092.915716185031</v>
+        <v>2092.91571618503</v>
       </c>
     </row>
     <row r="232">
@@ -2283,7 +2283,7 @@
         <v>1830</v>
       </c>
       <c r="B232" t="n">
-        <v>2122.862832327711</v>
+        <v>2122.86283232771</v>
       </c>
     </row>
     <row r="233">
@@ -2291,7 +2291,7 @@
         <v>1831</v>
       </c>
       <c r="B233" t="n">
-        <v>2153.287286128976</v>
+        <v>2153.287286128977</v>
       </c>
     </row>
     <row r="234">
@@ -2299,7 +2299,7 @@
         <v>1832</v>
       </c>
       <c r="B234" t="n">
-        <v>2184.198832404072</v>
+        <v>2184.19883240407</v>
       </c>
     </row>
     <row r="235">
@@ -2323,7 +2323,7 @@
         <v>1835</v>
       </c>
       <c r="B237" t="n">
-        <v>2279.95742393292</v>
+        <v>2279.957423932922</v>
       </c>
     </row>
     <row r="238">
@@ -2339,7 +2339,7 @@
         <v>1837</v>
       </c>
       <c r="B239" t="n">
-        <v>2346.422517904957</v>
+        <v>2346.422517904954</v>
       </c>
     </row>
     <row r="240">
@@ -2347,7 +2347,7 @@
         <v>1838</v>
       </c>
       <c r="B240" t="n">
-        <v>2380.476154667989</v>
+        <v>2380.47615466799</v>
       </c>
     </row>
     <row r="241">
@@ -2363,7 +2363,7 @@
         <v>1840</v>
       </c>
       <c r="B242" t="n">
-        <v>2450.283973096085</v>
+        <v>2450.283973096086</v>
       </c>
     </row>
     <row r="243">
@@ -2371,7 +2371,7 @@
         <v>1841</v>
       </c>
       <c r="B243" t="n">
-        <v>2486.062407375509</v>
+        <v>2486.06240737551</v>
       </c>
     </row>
     <row r="244">
@@ -2379,7 +2379,7 @@
         <v>1842</v>
       </c>
       <c r="B244" t="n">
-        <v>2522.440546392847</v>
+        <v>2522.440546392846</v>
       </c>
     </row>
     <row r="245">
@@ -2395,7 +2395,7 @@
         <v>1844</v>
       </c>
       <c r="B246" t="n">
-        <v>2597.047931161766</v>
+        <v>2597.047931161764</v>
       </c>
     </row>
     <row r="247">
@@ -2403,7 +2403,7 @@
         <v>1845</v>
       </c>
       <c r="B247" t="n">
-        <v>2635.304000738364</v>
+        <v>2635.304000738365</v>
       </c>
     </row>
     <row r="248">
@@ -2411,7 +2411,7 @@
         <v>1846</v>
       </c>
       <c r="B248" t="n">
-        <v>2674.213436377846</v>
+        <v>2674.213436377848</v>
       </c>
     </row>
     <row r="249">
@@ -2435,7 +2435,7 @@
         <v>1849</v>
       </c>
       <c r="B251" t="n">
-        <v>2795.006425041549</v>
+        <v>2795.006425041548</v>
       </c>
     </row>
     <row r="252">
@@ -2467,7 +2467,7 @@
         <v>1853</v>
       </c>
       <c r="B255" t="n">
-        <v>2966.118035438417</v>
+        <v>2966.118035438416</v>
       </c>
     </row>
     <row r="256">
@@ -2475,7 +2475,7 @@
         <v>1854</v>
       </c>
       <c r="B256" t="n">
-        <v>3010.798798198698</v>
+        <v>3010.798798198697</v>
       </c>
     </row>
     <row r="257">
@@ -2499,7 +2499,7 @@
         <v>1857</v>
       </c>
       <c r="B259" t="n">
-        <v>3149.683064387749</v>
+        <v>3149.683064387747</v>
       </c>
     </row>
     <row r="260">
@@ -2507,7 +2507,7 @@
         <v>1858</v>
       </c>
       <c r="B260" t="n">
-        <v>3197.65216402839</v>
+        <v>3197.652164028391</v>
       </c>
     </row>
     <row r="261">
@@ -2515,7 +2515,7 @@
         <v>1859</v>
       </c>
       <c r="B261" t="n">
-        <v>3246.489648205598</v>
+        <v>3246.489648205599</v>
       </c>
     </row>
     <row r="262">
@@ -2523,7 +2523,7 @@
         <v>1860</v>
       </c>
       <c r="B262" t="n">
-        <v>3296.214875315534</v>
+        <v>3296.214875315536</v>
       </c>
     </row>
     <row r="263">
@@ -2531,7 +2531,7 @@
         <v>1861</v>
       </c>
       <c r="B263" t="n">
-        <v>3346.84762962229</v>
+        <v>3346.847629622288</v>
       </c>
     </row>
     <row r="264">
@@ -2547,7 +2547,7 @@
         <v>1863</v>
       </c>
       <c r="B265" t="n">
-        <v>3450.917004559503</v>
+        <v>3450.917004559502</v>
       </c>
     </row>
     <row r="266">
@@ -2555,7 +2555,7 @@
         <v>1864</v>
       </c>
       <c r="B266" t="n">
-        <v>3504.395348767688</v>
+        <v>3504.395348767686</v>
       </c>
     </row>
     <row r="267">
@@ -2563,7 +2563,7 @@
         <v>1865</v>
       </c>
       <c r="B267" t="n">
-        <v>3558.864670923911</v>
+        <v>3558.86467092391</v>
       </c>
     </row>
     <row r="268">
@@ -2571,7 +2571,7 @@
         <v>1866</v>
       </c>
       <c r="B268" t="n">
-        <v>3614.346921043358</v>
+        <v>3614.346921043362</v>
       </c>
     </row>
     <row r="269">
@@ -2587,7 +2587,7 @@
         <v>1868</v>
       </c>
       <c r="B270" t="n">
-        <v>3728.440186154292</v>
+        <v>3728.440186154291</v>
       </c>
     </row>
     <row r="271">
@@ -2595,7 +2595,7 @@
         <v>1869</v>
       </c>
       <c r="B271" t="n">
-        <v>3787.097279657035</v>
+        <v>3787.097279657036</v>
       </c>
     </row>
     <row r="272">
@@ -2603,7 +2603,7 @@
         <v>1870</v>
       </c>
       <c r="B272" t="n">
-        <v>3846.859454623676</v>
+        <v>3846.859454623674</v>
       </c>
     </row>
     <row r="273">
@@ -2611,7 +2611,7 @@
         <v>1871</v>
       </c>
       <c r="B273" t="n">
-        <v>3907.750828873697</v>
+        <v>3907.750828873698</v>
       </c>
     </row>
     <row r="274">
@@ -2619,7 +2619,7 @@
         <v>1872</v>
       </c>
       <c r="B274" t="n">
-        <v>3969.795945326938</v>
+        <v>3969.795945326935</v>
       </c>
     </row>
     <row r="275">
@@ -2627,7 +2627,7 @@
         <v>1873</v>
       </c>
       <c r="B275" t="n">
-        <v>4033.019766945186</v>
+        <v>4033.01976694519</v>
       </c>
     </row>
     <row r="276">
@@ -2643,7 +2643,7 @@
         <v>1875</v>
       </c>
       <c r="B277" t="n">
-        <v>4163.10543973793</v>
+        <v>4163.105439737925</v>
       </c>
     </row>
     <row r="278">
@@ -2651,7 +2651,7 @@
         <v>1876</v>
       </c>
       <c r="B278" t="n">
-        <v>4230.019255978006</v>
+        <v>4230.019255978004</v>
       </c>
     </row>
     <row r="279">
@@ -2659,7 +2659,7 @@
         <v>1877</v>
       </c>
       <c r="B279" t="n">
-        <v>4298.215689232205</v>
+        <v>4298.215689232206</v>
       </c>
     </row>
     <row r="280">
@@ -2667,7 +2667,7 @@
         <v>1878</v>
       </c>
       <c r="B280" t="n">
-        <v>4367.721686620742</v>
+        <v>4367.721686620743</v>
       </c>
     </row>
     <row r="281">
@@ -2675,7 +2675,7 @@
         <v>1879</v>
       </c>
       <c r="B281" t="n">
-        <v>4438.56455990671</v>
+        <v>4438.564559906707</v>
       </c>
     </row>
     <row r="282">
@@ -2683,7 +2683,7 @@
         <v>1880</v>
       </c>
       <c r="B282" t="n">
-        <v>4510.771971442558</v>
+        <v>4510.771971442562</v>
       </c>
     </row>
     <row r="283">
@@ -2707,7 +2707,7 @@
         <v>1883</v>
       </c>
       <c r="B285" t="n">
-        <v>4735.862978200562</v>
+        <v>4735.862978200559</v>
       </c>
     </row>
     <row r="286">
@@ -2715,7 +2715,7 @@
         <v>1884</v>
       </c>
       <c r="B286" t="n">
-        <v>4813.811596072739</v>
+        <v>4813.811596072743</v>
       </c>
     </row>
     <row r="287">
@@ -2723,7 +2723,7 @@
         <v>1885</v>
       </c>
       <c r="B287" t="n">
-        <v>4893.267716678711</v>
+        <v>4893.267716678708</v>
       </c>
     </row>
     <row r="288">
@@ -2739,7 +2739,7 @@
         <v>1887</v>
       </c>
       <c r="B289" t="n">
-        <v>5056.820179676895</v>
+        <v>5056.820179676894</v>
       </c>
     </row>
     <row r="290">
@@ -2747,7 +2747,7 @@
         <v>1888</v>
       </c>
       <c r="B290" t="n">
-        <v>5140.975859838764</v>
+        <v>5140.975859838763</v>
       </c>
     </row>
     <row r="291">
@@ -2755,7 +2755,7 @@
         <v>1889</v>
       </c>
       <c r="B291" t="n">
-        <v>5226.757658488958</v>
+        <v>5226.757658488957</v>
       </c>
     </row>
     <row r="292">
@@ -2763,7 +2763,7 @@
         <v>1890</v>
       </c>
       <c r="B292" t="n">
-        <v>5314.195587050457</v>
+        <v>5314.195587050461</v>
       </c>
     </row>
     <row r="293">
@@ -2771,7 +2771,7 @@
         <v>1891</v>
       </c>
       <c r="B293" t="n">
-        <v>5403.31973218499</v>
+        <v>5403.319732184991</v>
       </c>
     </row>
     <row r="294">
@@ -2779,7 +2779,7 @@
         <v>1892</v>
       </c>
       <c r="B294" t="n">
-        <v>5494.160217750812</v>
+        <v>5494.160217750809</v>
       </c>
     </row>
     <row r="295">
@@ -2787,7 +2787,7 @@
         <v>1893</v>
       </c>
       <c r="B295" t="n">
-        <v>5586.747164252401</v>
+        <v>5586.747164252404</v>
       </c>
     </row>
     <row r="296">
@@ -2803,7 +2803,7 @@
         <v>1895</v>
       </c>
       <c r="B297" t="n">
-        <v>5777.280643969931</v>
+        <v>5777.28064396993</v>
       </c>
     </row>
     <row r="298">
@@ -2811,7 +2811,7 @@
         <v>1896</v>
       </c>
       <c r="B298" t="n">
-        <v>5875.287000096285</v>
+        <v>5875.287000096286</v>
       </c>
     </row>
     <row r="299">
@@ -2827,7 +2827,7 @@
         <v>1898</v>
       </c>
       <c r="B300" t="n">
-        <v>6076.927136688086</v>
+        <v>6076.927136688085</v>
       </c>
     </row>
     <row r="301">
@@ -2835,7 +2835,7 @@
         <v>1899</v>
       </c>
       <c r="B301" t="n">
-        <v>6180.619420582367</v>
+        <v>6180.619420582365</v>
       </c>
     </row>
     <row r="302">
@@ -2843,7 +2843,7 @@
         <v>1900</v>
       </c>
       <c r="B302" t="n">
-        <v>6286.264952408996</v>
+        <v>6286.264952408995</v>
       </c>
     </row>
     <row r="303">
@@ -2851,7 +2851,7 @@
         <v>1901</v>
       </c>
       <c r="B303" t="n">
-        <v>6393.892043996397</v>
+        <v>6393.892043996395</v>
       </c>
     </row>
     <row r="304">
@@ -2859,7 +2859,7 @@
         <v>1902</v>
       </c>
       <c r="B304" t="n">
-        <v>6503.528515721047</v>
+        <v>6503.52851572105</v>
       </c>
     </row>
     <row r="305">
@@ -2875,7 +2875,7 @@
         <v>1904</v>
       </c>
       <c r="B306" t="n">
-        <v>6728.938007662755</v>
+        <v>6728.938007662753</v>
       </c>
     </row>
     <row r="307">
@@ -2883,7 +2883,7 @@
         <v>1905</v>
       </c>
       <c r="B307" t="n">
-        <v>6844.763576472908</v>
+        <v>6844.763576472911</v>
       </c>
     </row>
     <row r="308">
@@ -2891,7 +2891,7 @@
         <v>1906</v>
       </c>
       <c r="B308" t="n">
-        <v>6962.703469656964</v>
+        <v>6962.703469656963</v>
       </c>
     </row>
     <row r="309">
@@ -2907,7 +2907,7 @@
         <v>1908</v>
       </c>
       <c r="B310" t="n">
-        <v>7205.022356469952</v>
+        <v>7205.022356469951</v>
       </c>
     </row>
     <row r="311">
@@ -2915,7 +2915,7 @@
         <v>1909</v>
       </c>
       <c r="B311" t="n">
-        <v>7329.446951129231</v>
+        <v>7329.446951129227</v>
       </c>
     </row>
     <row r="312">
@@ -2923,7 +2923,7 @@
         <v>1910</v>
       </c>
       <c r="B312" t="n">
-        <v>7456.076895219392</v>
+        <v>7456.076895219398</v>
       </c>
     </row>
     <row r="313">
@@ -2947,7 +2947,7 @@
         <v>1913</v>
       </c>
       <c r="B315" t="n">
-        <v>7849.391492773237</v>
+        <v>7849.391492773234</v>
       </c>
     </row>
     <row r="316">
@@ -2963,7 +2963,7 @@
         <v>1915</v>
       </c>
       <c r="B317" t="n">
-        <v>8122.956433740364</v>
+        <v>8122.956433740361</v>
       </c>
     </row>
     <row r="318">
@@ -2971,7 +2971,7 @@
         <v>1916</v>
       </c>
       <c r="B318" t="n">
-        <v>8263.18755497962</v>
+        <v>8263.187554979624</v>
       </c>
     </row>
     <row r="319">
@@ -2995,7 +2995,7 @@
         <v>1919</v>
       </c>
       <c r="B321" t="n">
-        <v>8697.795549557284</v>
+        <v>8697.795549557286</v>
       </c>
     </row>
     <row r="322">
@@ -3003,7 +3003,7 @@
         <v>1920</v>
       </c>
       <c r="B322" t="n">
-        <v>8847.324711707304</v>
+        <v>8847.324711707299</v>
       </c>
     </row>
     <row r="323">
@@ -3011,7 +3011,7 @@
         <v>1921</v>
       </c>
       <c r="B323" t="n">
-        <v>8999.189124665245</v>
+        <v>8999.189124665243</v>
       </c>
     </row>
     <row r="324">
@@ -3019,7 +3019,7 @@
         <v>1922</v>
       </c>
       <c r="B324" t="n">
-        <v>9153.388463745212</v>
+        <v>9153.388463745221</v>
       </c>
     </row>
     <row r="325">
@@ -3027,7 +3027,7 @@
         <v>1923</v>
       </c>
       <c r="B325" t="n">
-        <v>9309.919891086631</v>
+        <v>9309.919891086629</v>
       </c>
     </row>
     <row r="326">
@@ -3035,7 +3035,7 @@
         <v>1924</v>
       </c>
       <c r="B326" t="n">
-        <v>9468.777938821364</v>
+        <v>9468.777938821366</v>
       </c>
     </row>
     <row r="327">
@@ -3043,7 +3043,7 @@
         <v>1925</v>
       </c>
       <c r="B327" t="n">
-        <v>9629.954392106507</v>
+        <v>9629.954392106501</v>
       </c>
     </row>
     <row r="328">
@@ -3051,7 +3051,7 @@
         <v>1926</v>
       </c>
       <c r="B328" t="n">
-        <v>9793.438172369772</v>
+        <v>9793.438172369777</v>
       </c>
     </row>
     <row r="329">
@@ -3099,7 +3099,7 @@
         <v>1932</v>
       </c>
       <c r="B334" t="n">
-        <v>10821.7844689023</v>
+        <v>10821.78446890229</v>
       </c>
     </row>
     <row r="335">
@@ -3115,7 +3115,7 @@
         <v>1934</v>
       </c>
       <c r="B336" t="n">
-        <v>11182.00695127287</v>
+        <v>11182.00695127286</v>
       </c>
     </row>
     <row r="337">
@@ -3155,7 +3155,7 @@
         <v>1939</v>
       </c>
       <c r="B341" t="n">
-        <v>12117.74299791707</v>
+        <v>12117.74299791708</v>
       </c>
     </row>
     <row r="342">
@@ -3163,7 +3163,7 @@
         <v>1940</v>
       </c>
       <c r="B342" t="n">
-        <v>12310.49743384769</v>
+        <v>12310.49743384768</v>
       </c>
     </row>
     <row r="343">
@@ -3171,7 +3171,7 @@
         <v>1941</v>
       </c>
       <c r="B343" t="n">
-        <v>12504.97548019665</v>
+        <v>12504.97548019666</v>
       </c>
     </row>
     <row r="344">
@@ -3203,7 +3203,7 @@
         <v>1945</v>
       </c>
       <c r="B347" t="n">
-        <v>13298.63905953865</v>
+        <v>13298.63905953864</v>
       </c>
     </row>
     <row r="348">
@@ -3227,7 +3227,7 @@
         <v>1948</v>
       </c>
       <c r="B350" t="n">
-        <v>13908.06848244015</v>
+        <v>13908.06848244016</v>
       </c>
     </row>
     <row r="351">
@@ -3259,7 +3259,7 @@
         <v>1952</v>
       </c>
       <c r="B354" t="n">
-        <v>14734.5455721452</v>
+        <v>14734.54557214521</v>
       </c>
     </row>
     <row r="355">
@@ -3267,7 +3267,7 @@
         <v>1953</v>
       </c>
       <c r="B355" t="n">
-        <v>14942.91034525894</v>
+        <v>14942.91034525893</v>
       </c>
     </row>
     <row r="356">
@@ -3283,7 +3283,7 @@
         <v>1955</v>
       </c>
       <c r="B357" t="n">
-        <v>15360.8862148906</v>
+        <v>15360.88621489061</v>
       </c>
     </row>
     <row r="358">
@@ -3315,7 +3315,7 @@
         <v>1959</v>
       </c>
       <c r="B361" t="n">
-        <v>16198.12494171719</v>
+        <v>16198.1249417172</v>
       </c>
     </row>
     <row r="362">
@@ -3339,7 +3339,7 @@
         <v>1962</v>
       </c>
       <c r="B364" t="n">
-        <v>16822.73676818798</v>
+        <v>16822.73676818799</v>
       </c>
     </row>
     <row r="365">
@@ -3347,7 +3347,7 @@
         <v>1963</v>
       </c>
       <c r="B365" t="n">
-        <v>17029.51362208926</v>
+        <v>17029.51362208925</v>
       </c>
     </row>
     <row r="366">
@@ -3515,7 +3515,7 @@
         <v>1984</v>
       </c>
       <c r="B386" t="n">
-        <v>20895.47307971388</v>
+        <v>20895.47307971387</v>
       </c>
     </row>
     <row r="387">
@@ -3531,7 +3531,7 @@
         <v>1986</v>
       </c>
       <c r="B388" t="n">
-        <v>21186.50599416927</v>
+        <v>21186.50599416928</v>
       </c>
     </row>
     <row r="389">
@@ -3587,7 +3587,7 @@
         <v>1993</v>
       </c>
       <c r="B395" t="n">
-        <v>22053.96813920257</v>
+        <v>22053.96813920258</v>
       </c>
     </row>
     <row r="396">
@@ -3651,7 +3651,7 @@
         <v>2001</v>
       </c>
       <c r="B403" t="n">
-        <v>22723.05739746074</v>
+        <v>22723.05739746073</v>
       </c>
     </row>
     <row r="404">
@@ -3667,7 +3667,7 @@
         <v>2003</v>
       </c>
       <c r="B405" t="n">
-        <v>22832.61168975727</v>
+        <v>22832.61168975728</v>
       </c>
     </row>
     <row r="406">
@@ -3691,7 +3691,7 @@
         <v>2006</v>
       </c>
       <c r="B408" t="n">
-        <v>22952.49064301149</v>
+        <v>22952.49064301148</v>
       </c>
     </row>
     <row r="409">
@@ -3707,7 +3707,7 @@
         <v>2008</v>
       </c>
       <c r="B410" t="n">
-        <v>23002.67066597359</v>
+        <v>23002.6706659736</v>
       </c>
     </row>
     <row r="411">
@@ -3715,7 +3715,7 @@
         <v>2009</v>
       </c>
       <c r="B411" t="n">
-        <v>23018.85456091141</v>
+        <v>23018.8545609114</v>
       </c>
     </row>
     <row r="412">
@@ -3723,7 +3723,7 @@
         <v>2010</v>
       </c>
       <c r="B412" t="n">
-        <v>23029.1241983221</v>
+        <v>23029.12419832209</v>
       </c>
     </row>
     <row r="413">
@@ -3747,7 +3747,7 @@
         <v>2013</v>
       </c>
       <c r="B415" t="n">
-        <v>23024.73869787993</v>
+        <v>23024.73869787992</v>
       </c>
     </row>
     <row r="416">
@@ -3763,7 +3763,7 @@
         <v>2015</v>
       </c>
       <c r="B417" t="n">
-        <v>22992.89043744039</v>
+        <v>22992.89043744038</v>
       </c>
     </row>
     <row r="418">
@@ -3803,7 +3803,7 @@
         <v>2020</v>
       </c>
       <c r="B422" t="n">
-        <v>22815.35871860305</v>
+        <v>22815.35871860306</v>
       </c>
     </row>
     <row r="423">
@@ -3931,7 +3931,7 @@
         <v>2036</v>
       </c>
       <c r="B438" t="n">
-        <v>21421.30015198785</v>
+        <v>21421.30015198784</v>
       </c>
     </row>
     <row r="439">
@@ -4003,7 +4003,7 @@
         <v>2045</v>
       </c>
       <c r="B447" t="n">
-        <v>20211.68432502236</v>
+        <v>20211.68432502237</v>
       </c>
     </row>
     <row r="448">
@@ -4035,7 +4035,7 @@
         <v>2049</v>
       </c>
       <c r="B451" t="n">
-        <v>19607.17649881797</v>
+        <v>19607.17649881798</v>
       </c>
     </row>
     <row r="452">

--- a/Data/model_outputs_baseline/number_of_dwellings/s_delta_total.xlsx
+++ b/Data/model_outputs_baseline/number_of_dwellings/s_delta_total.xlsx
@@ -451,7 +451,7 @@
         <v>1601</v>
       </c>
       <c r="B3" t="n">
-        <v>86.01224443895785</v>
+        <v>86.01224443895683</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>1602</v>
       </c>
       <c r="B4" t="n">
-        <v>87.24817320451061</v>
+        <v>87.248173204521</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>1603</v>
       </c>
       <c r="B5" t="n">
-        <v>88.50174149125371</v>
+        <v>88.50174149125014</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>1604</v>
       </c>
       <c r="B6" t="n">
-        <v>89.77319772958683</v>
+        <v>89.7731977295861</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>1605</v>
       </c>
       <c r="B7" t="n">
-        <v>91.06279375980762</v>
+        <v>91.06279375981553</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>1606</v>
       </c>
       <c r="B8" t="n">
-        <v>92.37078487637851</v>
+        <v>92.37078487636673</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>1607</v>
       </c>
       <c r="B9" t="n">
-        <v>93.69742987280092</v>
+        <v>93.69742987279925</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>1608</v>
       </c>
       <c r="B10" t="n">
-        <v>95.04299108781153</v>
+        <v>95.04299108782236</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>1609</v>
       </c>
       <c r="B11" t="n">
-        <v>96.40773445099074</v>
+        <v>96.40773445098625</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>1610</v>
       </c>
       <c r="B12" t="n">
-        <v>97.79192952942039</v>
+        <v>97.79192952942948</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>1611</v>
       </c>
       <c r="B13" t="n">
-        <v>99.19584957547835</v>
+        <v>99.19584957547478</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>1612</v>
       </c>
       <c r="B14" t="n">
-        <v>100.6197715739658</v>
+        <v>100.6197715739524</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>1613</v>
       </c>
       <c r="B15" t="n">
-        <v>102.0639762910183</v>
+        <v>102.0639762910254</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>1614</v>
       </c>
       <c r="B16" t="n">
-        <v>103.5287483225728</v>
+        <v>103.5287483225774</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>1615</v>
       </c>
       <c r="B17" t="n">
-        <v>105.0143761442819</v>
+        <v>105.0143761442791</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>1616</v>
       </c>
       <c r="B18" t="n">
-        <v>106.5211521613072</v>
+        <v>106.5211521613075</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>1617</v>
       </c>
       <c r="B19" t="n">
-        <v>108.0493727590993</v>
+        <v>108.0493727590931</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>1618</v>
       </c>
       <c r="B20" t="n">
-        <v>109.59933835474</v>
+        <v>109.5993383547514</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>1619</v>
       </c>
       <c r="B21" t="n">
-        <v>111.1713534486103</v>
+        <v>111.1713534485964</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>1620</v>
       </c>
       <c r="B22" t="n">
-        <v>112.7657266770637</v>
+        <v>112.765726677072</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>1621</v>
       </c>
       <c r="B23" t="n">
-        <v>114.382770865443</v>
+        <v>114.3827708654306</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>1622</v>
       </c>
       <c r="B24" t="n">
-        <v>116.0228030815379</v>
+        <v>116.0228030815412</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>1623</v>
       </c>
       <c r="B25" t="n">
-        <v>117.686144690456</v>
+        <v>117.6861446904635</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>1624</v>
       </c>
       <c r="B26" t="n">
-        <v>119.3731214089887</v>
+        <v>119.3731214089923</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>1625</v>
       </c>
       <c r="B27" t="n">
-        <v>121.0840633615796</v>
+        <v>121.0840633615759</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>1626</v>
       </c>
       <c r="B28" t="n">
-        <v>122.8193051364319</v>
+        <v>122.8193051364343</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>1627</v>
       </c>
       <c r="B29" t="n">
-        <v>124.579185842347</v>
+        <v>124.5791858423386</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>1628</v>
       </c>
       <c r="B30" t="n">
-        <v>126.3640491664283</v>
+        <v>126.3640491664288</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>1629</v>
       </c>
       <c r="B31" t="n">
-        <v>128.1742434321446</v>
+        <v>128.1742434321481</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>1630</v>
       </c>
       <c r="B32" t="n">
-        <v>130.0101216582825</v>
+        <v>130.0101216582854</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>1631</v>
       </c>
       <c r="B33" t="n">
-        <v>131.8720416185355</v>
+        <v>131.8720416185377</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>1632</v>
       </c>
       <c r="B34" t="n">
-        <v>133.7603659016348</v>
+        <v>133.7603659016277</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>1633</v>
       </c>
       <c r="B35" t="n">
-        <v>135.675461972528</v>
+        <v>135.6754619725224</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>1634</v>
       </c>
       <c r="B36" t="n">
-        <v>137.6177022337605</v>
+        <v>137.6177022337744</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>1635</v>
       </c>
       <c r="B37" t="n">
-        <v>139.5874640882346</v>
+        <v>139.5874640882345</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>1636</v>
       </c>
       <c r="B38" t="n">
-        <v>141.5851300017702</v>
+        <v>141.5851300017652</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>1637</v>
       </c>
       <c r="B39" t="n">
-        <v>143.6110875673229</v>
+        <v>143.6110875673159</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>1638</v>
       </c>
       <c r="B40" t="n">
-        <v>145.6657295694464</v>
+        <v>145.665729569453</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>1639</v>
       </c>
       <c r="B41" t="n">
-        <v>147.7494540496986</v>
+        <v>147.7494540497042</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>1640</v>
       </c>
       <c r="B42" t="n">
-        <v>149.8626643722</v>
+        <v>149.8626643722002</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>1641</v>
       </c>
       <c r="B43" t="n">
-        <v>152.005769291278</v>
+        <v>152.0057692912648</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>1642</v>
       </c>
       <c r="B44" t="n">
-        <v>154.1791830182737</v>
+        <v>154.17918301829</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>1643</v>
       </c>
       <c r="B45" t="n">
-        <v>156.3833252905154</v>
+        <v>156.3833252905075</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>1644</v>
       </c>
       <c r="B46" t="n">
-        <v>158.6186214402053</v>
+        <v>158.6186214402027</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>1645</v>
       </c>
       <c r="B47" t="n">
-        <v>160.8855024642885</v>
+        <v>160.8855024642791</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>1646</v>
       </c>
       <c r="B48" t="n">
-        <v>163.1844050956345</v>
+        <v>163.1844050956393</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>1647</v>
       </c>
       <c r="B49" t="n">
-        <v>165.5157718744253</v>
+        <v>165.515771874422</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>1648</v>
       </c>
       <c r="B50" t="n">
-        <v>167.8800512204959</v>
+        <v>167.8800512205028</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>1649</v>
       </c>
       <c r="B51" t="n">
-        <v>170.2776975069414</v>
+        <v>170.2776975069438</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>1650</v>
       </c>
       <c r="B52" t="n">
-        <v>172.7091711341443</v>
+        <v>172.7091711341419</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>1651</v>
       </c>
       <c r="B53" t="n">
-        <v>175.1749386049158</v>
+        <v>175.1749386049075</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>1652</v>
       </c>
       <c r="B54" t="n">
-        <v>177.67547260008</v>
+        <v>177.6754726000886</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>1653</v>
       </c>
       <c r="B55" t="n">
-        <v>180.211252055998</v>
+        <v>180.2112520560063</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>1654</v>
       </c>
       <c r="B56" t="n">
-        <v>182.7827622416994</v>
+        <v>182.782762241693</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>1655</v>
       </c>
       <c r="B57" t="n">
-        <v>185.3904948376545</v>
+        <v>185.3904948376505</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>1656</v>
       </c>
       <c r="B58" t="n">
-        <v>188.0349480159523</v>
+        <v>188.0349480159481</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>1657</v>
       </c>
       <c r="B59" t="n">
-        <v>190.7166265201909</v>
+        <v>190.7166265201967</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>1658</v>
       </c>
       <c r="B60" t="n">
-        <v>193.4360417473814</v>
+        <v>193.4360417473822</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>1659</v>
       </c>
       <c r="B61" t="n">
-        <v>196.193711830519</v>
+        <v>196.1937118305187</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>1660</v>
       </c>
       <c r="B62" t="n">
-        <v>198.9901617221284</v>
+        <v>198.990161722121</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>1661</v>
       </c>
       <c r="B63" t="n">
-        <v>201.8259232785876</v>
+        <v>201.8259232785904</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>1662</v>
       </c>
       <c r="B64" t="n">
-        <v>204.7015353463965</v>
+        <v>204.7015353464105</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>1663</v>
       </c>
       <c r="B65" t="n">
-        <v>207.6175438480012</v>
+        <v>207.6175438479918</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>1664</v>
       </c>
       <c r="B66" t="n">
-        <v>210.5745018704103</v>
+        <v>210.5745018704101</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>1665</v>
       </c>
       <c r="B67" t="n">
-        <v>213.5729697536031</v>
+        <v>213.5729697536094</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>1666</v>
       </c>
       <c r="B68" t="n">
-        <v>216.6135151804593</v>
+        <v>216.6135151804658</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>1667</v>
       </c>
       <c r="B69" t="n">
-        <v>219.6967132683111</v>
+        <v>219.6967132683032</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>1668</v>
       </c>
       <c r="B70" t="n">
-        <v>222.8231466610504</v>
+        <v>222.8231466610473</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>1669</v>
       </c>
       <c r="B71" t="n">
-        <v>225.9934056224961</v>
+        <v>225.9934056225009</v>
       </c>
     </row>
     <row r="72">
@@ -1003,7 +1003,7 @@
         <v>1670</v>
       </c>
       <c r="B72" t="n">
-        <v>229.2080881314902</v>
+        <v>229.208088131495</v>
       </c>
     </row>
     <row r="73">
@@ -1011,7 +1011,7 @@
         <v>1671</v>
       </c>
       <c r="B73" t="n">
-        <v>232.4677999775587</v>
+        <v>232.4677999775394</v>
       </c>
     </row>
     <row r="74">
@@ -1019,7 +1019,7 @@
         <v>1672</v>
       </c>
       <c r="B74" t="n">
-        <v>235.7731548582571</v>
+        <v>235.7731548582585</v>
       </c>
     </row>
     <row r="75">
@@ -1027,7 +1027,7 @@
         <v>1673</v>
       </c>
       <c r="B75" t="n">
-        <v>239.1247744778638</v>
+        <v>239.1247744778759</v>
       </c>
     </row>
     <row r="76">
@@ -1035,7 +1035,7 @@
         <v>1674</v>
       </c>
       <c r="B76" t="n">
-        <v>242.5232886471415</v>
+        <v>242.5232886471355</v>
       </c>
     </row>
     <row r="77">
@@ -1043,7 +1043,7 @@
         <v>1675</v>
       </c>
       <c r="B77" t="n">
-        <v>245.9693353844435</v>
+        <v>245.9693353844502</v>
       </c>
     </row>
     <row r="78">
@@ -1051,7 +1051,7 @@
         <v>1676</v>
       </c>
       <c r="B78" t="n">
-        <v>249.4635610187597</v>
+        <v>249.4635610187581</v>
       </c>
     </row>
     <row r="79">
@@ -1059,7 +1059,7 @@
         <v>1677</v>
       </c>
       <c r="B79" t="n">
-        <v>253.0066202932787</v>
+        <v>253.006620293268</v>
       </c>
     </row>
     <row r="80">
@@ -1067,7 +1067,7 @@
         <v>1678</v>
       </c>
       <c r="B80" t="n">
-        <v>256.5991764713021</v>
+        <v>256.5991764713037</v>
       </c>
     </row>
     <row r="81">
@@ -1075,7 +1075,7 @@
         <v>1679</v>
       </c>
       <c r="B81" t="n">
-        <v>260.2419014431331</v>
+        <v>260.2419014431417</v>
       </c>
     </row>
     <row r="82">
@@ -1083,7 +1083,7 @@
         <v>1680</v>
       </c>
       <c r="B82" t="n">
-        <v>263.9354758345385</v>
+        <v>263.9354758345252</v>
       </c>
     </row>
     <row r="83">
@@ -1091,7 +1091,7 @@
         <v>1681</v>
       </c>
       <c r="B83" t="n">
-        <v>267.6805891169042</v>
+        <v>267.6805891169279</v>
       </c>
     </row>
     <row r="84">
@@ -1099,7 +1099,7 @@
         <v>1682</v>
       </c>
       <c r="B84" t="n">
-        <v>271.4779397191875</v>
+        <v>271.4779397191732</v>
       </c>
     </row>
     <row r="85">
@@ -1107,7 +1107,7 @@
         <v>1683</v>
       </c>
       <c r="B85" t="n">
-        <v>275.3282351408955</v>
+        <v>275.328235140886</v>
       </c>
     </row>
     <row r="86">
@@ -1115,7 +1115,7 @@
         <v>1684</v>
       </c>
       <c r="B86" t="n">
-        <v>279.2321920678659</v>
+        <v>279.2321920678827</v>
       </c>
     </row>
     <row r="87">
@@ -1123,7 +1123,7 @@
         <v>1685</v>
       </c>
       <c r="B87" t="n">
-        <v>283.190536488265</v>
+        <v>283.1905364882619</v>
       </c>
     </row>
     <row r="88">
@@ -1131,7 +1131,7 @@
         <v>1686</v>
       </c>
       <c r="B88" t="n">
-        <v>287.2040038117442</v>
+        <v>287.2040038117347</v>
       </c>
     </row>
     <row r="89">
@@ -1139,7 +1139,7 @@
         <v>1687</v>
       </c>
       <c r="B89" t="n">
-        <v>291.2733389901787</v>
+        <v>291.2733389901849</v>
       </c>
     </row>
     <row r="90">
@@ -1147,7 +1147,7 @@
         <v>1688</v>
       </c>
       <c r="B90" t="n">
-        <v>295.3992966394255</v>
+        <v>295.3992966394146</v>
       </c>
     </row>
     <row r="91">
@@ -1155,7 +1155,7 @@
         <v>1689</v>
       </c>
       <c r="B91" t="n">
-        <v>299.5826411640139</v>
+        <v>299.5826411640222</v>
       </c>
     </row>
     <row r="92">
@@ -1163,7 +1163,7 @@
         <v>1690</v>
       </c>
       <c r="B92" t="n">
-        <v>303.8241468837834</v>
+        <v>303.8241468837765</v>
       </c>
     </row>
     <row r="93">
@@ -1171,7 +1171,7 @@
         <v>1691</v>
       </c>
       <c r="B93" t="n">
-        <v>308.1245981618306</v>
+        <v>308.1245981618373</v>
       </c>
     </row>
     <row r="94">
@@ -1179,7 +1179,7 @@
         <v>1692</v>
       </c>
       <c r="B94" t="n">
-        <v>312.4847895353213</v>
+        <v>312.4847895353215</v>
       </c>
     </row>
     <row r="95">
@@ -1187,7 +1187,7 @@
         <v>1693</v>
       </c>
       <c r="B95" t="n">
-        <v>316.9055258485166</v>
+        <v>316.9055258485248</v>
       </c>
     </row>
     <row r="96">
@@ -1195,7 +1195,7 @@
         <v>1694</v>
       </c>
       <c r="B96" t="n">
-        <v>321.3876223874722</v>
+        <v>321.3876223874675</v>
       </c>
     </row>
     <row r="97">
@@ -1203,7 +1203,7 @@
         <v>1695</v>
       </c>
       <c r="B97" t="n">
-        <v>325.9319050176573</v>
+        <v>325.9319050176527</v>
       </c>
     </row>
     <row r="98">
@@ -1211,7 +1211,7 @@
         <v>1696</v>
       </c>
       <c r="B98" t="n">
-        <v>330.539210323711</v>
+        <v>330.5392103237167</v>
       </c>
     </row>
     <row r="99">
@@ -1219,7 +1219,7 @@
         <v>1697</v>
       </c>
       <c r="B99" t="n">
-        <v>335.2103857519574</v>
+        <v>335.2103857519505</v>
       </c>
     </row>
     <row r="100">
@@ -1227,7 +1227,7 @@
         <v>1698</v>
       </c>
       <c r="B100" t="n">
-        <v>339.9462897552417</v>
+        <v>339.9462897552443</v>
       </c>
     </row>
     <row r="101">
@@ -1235,7 +1235,7 @@
         <v>1699</v>
       </c>
       <c r="B101" t="n">
-        <v>344.7477919402514</v>
+        <v>344.7477919402508</v>
       </c>
     </row>
     <row r="102">
@@ -1243,7 +1243,7 @@
         <v>1700</v>
       </c>
       <c r="B102" t="n">
-        <v>349.6157732183439</v>
+        <v>349.6157732183404</v>
       </c>
     </row>
     <row r="103">
@@ -1251,7 +1251,7 @@
         <v>1701</v>
       </c>
       <c r="B103" t="n">
-        <v>354.5511259586381</v>
+        <v>354.551125958645</v>
       </c>
     </row>
     <row r="104">
@@ -1259,7 +1259,7 @@
         <v>1702</v>
       </c>
       <c r="B104" t="n">
-        <v>359.5547541436829</v>
+        <v>359.5547541436791</v>
       </c>
     </row>
     <row r="105">
@@ -1267,7 +1267,7 @@
         <v>1703</v>
       </c>
       <c r="B105" t="n">
-        <v>364.6275735293941</v>
+        <v>364.6275735294001</v>
       </c>
     </row>
     <row r="106">
@@ -1275,7 +1275,7 @@
         <v>1704</v>
       </c>
       <c r="B106" t="n">
-        <v>369.7705118068813</v>
+        <v>369.7705118068809</v>
       </c>
     </row>
     <row r="107">
@@ -1283,7 +1283,7 @@
         <v>1705</v>
       </c>
       <c r="B107" t="n">
-        <v>374.9845087684347</v>
+        <v>374.984508768429</v>
       </c>
     </row>
     <row r="108">
@@ -1291,7 +1291,7 @@
         <v>1706</v>
       </c>
       <c r="B108" t="n">
-        <v>380.2705164762529</v>
+        <v>380.2705164762588</v>
       </c>
     </row>
     <row r="109">
@@ -1299,7 +1299,7 @@
         <v>1707</v>
       </c>
       <c r="B109" t="n">
-        <v>385.6294994350765</v>
+        <v>385.6294994350718</v>
       </c>
     </row>
     <row r="110">
@@ -1307,7 +1307,7 @@
         <v>1708</v>
       </c>
       <c r="B110" t="n">
-        <v>391.0624347684644</v>
+        <v>391.0624347684708</v>
       </c>
     </row>
     <row r="111">
@@ -1315,7 +1315,7 @@
         <v>1709</v>
       </c>
       <c r="B111" t="n">
-        <v>396.5703123984957</v>
+        <v>396.5703123984895</v>
       </c>
     </row>
     <row r="112">
@@ -1331,7 +1331,7 @@
         <v>1711</v>
       </c>
       <c r="B113" t="n">
-        <v>407.8149193372907</v>
+        <v>407.8149193372894</v>
       </c>
     </row>
     <row r="114">
@@ -1339,7 +1339,7 @@
         <v>1712</v>
       </c>
       <c r="B114" t="n">
-        <v>413.5536941581069</v>
+        <v>413.5536941581036</v>
       </c>
     </row>
     <row r="115">
@@ -1347,7 +1347,7 @@
         <v>1713</v>
       </c>
       <c r="B115" t="n">
-        <v>419.3715026883016</v>
+        <v>419.3715026883087</v>
       </c>
     </row>
     <row r="116">
@@ -1355,7 +1355,7 @@
         <v>1714</v>
       </c>
       <c r="B116" t="n">
-        <v>425.2694016835</v>
+        <v>425.2694016835033</v>
       </c>
     </row>
     <row r="117">
@@ -1363,7 +1363,7 @@
         <v>1715</v>
       </c>
       <c r="B117" t="n">
-        <v>431.248461864515</v>
+        <v>431.2484618645113</v>
       </c>
     </row>
     <row r="118">
@@ -1371,7 +1371,7 @@
         <v>1716</v>
       </c>
       <c r="B118" t="n">
-        <v>437.3097681280265</v>
+        <v>437.3097681280306</v>
       </c>
     </row>
     <row r="119">
@@ -1379,7 +1379,7 @@
         <v>1717</v>
       </c>
       <c r="B119" t="n">
-        <v>443.4544197617321</v>
+        <v>443.4544197617308</v>
       </c>
     </row>
     <row r="120">
@@ -1387,7 +1387,7 @@
         <v>1718</v>
       </c>
       <c r="B120" t="n">
-        <v>449.6835306652507</v>
+        <v>449.6835306652523</v>
       </c>
     </row>
     <row r="121">
@@ -1395,7 +1395,7 @@
         <v>1719</v>
       </c>
       <c r="B121" t="n">
-        <v>455.9982295762279</v>
+        <v>455.9982295762222</v>
       </c>
     </row>
     <row r="122">
@@ -1403,7 +1403,7 @@
         <v>1720</v>
       </c>
       <c r="B122" t="n">
-        <v>462.3996603021413</v>
+        <v>462.3996603021379</v>
       </c>
     </row>
     <row r="123">
@@ -1411,7 +1411,7 @@
         <v>1721</v>
       </c>
       <c r="B123" t="n">
-        <v>468.8889819579193</v>
+        <v>468.888981957923</v>
       </c>
     </row>
     <row r="124">
@@ -1419,7 +1419,7 @@
         <v>1722</v>
       </c>
       <c r="B124" t="n">
-        <v>475.4673692097161</v>
+        <v>475.4673692097157</v>
       </c>
     </row>
     <row r="125">
@@ -1427,7 +1427,7 @@
         <v>1723</v>
       </c>
       <c r="B125" t="n">
-        <v>482.1360125247677</v>
+        <v>482.1360125247626</v>
       </c>
     </row>
     <row r="126">
@@ -1435,7 +1435,7 @@
         <v>1724</v>
       </c>
       <c r="B126" t="n">
-        <v>488.8961184282781</v>
+        <v>488.8961184282818</v>
       </c>
     </row>
     <row r="127">
@@ -1443,7 +1443,7 @@
         <v>1725</v>
       </c>
       <c r="B127" t="n">
-        <v>495.7489097665641</v>
+        <v>495.7489097665621</v>
       </c>
     </row>
     <row r="128">
@@ -1451,7 +1451,7 @@
         <v>1726</v>
       </c>
       <c r="B128" t="n">
-        <v>502.6956259778363</v>
+        <v>502.6956259778384</v>
       </c>
     </row>
     <row r="129">
@@ -1459,7 +1459,7 @@
         <v>1727</v>
       </c>
       <c r="B129" t="n">
-        <v>509.7375233696644</v>
+        <v>509.737523369664</v>
       </c>
     </row>
     <row r="130">
@@ -1467,7 +1467,7 @@
         <v>1728</v>
       </c>
       <c r="B130" t="n">
-        <v>516.8758754051266</v>
+        <v>516.8758754051214</v>
       </c>
     </row>
     <row r="131">
@@ -1475,7 +1475,7 @@
         <v>1729</v>
       </c>
       <c r="B131" t="n">
-        <v>524.1119729954548</v>
+        <v>524.1119729954589</v>
       </c>
     </row>
     <row r="132">
@@ -1483,7 +1483,7 @@
         <v>1730</v>
       </c>
       <c r="B132" t="n">
-        <v>531.4471248023137</v>
+        <v>531.4471248023161</v>
       </c>
     </row>
     <row r="133">
@@ -1491,7 +1491,7 @@
         <v>1731</v>
       </c>
       <c r="B133" t="n">
-        <v>538.882657548148</v>
+        <v>538.8826575481479</v>
       </c>
     </row>
     <row r="134">
@@ -1499,7 +1499,7 @@
         <v>1732</v>
       </c>
       <c r="B134" t="n">
-        <v>546.4199163346974</v>
+        <v>546.4199163346941</v>
       </c>
     </row>
     <row r="135">
@@ -1507,7 +1507,7 @@
         <v>1733</v>
       </c>
       <c r="B135" t="n">
-        <v>554.0602649726084</v>
+        <v>554.0602649726102</v>
       </c>
     </row>
     <row r="136">
@@ -1515,7 +1515,7 @@
         <v>1734</v>
       </c>
       <c r="B136" t="n">
-        <v>561.805086318312</v>
+        <v>561.8050863183111</v>
       </c>
     </row>
     <row r="137">
@@ -1523,7 +1523,7 @@
         <v>1735</v>
       </c>
       <c r="B137" t="n">
-        <v>569.6557826229489</v>
+        <v>569.65578262295</v>
       </c>
     </row>
     <row r="138">
@@ -1531,7 +1531,7 @@
         <v>1736</v>
       </c>
       <c r="B138" t="n">
-        <v>577.6137758908127</v>
+        <v>577.61377589081</v>
       </c>
     </row>
     <row r="139">
@@ -1539,7 +1539,7 @@
         <v>1737</v>
       </c>
       <c r="B139" t="n">
-        <v>585.6805082482255</v>
+        <v>585.6805082482319</v>
       </c>
     </row>
     <row r="140">
@@ -1547,7 +1547,7 @@
         <v>1738</v>
       </c>
       <c r="B140" t="n">
-        <v>593.8574423245823</v>
+        <v>593.857442324575</v>
       </c>
     </row>
     <row r="141">
@@ -1555,7 +1555,7 @@
         <v>1739</v>
       </c>
       <c r="B141" t="n">
-        <v>602.146061644443</v>
+        <v>602.1460616444449</v>
       </c>
     </row>
     <row r="142">
@@ -1563,7 +1563,7 @@
         <v>1740</v>
       </c>
       <c r="B142" t="n">
-        <v>610.5478710316085</v>
+        <v>610.5478710316034</v>
       </c>
     </row>
     <row r="143">
@@ -1571,7 +1571,7 @@
         <v>1741</v>
       </c>
       <c r="B143" t="n">
-        <v>619.0643970266348</v>
+        <v>619.0643970266365</v>
       </c>
     </row>
     <row r="144">
@@ -1579,7 +1579,7 @@
         <v>1742</v>
       </c>
       <c r="B144" t="n">
-        <v>627.697188316279</v>
+        <v>627.697188316285</v>
       </c>
     </row>
     <row r="145">
@@ -1587,7 +1587,7 @@
         <v>1743</v>
       </c>
       <c r="B145" t="n">
-        <v>636.4478161778397</v>
+        <v>636.4478161778362</v>
       </c>
     </row>
     <row r="146">
@@ -1595,7 +1595,7 @@
         <v>1744</v>
       </c>
       <c r="B146" t="n">
-        <v>645.3178749361399</v>
+        <v>645.3178749361412</v>
       </c>
     </row>
     <row r="147">
@@ -1603,7 +1603,7 @@
         <v>1745</v>
       </c>
       <c r="B147" t="n">
-        <v>654.3089824369513</v>
+        <v>654.3089824369523</v>
       </c>
     </row>
     <row r="148">
@@ -1611,7 +1611,7 @@
         <v>1746</v>
       </c>
       <c r="B148" t="n">
-        <v>663.4227805339061</v>
+        <v>663.4227805339067</v>
       </c>
     </row>
     <row r="149">
@@ -1619,7 +1619,7 @@
         <v>1747</v>
       </c>
       <c r="B149" t="n">
-        <v>672.6609355924071</v>
+        <v>672.6609355924045</v>
       </c>
     </row>
     <row r="150">
@@ -1627,7 +1627,7 @@
         <v>1748</v>
       </c>
       <c r="B150" t="n">
-        <v>682.025139010042</v>
+        <v>682.0251390100387</v>
       </c>
     </row>
     <row r="151">
@@ -1635,7 +1635,7 @@
         <v>1749</v>
       </c>
       <c r="B151" t="n">
-        <v>691.5171077528421</v>
+        <v>691.5171077528461</v>
       </c>
     </row>
     <row r="152">
@@ -1643,7 +1643,7 @@
         <v>1750</v>
       </c>
       <c r="B152" t="n">
-        <v>701.1385849110658</v>
+        <v>701.1385849110593</v>
       </c>
     </row>
     <row r="153">
@@ -1651,7 +1651,7 @@
         <v>1751</v>
       </c>
       <c r="B153" t="n">
-        <v>710.8913402716023</v>
+        <v>710.8913402716064</v>
       </c>
     </row>
     <row r="154">
@@ -1659,7 +1659,7 @@
         <v>1752</v>
       </c>
       <c r="B154" t="n">
-        <v>720.7771709111788</v>
+        <v>720.7771709111795</v>
       </c>
     </row>
     <row r="155">
@@ -1667,7 +1667,7 @@
         <v>1753</v>
       </c>
       <c r="B155" t="n">
-        <v>730.7979018081387</v>
+        <v>730.7979018081369</v>
       </c>
     </row>
     <row r="156">
@@ -1675,7 +1675,7 @@
         <v>1754</v>
       </c>
       <c r="B156" t="n">
-        <v>740.9553864750463</v>
+        <v>740.9553864750519</v>
       </c>
     </row>
     <row r="157">
@@ -1683,7 +1683,7 @@
         <v>1755</v>
       </c>
       <c r="B157" t="n">
-        <v>751.2515076137744</v>
+        <v>751.2515076137723</v>
       </c>
     </row>
     <row r="158">
@@ -1691,7 +1691,7 @@
         <v>1756</v>
       </c>
       <c r="B158" t="n">
-        <v>761.6881777908354</v>
+        <v>761.6881777908374</v>
       </c>
     </row>
     <row r="159">
@@ -1699,7 +1699,7 @@
         <v>1757</v>
       </c>
       <c r="B159" t="n">
-        <v>772.2673401376313</v>
+        <v>772.2673401376239</v>
       </c>
     </row>
     <row r="160">
@@ -1707,7 +1707,7 @@
         <v>1758</v>
       </c>
       <c r="B160" t="n">
-        <v>782.9909690732431</v>
+        <v>782.9909690732439</v>
       </c>
     </row>
     <row r="161">
@@ -1715,7 +1715,7 @@
         <v>1759</v>
       </c>
       <c r="B161" t="n">
-        <v>793.8610710525957</v>
+        <v>793.8610710525962</v>
       </c>
     </row>
     <row r="162">
@@ -1723,7 +1723,7 @@
         <v>1760</v>
       </c>
       <c r="B162" t="n">
-        <v>804.8796853401439</v>
+        <v>804.8796853401467</v>
       </c>
     </row>
     <row r="163">
@@ -1731,7 +1731,7 @@
         <v>1761</v>
       </c>
       <c r="B163" t="n">
-        <v>816.0488848100372</v>
+        <v>816.0488848100368</v>
       </c>
     </row>
     <row r="164">
@@ -1739,7 +1739,7 @@
         <v>1762</v>
       </c>
       <c r="B164" t="n">
-        <v>827.3707767744216</v>
+        <v>827.3707767744202</v>
       </c>
     </row>
     <row r="165">
@@ -1747,7 +1747,7 @@
         <v>1763</v>
       </c>
       <c r="B165" t="n">
-        <v>838.8475038392207</v>
+        <v>838.8475038392214</v>
       </c>
     </row>
     <row r="166">
@@ -1755,7 +1755,7 @@
         <v>1764</v>
       </c>
       <c r="B166" t="n">
-        <v>850.4812447905213</v>
+        <v>850.4812447905182</v>
       </c>
     </row>
     <row r="167">
@@ -1763,7 +1763,7 @@
         <v>1765</v>
       </c>
       <c r="B167" t="n">
-        <v>862.2742155116069</v>
+        <v>862.2742155116094</v>
       </c>
     </row>
     <row r="168">
@@ -1771,7 +1771,7 @@
         <v>1766</v>
       </c>
       <c r="B168" t="n">
-        <v>874.2286699311367</v>
+        <v>874.2286699311364</v>
       </c>
     </row>
     <row r="169">
@@ -1779,7 +1779,7 @@
         <v>1767</v>
       </c>
       <c r="B169" t="n">
-        <v>886.3469010045021</v>
+        <v>886.3469010044997</v>
       </c>
     </row>
     <row r="170">
@@ -1787,7 +1787,7 @@
         <v>1768</v>
       </c>
       <c r="B170" t="n">
-        <v>898.6312417297128</v>
+        <v>898.6312417297142</v>
       </c>
     </row>
     <row r="171">
@@ -1795,7 +1795,7 @@
         <v>1769</v>
       </c>
       <c r="B171" t="n">
-        <v>911.0840661979425</v>
+        <v>911.0840661979445</v>
       </c>
     </row>
     <row r="172">
@@ -1803,7 +1803,7 @@
         <v>1770</v>
       </c>
       <c r="B172" t="n">
-        <v>923.7077906807691</v>
+        <v>923.7077906807669</v>
       </c>
     </row>
     <row r="173">
@@ -1811,7 +1811,7 @@
         <v>1771</v>
       </c>
       <c r="B173" t="n">
-        <v>936.5048747553452</v>
+        <v>936.5048747553468</v>
       </c>
     </row>
     <row r="174">
@@ -1819,7 +1819,7 @@
         <v>1772</v>
       </c>
       <c r="B174" t="n">
-        <v>949.4778224685739</v>
+        <v>949.4778224685724</v>
       </c>
     </row>
     <row r="175">
@@ -1827,7 +1827,7 @@
         <v>1773</v>
       </c>
       <c r="B175" t="n">
-        <v>962.6291835414017</v>
+        <v>962.6291835414</v>
       </c>
     </row>
     <row r="176">
@@ -1835,7 +1835,7 @@
         <v>1774</v>
       </c>
       <c r="B176" t="n">
-        <v>975.9615546151138</v>
+        <v>975.9615546151123</v>
       </c>
     </row>
     <row r="177">
@@ -1843,7 +1843,7 @@
         <v>1775</v>
       </c>
       <c r="B177" t="n">
-        <v>989.4775805409985</v>
+        <v>989.4775805410005</v>
       </c>
     </row>
     <row r="178">
@@ -1851,7 +1851,7 @@
         <v>1776</v>
       </c>
       <c r="B178" t="n">
-        <v>1003.1799557141</v>
+        <v>1003.179955714101</v>
       </c>
     </row>
     <row r="179">
@@ -1859,7 +1859,7 @@
         <v>1777</v>
       </c>
       <c r="B179" t="n">
-        <v>1017.071425453608</v>
+        <v>1017.071425453607</v>
       </c>
     </row>
     <row r="180">
@@ -1875,7 +1875,7 @@
         <v>1779</v>
       </c>
       <c r="B181" t="n">
-        <v>1045.432893142887</v>
+        <v>1045.432893142885</v>
       </c>
     </row>
     <row r="182">
@@ -1883,7 +1883,7 @@
         <v>1780</v>
       </c>
       <c r="B182" t="n">
-        <v>1059.908649447017</v>
+        <v>1059.90864944702</v>
       </c>
     </row>
     <row r="183">
@@ -1891,7 +1891,7 @@
         <v>1781</v>
       </c>
       <c r="B183" t="n">
-        <v>1074.585020133648</v>
+        <v>1074.585020133645</v>
       </c>
     </row>
     <row r="184">
@@ -1899,7 +1899,7 @@
         <v>1782</v>
       </c>
       <c r="B184" t="n">
-        <v>1089.46502756308</v>
+        <v>1089.465027563086</v>
       </c>
     </row>
     <row r="185">
@@ -1907,7 +1907,7 @@
         <v>1783</v>
       </c>
       <c r="B185" t="n">
-        <v>1104.551754354905</v>
+        <v>1104.551754354904</v>
       </c>
     </row>
     <row r="186">
@@ -1915,7 +1915,7 @@
         <v>1784</v>
       </c>
       <c r="B186" t="n">
-        <v>1119.848345134314</v>
+        <v>1119.848345134309</v>
       </c>
     </row>
     <row r="187">
@@ -1923,7 +1923,7 @@
         <v>1785</v>
       </c>
       <c r="B187" t="n">
-        <v>1135.35800833781</v>
+        <v>1135.358008337811</v>
       </c>
     </row>
     <row r="188">
@@ -1939,7 +1939,7 @@
         <v>1787</v>
       </c>
       <c r="B189" t="n">
-        <v>1167.029716084392</v>
+        <v>1167.029716084391</v>
       </c>
     </row>
     <row r="190">
@@ -1947,7 +1947,7 @@
         <v>1788</v>
       </c>
       <c r="B190" t="n">
-        <v>1183.198513673233</v>
+        <v>1183.198513673235</v>
       </c>
     </row>
     <row r="191">
@@ -1963,7 +1963,7 @@
         <v>1790</v>
       </c>
       <c r="B192" t="n">
-        <v>1216.219413335326</v>
+        <v>1216.219413335327</v>
       </c>
     </row>
     <row r="193">
@@ -1979,7 +1979,7 @@
         <v>1792</v>
       </c>
       <c r="B194" t="n">
-        <v>1250.175479685536</v>
+        <v>1250.175479685535</v>
       </c>
     </row>
     <row r="195">
@@ -1987,7 +1987,7 @@
         <v>1793</v>
       </c>
       <c r="B195" t="n">
-        <v>1267.513529178346</v>
+        <v>1267.513529178348</v>
       </c>
     </row>
     <row r="196">
@@ -1995,7 +1995,7 @@
         <v>1794</v>
       </c>
       <c r="B196" t="n">
-        <v>1285.096728072425</v>
+        <v>1285.096728072423</v>
       </c>
     </row>
     <row r="197">
@@ -2003,7 +2003,7 @@
         <v>1795</v>
       </c>
       <c r="B197" t="n">
-        <v>1302.929036537462</v>
+        <v>1302.929036537464</v>
       </c>
     </row>
     <row r="198">
@@ -2011,7 +2011,7 @@
         <v>1796</v>
       </c>
       <c r="B198" t="n">
-        <v>1321.014502842908</v>
+        <v>1321.014502842907</v>
       </c>
     </row>
     <row r="199">
@@ -2035,7 +2035,7 @@
         <v>1799</v>
       </c>
       <c r="B201" t="n">
-        <v>1376.831709443995</v>
+        <v>1376.831709443994</v>
       </c>
     </row>
     <row r="202">
@@ -2051,7 +2051,7 @@
         <v>1801</v>
       </c>
       <c r="B203" t="n">
-        <v>1415.38740067499</v>
+        <v>1415.387400674991</v>
       </c>
     </row>
     <row r="204">
@@ -2059,7 +2059,7 @@
         <v>1802</v>
       </c>
       <c r="B204" t="n">
-        <v>1435.082107166251</v>
+        <v>1435.082107166248</v>
       </c>
     </row>
     <row r="205">
@@ -2067,7 +2067,7 @@
         <v>1803</v>
       </c>
       <c r="B205" t="n">
-        <v>1455.061010434897</v>
+        <v>1455.061010434899</v>
       </c>
     </row>
     <row r="206">
@@ -2083,7 +2083,7 @@
         <v>1805</v>
       </c>
       <c r="B207" t="n">
-        <v>1495.890947008553</v>
+        <v>1495.890947008552</v>
       </c>
     </row>
     <row r="208">
@@ -2091,7 +2091,7 @@
         <v>1806</v>
       </c>
       <c r="B208" t="n">
-        <v>1516.752041709919</v>
+        <v>1516.75204170992</v>
       </c>
     </row>
     <row r="209">
@@ -2099,7 +2099,7 @@
         <v>1807</v>
       </c>
       <c r="B209" t="n">
-        <v>1537.91746305176</v>
+        <v>1537.917463051756</v>
       </c>
     </row>
     <row r="210">
@@ -2107,7 +2107,7 @@
         <v>1808</v>
       </c>
       <c r="B210" t="n">
-        <v>1559.392549363572</v>
+        <v>1559.392549363574</v>
       </c>
     </row>
     <row r="211">
@@ -2115,7 +2115,7 @@
         <v>1809</v>
       </c>
       <c r="B211" t="n">
-        <v>1581.182768750652</v>
+        <v>1581.182768750653</v>
       </c>
     </row>
     <row r="212">
@@ -2123,7 +2123,7 @@
         <v>1810</v>
       </c>
       <c r="B212" t="n">
-        <v>1603.293722993381</v>
+        <v>1603.29372299338</v>
       </c>
     </row>
     <row r="213">
@@ -2131,7 +2131,7 @@
         <v>1811</v>
       </c>
       <c r="B213" t="n">
-        <v>1625.731151553186</v>
+        <v>1625.731151553187</v>
       </c>
     </row>
     <row r="214">
@@ -2139,7 +2139,7 @@
         <v>1812</v>
       </c>
       <c r="B214" t="n">
-        <v>1648.500935687557</v>
+        <v>1648.500935687556</v>
       </c>
     </row>
     <row r="215">
@@ -2163,7 +2163,7 @@
         <v>1815</v>
       </c>
       <c r="B217" t="n">
-        <v>1718.865450573956</v>
+        <v>1718.865450573958</v>
       </c>
     </row>
     <row r="218">
@@ -2171,7 +2171,7 @@
         <v>1816</v>
       </c>
       <c r="B218" t="n">
-        <v>1743.026455742566</v>
+        <v>1743.026455742564</v>
       </c>
     </row>
     <row r="219">
@@ -2203,7 +2203,7 @@
         <v>1820</v>
       </c>
       <c r="B222" t="n">
-        <v>1843.380003203743</v>
+        <v>1843.38000320374</v>
       </c>
     </row>
     <row r="223">
@@ -2211,7 +2211,7 @@
         <v>1821</v>
       </c>
       <c r="B223" t="n">
-        <v>1869.431221007472</v>
+        <v>1869.431221007474</v>
       </c>
     </row>
     <row r="224">
@@ -2219,7 +2219,7 @@
         <v>1822</v>
       </c>
       <c r="B224" t="n">
-        <v>1895.882391086762</v>
+        <v>1895.882391086765</v>
       </c>
     </row>
     <row r="225">
@@ -2235,7 +2235,7 @@
         <v>1824</v>
       </c>
       <c r="B226" t="n">
-        <v>1950.015767064517</v>
+        <v>1950.015767064513</v>
       </c>
     </row>
     <row r="227">
@@ -2243,7 +2243,7 @@
         <v>1825</v>
       </c>
       <c r="B227" t="n">
-        <v>1977.714068013942</v>
+        <v>1977.714068013943</v>
       </c>
     </row>
     <row r="228">
@@ -2267,7 +2267,7 @@
         <v>1828</v>
       </c>
       <c r="B230" t="n">
-        <v>2063.436430541285</v>
+        <v>2063.436430541286</v>
       </c>
     </row>
     <row r="231">
@@ -2275,7 +2275,7 @@
         <v>1829</v>
       </c>
       <c r="B231" t="n">
-        <v>2092.91571618503</v>
+        <v>2092.915716185031</v>
       </c>
     </row>
     <row r="232">
@@ -2283,7 +2283,7 @@
         <v>1830</v>
       </c>
       <c r="B232" t="n">
-        <v>2122.86283232771</v>
+        <v>2122.862832327709</v>
       </c>
     </row>
     <row r="233">
@@ -2291,7 +2291,7 @@
         <v>1831</v>
       </c>
       <c r="B233" t="n">
-        <v>2153.287286128977</v>
+        <v>2153.287286128975</v>
       </c>
     </row>
     <row r="234">
@@ -2299,7 +2299,7 @@
         <v>1832</v>
       </c>
       <c r="B234" t="n">
-        <v>2184.19883240407</v>
+        <v>2184.198832404072</v>
       </c>
     </row>
     <row r="235">
@@ -2307,7 +2307,7 @@
         <v>1833</v>
       </c>
       <c r="B235" t="n">
-        <v>2215.607480018225</v>
+        <v>2215.607480018224</v>
       </c>
     </row>
     <row r="236">
@@ -2331,7 +2331,7 @@
         <v>1836</v>
       </c>
       <c r="B238" t="n">
-        <v>2312.920066911664</v>
+        <v>2312.920066911663</v>
       </c>
     </row>
     <row r="239">
@@ -2339,7 +2339,7 @@
         <v>1837</v>
       </c>
       <c r="B239" t="n">
-        <v>2346.422517904954</v>
+        <v>2346.422517904959</v>
       </c>
     </row>
     <row r="240">
@@ -2347,7 +2347,7 @@
         <v>1838</v>
       </c>
       <c r="B240" t="n">
-        <v>2380.47615466799</v>
+        <v>2380.476154667987</v>
       </c>
     </row>
     <row r="241">
@@ -2363,7 +2363,7 @@
         <v>1840</v>
       </c>
       <c r="B242" t="n">
-        <v>2450.283973096086</v>
+        <v>2450.283973096084</v>
       </c>
     </row>
     <row r="243">
@@ -2387,7 +2387,7 @@
         <v>1843</v>
       </c>
       <c r="B245" t="n">
-        <v>2559.431306207412</v>
+        <v>2559.431306207415</v>
       </c>
     </row>
     <row r="246">
@@ -2395,7 +2395,7 @@
         <v>1844</v>
       </c>
       <c r="B246" t="n">
-        <v>2597.047931161764</v>
+        <v>2597.047931161761</v>
       </c>
     </row>
     <row r="247">
@@ -2403,7 +2403,7 @@
         <v>1845</v>
       </c>
       <c r="B247" t="n">
-        <v>2635.304000738365</v>
+        <v>2635.304000738364</v>
       </c>
     </row>
     <row r="248">
@@ -2411,7 +2411,7 @@
         <v>1846</v>
       </c>
       <c r="B248" t="n">
-        <v>2674.213436377848</v>
+        <v>2674.213436377847</v>
       </c>
     </row>
     <row r="249">
@@ -2419,7 +2419,7 @@
         <v>1847</v>
       </c>
       <c r="B249" t="n">
-        <v>2713.790508245468</v>
+        <v>2713.79050824547</v>
       </c>
     </row>
     <row r="250">
@@ -2435,7 +2435,7 @@
         <v>1849</v>
       </c>
       <c r="B251" t="n">
-        <v>2795.006425041548</v>
+        <v>2795.006425041546</v>
       </c>
     </row>
     <row r="252">
@@ -2443,7 +2443,7 @@
         <v>1850</v>
       </c>
       <c r="B252" t="n">
-        <v>2836.675613733792</v>
+        <v>2836.675613733794</v>
       </c>
     </row>
     <row r="253">
@@ -2451,7 +2451,7 @@
         <v>1851</v>
       </c>
       <c r="B253" t="n">
-        <v>2879.073139053921</v>
+        <v>2879.07313905392</v>
       </c>
     </row>
     <row r="254">
@@ -2459,7 +2459,7 @@
         <v>1852</v>
       </c>
       <c r="B254" t="n">
-        <v>2922.215113175155</v>
+        <v>2922.215113175152</v>
       </c>
     </row>
     <row r="255">
@@ -2467,7 +2467,7 @@
         <v>1853</v>
       </c>
       <c r="B255" t="n">
-        <v>2966.118035438416</v>
+        <v>2966.118035438421</v>
       </c>
     </row>
     <row r="256">
@@ -2475,7 +2475,7 @@
         <v>1854</v>
       </c>
       <c r="B256" t="n">
-        <v>3010.798798198697</v>
+        <v>3010.798798198695</v>
       </c>
     </row>
     <row r="257">
@@ -2491,7 +2491,7 @@
         <v>1856</v>
       </c>
       <c r="B258" t="n">
-        <v>3102.563413155297</v>
+        <v>3102.563413155294</v>
       </c>
     </row>
     <row r="259">
@@ -2499,7 +2499,7 @@
         <v>1857</v>
       </c>
       <c r="B259" t="n">
-        <v>3149.683064387747</v>
+        <v>3149.68306438775</v>
       </c>
     </row>
     <row r="260">
@@ -2507,7 +2507,7 @@
         <v>1858</v>
       </c>
       <c r="B260" t="n">
-        <v>3197.652164028391</v>
+        <v>3197.652164028389</v>
       </c>
     </row>
     <row r="261">
@@ -2531,7 +2531,7 @@
         <v>1861</v>
       </c>
       <c r="B263" t="n">
-        <v>3346.847629622288</v>
+        <v>3346.847629622285</v>
       </c>
     </row>
     <row r="264">
@@ -2539,7 +2539,7 @@
         <v>1862</v>
       </c>
       <c r="B264" t="n">
-        <v>3398.408124396798</v>
+        <v>3398.408124396799</v>
       </c>
     </row>
     <row r="265">
@@ -2547,7 +2547,7 @@
         <v>1863</v>
       </c>
       <c r="B265" t="n">
-        <v>3450.917004559502</v>
+        <v>3450.917004559501</v>
       </c>
     </row>
     <row r="266">
@@ -2555,7 +2555,7 @@
         <v>1864</v>
       </c>
       <c r="B266" t="n">
-        <v>3504.395348767686</v>
+        <v>3504.395348767689</v>
       </c>
     </row>
     <row r="267">
@@ -2563,7 +2563,7 @@
         <v>1865</v>
       </c>
       <c r="B267" t="n">
-        <v>3558.86467092391</v>
+        <v>3558.864670923912</v>
       </c>
     </row>
     <row r="268">
@@ -2571,7 +2571,7 @@
         <v>1866</v>
       </c>
       <c r="B268" t="n">
-        <v>3614.346921043362</v>
+        <v>3614.346921043358</v>
       </c>
     </row>
     <row r="269">
@@ -2579,7 +2579,7 @@
         <v>1867</v>
       </c>
       <c r="B269" t="n">
-        <v>3670.864485435473</v>
+        <v>3670.86448543547</v>
       </c>
     </row>
     <row r="270">
@@ -2587,7 +2587,7 @@
         <v>1868</v>
       </c>
       <c r="B270" t="n">
-        <v>3728.440186154291</v>
+        <v>3728.440186154297</v>
       </c>
     </row>
     <row r="271">
@@ -2595,7 +2595,7 @@
         <v>1869</v>
       </c>
       <c r="B271" t="n">
-        <v>3787.097279657036</v>
+        <v>3787.097279657032</v>
       </c>
     </row>
     <row r="272">
@@ -2603,7 +2603,7 @@
         <v>1870</v>
       </c>
       <c r="B272" t="n">
-        <v>3846.859454623674</v>
+        <v>3846.859454623675</v>
       </c>
     </row>
     <row r="273">
@@ -2611,7 +2611,7 @@
         <v>1871</v>
       </c>
       <c r="B273" t="n">
-        <v>3907.750828873698</v>
+        <v>3907.750828873694</v>
       </c>
     </row>
     <row r="274">
@@ -2619,7 +2619,7 @@
         <v>1872</v>
       </c>
       <c r="B274" t="n">
-        <v>3969.795945326935</v>
+        <v>3969.795945326937</v>
       </c>
     </row>
     <row r="275">
@@ -2627,7 +2627,7 @@
         <v>1873</v>
       </c>
       <c r="B275" t="n">
-        <v>4033.01976694519</v>
+        <v>4033.019766945192</v>
       </c>
     </row>
     <row r="276">
@@ -2635,7 +2635,7 @@
         <v>1874</v>
       </c>
       <c r="B276" t="n">
-        <v>4097.447670590149</v>
+        <v>4097.447670590145</v>
       </c>
     </row>
     <row r="277">
@@ -2643,7 +2643,7 @@
         <v>1875</v>
       </c>
       <c r="B277" t="n">
-        <v>4163.105439737925</v>
+        <v>4163.105439737931</v>
       </c>
     </row>
     <row r="278">
@@ -2651,7 +2651,7 @@
         <v>1876</v>
       </c>
       <c r="B278" t="n">
-        <v>4230.019255978004</v>
+        <v>4230.019255978007</v>
       </c>
     </row>
     <row r="279">
@@ -2659,7 +2659,7 @@
         <v>1877</v>
       </c>
       <c r="B279" t="n">
-        <v>4298.215689232206</v>
+        <v>4298.215689232205</v>
       </c>
     </row>
     <row r="280">
@@ -2667,7 +2667,7 @@
         <v>1878</v>
       </c>
       <c r="B280" t="n">
-        <v>4367.721686620743</v>
+        <v>4367.721686620741</v>
       </c>
     </row>
     <row r="281">
@@ -2683,7 +2683,7 @@
         <v>1880</v>
       </c>
       <c r="B282" t="n">
-        <v>4510.771971442562</v>
+        <v>4510.771971442561</v>
       </c>
     </row>
     <row r="283">
@@ -2699,7 +2699,7 @@
         <v>1882</v>
       </c>
       <c r="B284" t="n">
-        <v>4659.39271622893</v>
+        <v>4659.392716228926</v>
       </c>
     </row>
     <row r="285">
@@ -2707,7 +2707,7 @@
         <v>1883</v>
       </c>
       <c r="B285" t="n">
-        <v>4735.862978200559</v>
+        <v>4735.862978200562</v>
       </c>
     </row>
     <row r="286">
@@ -2715,7 +2715,7 @@
         <v>1884</v>
       </c>
       <c r="B286" t="n">
-        <v>4813.811596072743</v>
+        <v>4813.811596072745</v>
       </c>
     </row>
     <row r="287">
@@ -2723,7 +2723,7 @@
         <v>1885</v>
       </c>
       <c r="B287" t="n">
-        <v>4893.267716678708</v>
+        <v>4893.267716678706</v>
       </c>
     </row>
     <row r="288">
@@ -2731,7 +2731,7 @@
         <v>1886</v>
       </c>
       <c r="B288" t="n">
-        <v>4974.260717437573</v>
+        <v>4974.260717437577</v>
       </c>
     </row>
     <row r="289">
@@ -2747,7 +2747,7 @@
         <v>1888</v>
       </c>
       <c r="B290" t="n">
-        <v>5140.975859838763</v>
+        <v>5140.975859838762</v>
       </c>
     </row>
     <row r="291">
@@ -2755,7 +2755,7 @@
         <v>1889</v>
       </c>
       <c r="B291" t="n">
-        <v>5226.757658488957</v>
+        <v>5226.757658488958</v>
       </c>
     </row>
     <row r="292">
@@ -2763,7 +2763,7 @@
         <v>1890</v>
       </c>
       <c r="B292" t="n">
-        <v>5314.195587050461</v>
+        <v>5314.19558705046</v>
       </c>
     </row>
     <row r="293">
@@ -2771,7 +2771,7 @@
         <v>1891</v>
       </c>
       <c r="B293" t="n">
-        <v>5403.319732184991</v>
+        <v>5403.319732184989</v>
       </c>
     </row>
     <row r="294">
@@ -2779,7 +2779,7 @@
         <v>1892</v>
       </c>
       <c r="B294" t="n">
-        <v>5494.160217750809</v>
+        <v>5494.160217750813</v>
       </c>
     </row>
     <row r="295">
@@ -2787,7 +2787,7 @@
         <v>1893</v>
       </c>
       <c r="B295" t="n">
-        <v>5586.747164252404</v>
+        <v>5586.7471642524</v>
       </c>
     </row>
     <row r="296">
@@ -2795,7 +2795,7 @@
         <v>1894</v>
       </c>
       <c r="B296" t="n">
-        <v>5681.110645724096</v>
+        <v>5681.110645724092</v>
       </c>
     </row>
     <row r="297">
@@ -2811,7 +2811,7 @@
         <v>1896</v>
       </c>
       <c r="B298" t="n">
-        <v>5875.287000096286</v>
+        <v>5875.28700009629</v>
       </c>
     </row>
     <row r="299">
@@ -2819,7 +2819,7 @@
         <v>1897</v>
       </c>
       <c r="B299" t="n">
-        <v>5975.159363275632</v>
+        <v>5975.15936327563</v>
       </c>
     </row>
     <row r="300">
@@ -2827,7 +2827,7 @@
         <v>1898</v>
       </c>
       <c r="B300" t="n">
-        <v>6076.927136688085</v>
+        <v>6076.927136688086</v>
       </c>
     </row>
     <row r="301">
@@ -2843,7 +2843,7 @@
         <v>1900</v>
       </c>
       <c r="B302" t="n">
-        <v>6286.264952408995</v>
+        <v>6286.264952408991</v>
       </c>
     </row>
     <row r="303">
@@ -2851,7 +2851,7 @@
         <v>1901</v>
       </c>
       <c r="B303" t="n">
-        <v>6393.892043996395</v>
+        <v>6393.892043996393</v>
       </c>
     </row>
     <row r="304">
@@ -2859,7 +2859,7 @@
         <v>1902</v>
       </c>
       <c r="B304" t="n">
-        <v>6503.52851572105</v>
+        <v>6503.528515721054</v>
       </c>
     </row>
     <row r="305">
@@ -2867,7 +2867,7 @@
         <v>1903</v>
       </c>
       <c r="B305" t="n">
-        <v>6615.201627652982</v>
+        <v>6615.201627652983</v>
       </c>
     </row>
     <row r="306">
@@ -2875,7 +2875,7 @@
         <v>1904</v>
       </c>
       <c r="B306" t="n">
-        <v>6728.938007662753</v>
+        <v>6728.938007662755</v>
       </c>
     </row>
     <row r="307">
@@ -2883,7 +2883,7 @@
         <v>1905</v>
       </c>
       <c r="B307" t="n">
-        <v>6844.763576472911</v>
+        <v>6844.763576472906</v>
       </c>
     </row>
     <row r="308">
@@ -2891,7 +2891,7 @@
         <v>1906</v>
       </c>
       <c r="B308" t="n">
-        <v>6962.703469656963</v>
+        <v>6962.703469656964</v>
       </c>
     </row>
     <row r="309">
@@ -2899,7 +2899,7 @@
         <v>1907</v>
       </c>
       <c r="B309" t="n">
-        <v>7082.781956604871</v>
+        <v>7082.781956604867</v>
       </c>
     </row>
     <row r="310">
@@ -2907,7 +2907,7 @@
         <v>1908</v>
       </c>
       <c r="B310" t="n">
-        <v>7205.022356469951</v>
+        <v>7205.022356469958</v>
       </c>
     </row>
     <row r="311">
@@ -2923,7 +2923,7 @@
         <v>1910</v>
       </c>
       <c r="B312" t="n">
-        <v>7456.076895219398</v>
+        <v>7456.07689521939</v>
       </c>
     </row>
     <row r="313">
@@ -2931,7 +2931,7 @@
         <v>1911</v>
       </c>
       <c r="B313" t="n">
-        <v>7584.932123300207</v>
+        <v>7584.932123300203</v>
       </c>
     </row>
     <row r="314">
@@ -2947,7 +2947,7 @@
         <v>1913</v>
       </c>
       <c r="B315" t="n">
-        <v>7849.391492773234</v>
+        <v>7849.391492773238</v>
       </c>
     </row>
     <row r="316">
@@ -2955,7 +2955,7 @@
         <v>1914</v>
       </c>
       <c r="B316" t="n">
-        <v>7985.028528794966</v>
+        <v>7985.028528794967</v>
       </c>
     </row>
     <row r="317">
@@ -2963,7 +2963,7 @@
         <v>1915</v>
       </c>
       <c r="B317" t="n">
-        <v>8122.956433740361</v>
+        <v>8122.956433740367</v>
       </c>
     </row>
     <row r="318">
@@ -2971,7 +2971,7 @@
         <v>1916</v>
       </c>
       <c r="B318" t="n">
-        <v>8263.187554979624</v>
+        <v>8263.187554979615</v>
       </c>
     </row>
     <row r="319">
@@ -2979,7 +2979,7 @@
         <v>1917</v>
       </c>
       <c r="B319" t="n">
-        <v>8405.732407908374</v>
+        <v>8405.732407908377</v>
       </c>
     </row>
     <row r="320">
@@ -2987,7 +2987,7 @@
         <v>1918</v>
       </c>
       <c r="B320" t="n">
-        <v>8550.599566078849</v>
+        <v>8550.599566078852</v>
       </c>
     </row>
     <row r="321">
@@ -2995,7 +2995,7 @@
         <v>1919</v>
       </c>
       <c r="B321" t="n">
-        <v>8697.795549557286</v>
+        <v>8697.795549557282</v>
       </c>
     </row>
     <row r="322">
@@ -3003,7 +3003,7 @@
         <v>1920</v>
       </c>
       <c r="B322" t="n">
-        <v>8847.324711707299</v>
+        <v>8847.324711707301</v>
       </c>
     </row>
     <row r="323">
@@ -3011,7 +3011,7 @@
         <v>1921</v>
       </c>
       <c r="B323" t="n">
-        <v>8999.189124665243</v>
+        <v>8999.189124665245</v>
       </c>
     </row>
     <row r="324">
@@ -3019,7 +3019,7 @@
         <v>1922</v>
       </c>
       <c r="B324" t="n">
-        <v>9153.388463745221</v>
+        <v>9153.388463745203</v>
       </c>
     </row>
     <row r="325">
@@ -3027,7 +3027,7 @@
         <v>1923</v>
       </c>
       <c r="B325" t="n">
-        <v>9309.919891086629</v>
+        <v>9309.91989108664</v>
       </c>
     </row>
     <row r="326">
@@ -3035,7 +3035,7 @@
         <v>1924</v>
       </c>
       <c r="B326" t="n">
-        <v>9468.777938821366</v>
+        <v>9468.77793882136</v>
       </c>
     </row>
     <row r="327">
@@ -3043,7 +3043,7 @@
         <v>1925</v>
       </c>
       <c r="B327" t="n">
-        <v>9629.954392106501</v>
+        <v>9629.954392106509</v>
       </c>
     </row>
     <row r="328">
@@ -3051,7 +3051,7 @@
         <v>1926</v>
       </c>
       <c r="B328" t="n">
-        <v>9793.438172369777</v>
+        <v>9793.438172369768</v>
       </c>
     </row>
     <row r="329">
@@ -3059,7 +3059,7 @@
         <v>1927</v>
       </c>
       <c r="B329" t="n">
-        <v>9959.215221131199</v>
+        <v>9959.215221131202</v>
       </c>
     </row>
     <row r="330">
@@ -3131,7 +3131,7 @@
         <v>1936</v>
       </c>
       <c r="B338" t="n">
-        <v>11550.46592310081</v>
+        <v>11550.4659231008</v>
       </c>
     </row>
     <row r="339">
@@ -3163,7 +3163,7 @@
         <v>1940</v>
       </c>
       <c r="B342" t="n">
-        <v>12310.49743384768</v>
+        <v>12310.49743384767</v>
       </c>
     </row>
     <row r="343">
@@ -3211,7 +3211,7 @@
         <v>1946</v>
       </c>
       <c r="B348" t="n">
-        <v>13500.58298080238</v>
+        <v>13500.5829808024</v>
       </c>
     </row>
     <row r="349">
@@ -3219,7 +3219,7 @@
         <v>1947</v>
       </c>
       <c r="B349" t="n">
-        <v>13703.75862924125</v>
+        <v>13703.75862924124</v>
       </c>
     </row>
     <row r="350">
@@ -3227,7 +3227,7 @@
         <v>1948</v>
       </c>
       <c r="B350" t="n">
-        <v>13908.06848244016</v>
+        <v>13908.06848244015</v>
       </c>
     </row>
     <row r="351">
@@ -3251,7 +3251,7 @@
         <v>1951</v>
       </c>
       <c r="B353" t="n">
-        <v>14526.76195235823</v>
+        <v>14526.76195235821</v>
       </c>
     </row>
     <row r="354">
@@ -3259,7 +3259,7 @@
         <v>1952</v>
       </c>
       <c r="B354" t="n">
-        <v>14734.54557214521</v>
+        <v>14734.54557214522</v>
       </c>
     </row>
     <row r="355">
@@ -3291,7 +3291,7 @@
         <v>1956</v>
       </c>
       <c r="B358" t="n">
-        <v>15570.2388060615</v>
+        <v>15570.23880606149</v>
       </c>
     </row>
     <row r="359">
@@ -3299,7 +3299,7 @@
         <v>1957</v>
       </c>
       <c r="B359" t="n">
-        <v>15779.65578280738</v>
+        <v>15779.65578280739</v>
       </c>
     </row>
     <row r="360">
@@ -3307,7 +3307,7 @@
         <v>1958</v>
       </c>
       <c r="B360" t="n">
-        <v>15988.99852680251</v>
+        <v>15988.99852680252</v>
       </c>
     </row>
     <row r="361">
@@ -3323,7 +3323,7 @@
         <v>1960</v>
       </c>
       <c r="B362" t="n">
-        <v>16406.8896242612</v>
+        <v>16406.88962426118</v>
       </c>
     </row>
     <row r="363">
@@ -3331,7 +3331,7 @@
         <v>1961</v>
       </c>
       <c r="B363" t="n">
-        <v>16615.14404920066</v>
+        <v>16615.14404920065</v>
       </c>
     </row>
     <row r="364">
@@ -3339,7 +3339,7 @@
         <v>1962</v>
       </c>
       <c r="B364" t="n">
-        <v>16822.73676818799</v>
+        <v>16822.73676818801</v>
       </c>
     </row>
     <row r="365">
@@ -3347,7 +3347,7 @@
         <v>1963</v>
       </c>
       <c r="B365" t="n">
-        <v>17029.51362208925</v>
+        <v>17029.51362208924</v>
       </c>
     </row>
     <row r="366">
@@ -3363,7 +3363,7 @@
         <v>1965</v>
       </c>
       <c r="B367" t="n">
-        <v>17439.99090994366</v>
+        <v>17439.99090994367</v>
       </c>
     </row>
     <row r="368">
@@ -3387,7 +3387,7 @@
         <v>1968</v>
       </c>
       <c r="B370" t="n">
-        <v>18045.60405756397</v>
+        <v>18045.60405756398</v>
       </c>
     </row>
     <row r="371">
@@ -3395,7 +3395,7 @@
         <v>1969</v>
       </c>
       <c r="B371" t="n">
-        <v>18244.12655254082</v>
+        <v>18244.12655254081</v>
       </c>
     </row>
     <row r="372">
@@ -3427,7 +3427,7 @@
         <v>1973</v>
       </c>
       <c r="B375" t="n">
-        <v>19017.04424010005</v>
+        <v>19017.04424010006</v>
       </c>
     </row>
     <row r="376">
@@ -3443,7 +3443,7 @@
         <v>1975</v>
       </c>
       <c r="B377" t="n">
-        <v>19388.46490772998</v>
+        <v>19388.46490772999</v>
       </c>
     </row>
     <row r="378">
@@ -3459,7 +3459,7 @@
         <v>1977</v>
       </c>
       <c r="B379" t="n">
-        <v>19748.09327133659</v>
+        <v>19748.09327133658</v>
       </c>
     </row>
     <row r="380">
@@ -3467,7 +3467,7 @@
         <v>1978</v>
       </c>
       <c r="B380" t="n">
-        <v>19923.07776626085</v>
+        <v>19923.07776626086</v>
       </c>
     </row>
     <row r="381">
@@ -3483,7 +3483,7 @@
         <v>1980</v>
       </c>
       <c r="B382" t="n">
-        <v>20262.58883485328</v>
+        <v>20262.58883485329</v>
       </c>
     </row>
     <row r="383">
@@ -3491,7 +3491,7 @@
         <v>1981</v>
       </c>
       <c r="B383" t="n">
-        <v>20426.80328500543</v>
+        <v>20426.80328500544</v>
       </c>
     </row>
     <row r="384">
@@ -3531,7 +3531,7 @@
         <v>1986</v>
       </c>
       <c r="B388" t="n">
-        <v>21186.50599416928</v>
+        <v>21186.50599416927</v>
       </c>
     </row>
     <row r="389">
@@ -3547,7 +3547,7 @@
         <v>1988</v>
       </c>
       <c r="B390" t="n">
-        <v>21459.1467675798</v>
+        <v>21459.14676757982</v>
       </c>
     </row>
     <row r="391">
@@ -3555,7 +3555,7 @@
         <v>1989</v>
       </c>
       <c r="B391" t="n">
-        <v>21588.25595623847</v>
+        <v>21588.25595623846</v>
       </c>
     </row>
     <row r="392">
@@ -3563,7 +3563,7 @@
         <v>1990</v>
       </c>
       <c r="B392" t="n">
-        <v>21712.40058817175</v>
+        <v>21712.40058817176</v>
       </c>
     </row>
     <row r="393">
@@ -3571,7 +3571,7 @@
         <v>1991</v>
       </c>
       <c r="B393" t="n">
-        <v>21831.46981514695</v>
+        <v>21831.46981514694</v>
       </c>
     </row>
     <row r="394">
@@ -3587,7 +3587,7 @@
         <v>1993</v>
       </c>
       <c r="B395" t="n">
-        <v>22053.96813920258</v>
+        <v>22053.96813920259</v>
       </c>
     </row>
     <row r="396">
@@ -3595,7 +3595,7 @@
         <v>1994</v>
       </c>
       <c r="B396" t="n">
-        <v>22157.20563893936</v>
+        <v>22157.20563893935</v>
       </c>
     </row>
     <row r="397">
@@ -3611,7 +3611,7 @@
         <v>1996</v>
       </c>
       <c r="B398" t="n">
-        <v>22347.22633958183</v>
+        <v>22347.22633958184</v>
       </c>
     </row>
     <row r="399">
@@ -3619,7 +3619,7 @@
         <v>1997</v>
       </c>
       <c r="B399" t="n">
-        <v>22433.85703499137</v>
+        <v>22433.85703499138</v>
       </c>
     </row>
     <row r="400">
@@ -3635,7 +3635,7 @@
         <v>1999</v>
       </c>
       <c r="B401" t="n">
-        <v>22590.02916462959</v>
+        <v>22590.0291646296</v>
       </c>
     </row>
     <row r="402">
@@ -3643,7 +3643,7 @@
         <v>2000</v>
       </c>
       <c r="B402" t="n">
-        <v>22659.45958446421</v>
+        <v>22659.4595844642</v>
       </c>
     </row>
     <row r="403">
@@ -3651,7 +3651,7 @@
         <v>2001</v>
       </c>
       <c r="B403" t="n">
-        <v>22723.05739746073</v>
+        <v>22723.05739746072</v>
       </c>
     </row>
     <row r="404">
@@ -3667,7 +3667,7 @@
         <v>2003</v>
       </c>
       <c r="B405" t="n">
-        <v>22832.61168975728</v>
+        <v>22832.61168975729</v>
       </c>
     </row>
     <row r="406">
@@ -3675,7 +3675,7 @@
         <v>2004</v>
       </c>
       <c r="B406" t="n">
-        <v>22878.51441987672</v>
+        <v>22878.5144198767</v>
       </c>
     </row>
     <row r="407">
@@ -3691,7 +3691,7 @@
         <v>2006</v>
       </c>
       <c r="B408" t="n">
-        <v>22952.49064301148</v>
+        <v>22952.49064301147</v>
       </c>
     </row>
     <row r="409">
@@ -3707,7 +3707,7 @@
         <v>2008</v>
       </c>
       <c r="B410" t="n">
-        <v>23002.6706659736</v>
+        <v>23002.67066597359</v>
       </c>
     </row>
     <row r="411">
@@ -3715,7 +3715,7 @@
         <v>2009</v>
       </c>
       <c r="B411" t="n">
-        <v>23018.8545609114</v>
+        <v>23018.85456091143</v>
       </c>
     </row>
     <row r="412">
@@ -3723,7 +3723,7 @@
         <v>2010</v>
       </c>
       <c r="B412" t="n">
-        <v>23029.12419832209</v>
+        <v>23029.12419832207</v>
       </c>
     </row>
     <row r="413">
@@ -3731,7 +3731,7 @@
         <v>2011</v>
       </c>
       <c r="B413" t="n">
-        <v>23033.50540186867</v>
+        <v>23033.50540186868</v>
       </c>
     </row>
     <row r="414">
@@ -3739,7 +3739,7 @@
         <v>2012</v>
       </c>
       <c r="B414" t="n">
-        <v>23032.03060419433</v>
+        <v>23032.03060419434</v>
       </c>
     </row>
     <row r="415">
@@ -3747,7 +3747,7 @@
         <v>2013</v>
       </c>
       <c r="B415" t="n">
-        <v>23024.73869787992</v>
+        <v>23024.73869787991</v>
       </c>
     </row>
     <row r="416">
@@ -3755,7 +3755,7 @@
         <v>2014</v>
       </c>
       <c r="B416" t="n">
-        <v>23011.67487232645</v>
+        <v>23011.67487232646</v>
       </c>
     </row>
     <row r="417">
@@ -3779,7 +3779,7 @@
         <v>2017</v>
       </c>
       <c r="B419" t="n">
-        <v>22938.39443868999</v>
+        <v>22938.39443868998</v>
       </c>
     </row>
     <row r="420">
@@ -3795,7 +3795,7 @@
         <v>2019</v>
       </c>
       <c r="B421" t="n">
-        <v>22861.776146869</v>
+        <v>22861.77614686899</v>
       </c>
     </row>
     <row r="422">
@@ -3811,7 +3811,7 @@
         <v>2021</v>
       </c>
       <c r="B423" t="n">
-        <v>22763.64576706125</v>
+        <v>22763.64576706128</v>
       </c>
     </row>
     <row r="424">
@@ -3819,7 +3819,7 @@
         <v>2022</v>
       </c>
       <c r="B424" t="n">
-        <v>22706.7255961413</v>
+        <v>22706.72559614126</v>
       </c>
     </row>
     <row r="425">
@@ -3827,7 +3827,7 @@
         <v>2023</v>
       </c>
       <c r="B425" t="n">
-        <v>22644.69085798397</v>
+        <v>22644.69085798399</v>
       </c>
     </row>
     <row r="426">
@@ -3835,7 +3835,7 @@
         <v>2024</v>
       </c>
       <c r="B426" t="n">
-        <v>22577.63830100782</v>
+        <v>22577.63830100783</v>
       </c>
     </row>
     <row r="427">
@@ -3843,7 +3843,7 @@
         <v>2025</v>
       </c>
       <c r="B427" t="n">
-        <v>22505.66851450764</v>
+        <v>22505.66851450763</v>
       </c>
     </row>
     <row r="428">
@@ -3851,7 +3851,7 @@
         <v>2026</v>
       </c>
       <c r="B428" t="n">
-        <v>22428.88567075023</v>
+        <v>22428.88567075022</v>
       </c>
     </row>
     <row r="429">
@@ -3859,7 +3859,7 @@
         <v>2027</v>
       </c>
       <c r="B429" t="n">
-        <v>22347.39726546531</v>
+        <v>22347.3972654653</v>
       </c>
     </row>
     <row r="430">
@@ -3875,7 +3875,7 @@
         <v>2029</v>
       </c>
       <c r="B431" t="n">
-        <v>22170.74880978533</v>
+        <v>22170.74880978534</v>
       </c>
     </row>
     <row r="432">
@@ -3883,7 +3883,7 @@
         <v>2030</v>
       </c>
       <c r="B432" t="n">
-        <v>22075.81802851781</v>
+        <v>22075.8180285178</v>
       </c>
     </row>
     <row r="433">
@@ -3899,7 +3899,7 @@
         <v>2032</v>
       </c>
       <c r="B434" t="n">
-        <v>21873.33407489151</v>
+        <v>21873.33407489153</v>
       </c>
     </row>
     <row r="435">
@@ -3907,7 +3907,7 @@
         <v>2033</v>
       </c>
       <c r="B435" t="n">
-        <v>21766.02313780467</v>
+        <v>21766.02313780463</v>
       </c>
     </row>
     <row r="436">
@@ -3915,7 +3915,7 @@
         <v>2034</v>
       </c>
       <c r="B436" t="n">
-        <v>21654.83043948887</v>
+        <v>21654.83043948888</v>
       </c>
     </row>
     <row r="437">
@@ -3923,7 +3923,7 @@
         <v>2035</v>
       </c>
       <c r="B437" t="n">
-        <v>21539.88081455325</v>
+        <v>21539.88081455326</v>
       </c>
     </row>
     <row r="438">
@@ -3931,7 +3931,7 @@
         <v>2036</v>
       </c>
       <c r="B438" t="n">
-        <v>21421.30015198784</v>
+        <v>21421.30015198782</v>
       </c>
     </row>
     <row r="439">
@@ -3947,7 +3947,7 @@
         <v>2038</v>
       </c>
       <c r="B440" t="n">
-        <v>21173.75315817912</v>
+        <v>21173.75315817913</v>
       </c>
     </row>
     <row r="441">
@@ -3955,7 +3955,7 @@
         <v>2039</v>
       </c>
       <c r="B441" t="n">
-        <v>21045.04182346791</v>
+        <v>21045.04182346789</v>
       </c>
     </row>
     <row r="442">
@@ -3963,7 +3963,7 @@
         <v>2040</v>
       </c>
       <c r="B442" t="n">
-        <v>20913.20901370011</v>
+        <v>20913.20901370013</v>
       </c>
     </row>
     <row r="443">
@@ -3971,7 +3971,7 @@
         <v>2041</v>
       </c>
       <c r="B443" t="n">
-        <v>20778.38254563107</v>
+        <v>20778.38254563106</v>
       </c>
     </row>
     <row r="444">
@@ -3987,7 +3987,7 @@
         <v>2043</v>
       </c>
       <c r="B445" t="n">
-        <v>20500.25854211266</v>
+        <v>20500.25854211265</v>
       </c>
     </row>
     <row r="446">
@@ -4011,7 +4011,7 @@
         <v>2046</v>
       </c>
       <c r="B448" t="n">
-        <v>20063.79219039304</v>
+        <v>20063.79219039305</v>
       </c>
     </row>
     <row r="449">
@@ -4027,7 +4027,7 @@
         <v>2048</v>
       </c>
       <c r="B450" t="n">
-        <v>19761.41645994373</v>
+        <v>19761.41645994372</v>
       </c>
     </row>
     <row r="451">
@@ -4035,7 +4035,7 @@
         <v>2049</v>
       </c>
       <c r="B451" t="n">
-        <v>19607.17649881798</v>
+        <v>19607.17649881796</v>
       </c>
     </row>
     <row r="452">

--- a/Data/model_outputs_baseline/number_of_dwellings/s_delta_total.xlsx
+++ b/Data/model_outputs_baseline/number_of_dwellings/s_delta_total.xlsx
@@ -451,7 +451,7 @@
         <v>1601</v>
       </c>
       <c r="B3" t="n">
-        <v>86.01224443895683</v>
+        <v>86.01224443895705</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>1602</v>
       </c>
       <c r="B4" t="n">
-        <v>87.248173204521</v>
+        <v>87.24817320451608</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>1603</v>
       </c>
       <c r="B5" t="n">
-        <v>88.50174149125014</v>
+        <v>88.50174149124793</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>1604</v>
       </c>
       <c r="B6" t="n">
-        <v>89.7731977295861</v>
+        <v>89.77319772958627</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>1605</v>
       </c>
       <c r="B7" t="n">
-        <v>91.06279375981553</v>
+        <v>91.06279375981103</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>1606</v>
       </c>
       <c r="B8" t="n">
-        <v>92.37078487636673</v>
+        <v>92.37078487637784</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>1607</v>
       </c>
       <c r="B9" t="n">
-        <v>93.69742987279925</v>
+        <v>93.69742987279957</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>1608</v>
       </c>
       <c r="B10" t="n">
-        <v>95.04299108782236</v>
+        <v>95.04299108782317</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>1609</v>
       </c>
       <c r="B11" t="n">
-        <v>96.40773445098625</v>
+        <v>96.40773445099015</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>1610</v>
       </c>
       <c r="B12" t="n">
-        <v>97.79192952942948</v>
+        <v>97.79192952941595</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>1611</v>
       </c>
       <c r="B13" t="n">
-        <v>99.19584957547478</v>
+        <v>99.19584957547833</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>1612</v>
       </c>
       <c r="B14" t="n">
-        <v>100.6197715739524</v>
+        <v>100.6197715739581</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>1613</v>
       </c>
       <c r="B15" t="n">
-        <v>102.0639762910254</v>
+        <v>102.0639762910211</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>1614</v>
       </c>
       <c r="B16" t="n">
-        <v>103.5287483225774</v>
+        <v>103.5287483225822</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>1615</v>
       </c>
       <c r="B17" t="n">
-        <v>105.0143761442791</v>
+        <v>105.014376144268</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>1616</v>
       </c>
       <c r="B18" t="n">
-        <v>106.5211521613075</v>
+        <v>106.5211521613219</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>1617</v>
       </c>
       <c r="B19" t="n">
-        <v>108.0493727590931</v>
+        <v>108.0493727590915</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>1618</v>
       </c>
       <c r="B20" t="n">
-        <v>109.5993383547514</v>
+        <v>109.5993383547433</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>1619</v>
       </c>
       <c r="B21" t="n">
-        <v>111.1713534485964</v>
+        <v>111.1713534486108</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>1620</v>
       </c>
       <c r="B22" t="n">
-        <v>112.765726677072</v>
+        <v>112.7657266770646</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>1621</v>
       </c>
       <c r="B23" t="n">
-        <v>114.3827708654306</v>
+        <v>114.382770865433</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>1622</v>
       </c>
       <c r="B24" t="n">
-        <v>116.0228030815412</v>
+        <v>116.0228030815493</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>1623</v>
       </c>
       <c r="B25" t="n">
-        <v>117.6861446904635</v>
+        <v>117.6861446904504</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>1624</v>
       </c>
       <c r="B26" t="n">
-        <v>119.3731214089923</v>
+        <v>119.3731214089974</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>1625</v>
       </c>
       <c r="B27" t="n">
-        <v>121.0840633615759</v>
+        <v>121.0840633615736</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>1626</v>
       </c>
       <c r="B28" t="n">
-        <v>122.8193051364343</v>
+        <v>122.8193051364281</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>1627</v>
       </c>
       <c r="B29" t="n">
-        <v>124.5791858423386</v>
+        <v>124.5791858423432</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>1628</v>
       </c>
       <c r="B30" t="n">
-        <v>126.3640491664288</v>
+        <v>126.3640491664259</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>1629</v>
       </c>
       <c r="B31" t="n">
-        <v>128.1742434321481</v>
+        <v>128.1742434321444</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>1630</v>
       </c>
       <c r="B32" t="n">
-        <v>130.0101216582854</v>
+        <v>130.0101216582848</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>1631</v>
       </c>
       <c r="B33" t="n">
-        <v>131.8720416185377</v>
+        <v>131.872041618543</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>1632</v>
       </c>
       <c r="B34" t="n">
-        <v>133.7603659016277</v>
+        <v>133.7603659016291</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>1633</v>
       </c>
       <c r="B35" t="n">
-        <v>135.6754619725224</v>
+        <v>135.6754619725178</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>1634</v>
       </c>
       <c r="B36" t="n">
-        <v>137.6177022337744</v>
+        <v>137.6177022337745</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>1635</v>
       </c>
       <c r="B37" t="n">
-        <v>139.5874640882345</v>
+        <v>139.5874640882404</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>1636</v>
       </c>
       <c r="B38" t="n">
-        <v>141.5851300017652</v>
+        <v>141.5851300017661</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>1637</v>
       </c>
       <c r="B39" t="n">
-        <v>143.6110875673159</v>
+        <v>143.6110875673202</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>1638</v>
       </c>
       <c r="B40" t="n">
-        <v>145.665729569453</v>
+        <v>145.6657295694459</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>1639</v>
       </c>
       <c r="B41" t="n">
-        <v>147.7494540497042</v>
+        <v>147.7494540496943</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>1640</v>
       </c>
       <c r="B42" t="n">
-        <v>149.8626643722002</v>
+        <v>149.862664372209</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>1641</v>
       </c>
       <c r="B43" t="n">
-        <v>152.0057692912648</v>
+        <v>152.0057692912704</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>1642</v>
       </c>
       <c r="B44" t="n">
-        <v>154.17918301829</v>
+        <v>154.1791830182839</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>1643</v>
       </c>
       <c r="B45" t="n">
-        <v>156.3833252905075</v>
+        <v>156.3833252905061</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>1644</v>
       </c>
       <c r="B46" t="n">
-        <v>158.6186214402027</v>
+        <v>158.618621440215</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>1645</v>
       </c>
       <c r="B47" t="n">
-        <v>160.8855024642791</v>
+        <v>160.8855024642753</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>1646</v>
       </c>
       <c r="B48" t="n">
-        <v>163.1844050956393</v>
+        <v>163.1844050956324</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>1647</v>
       </c>
       <c r="B49" t="n">
-        <v>165.515771874422</v>
+        <v>165.5157718744226</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>1648</v>
       </c>
       <c r="B50" t="n">
-        <v>167.8800512205028</v>
+        <v>167.8800512204986</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>1649</v>
       </c>
       <c r="B51" t="n">
-        <v>170.2776975069438</v>
+        <v>170.2776975069374</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>1650</v>
       </c>
       <c r="B52" t="n">
-        <v>172.7091711341419</v>
+        <v>172.709171134157</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>1651</v>
       </c>
       <c r="B53" t="n">
-        <v>175.1749386049075</v>
+        <v>175.1749386049032</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>1652</v>
       </c>
       <c r="B54" t="n">
-        <v>177.6754726000886</v>
+        <v>177.6754726000959</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>1653</v>
       </c>
       <c r="B55" t="n">
-        <v>180.2112520560063</v>
+        <v>180.2112520559872</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>1654</v>
       </c>
       <c r="B56" t="n">
-        <v>182.782762241693</v>
+        <v>182.7827622416972</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>1655</v>
       </c>
       <c r="B57" t="n">
-        <v>185.3904948376505</v>
+        <v>185.3904948376686</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>1656</v>
       </c>
       <c r="B58" t="n">
-        <v>188.0349480159481</v>
+        <v>188.0349480159432</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>1657</v>
       </c>
       <c r="B59" t="n">
-        <v>190.7166265201967</v>
+        <v>190.7166265201869</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>1658</v>
       </c>
       <c r="B60" t="n">
-        <v>193.4360417473822</v>
+        <v>193.4360417473821</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>1659</v>
       </c>
       <c r="B61" t="n">
-        <v>196.1937118305187</v>
+        <v>196.1937118305246</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>1660</v>
       </c>
       <c r="B62" t="n">
-        <v>198.990161722121</v>
+        <v>198.990161722131</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>1661</v>
       </c>
       <c r="B63" t="n">
-        <v>201.8259232785904</v>
+        <v>201.8259232785783</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>1662</v>
       </c>
       <c r="B64" t="n">
-        <v>204.7015353464105</v>
+        <v>204.7015353464136</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>1663</v>
       </c>
       <c r="B65" t="n">
-        <v>207.6175438479918</v>
+        <v>207.6175438479938</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>1664</v>
       </c>
       <c r="B66" t="n">
-        <v>210.5745018704101</v>
+        <v>210.57450187041</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>1665</v>
       </c>
       <c r="B67" t="n">
-        <v>213.5729697536094</v>
+        <v>213.5729697535936</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>1666</v>
       </c>
       <c r="B68" t="n">
-        <v>216.6135151804658</v>
+        <v>216.6135151804704</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>1667</v>
       </c>
       <c r="B69" t="n">
-        <v>219.6967132683032</v>
+        <v>219.6967132683076</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>1668</v>
       </c>
       <c r="B70" t="n">
-        <v>222.8231466610473</v>
+        <v>222.8231466610509</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>1669</v>
       </c>
       <c r="B71" t="n">
-        <v>225.9934056225009</v>
+        <v>225.9934056224999</v>
       </c>
     </row>
     <row r="72">
@@ -1003,7 +1003,7 @@
         <v>1670</v>
       </c>
       <c r="B72" t="n">
-        <v>229.208088131495</v>
+        <v>229.2080881314882</v>
       </c>
     </row>
     <row r="73">
@@ -1011,7 +1011,7 @@
         <v>1671</v>
       </c>
       <c r="B73" t="n">
-        <v>232.4677999775394</v>
+        <v>232.467799977555</v>
       </c>
     </row>
     <row r="74">
@@ -1019,7 +1019,7 @@
         <v>1672</v>
       </c>
       <c r="B74" t="n">
-        <v>235.7731548582585</v>
+        <v>235.7731548582466</v>
       </c>
     </row>
     <row r="75">
@@ -1027,7 +1027,7 @@
         <v>1673</v>
       </c>
       <c r="B75" t="n">
-        <v>239.1247744778759</v>
+        <v>239.1247744778737</v>
       </c>
     </row>
     <row r="76">
@@ -1035,7 +1035,7 @@
         <v>1674</v>
       </c>
       <c r="B76" t="n">
-        <v>242.5232886471355</v>
+        <v>242.5232886471391</v>
       </c>
     </row>
     <row r="77">
@@ -1043,7 +1043,7 @@
         <v>1675</v>
       </c>
       <c r="B77" t="n">
-        <v>245.9693353844502</v>
+        <v>245.9693353844464</v>
       </c>
     </row>
     <row r="78">
@@ -1051,7 +1051,7 @@
         <v>1676</v>
       </c>
       <c r="B78" t="n">
-        <v>249.4635610187581</v>
+        <v>249.4635610187672</v>
       </c>
     </row>
     <row r="79">
@@ -1059,7 +1059,7 @@
         <v>1677</v>
       </c>
       <c r="B79" t="n">
-        <v>253.006620293268</v>
+        <v>253.0066202932585</v>
       </c>
     </row>
     <row r="80">
@@ -1067,7 +1067,7 @@
         <v>1678</v>
       </c>
       <c r="B80" t="n">
-        <v>256.5991764713037</v>
+        <v>256.599176471324</v>
       </c>
     </row>
     <row r="81">
@@ -1075,7 +1075,7 @@
         <v>1679</v>
       </c>
       <c r="B81" t="n">
-        <v>260.2419014431417</v>
+        <v>260.2419014431254</v>
       </c>
     </row>
     <row r="82">
@@ -1083,7 +1083,7 @@
         <v>1680</v>
       </c>
       <c r="B82" t="n">
-        <v>263.9354758345252</v>
+        <v>263.9354758345281</v>
       </c>
     </row>
     <row r="83">
@@ -1091,7 +1091,7 @@
         <v>1681</v>
       </c>
       <c r="B83" t="n">
-        <v>267.6805891169279</v>
+        <v>267.6805891169172</v>
       </c>
     </row>
     <row r="84">
@@ -1099,7 +1099,7 @@
         <v>1682</v>
       </c>
       <c r="B84" t="n">
-        <v>271.4779397191732</v>
+        <v>271.4779397191788</v>
       </c>
     </row>
     <row r="85">
@@ -1107,7 +1107,7 @@
         <v>1683</v>
       </c>
       <c r="B85" t="n">
-        <v>275.328235140886</v>
+        <v>275.3282351408969</v>
       </c>
     </row>
     <row r="86">
@@ -1115,7 +1115,7 @@
         <v>1684</v>
       </c>
       <c r="B86" t="n">
-        <v>279.2321920678827</v>
+        <v>279.2321920678738</v>
       </c>
     </row>
     <row r="87">
@@ -1123,7 +1123,7 @@
         <v>1685</v>
       </c>
       <c r="B87" t="n">
-        <v>283.1905364882619</v>
+        <v>283.1905364882594</v>
       </c>
     </row>
     <row r="88">
@@ -1131,7 +1131,7 @@
         <v>1686</v>
       </c>
       <c r="B88" t="n">
-        <v>287.2040038117347</v>
+        <v>287.2040038117425</v>
       </c>
     </row>
     <row r="89">
@@ -1139,7 +1139,7 @@
         <v>1687</v>
       </c>
       <c r="B89" t="n">
-        <v>291.2733389901849</v>
+        <v>291.2733389901924</v>
       </c>
     </row>
     <row r="90">
@@ -1147,7 +1147,7 @@
         <v>1688</v>
       </c>
       <c r="B90" t="n">
-        <v>295.3992966394146</v>
+        <v>295.3992966394111</v>
       </c>
     </row>
     <row r="91">
@@ -1155,7 +1155,7 @@
         <v>1689</v>
       </c>
       <c r="B91" t="n">
-        <v>299.5826411640222</v>
+        <v>299.5826411640084</v>
       </c>
     </row>
     <row r="92">
@@ -1163,7 +1163,7 @@
         <v>1690</v>
       </c>
       <c r="B92" t="n">
-        <v>303.8241468837765</v>
+        <v>303.8241468837901</v>
       </c>
     </row>
     <row r="93">
@@ -1171,7 +1171,7 @@
         <v>1691</v>
       </c>
       <c r="B93" t="n">
-        <v>308.1245981618373</v>
+        <v>308.1245981618387</v>
       </c>
     </row>
     <row r="94">
@@ -1179,7 +1179,7 @@
         <v>1692</v>
       </c>
       <c r="B94" t="n">
-        <v>312.4847895353215</v>
+        <v>312.484789535307</v>
       </c>
     </row>
     <row r="95">
@@ -1187,7 +1187,7 @@
         <v>1693</v>
       </c>
       <c r="B95" t="n">
-        <v>316.9055258485248</v>
+        <v>316.905525848527</v>
       </c>
     </row>
     <row r="96">
@@ -1195,7 +1195,7 @@
         <v>1694</v>
       </c>
       <c r="B96" t="n">
-        <v>321.3876223874675</v>
+        <v>321.3876223874718</v>
       </c>
     </row>
     <row r="97">
@@ -1203,7 +1203,7 @@
         <v>1695</v>
       </c>
       <c r="B97" t="n">
-        <v>325.9319050176527</v>
+        <v>325.9319050176567</v>
       </c>
     </row>
     <row r="98">
@@ -1211,7 +1211,7 @@
         <v>1696</v>
       </c>
       <c r="B98" t="n">
-        <v>330.5392103237167</v>
+        <v>330.5392103237127</v>
       </c>
     </row>
     <row r="99">
@@ -1219,7 +1219,7 @@
         <v>1697</v>
       </c>
       <c r="B99" t="n">
-        <v>335.2103857519505</v>
+        <v>335.2103857519545</v>
       </c>
     </row>
     <row r="100">
@@ -1227,7 +1227,7 @@
         <v>1698</v>
       </c>
       <c r="B100" t="n">
-        <v>339.9462897552443</v>
+        <v>339.946289755244</v>
       </c>
     </row>
     <row r="101">
@@ -1235,7 +1235,7 @@
         <v>1699</v>
       </c>
       <c r="B101" t="n">
-        <v>344.7477919402508</v>
+        <v>344.7477919402526</v>
       </c>
     </row>
     <row r="102">
@@ -1243,7 +1243,7 @@
         <v>1700</v>
       </c>
       <c r="B102" t="n">
-        <v>349.6157732183404</v>
+        <v>349.6157732183365</v>
       </c>
     </row>
     <row r="103">
@@ -1251,7 +1251,7 @@
         <v>1701</v>
       </c>
       <c r="B103" t="n">
-        <v>354.551125958645</v>
+        <v>354.5511259586458</v>
       </c>
     </row>
     <row r="104">
@@ -1259,7 +1259,7 @@
         <v>1702</v>
       </c>
       <c r="B104" t="n">
-        <v>359.5547541436791</v>
+        <v>359.5547541436752</v>
       </c>
     </row>
     <row r="105">
@@ -1267,7 +1267,7 @@
         <v>1703</v>
       </c>
       <c r="B105" t="n">
-        <v>364.6275735294001</v>
+        <v>364.6275735294037</v>
       </c>
     </row>
     <row r="106">
@@ -1275,7 +1275,7 @@
         <v>1704</v>
       </c>
       <c r="B106" t="n">
-        <v>369.7705118068809</v>
+        <v>369.7705118068794</v>
       </c>
     </row>
     <row r="107">
@@ -1283,7 +1283,7 @@
         <v>1705</v>
       </c>
       <c r="B107" t="n">
-        <v>374.984508768429</v>
+        <v>374.98450876843</v>
       </c>
     </row>
     <row r="108">
@@ -1291,7 +1291,7 @@
         <v>1706</v>
       </c>
       <c r="B108" t="n">
-        <v>380.2705164762588</v>
+        <v>380.2705164762603</v>
       </c>
     </row>
     <row r="109">
@@ -1299,7 +1299,7 @@
         <v>1707</v>
       </c>
       <c r="B109" t="n">
-        <v>385.6294994350718</v>
+        <v>385.6294994350657</v>
       </c>
     </row>
     <row r="110">
@@ -1307,7 +1307,7 @@
         <v>1708</v>
       </c>
       <c r="B110" t="n">
-        <v>391.0624347684708</v>
+        <v>391.0624347684754</v>
       </c>
     </row>
     <row r="111">
@@ -1315,7 +1315,7 @@
         <v>1709</v>
       </c>
       <c r="B111" t="n">
-        <v>396.5703123984895</v>
+        <v>396.5703123984892</v>
       </c>
     </row>
     <row r="112">
@@ -1323,7 +1323,7 @@
         <v>1710</v>
       </c>
       <c r="B112" t="n">
-        <v>402.1541352298324</v>
+        <v>402.154135229837</v>
       </c>
     </row>
     <row r="113">
@@ -1331,7 +1331,7 @@
         <v>1711</v>
       </c>
       <c r="B113" t="n">
-        <v>407.8149193372894</v>
+        <v>407.814919337285</v>
       </c>
     </row>
     <row r="114">
@@ -1339,7 +1339,7 @@
         <v>1712</v>
       </c>
       <c r="B114" t="n">
-        <v>413.5536941581036</v>
+        <v>413.5536941581043</v>
       </c>
     </row>
     <row r="115">
@@ -1347,7 +1347,7 @@
         <v>1713</v>
       </c>
       <c r="B115" t="n">
-        <v>419.3715026883087</v>
+        <v>419.371502688304</v>
       </c>
     </row>
     <row r="116">
@@ -1355,7 +1355,7 @@
         <v>1714</v>
       </c>
       <c r="B116" t="n">
-        <v>425.2694016835033</v>
+        <v>425.2694016835012</v>
       </c>
     </row>
     <row r="117">
@@ -1363,7 +1363,7 @@
         <v>1715</v>
       </c>
       <c r="B117" t="n">
-        <v>431.2484618645113</v>
+        <v>431.2484618645168</v>
       </c>
     </row>
     <row r="118">
@@ -1371,7 +1371,7 @@
         <v>1716</v>
       </c>
       <c r="B118" t="n">
-        <v>437.3097681280306</v>
+        <v>437.3097681280298</v>
       </c>
     </row>
     <row r="119">
@@ -1379,7 +1379,7 @@
         <v>1717</v>
       </c>
       <c r="B119" t="n">
-        <v>443.4544197617308</v>
+        <v>443.4544197617265</v>
       </c>
     </row>
     <row r="120">
@@ -1387,7 +1387,7 @@
         <v>1718</v>
       </c>
       <c r="B120" t="n">
-        <v>449.6835306652523</v>
+        <v>449.6835306652555</v>
       </c>
     </row>
     <row r="121">
@@ -1395,7 +1395,7 @@
         <v>1719</v>
       </c>
       <c r="B121" t="n">
-        <v>455.9982295762222</v>
+        <v>455.9982295762263</v>
       </c>
     </row>
     <row r="122">
@@ -1403,7 +1403,7 @@
         <v>1720</v>
       </c>
       <c r="B122" t="n">
-        <v>462.3996603021379</v>
+        <v>462.3996603021347</v>
       </c>
     </row>
     <row r="123">
@@ -1411,7 +1411,7 @@
         <v>1721</v>
       </c>
       <c r="B123" t="n">
-        <v>468.888981957923</v>
+        <v>468.8889819579254</v>
       </c>
     </row>
     <row r="124">
@@ -1419,7 +1419,7 @@
         <v>1722</v>
       </c>
       <c r="B124" t="n">
-        <v>475.4673692097157</v>
+        <v>475.4673692097158</v>
       </c>
     </row>
     <row r="125">
@@ -1427,7 +1427,7 @@
         <v>1723</v>
       </c>
       <c r="B125" t="n">
-        <v>482.1360125247626</v>
+        <v>482.1360125247634</v>
       </c>
     </row>
     <row r="126">
@@ -1443,7 +1443,7 @@
         <v>1725</v>
       </c>
       <c r="B127" t="n">
-        <v>495.7489097665621</v>
+        <v>495.7489097665598</v>
       </c>
     </row>
     <row r="128">
@@ -1451,7 +1451,7 @@
         <v>1726</v>
       </c>
       <c r="B128" t="n">
-        <v>502.6956259778384</v>
+        <v>502.6956259778403</v>
       </c>
     </row>
     <row r="129">
@@ -1459,7 +1459,7 @@
         <v>1727</v>
       </c>
       <c r="B129" t="n">
-        <v>509.737523369664</v>
+        <v>509.7375233696612</v>
       </c>
     </row>
     <row r="130">
@@ -1467,7 +1467,7 @@
         <v>1728</v>
       </c>
       <c r="B130" t="n">
-        <v>516.8758754051214</v>
+        <v>516.8758754051225</v>
       </c>
     </row>
     <row r="131">
@@ -1475,7 +1475,7 @@
         <v>1729</v>
       </c>
       <c r="B131" t="n">
-        <v>524.1119729954589</v>
+        <v>524.1119729954621</v>
       </c>
     </row>
     <row r="132">
@@ -1483,7 +1483,7 @@
         <v>1730</v>
       </c>
       <c r="B132" t="n">
-        <v>531.4471248023161</v>
+        <v>531.4471248023109</v>
       </c>
     </row>
     <row r="133">
@@ -1491,7 +1491,7 @@
         <v>1731</v>
       </c>
       <c r="B133" t="n">
-        <v>538.8826575481479</v>
+        <v>538.8826575481484</v>
       </c>
     </row>
     <row r="134">
@@ -1499,7 +1499,7 @@
         <v>1732</v>
       </c>
       <c r="B134" t="n">
-        <v>546.4199163346941</v>
+        <v>546.4199163346987</v>
       </c>
     </row>
     <row r="135">
@@ -1507,7 +1507,7 @@
         <v>1733</v>
       </c>
       <c r="B135" t="n">
-        <v>554.0602649726102</v>
+        <v>554.0602649726038</v>
       </c>
     </row>
     <row r="136">
@@ -1515,7 +1515,7 @@
         <v>1734</v>
       </c>
       <c r="B136" t="n">
-        <v>561.8050863183111</v>
+        <v>561.8050863183117</v>
       </c>
     </row>
     <row r="137">
@@ -1523,7 +1523,7 @@
         <v>1735</v>
       </c>
       <c r="B137" t="n">
-        <v>569.65578262295</v>
+        <v>569.6557826229549</v>
       </c>
     </row>
     <row r="138">
@@ -1531,7 +1531,7 @@
         <v>1736</v>
       </c>
       <c r="B138" t="n">
-        <v>577.61377589081</v>
+        <v>577.6137758908108</v>
       </c>
     </row>
     <row r="139">
@@ -1539,7 +1539,7 @@
         <v>1737</v>
       </c>
       <c r="B139" t="n">
-        <v>585.6805082482319</v>
+        <v>585.6805082482266</v>
       </c>
     </row>
     <row r="140">
@@ -1547,7 +1547,7 @@
         <v>1738</v>
       </c>
       <c r="B140" t="n">
-        <v>593.857442324575</v>
+        <v>593.8574423245803</v>
       </c>
     </row>
     <row r="141">
@@ -1555,7 +1555,7 @@
         <v>1739</v>
       </c>
       <c r="B141" t="n">
-        <v>602.1460616444449</v>
+        <v>602.1460616444421</v>
       </c>
     </row>
     <row r="142">
@@ -1563,7 +1563,7 @@
         <v>1740</v>
       </c>
       <c r="B142" t="n">
-        <v>610.5478710316034</v>
+        <v>610.5478710316072</v>
       </c>
     </row>
     <row r="143">
@@ -1571,7 +1571,7 @@
         <v>1741</v>
       </c>
       <c r="B143" t="n">
-        <v>619.0643970266365</v>
+        <v>619.0643970266333</v>
       </c>
     </row>
     <row r="144">
@@ -1579,7 +1579,7 @@
         <v>1742</v>
       </c>
       <c r="B144" t="n">
-        <v>627.697188316285</v>
+        <v>627.6971883162835</v>
       </c>
     </row>
     <row r="145">
@@ -1587,7 +1587,7 @@
         <v>1743</v>
       </c>
       <c r="B145" t="n">
-        <v>636.4478161778362</v>
+        <v>636.4478161778383</v>
       </c>
     </row>
     <row r="146">
@@ -1595,7 +1595,7 @@
         <v>1744</v>
       </c>
       <c r="B146" t="n">
-        <v>645.3178749361412</v>
+        <v>645.3178749361385</v>
       </c>
     </row>
     <row r="147">
@@ -1603,7 +1603,7 @@
         <v>1745</v>
       </c>
       <c r="B147" t="n">
-        <v>654.3089824369523</v>
+        <v>654.308982436953</v>
       </c>
     </row>
     <row r="148">
@@ -1611,7 +1611,7 @@
         <v>1746</v>
       </c>
       <c r="B148" t="n">
-        <v>663.4227805339067</v>
+        <v>663.4227805339088</v>
       </c>
     </row>
     <row r="149">
@@ -1619,7 +1619,7 @@
         <v>1747</v>
       </c>
       <c r="B149" t="n">
-        <v>672.6609355924045</v>
+        <v>672.6609355924063</v>
       </c>
     </row>
     <row r="150">
@@ -1627,7 +1627,7 @@
         <v>1748</v>
       </c>
       <c r="B150" t="n">
-        <v>682.0251390100387</v>
+        <v>682.0251390100434</v>
       </c>
     </row>
     <row r="151">
@@ -1635,7 +1635,7 @@
         <v>1749</v>
       </c>
       <c r="B151" t="n">
-        <v>691.5171077528461</v>
+        <v>691.5171077528415</v>
       </c>
     </row>
     <row r="152">
@@ -1643,7 +1643,7 @@
         <v>1750</v>
       </c>
       <c r="B152" t="n">
-        <v>701.1385849110593</v>
+        <v>701.1385849110603</v>
       </c>
     </row>
     <row r="153">
@@ -1651,7 +1651,7 @@
         <v>1751</v>
       </c>
       <c r="B153" t="n">
-        <v>710.8913402716064</v>
+        <v>710.8913402716105</v>
       </c>
     </row>
     <row r="154">
@@ -1659,7 +1659,7 @@
         <v>1752</v>
       </c>
       <c r="B154" t="n">
-        <v>720.7771709111795</v>
+        <v>720.7771709111731</v>
       </c>
     </row>
     <row r="155">
@@ -1667,7 +1667,7 @@
         <v>1753</v>
       </c>
       <c r="B155" t="n">
-        <v>730.7979018081369</v>
+        <v>730.7979018081433</v>
       </c>
     </row>
     <row r="156">
@@ -1675,7 +1675,7 @@
         <v>1754</v>
       </c>
       <c r="B156" t="n">
-        <v>740.9553864750519</v>
+        <v>740.9553864750436</v>
       </c>
     </row>
     <row r="157">
@@ -1683,7 +1683,7 @@
         <v>1755</v>
       </c>
       <c r="B157" t="n">
-        <v>751.2515076137723</v>
+        <v>751.2515076137772</v>
       </c>
     </row>
     <row r="158">
@@ -1691,7 +1691,7 @@
         <v>1756</v>
       </c>
       <c r="B158" t="n">
-        <v>761.6881777908374</v>
+        <v>761.6881777908312</v>
       </c>
     </row>
     <row r="159">
@@ -1699,7 +1699,7 @@
         <v>1757</v>
       </c>
       <c r="B159" t="n">
-        <v>772.2673401376239</v>
+        <v>772.267340137633</v>
       </c>
     </row>
     <row r="160">
@@ -1707,7 +1707,7 @@
         <v>1758</v>
       </c>
       <c r="B160" t="n">
-        <v>782.9909690732439</v>
+        <v>782.990969073241</v>
       </c>
     </row>
     <row r="161">
@@ -1715,7 +1715,7 @@
         <v>1759</v>
       </c>
       <c r="B161" t="n">
-        <v>793.8610710525962</v>
+        <v>793.8610710525952</v>
       </c>
     </row>
     <row r="162">
@@ -1723,7 +1723,7 @@
         <v>1760</v>
       </c>
       <c r="B162" t="n">
-        <v>804.8796853401467</v>
+        <v>804.8796853401466</v>
       </c>
     </row>
     <row r="163">
@@ -1731,7 +1731,7 @@
         <v>1761</v>
       </c>
       <c r="B163" t="n">
-        <v>816.0488848100368</v>
+        <v>816.0488848100343</v>
       </c>
     </row>
     <row r="164">
@@ -1739,7 +1739,7 @@
         <v>1762</v>
       </c>
       <c r="B164" t="n">
-        <v>827.3707767744202</v>
+        <v>827.3707767744251</v>
       </c>
     </row>
     <row r="165">
@@ -1747,7 +1747,7 @@
         <v>1763</v>
       </c>
       <c r="B165" t="n">
-        <v>838.8475038392214</v>
+        <v>838.8475038392181</v>
       </c>
     </row>
     <row r="166">
@@ -1755,7 +1755,7 @@
         <v>1764</v>
       </c>
       <c r="B166" t="n">
-        <v>850.4812447905182</v>
+        <v>850.4812447905196</v>
       </c>
     </row>
     <row r="167">
@@ -1763,7 +1763,7 @@
         <v>1765</v>
       </c>
       <c r="B167" t="n">
-        <v>862.2742155116094</v>
+        <v>862.2742155116088</v>
       </c>
     </row>
     <row r="168">
@@ -1771,7 +1771,7 @@
         <v>1766</v>
       </c>
       <c r="B168" t="n">
-        <v>874.2286699311364</v>
+        <v>874.2286699311392</v>
       </c>
     </row>
     <row r="169">
@@ -1779,7 +1779,7 @@
         <v>1767</v>
       </c>
       <c r="B169" t="n">
-        <v>886.3469010044997</v>
+        <v>886.3469010044984</v>
       </c>
     </row>
     <row r="170">
@@ -1787,7 +1787,7 @@
         <v>1768</v>
       </c>
       <c r="B170" t="n">
-        <v>898.6312417297142</v>
+        <v>898.6312417297139</v>
       </c>
     </row>
     <row r="171">
@@ -1795,7 +1795,7 @@
         <v>1769</v>
       </c>
       <c r="B171" t="n">
-        <v>911.0840661979445</v>
+        <v>911.0840661979422</v>
       </c>
     </row>
     <row r="172">
@@ -1803,7 +1803,7 @@
         <v>1770</v>
       </c>
       <c r="B172" t="n">
-        <v>923.7077906807669</v>
+        <v>923.7077906807698</v>
       </c>
     </row>
     <row r="173">
@@ -1811,7 +1811,7 @@
         <v>1771</v>
       </c>
       <c r="B173" t="n">
-        <v>936.5048747553468</v>
+        <v>936.5048747553453</v>
       </c>
     </row>
     <row r="174">
@@ -1819,7 +1819,7 @@
         <v>1772</v>
       </c>
       <c r="B174" t="n">
-        <v>949.4778224685724</v>
+        <v>949.4778224685751</v>
       </c>
     </row>
     <row r="175">
@@ -1827,7 +1827,7 @@
         <v>1773</v>
       </c>
       <c r="B175" t="n">
-        <v>962.6291835414</v>
+        <v>962.6291835414015</v>
       </c>
     </row>
     <row r="176">
@@ -1835,7 +1835,7 @@
         <v>1774</v>
       </c>
       <c r="B176" t="n">
-        <v>975.9615546151123</v>
+        <v>975.9615546151133</v>
       </c>
     </row>
     <row r="177">
@@ -1843,7 +1843,7 @@
         <v>1775</v>
       </c>
       <c r="B177" t="n">
-        <v>989.4775805410005</v>
+        <v>989.4775805409988</v>
       </c>
     </row>
     <row r="178">
@@ -1851,7 +1851,7 @@
         <v>1776</v>
       </c>
       <c r="B178" t="n">
-        <v>1003.179955714101</v>
+        <v>1003.1799557141</v>
       </c>
     </row>
     <row r="179">
@@ -1859,7 +1859,7 @@
         <v>1777</v>
       </c>
       <c r="B179" t="n">
-        <v>1017.071425453607</v>
+        <v>1017.071425453605</v>
       </c>
     </row>
     <row r="180">
@@ -1867,7 +1867,7 @@
         <v>1778</v>
       </c>
       <c r="B180" t="n">
-        <v>1031.154787430156</v>
+        <v>1031.154787430159</v>
       </c>
     </row>
     <row r="181">
@@ -1875,7 +1875,7 @@
         <v>1779</v>
       </c>
       <c r="B181" t="n">
-        <v>1045.432893142885</v>
+        <v>1045.432893142887</v>
       </c>
     </row>
     <row r="182">
@@ -1883,7 +1883,7 @@
         <v>1780</v>
       </c>
       <c r="B182" t="n">
-        <v>1059.90864944702</v>
+        <v>1059.908649447018</v>
       </c>
     </row>
     <row r="183">
@@ -1891,7 +1891,7 @@
         <v>1781</v>
       </c>
       <c r="B183" t="n">
-        <v>1074.585020133645</v>
+        <v>1074.585020133643</v>
       </c>
     </row>
     <row r="184">
@@ -1899,7 +1899,7 @@
         <v>1782</v>
       </c>
       <c r="B184" t="n">
-        <v>1089.465027563086</v>
+        <v>1089.465027563088</v>
       </c>
     </row>
     <row r="185">
@@ -1915,7 +1915,7 @@
         <v>1784</v>
       </c>
       <c r="B186" t="n">
-        <v>1119.848345134309</v>
+        <v>1119.848345134312</v>
       </c>
     </row>
     <row r="187">
@@ -1931,7 +1931,7 @@
         <v>1786</v>
       </c>
       <c r="B188" t="n">
-        <v>1151.084018080486</v>
+        <v>1151.084018080487</v>
       </c>
     </row>
     <row r="189">
@@ -1939,7 +1939,7 @@
         <v>1787</v>
       </c>
       <c r="B189" t="n">
-        <v>1167.029716084391</v>
+        <v>1167.02971608439</v>
       </c>
     </row>
     <row r="190">
@@ -1947,7 +1947,7 @@
         <v>1788</v>
       </c>
       <c r="B190" t="n">
-        <v>1183.198513673235</v>
+        <v>1183.198513673237</v>
       </c>
     </row>
     <row r="191">
@@ -1955,7 +1955,7 @@
         <v>1789</v>
       </c>
       <c r="B191" t="n">
-        <v>1199.593893832123</v>
+        <v>1199.59389383212</v>
       </c>
     </row>
     <row r="192">
@@ -1963,7 +1963,7 @@
         <v>1790</v>
       </c>
       <c r="B192" t="n">
-        <v>1216.219413335327</v>
+        <v>1216.219413335326</v>
       </c>
     </row>
     <row r="193">
@@ -1971,7 +1971,7 @@
         <v>1791</v>
       </c>
       <c r="B193" t="n">
-        <v>1233.078704945975</v>
+        <v>1233.078704945977</v>
       </c>
     </row>
     <row r="194">
@@ -1987,7 +1987,7 @@
         <v>1793</v>
       </c>
       <c r="B195" t="n">
-        <v>1267.513529178348</v>
+        <v>1267.513529178347</v>
       </c>
     </row>
     <row r="196">
@@ -2003,7 +2003,7 @@
         <v>1795</v>
       </c>
       <c r="B197" t="n">
-        <v>1302.929036537464</v>
+        <v>1302.929036537465</v>
       </c>
     </row>
     <row r="198">
@@ -2011,7 +2011,7 @@
         <v>1796</v>
       </c>
       <c r="B198" t="n">
-        <v>1321.014502842907</v>
+        <v>1321.014502842906</v>
       </c>
     </row>
     <row r="199">
@@ -2019,7 +2019,7 @@
         <v>1797</v>
       </c>
       <c r="B199" t="n">
-        <v>1339.357266018252</v>
+        <v>1339.357266018253</v>
       </c>
     </row>
     <row r="200">
@@ -2027,7 +2027,7 @@
         <v>1798</v>
       </c>
       <c r="B200" t="n">
-        <v>1357.961558596476</v>
+        <v>1357.961558596475</v>
       </c>
     </row>
     <row r="201">
@@ -2035,7 +2035,7 @@
         <v>1799</v>
       </c>
       <c r="B201" t="n">
-        <v>1376.831709443994</v>
+        <v>1376.831709443993</v>
       </c>
     </row>
     <row r="202">
@@ -2043,7 +2043,7 @@
         <v>1800</v>
       </c>
       <c r="B202" t="n">
-        <v>1395.972146678363</v>
+        <v>1395.972146678366</v>
       </c>
     </row>
     <row r="203">
@@ -2051,7 +2051,7 @@
         <v>1801</v>
       </c>
       <c r="B203" t="n">
-        <v>1415.387400674991</v>
+        <v>1415.38740067499</v>
       </c>
     </row>
     <row r="204">
@@ -2067,7 +2067,7 @@
         <v>1803</v>
       </c>
       <c r="B205" t="n">
-        <v>1455.061010434899</v>
+        <v>1455.061010434898</v>
       </c>
     </row>
     <row r="206">
@@ -2075,7 +2075,7 @@
         <v>1804</v>
       </c>
       <c r="B206" t="n">
-        <v>1475.328966600979</v>
+        <v>1475.328966600977</v>
       </c>
     </row>
     <row r="207">
@@ -2083,7 +2083,7 @@
         <v>1805</v>
       </c>
       <c r="B207" t="n">
-        <v>1495.890947008552</v>
+        <v>1495.890947008554</v>
       </c>
     </row>
     <row r="208">
@@ -2099,7 +2099,7 @@
         <v>1807</v>
       </c>
       <c r="B209" t="n">
-        <v>1537.917463051756</v>
+        <v>1537.917463051758</v>
       </c>
     </row>
     <row r="210">
@@ -2107,7 +2107,7 @@
         <v>1808</v>
       </c>
       <c r="B210" t="n">
-        <v>1559.392549363574</v>
+        <v>1559.392549363572</v>
       </c>
     </row>
     <row r="211">
@@ -2115,7 +2115,7 @@
         <v>1809</v>
       </c>
       <c r="B211" t="n">
-        <v>1581.182768750653</v>
+        <v>1581.182768750652</v>
       </c>
     </row>
     <row r="212">
@@ -2131,7 +2131,7 @@
         <v>1811</v>
       </c>
       <c r="B213" t="n">
-        <v>1625.731151553187</v>
+        <v>1625.731151553188</v>
       </c>
     </row>
     <row r="214">
@@ -2147,7 +2147,7 @@
         <v>1813</v>
       </c>
       <c r="B215" t="n">
-        <v>1671.609102676119</v>
+        <v>1671.609102676118</v>
       </c>
     </row>
     <row r="216">
@@ -2155,7 +2155,7 @@
         <v>1814</v>
       </c>
       <c r="B216" t="n">
-        <v>1695.061830156621</v>
+        <v>1695.061830156624</v>
       </c>
     </row>
     <row r="217">
@@ -2163,7 +2163,7 @@
         <v>1815</v>
       </c>
       <c r="B217" t="n">
-        <v>1718.865450573958</v>
+        <v>1718.865450573957</v>
       </c>
     </row>
     <row r="218">
@@ -2171,7 +2171,7 @@
         <v>1816</v>
       </c>
       <c r="B218" t="n">
-        <v>1743.026455742564</v>
+        <v>1743.026455742566</v>
       </c>
     </row>
     <row r="219">
@@ -2179,7 +2179,7 @@
         <v>1817</v>
       </c>
       <c r="B219" t="n">
-        <v>1767.551501521986</v>
+        <v>1767.551501521983</v>
       </c>
     </row>
     <row r="220">
@@ -2187,7 +2187,7 @@
         <v>1818</v>
       </c>
       <c r="B220" t="n">
-        <v>1792.447412607094</v>
+        <v>1792.447412607097</v>
       </c>
     </row>
     <row r="221">
@@ -2195,7 +2195,7 @@
         <v>1819</v>
       </c>
       <c r="B221" t="n">
-        <v>1817.721187435269</v>
+        <v>1817.721187435268</v>
       </c>
     </row>
     <row r="222">
@@ -2203,7 +2203,7 @@
         <v>1820</v>
       </c>
       <c r="B222" t="n">
-        <v>1843.38000320374</v>
+        <v>1843.380003203744</v>
       </c>
     </row>
     <row r="223">
@@ -2211,7 +2211,7 @@
         <v>1821</v>
       </c>
       <c r="B223" t="n">
-        <v>1869.431221007474</v>
+        <v>1869.431221007472</v>
       </c>
     </row>
     <row r="224">
@@ -2219,7 +2219,7 @@
         <v>1822</v>
       </c>
       <c r="B224" t="n">
-        <v>1895.882391086765</v>
+        <v>1895.882391086763</v>
       </c>
     </row>
     <row r="225">
@@ -2235,7 +2235,7 @@
         <v>1824</v>
       </c>
       <c r="B226" t="n">
-        <v>1950.015767064513</v>
+        <v>1950.015767064515</v>
       </c>
     </row>
     <row r="227">
@@ -2243,7 +2243,7 @@
         <v>1825</v>
       </c>
       <c r="B227" t="n">
-        <v>1977.714068013943</v>
+        <v>1977.714068013942</v>
       </c>
     </row>
     <row r="228">
@@ -2251,7 +2251,7 @@
         <v>1826</v>
       </c>
       <c r="B228" t="n">
-        <v>2005.844522630011</v>
+        <v>2005.844522630012</v>
       </c>
     </row>
     <row r="229">
@@ -2259,7 +2259,7 @@
         <v>1827</v>
       </c>
       <c r="B229" t="n">
-        <v>2034.415709583546</v>
+        <v>2034.415709583545</v>
       </c>
     </row>
     <row r="230">
@@ -2267,7 +2267,7 @@
         <v>1828</v>
       </c>
       <c r="B230" t="n">
-        <v>2063.436430541286</v>
+        <v>2063.436430541285</v>
       </c>
     </row>
     <row r="231">
@@ -2275,7 +2275,7 @@
         <v>1829</v>
       </c>
       <c r="B231" t="n">
-        <v>2092.915716185031</v>
+        <v>2092.91571618503</v>
       </c>
     </row>
     <row r="232">
@@ -2283,7 +2283,7 @@
         <v>1830</v>
       </c>
       <c r="B232" t="n">
-        <v>2122.862832327709</v>
+        <v>2122.86283232771</v>
       </c>
     </row>
     <row r="233">
@@ -2291,7 +2291,7 @@
         <v>1831</v>
       </c>
       <c r="B233" t="n">
-        <v>2153.287286128975</v>
+        <v>2153.287286128977</v>
       </c>
     </row>
     <row r="234">
@@ -2299,7 +2299,7 @@
         <v>1832</v>
       </c>
       <c r="B234" t="n">
-        <v>2184.198832404072</v>
+        <v>2184.198832404073</v>
       </c>
     </row>
     <row r="235">
@@ -2307,7 +2307,7 @@
         <v>1833</v>
       </c>
       <c r="B235" t="n">
-        <v>2215.607480018224</v>
+        <v>2215.607480018225</v>
       </c>
     </row>
     <row r="236">
@@ -2315,7 +2315,7 @@
         <v>1834</v>
       </c>
       <c r="B236" t="n">
-        <v>2247.523498367089</v>
+        <v>2247.523498367088</v>
       </c>
     </row>
     <row r="237">
@@ -2323,7 +2323,7 @@
         <v>1835</v>
       </c>
       <c r="B237" t="n">
-        <v>2279.957423932922</v>
+        <v>2279.957423932921</v>
       </c>
     </row>
     <row r="238">
@@ -2331,7 +2331,7 @@
         <v>1836</v>
       </c>
       <c r="B238" t="n">
-        <v>2312.920066911663</v>
+        <v>2312.920066911664</v>
       </c>
     </row>
     <row r="239">
@@ -2339,7 +2339,7 @@
         <v>1837</v>
       </c>
       <c r="B239" t="n">
-        <v>2346.422517904959</v>
+        <v>2346.422517904957</v>
       </c>
     </row>
     <row r="240">
@@ -2347,7 +2347,7 @@
         <v>1838</v>
       </c>
       <c r="B240" t="n">
-        <v>2380.476154667987</v>
+        <v>2380.476154667989</v>
       </c>
     </row>
     <row r="241">
@@ -2363,7 +2363,7 @@
         <v>1840</v>
       </c>
       <c r="B242" t="n">
-        <v>2450.283973096084</v>
+        <v>2450.283973096085</v>
       </c>
     </row>
     <row r="243">
@@ -2387,7 +2387,7 @@
         <v>1843</v>
       </c>
       <c r="B245" t="n">
-        <v>2559.431306207415</v>
+        <v>2559.431306207417</v>
       </c>
     </row>
     <row r="246">
@@ -2395,7 +2395,7 @@
         <v>1844</v>
       </c>
       <c r="B246" t="n">
-        <v>2597.047931161761</v>
+        <v>2597.047931161764</v>
       </c>
     </row>
     <row r="247">
@@ -2403,7 +2403,7 @@
         <v>1845</v>
       </c>
       <c r="B247" t="n">
-        <v>2635.304000738364</v>
+        <v>2635.304000738363</v>
       </c>
     </row>
     <row r="248">
@@ -2411,7 +2411,7 @@
         <v>1846</v>
       </c>
       <c r="B248" t="n">
-        <v>2674.213436377847</v>
+        <v>2674.213436377844</v>
       </c>
     </row>
     <row r="249">
@@ -2419,7 +2419,7 @@
         <v>1847</v>
       </c>
       <c r="B249" t="n">
-        <v>2713.79050824547</v>
+        <v>2713.790508245469</v>
       </c>
     </row>
     <row r="250">
@@ -2427,7 +2427,7 @@
         <v>1848</v>
       </c>
       <c r="B250" t="n">
-        <v>2754.049841927689</v>
+        <v>2754.049841927686</v>
       </c>
     </row>
     <row r="251">
@@ -2435,7 +2435,7 @@
         <v>1849</v>
       </c>
       <c r="B251" t="n">
-        <v>2795.006425041546</v>
+        <v>2795.00642504155</v>
       </c>
     </row>
     <row r="252">
@@ -2443,7 +2443,7 @@
         <v>1850</v>
       </c>
       <c r="B252" t="n">
-        <v>2836.675613733794</v>
+        <v>2836.675613733795</v>
       </c>
     </row>
     <row r="253">
@@ -2459,7 +2459,7 @@
         <v>1852</v>
       </c>
       <c r="B254" t="n">
-        <v>2922.215113175152</v>
+        <v>2922.215113175153</v>
       </c>
     </row>
     <row r="255">
@@ -2467,7 +2467,7 @@
         <v>1853</v>
       </c>
       <c r="B255" t="n">
-        <v>2966.118035438421</v>
+        <v>2966.118035438419</v>
       </c>
     </row>
     <row r="256">
@@ -2475,7 +2475,7 @@
         <v>1854</v>
       </c>
       <c r="B256" t="n">
-        <v>3010.798798198695</v>
+        <v>3010.798798198698</v>
       </c>
     </row>
     <row r="257">
@@ -2491,7 +2491,7 @@
         <v>1856</v>
       </c>
       <c r="B258" t="n">
-        <v>3102.563413155294</v>
+        <v>3102.563413155296</v>
       </c>
     </row>
     <row r="259">
@@ -2499,7 +2499,7 @@
         <v>1857</v>
       </c>
       <c r="B259" t="n">
-        <v>3149.68306438775</v>
+        <v>3149.683064387747</v>
       </c>
     </row>
     <row r="260">
@@ -2507,7 +2507,7 @@
         <v>1858</v>
       </c>
       <c r="B260" t="n">
-        <v>3197.652164028389</v>
+        <v>3197.65216402839</v>
       </c>
     </row>
     <row r="261">
@@ -2515,7 +2515,7 @@
         <v>1859</v>
       </c>
       <c r="B261" t="n">
-        <v>3246.489648205599</v>
+        <v>3246.489648205601</v>
       </c>
     </row>
     <row r="262">
@@ -2523,7 +2523,7 @@
         <v>1860</v>
       </c>
       <c r="B262" t="n">
-        <v>3296.214875315536</v>
+        <v>3296.214875315532</v>
       </c>
     </row>
     <row r="263">
@@ -2531,7 +2531,7 @@
         <v>1861</v>
       </c>
       <c r="B263" t="n">
-        <v>3346.847629622285</v>
+        <v>3346.84762962229</v>
       </c>
     </row>
     <row r="264">
@@ -2539,7 +2539,7 @@
         <v>1862</v>
       </c>
       <c r="B264" t="n">
-        <v>3398.408124396799</v>
+        <v>3398.408124396801</v>
       </c>
     </row>
     <row r="265">
@@ -2547,7 +2547,7 @@
         <v>1863</v>
       </c>
       <c r="B265" t="n">
-        <v>3450.917004559501</v>
+        <v>3450.917004559502</v>
       </c>
     </row>
     <row r="266">
@@ -2555,7 +2555,7 @@
         <v>1864</v>
       </c>
       <c r="B266" t="n">
-        <v>3504.395348767689</v>
+        <v>3504.395348767687</v>
       </c>
     </row>
     <row r="267">
@@ -2563,7 +2563,7 @@
         <v>1865</v>
       </c>
       <c r="B267" t="n">
-        <v>3558.864670923912</v>
+        <v>3558.864670923911</v>
       </c>
     </row>
     <row r="268">
@@ -2571,7 +2571,7 @@
         <v>1866</v>
       </c>
       <c r="B268" t="n">
-        <v>3614.346921043358</v>
+        <v>3614.346921043356</v>
       </c>
     </row>
     <row r="269">
@@ -2579,7 +2579,7 @@
         <v>1867</v>
       </c>
       <c r="B269" t="n">
-        <v>3670.86448543547</v>
+        <v>3670.864485435474</v>
       </c>
     </row>
     <row r="270">
@@ -2587,7 +2587,7 @@
         <v>1868</v>
       </c>
       <c r="B270" t="n">
-        <v>3728.440186154297</v>
+        <v>3728.440186154295</v>
       </c>
     </row>
     <row r="271">
@@ -2595,7 +2595,7 @@
         <v>1869</v>
       </c>
       <c r="B271" t="n">
-        <v>3787.097279657032</v>
+        <v>3787.097279657034</v>
       </c>
     </row>
     <row r="272">
@@ -2603,7 +2603,7 @@
         <v>1870</v>
       </c>
       <c r="B272" t="n">
-        <v>3846.859454623675</v>
+        <v>3846.859454623676</v>
       </c>
     </row>
     <row r="273">
@@ -2611,7 +2611,7 @@
         <v>1871</v>
       </c>
       <c r="B273" t="n">
-        <v>3907.750828873694</v>
+        <v>3907.750828873697</v>
       </c>
     </row>
     <row r="274">
@@ -2619,7 +2619,7 @@
         <v>1872</v>
       </c>
       <c r="B274" t="n">
-        <v>3969.795945326937</v>
+        <v>3969.795945326934</v>
       </c>
     </row>
     <row r="275">
@@ -2627,7 +2627,7 @@
         <v>1873</v>
       </c>
       <c r="B275" t="n">
-        <v>4033.019766945192</v>
+        <v>4033.01976694519</v>
       </c>
     </row>
     <row r="276">
@@ -2635,7 +2635,7 @@
         <v>1874</v>
       </c>
       <c r="B276" t="n">
-        <v>4097.447670590145</v>
+        <v>4097.447670590147</v>
       </c>
     </row>
     <row r="277">
@@ -2643,7 +2643,7 @@
         <v>1875</v>
       </c>
       <c r="B277" t="n">
-        <v>4163.105439737931</v>
+        <v>4163.10543973793</v>
       </c>
     </row>
     <row r="278">
@@ -2651,7 +2651,7 @@
         <v>1876</v>
       </c>
       <c r="B278" t="n">
-        <v>4230.019255978007</v>
+        <v>4230.019255978009</v>
       </c>
     </row>
     <row r="279">
@@ -2659,7 +2659,7 @@
         <v>1877</v>
       </c>
       <c r="B279" t="n">
-        <v>4298.215689232205</v>
+        <v>4298.215689232201</v>
       </c>
     </row>
     <row r="280">
@@ -2667,7 +2667,7 @@
         <v>1878</v>
       </c>
       <c r="B280" t="n">
-        <v>4367.721686620741</v>
+        <v>4367.721686620745</v>
       </c>
     </row>
     <row r="281">
@@ -2675,7 +2675,7 @@
         <v>1879</v>
       </c>
       <c r="B281" t="n">
-        <v>4438.564559906707</v>
+        <v>4438.564559906708</v>
       </c>
     </row>
     <row r="282">
@@ -2683,7 +2683,7 @@
         <v>1880</v>
       </c>
       <c r="B282" t="n">
-        <v>4510.771971442561</v>
+        <v>4510.771971442564</v>
       </c>
     </row>
     <row r="283">
@@ -2699,7 +2699,7 @@
         <v>1882</v>
       </c>
       <c r="B284" t="n">
-        <v>4659.392716228926</v>
+        <v>4659.392716228925</v>
       </c>
     </row>
     <row r="285">
@@ -2707,7 +2707,7 @@
         <v>1883</v>
       </c>
       <c r="B285" t="n">
-        <v>4735.862978200562</v>
+        <v>4735.862978200559</v>
       </c>
     </row>
     <row r="286">
@@ -2715,7 +2715,7 @@
         <v>1884</v>
       </c>
       <c r="B286" t="n">
-        <v>4813.811596072745</v>
+        <v>4813.811596072742</v>
       </c>
     </row>
     <row r="287">
@@ -2723,7 +2723,7 @@
         <v>1885</v>
       </c>
       <c r="B287" t="n">
-        <v>4893.267716678706</v>
+        <v>4893.267716678712</v>
       </c>
     </row>
     <row r="288">
@@ -2731,7 +2731,7 @@
         <v>1886</v>
       </c>
       <c r="B288" t="n">
-        <v>4974.260717437577</v>
+        <v>4974.260717437573</v>
       </c>
     </row>
     <row r="289">
@@ -2747,7 +2747,7 @@
         <v>1888</v>
       </c>
       <c r="B290" t="n">
-        <v>5140.975859838762</v>
+        <v>5140.975859838765</v>
       </c>
     </row>
     <row r="291">
@@ -2763,7 +2763,7 @@
         <v>1890</v>
       </c>
       <c r="B292" t="n">
-        <v>5314.19558705046</v>
+        <v>5314.195587050459</v>
       </c>
     </row>
     <row r="293">
@@ -2771,7 +2771,7 @@
         <v>1891</v>
       </c>
       <c r="B293" t="n">
-        <v>5403.319732184989</v>
+        <v>5403.319732184988</v>
       </c>
     </row>
     <row r="294">
@@ -2779,7 +2779,7 @@
         <v>1892</v>
       </c>
       <c r="B294" t="n">
-        <v>5494.160217750813</v>
+        <v>5494.160217750816</v>
       </c>
     </row>
     <row r="295">
@@ -2803,7 +2803,7 @@
         <v>1895</v>
       </c>
       <c r="B297" t="n">
-        <v>5777.28064396993</v>
+        <v>5777.280643969933</v>
       </c>
     </row>
     <row r="298">
@@ -2811,7 +2811,7 @@
         <v>1896</v>
       </c>
       <c r="B298" t="n">
-        <v>5875.28700009629</v>
+        <v>5875.287000096288</v>
       </c>
     </row>
     <row r="299">
@@ -2819,7 +2819,7 @@
         <v>1897</v>
       </c>
       <c r="B299" t="n">
-        <v>5975.15936327563</v>
+        <v>5975.159363275627</v>
       </c>
     </row>
     <row r="300">
@@ -2827,7 +2827,7 @@
         <v>1898</v>
       </c>
       <c r="B300" t="n">
-        <v>6076.927136688086</v>
+        <v>6076.92713668809</v>
       </c>
     </row>
     <row r="301">
@@ -2843,7 +2843,7 @@
         <v>1900</v>
       </c>
       <c r="B302" t="n">
-        <v>6286.264952408991</v>
+        <v>6286.264952408999</v>
       </c>
     </row>
     <row r="303">
@@ -2851,7 +2851,7 @@
         <v>1901</v>
       </c>
       <c r="B303" t="n">
-        <v>6393.892043996393</v>
+        <v>6393.892043996389</v>
       </c>
     </row>
     <row r="304">
@@ -2859,7 +2859,7 @@
         <v>1902</v>
       </c>
       <c r="B304" t="n">
-        <v>6503.528515721054</v>
+        <v>6503.528515721047</v>
       </c>
     </row>
     <row r="305">
@@ -2867,7 +2867,7 @@
         <v>1903</v>
       </c>
       <c r="B305" t="n">
-        <v>6615.201627652983</v>
+        <v>6615.201627652984</v>
       </c>
     </row>
     <row r="306">
@@ -2875,7 +2875,7 @@
         <v>1904</v>
       </c>
       <c r="B306" t="n">
-        <v>6728.938007662755</v>
+        <v>6728.938007662759</v>
       </c>
     </row>
     <row r="307">
@@ -2883,7 +2883,7 @@
         <v>1905</v>
       </c>
       <c r="B307" t="n">
-        <v>6844.763576472906</v>
+        <v>6844.763576472904</v>
       </c>
     </row>
     <row r="308">
@@ -2891,7 +2891,7 @@
         <v>1906</v>
       </c>
       <c r="B308" t="n">
-        <v>6962.703469656964</v>
+        <v>6962.703469656966</v>
       </c>
     </row>
     <row r="309">
@@ -2899,7 +2899,7 @@
         <v>1907</v>
       </c>
       <c r="B309" t="n">
-        <v>7082.781956604867</v>
+        <v>7082.781956604868</v>
       </c>
     </row>
     <row r="310">
@@ -2907,7 +2907,7 @@
         <v>1908</v>
       </c>
       <c r="B310" t="n">
-        <v>7205.022356469958</v>
+        <v>7205.022356469953</v>
       </c>
     </row>
     <row r="311">
@@ -2915,7 +2915,7 @@
         <v>1909</v>
       </c>
       <c r="B311" t="n">
-        <v>7329.446951129227</v>
+        <v>7329.446951129228</v>
       </c>
     </row>
     <row r="312">
@@ -2923,7 +2923,7 @@
         <v>1910</v>
       </c>
       <c r="B312" t="n">
-        <v>7456.07689521939</v>
+        <v>7456.076895219392</v>
       </c>
     </row>
     <row r="313">
@@ -2931,7 +2931,7 @@
         <v>1911</v>
       </c>
       <c r="B313" t="n">
-        <v>7584.932123300203</v>
+        <v>7584.932123300205</v>
       </c>
     </row>
     <row r="314">
@@ -2939,7 +2939,7 @@
         <v>1912</v>
       </c>
       <c r="B314" t="n">
-        <v>7716.031254217876</v>
+        <v>7716.031254217874</v>
       </c>
     </row>
     <row r="315">
@@ -2947,7 +2947,7 @@
         <v>1913</v>
       </c>
       <c r="B315" t="n">
-        <v>7849.391492773238</v>
+        <v>7849.39149277324</v>
       </c>
     </row>
     <row r="316">
@@ -2955,7 +2955,7 @@
         <v>1914</v>
       </c>
       <c r="B316" t="n">
-        <v>7985.028528794967</v>
+        <v>7985.028528794961</v>
       </c>
     </row>
     <row r="317">
@@ -2963,7 +2963,7 @@
         <v>1915</v>
       </c>
       <c r="B317" t="n">
-        <v>8122.956433740367</v>
+        <v>8122.956433740361</v>
       </c>
     </row>
     <row r="318">
@@ -2971,7 +2971,7 @@
         <v>1916</v>
       </c>
       <c r="B318" t="n">
-        <v>8263.187554979615</v>
+        <v>8263.187554979626</v>
       </c>
     </row>
     <row r="319">
@@ -2979,7 +2979,7 @@
         <v>1917</v>
       </c>
       <c r="B319" t="n">
-        <v>8405.732407908377</v>
+        <v>8405.732407908374</v>
       </c>
     </row>
     <row r="320">
@@ -2987,7 +2987,7 @@
         <v>1918</v>
       </c>
       <c r="B320" t="n">
-        <v>8550.599566078852</v>
+        <v>8550.59956607885</v>
       </c>
     </row>
     <row r="321">
@@ -3003,7 +3003,7 @@
         <v>1920</v>
       </c>
       <c r="B322" t="n">
-        <v>8847.324711707301</v>
+        <v>8847.324711707306</v>
       </c>
     </row>
     <row r="323">
@@ -3011,7 +3011,7 @@
         <v>1921</v>
       </c>
       <c r="B323" t="n">
-        <v>8999.189124665245</v>
+        <v>8999.189124665241</v>
       </c>
     </row>
     <row r="324">
@@ -3019,7 +3019,7 @@
         <v>1922</v>
       </c>
       <c r="B324" t="n">
-        <v>9153.388463745203</v>
+        <v>9153.388463745208</v>
       </c>
     </row>
     <row r="325">
@@ -3027,7 +3027,7 @@
         <v>1923</v>
       </c>
       <c r="B325" t="n">
-        <v>9309.91989108664</v>
+        <v>9309.919891086633</v>
       </c>
     </row>
     <row r="326">
@@ -3035,7 +3035,7 @@
         <v>1924</v>
       </c>
       <c r="B326" t="n">
-        <v>9468.77793882136</v>
+        <v>9468.777938821364</v>
       </c>
     </row>
     <row r="327">
@@ -3051,7 +3051,7 @@
         <v>1926</v>
       </c>
       <c r="B328" t="n">
-        <v>9793.438172369768</v>
+        <v>9793.438172369773</v>
       </c>
     </row>
     <row r="329">
@@ -3059,7 +3059,7 @@
         <v>1927</v>
       </c>
       <c r="B329" t="n">
-        <v>9959.215221131202</v>
+        <v>9959.215221131197</v>
       </c>
     </row>
     <row r="330">
@@ -3067,7 +3067,7 @@
         <v>1928</v>
       </c>
       <c r="B330" t="n">
-        <v>10127.26838480044</v>
+        <v>10127.26838480045</v>
       </c>
     </row>
     <row r="331">
@@ -3075,7 +3075,7 @@
         <v>1929</v>
       </c>
       <c r="B331" t="n">
-        <v>10297.57730086211</v>
+        <v>10297.5773008621</v>
       </c>
     </row>
     <row r="332">
@@ -3091,7 +3091,7 @@
         <v>1931</v>
       </c>
       <c r="B333" t="n">
-        <v>10644.86422579114</v>
+        <v>10644.86422579113</v>
       </c>
     </row>
     <row r="334">
@@ -3099,7 +3099,7 @@
         <v>1932</v>
       </c>
       <c r="B334" t="n">
-        <v>10821.78446890229</v>
+        <v>10821.7844689023</v>
       </c>
     </row>
     <row r="335">
@@ -3107,7 +3107,7 @@
         <v>1933</v>
       </c>
       <c r="B335" t="n">
-        <v>11000.84472218653</v>
+        <v>11000.84472218654</v>
       </c>
     </row>
     <row r="336">
@@ -3147,7 +3147,7 @@
         <v>1938</v>
       </c>
       <c r="B340" t="n">
-        <v>11926.77876925261</v>
+        <v>11926.77876925262</v>
       </c>
     </row>
     <row r="341">
@@ -3163,7 +3163,7 @@
         <v>1940</v>
       </c>
       <c r="B342" t="n">
-        <v>12310.49743384767</v>
+        <v>12310.49743384768</v>
       </c>
     </row>
     <row r="343">
@@ -3171,7 +3171,7 @@
         <v>1941</v>
       </c>
       <c r="B343" t="n">
-        <v>12504.97548019666</v>
+        <v>12504.97548019667</v>
       </c>
     </row>
     <row r="344">
@@ -3179,7 +3179,7 @@
         <v>1942</v>
       </c>
       <c r="B344" t="n">
-        <v>12701.10619833373</v>
+        <v>12701.10619833371</v>
       </c>
     </row>
     <row r="345">
@@ -3203,7 +3203,7 @@
         <v>1945</v>
       </c>
       <c r="B347" t="n">
-        <v>13298.63905953864</v>
+        <v>13298.63905953865</v>
       </c>
     </row>
     <row r="348">
@@ -3211,7 +3211,7 @@
         <v>1946</v>
       </c>
       <c r="B348" t="n">
-        <v>13500.5829808024</v>
+        <v>13500.58298080238</v>
       </c>
     </row>
     <row r="349">
@@ -3219,7 +3219,7 @@
         <v>1947</v>
       </c>
       <c r="B349" t="n">
-        <v>13703.75862924124</v>
+        <v>13703.75862924125</v>
       </c>
     </row>
     <row r="350">
@@ -3243,7 +3243,7 @@
         <v>1950</v>
       </c>
       <c r="B352" t="n">
-        <v>14319.67864391295</v>
+        <v>14319.67864391294</v>
       </c>
     </row>
     <row r="353">
@@ -3251,7 +3251,7 @@
         <v>1951</v>
       </c>
       <c r="B353" t="n">
-        <v>14526.76195235821</v>
+        <v>14526.76195235824</v>
       </c>
     </row>
     <row r="354">
@@ -3259,7 +3259,7 @@
         <v>1952</v>
       </c>
       <c r="B354" t="n">
-        <v>14734.54557214522</v>
+        <v>14734.54557214519</v>
       </c>
     </row>
     <row r="355">
@@ -3275,7 +3275,7 @@
         <v>1954</v>
       </c>
       <c r="B356" t="n">
-        <v>15151.73299270214</v>
+        <v>15151.73299270215</v>
       </c>
     </row>
     <row r="357">
@@ -3283,7 +3283,7 @@
         <v>1955</v>
       </c>
       <c r="B357" t="n">
-        <v>15360.88621489061</v>
+        <v>15360.8862148906</v>
       </c>
     </row>
     <row r="358">
@@ -3291,7 +3291,7 @@
         <v>1956</v>
       </c>
       <c r="B358" t="n">
-        <v>15570.23880606149</v>
+        <v>15570.2388060615</v>
       </c>
     </row>
     <row r="359">
@@ -3307,7 +3307,7 @@
         <v>1958</v>
       </c>
       <c r="B360" t="n">
-        <v>15988.99852680252</v>
+        <v>15988.99852680251</v>
       </c>
     </row>
     <row r="361">
@@ -3315,7 +3315,7 @@
         <v>1959</v>
       </c>
       <c r="B361" t="n">
-        <v>16198.1249417172</v>
+        <v>16198.12494171719</v>
       </c>
     </row>
     <row r="362">
@@ -3323,7 +3323,7 @@
         <v>1960</v>
       </c>
       <c r="B362" t="n">
-        <v>16406.88962426118</v>
+        <v>16406.88962426119</v>
       </c>
     </row>
     <row r="363">
@@ -3331,7 +3331,7 @@
         <v>1961</v>
       </c>
       <c r="B363" t="n">
-        <v>16615.14404920065</v>
+        <v>16615.14404920066</v>
       </c>
     </row>
     <row r="364">
@@ -3355,7 +3355,7 @@
         <v>1964</v>
       </c>
       <c r="B366" t="n">
-        <v>17235.31796648458</v>
+        <v>17235.31796648457</v>
       </c>
     </row>
     <row r="367">
@@ -3387,7 +3387,7 @@
         <v>1968</v>
       </c>
       <c r="B370" t="n">
-        <v>18045.60405756398</v>
+        <v>18045.60405756397</v>
       </c>
     </row>
     <row r="371">
@@ -3403,7 +3403,7 @@
         <v>1970</v>
       </c>
       <c r="B372" t="n">
-        <v>18440.69864875552</v>
+        <v>18440.69864875551</v>
       </c>
     </row>
     <row r="373">
@@ -3419,7 +3419,7 @@
         <v>1972</v>
       </c>
       <c r="B374" t="n">
-        <v>18827.32446822237</v>
+        <v>18827.32446822236</v>
       </c>
     </row>
     <row r="375">
@@ -3443,7 +3443,7 @@
         <v>1975</v>
       </c>
       <c r="B377" t="n">
-        <v>19388.46490772999</v>
+        <v>19388.46490772998</v>
       </c>
     </row>
     <row r="378">
@@ -3451,7 +3451,7 @@
         <v>1976</v>
       </c>
       <c r="B378" t="n">
-        <v>19569.83504928209</v>
+        <v>19569.83504928208</v>
       </c>
     </row>
     <row r="379">
@@ -3475,7 +3475,7 @@
         <v>1979</v>
       </c>
       <c r="B381" t="n">
-        <v>20094.62875766508</v>
+        <v>20094.62875766507</v>
       </c>
     </row>
     <row r="382">
@@ -3483,7 +3483,7 @@
         <v>1980</v>
       </c>
       <c r="B382" t="n">
-        <v>20262.58883485329</v>
+        <v>20262.58883485328</v>
       </c>
     </row>
     <row r="383">
@@ -3491,7 +3491,7 @@
         <v>1981</v>
       </c>
       <c r="B383" t="n">
-        <v>20426.80328500544</v>
+        <v>20426.80328500543</v>
       </c>
     </row>
     <row r="384">
@@ -3515,7 +3515,7 @@
         <v>1984</v>
       </c>
       <c r="B386" t="n">
-        <v>20895.47307971387</v>
+        <v>20895.47307971388</v>
       </c>
     </row>
     <row r="387">
@@ -3523,7 +3523,7 @@
         <v>1985</v>
       </c>
       <c r="B387" t="n">
-        <v>21043.22324405227</v>
+        <v>21043.22324405226</v>
       </c>
     </row>
     <row r="388">
@@ -3531,7 +3531,7 @@
         <v>1986</v>
       </c>
       <c r="B388" t="n">
-        <v>21186.50599416927</v>
+        <v>21186.50599416929</v>
       </c>
     </row>
     <row r="389">
@@ -3539,7 +3539,7 @@
         <v>1987</v>
       </c>
       <c r="B389" t="n">
-        <v>21325.1894952638</v>
+        <v>21325.18949526378</v>
       </c>
     </row>
     <row r="390">
@@ -3547,7 +3547,7 @@
         <v>1988</v>
       </c>
       <c r="B390" t="n">
-        <v>21459.14676757982</v>
+        <v>21459.14676757983</v>
       </c>
     </row>
     <row r="391">
@@ -3563,7 +3563,7 @@
         <v>1990</v>
       </c>
       <c r="B392" t="n">
-        <v>21712.40058817176</v>
+        <v>21712.40058817175</v>
       </c>
     </row>
     <row r="393">
@@ -3571,7 +3571,7 @@
         <v>1991</v>
       </c>
       <c r="B393" t="n">
-        <v>21831.46981514694</v>
+        <v>21831.46981514696</v>
       </c>
     </row>
     <row r="394">
@@ -3579,7 +3579,7 @@
         <v>1992</v>
       </c>
       <c r="B394" t="n">
-        <v>21945.35864200455</v>
+        <v>21945.35864200454</v>
       </c>
     </row>
     <row r="395">
@@ -3587,7 +3587,7 @@
         <v>1993</v>
       </c>
       <c r="B395" t="n">
-        <v>22053.96813920259</v>
+        <v>22053.96813920258</v>
       </c>
     </row>
     <row r="396">
@@ -3603,7 +3603,7 @@
         <v>1995</v>
       </c>
       <c r="B397" t="n">
-        <v>22254.98491412383</v>
+        <v>22254.98491412382</v>
       </c>
     </row>
     <row r="398">
@@ -3619,7 +3619,7 @@
         <v>1997</v>
       </c>
       <c r="B399" t="n">
-        <v>22433.85703499138</v>
+        <v>22433.85703499136</v>
       </c>
     </row>
     <row r="400">
@@ -3643,7 +3643,7 @@
         <v>2000</v>
       </c>
       <c r="B402" t="n">
-        <v>22659.4595844642</v>
+        <v>22659.45958446421</v>
       </c>
     </row>
     <row r="403">
@@ -3651,7 +3651,7 @@
         <v>2001</v>
       </c>
       <c r="B403" t="n">
-        <v>22723.05739746072</v>
+        <v>22723.05739746073</v>
       </c>
     </row>
     <row r="404">
@@ -3659,7 +3659,7 @@
         <v>2002</v>
       </c>
       <c r="B404" t="n">
-        <v>22780.78492534695</v>
+        <v>22780.78492534694</v>
       </c>
     </row>
     <row r="405">
@@ -3667,7 +3667,7 @@
         <v>2003</v>
       </c>
       <c r="B405" t="n">
-        <v>22832.61168975729</v>
+        <v>22832.61168975728</v>
       </c>
     </row>
     <row r="406">
@@ -3675,7 +3675,7 @@
         <v>2004</v>
       </c>
       <c r="B406" t="n">
-        <v>22878.5144198767</v>
+        <v>22878.51441987672</v>
       </c>
     </row>
     <row r="407">
@@ -3683,7 +3683,7 @@
         <v>2005</v>
       </c>
       <c r="B407" t="n">
-        <v>22918.47704082112</v>
+        <v>22918.47704082109</v>
       </c>
     </row>
     <row r="408">
@@ -3691,7 +3691,7 @@
         <v>2006</v>
       </c>
       <c r="B408" t="n">
-        <v>22952.49064301147</v>
+        <v>22952.4906430115</v>
       </c>
     </row>
     <row r="409">
@@ -3699,7 +3699,7 @@
         <v>2007</v>
       </c>
       <c r="B409" t="n">
-        <v>22980.55343298443</v>
+        <v>22980.55343298442</v>
       </c>
     </row>
     <row r="410">
@@ -3715,7 +3715,7 @@
         <v>2009</v>
       </c>
       <c r="B411" t="n">
-        <v>23018.85456091143</v>
+        <v>23018.85456091142</v>
       </c>
     </row>
     <row r="412">
@@ -3723,7 +3723,7 @@
         <v>2010</v>
       </c>
       <c r="B412" t="n">
-        <v>23029.12419832207</v>
+        <v>23029.12419832205</v>
       </c>
     </row>
     <row r="413">
@@ -3763,7 +3763,7 @@
         <v>2015</v>
       </c>
       <c r="B417" t="n">
-        <v>22992.89043744038</v>
+        <v>22992.89043744036</v>
       </c>
     </row>
     <row r="418">
@@ -3779,7 +3779,7 @@
         <v>2017</v>
       </c>
       <c r="B419" t="n">
-        <v>22938.39443868998</v>
+        <v>22938.39443868999</v>
       </c>
     </row>
     <row r="420">
@@ -3787,7 +3787,7 @@
         <v>2018</v>
       </c>
       <c r="B420" t="n">
-        <v>22902.81434368179</v>
+        <v>22902.8143436818</v>
       </c>
     </row>
     <row r="421">
@@ -3803,7 +3803,7 @@
         <v>2020</v>
       </c>
       <c r="B422" t="n">
-        <v>22815.35871860306</v>
+        <v>22815.35871860307</v>
       </c>
     </row>
     <row r="423">
@@ -3811,7 +3811,7 @@
         <v>2021</v>
       </c>
       <c r="B423" t="n">
-        <v>22763.64576706128</v>
+        <v>22763.64576706124</v>
       </c>
     </row>
     <row r="424">
@@ -3819,7 +3819,7 @@
         <v>2022</v>
       </c>
       <c r="B424" t="n">
-        <v>22706.72559614126</v>
+        <v>22706.72559614127</v>
       </c>
     </row>
     <row r="425">
@@ -3827,7 +3827,7 @@
         <v>2023</v>
       </c>
       <c r="B425" t="n">
-        <v>22644.69085798399</v>
+        <v>22644.690857984</v>
       </c>
     </row>
     <row r="426">
@@ -3835,7 +3835,7 @@
         <v>2024</v>
       </c>
       <c r="B426" t="n">
-        <v>22577.63830100783</v>
+        <v>22577.63830100781</v>
       </c>
     </row>
     <row r="427">
@@ -3843,7 +3843,7 @@
         <v>2025</v>
       </c>
       <c r="B427" t="n">
-        <v>22505.66851450763</v>
+        <v>22505.66851450766</v>
       </c>
     </row>
     <row r="428">
@@ -3851,7 +3851,7 @@
         <v>2026</v>
       </c>
       <c r="B428" t="n">
-        <v>22428.88567075022</v>
+        <v>22428.88567075021</v>
       </c>
     </row>
     <row r="429">
@@ -3867,7 +3867,7 @@
         <v>2028</v>
       </c>
       <c r="B430" t="n">
-        <v>22261.31385768696</v>
+        <v>22261.31385768699</v>
       </c>
     </row>
     <row r="431">
@@ -3883,7 +3883,7 @@
         <v>2030</v>
       </c>
       <c r="B432" t="n">
-        <v>22075.8180285178</v>
+        <v>22075.81802851778</v>
       </c>
     </row>
     <row r="433">
@@ -3899,7 +3899,7 @@
         <v>2032</v>
       </c>
       <c r="B434" t="n">
-        <v>21873.33407489153</v>
+        <v>21873.33407489152</v>
       </c>
     </row>
     <row r="435">
@@ -3907,7 +3907,7 @@
         <v>2033</v>
       </c>
       <c r="B435" t="n">
-        <v>21766.02313780463</v>
+        <v>21766.02313780465</v>
       </c>
     </row>
     <row r="436">
@@ -3915,7 +3915,7 @@
         <v>2034</v>
       </c>
       <c r="B436" t="n">
-        <v>21654.83043948888</v>
+        <v>21654.83043948887</v>
       </c>
     </row>
     <row r="437">
@@ -3939,7 +3939,7 @@
         <v>2037</v>
       </c>
       <c r="B439" t="n">
-        <v>21299.21516352593</v>
+        <v>21299.21516352595</v>
       </c>
     </row>
     <row r="440">
@@ -3947,7 +3947,7 @@
         <v>2038</v>
       </c>
       <c r="B440" t="n">
-        <v>21173.75315817913</v>
+        <v>21173.75315817912</v>
       </c>
     </row>
     <row r="441">
@@ -3955,7 +3955,7 @@
         <v>2039</v>
       </c>
       <c r="B441" t="n">
-        <v>21045.04182346789</v>
+        <v>21045.04182346791</v>
       </c>
     </row>
     <row r="442">
@@ -3963,7 +3963,7 @@
         <v>2040</v>
       </c>
       <c r="B442" t="n">
-        <v>20913.20901370013</v>
+        <v>20913.20901370011</v>
       </c>
     </row>
     <row r="443">
@@ -3971,7 +3971,7 @@
         <v>2041</v>
       </c>
       <c r="B443" t="n">
-        <v>20778.38254563106</v>
+        <v>20778.38254563109</v>
       </c>
     </row>
     <row r="444">
@@ -3979,7 +3979,7 @@
         <v>2042</v>
       </c>
       <c r="B444" t="n">
-        <v>20640.69000184951</v>
+        <v>20640.69000184953</v>
       </c>
     </row>
     <row r="445">
@@ -3987,7 +3987,7 @@
         <v>2043</v>
       </c>
       <c r="B445" t="n">
-        <v>20500.25854211265</v>
+        <v>20500.25854211263</v>
       </c>
     </row>
     <row r="446">
@@ -3995,7 +3995,7 @@
         <v>2044</v>
       </c>
       <c r="B446" t="n">
-        <v>20357.21472285339</v>
+        <v>20357.2147228534</v>
       </c>
     </row>
     <row r="447">
@@ -4003,7 +4003,7 @@
         <v>2045</v>
       </c>
       <c r="B447" t="n">
-        <v>20211.68432502237</v>
+        <v>20211.68432502238</v>
       </c>
     </row>
     <row r="448">
@@ -4011,7 +4011,7 @@
         <v>2046</v>
       </c>
       <c r="B448" t="n">
-        <v>20063.79219039305</v>
+        <v>20063.79219039304</v>
       </c>
     </row>
     <row r="449">
@@ -4019,7 +4019,7 @@
         <v>2047</v>
       </c>
       <c r="B449" t="n">
-        <v>19913.66206647176</v>
+        <v>19913.66206647177</v>
       </c>
     </row>
     <row r="450">
@@ -4035,7 +4035,7 @@
         <v>2049</v>
       </c>
       <c r="B451" t="n">
-        <v>19607.17649881796</v>
+        <v>19607.17649881794</v>
       </c>
     </row>
     <row r="452">
@@ -4043,7 +4043,7 @@
         <v>2050</v>
       </c>
       <c r="B452" t="n">
-        <v>19451.06180315996</v>
+        <v>19451.06180315998</v>
       </c>
     </row>
   </sheetData>

--- a/Data/model_outputs_baseline/number_of_dwellings/s_delta_total.xlsx
+++ b/Data/model_outputs_baseline/number_of_dwellings/s_delta_total.xlsx
@@ -451,7 +451,7 @@
         <v>1601</v>
       </c>
       <c r="B3" t="n">
-        <v>86.01224443895705</v>
+        <v>86.01224443895785</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>1602</v>
       </c>
       <c r="B4" t="n">
-        <v>87.24817320451608</v>
+        <v>87.24817320451061</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>1603</v>
       </c>
       <c r="B5" t="n">
-        <v>88.50174149124793</v>
+        <v>88.50174149125371</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>1604</v>
       </c>
       <c r="B6" t="n">
-        <v>89.77319772958627</v>
+        <v>89.77319772958683</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>1605</v>
       </c>
       <c r="B7" t="n">
-        <v>91.06279375981103</v>
+        <v>91.06279375980762</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>1606</v>
       </c>
       <c r="B8" t="n">
-        <v>92.37078487637784</v>
+        <v>92.37078487637851</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>1607</v>
       </c>
       <c r="B9" t="n">
-        <v>93.69742987279957</v>
+        <v>93.69742987280092</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>1608</v>
       </c>
       <c r="B10" t="n">
-        <v>95.04299108782317</v>
+        <v>95.04299108781153</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>1609</v>
       </c>
       <c r="B11" t="n">
-        <v>96.40773445099015</v>
+        <v>96.40773445099074</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>1610</v>
       </c>
       <c r="B12" t="n">
-        <v>97.79192952941595</v>
+        <v>97.79192952942039</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>1611</v>
       </c>
       <c r="B13" t="n">
-        <v>99.19584957547833</v>
+        <v>99.19584957547835</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>1612</v>
       </c>
       <c r="B14" t="n">
-        <v>100.6197715739581</v>
+        <v>100.6197715739658</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>1613</v>
       </c>
       <c r="B15" t="n">
-        <v>102.0639762910211</v>
+        <v>102.0639762910183</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>1614</v>
       </c>
       <c r="B16" t="n">
-        <v>103.5287483225822</v>
+        <v>103.5287483225728</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>1615</v>
       </c>
       <c r="B17" t="n">
-        <v>105.014376144268</v>
+        <v>105.0143761442819</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>1616</v>
       </c>
       <c r="B18" t="n">
-        <v>106.5211521613219</v>
+        <v>106.5211521613072</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>1617</v>
       </c>
       <c r="B19" t="n">
-        <v>108.0493727590915</v>
+        <v>108.0493727590993</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>1618</v>
       </c>
       <c r="B20" t="n">
-        <v>109.5993383547433</v>
+        <v>109.59933835474</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>1619</v>
       </c>
       <c r="B21" t="n">
-        <v>111.1713534486108</v>
+        <v>111.1713534486103</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>1620</v>
       </c>
       <c r="B22" t="n">
-        <v>112.7657266770646</v>
+        <v>112.7657266770637</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>1621</v>
       </c>
       <c r="B23" t="n">
-        <v>114.382770865433</v>
+        <v>114.382770865443</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>1622</v>
       </c>
       <c r="B24" t="n">
-        <v>116.0228030815493</v>
+        <v>116.0228030815379</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>1623</v>
       </c>
       <c r="B25" t="n">
-        <v>117.6861446904504</v>
+        <v>117.686144690456</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>1624</v>
       </c>
       <c r="B26" t="n">
-        <v>119.3731214089974</v>
+        <v>119.3731214089887</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>1625</v>
       </c>
       <c r="B27" t="n">
-        <v>121.0840633615736</v>
+        <v>121.0840633615796</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>1626</v>
       </c>
       <c r="B28" t="n">
-        <v>122.8193051364281</v>
+        <v>122.8193051364319</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>1627</v>
       </c>
       <c r="B29" t="n">
-        <v>124.5791858423432</v>
+        <v>124.579185842347</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>1628</v>
       </c>
       <c r="B30" t="n">
-        <v>126.3640491664259</v>
+        <v>126.3640491664283</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>1629</v>
       </c>
       <c r="B31" t="n">
-        <v>128.1742434321444</v>
+        <v>128.1742434321446</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>1630</v>
       </c>
       <c r="B32" t="n">
-        <v>130.0101216582848</v>
+        <v>130.0101216582825</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>1631</v>
       </c>
       <c r="B33" t="n">
-        <v>131.872041618543</v>
+        <v>131.8720416185355</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>1632</v>
       </c>
       <c r="B34" t="n">
-        <v>133.7603659016291</v>
+        <v>133.7603659016348</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>1633</v>
       </c>
       <c r="B35" t="n">
-        <v>135.6754619725178</v>
+        <v>135.675461972528</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>1634</v>
       </c>
       <c r="B36" t="n">
-        <v>137.6177022337745</v>
+        <v>137.6177022337605</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>1635</v>
       </c>
       <c r="B37" t="n">
-        <v>139.5874640882404</v>
+        <v>139.5874640882346</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>1636</v>
       </c>
       <c r="B38" t="n">
-        <v>141.5851300017661</v>
+        <v>141.5851300017702</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>1637</v>
       </c>
       <c r="B39" t="n">
-        <v>143.6110875673202</v>
+        <v>143.6110875673229</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>1638</v>
       </c>
       <c r="B40" t="n">
-        <v>145.6657295694459</v>
+        <v>145.6657295694464</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>1639</v>
       </c>
       <c r="B41" t="n">
-        <v>147.7494540496943</v>
+        <v>147.7494540496986</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>1640</v>
       </c>
       <c r="B42" t="n">
-        <v>149.862664372209</v>
+        <v>149.8626643722</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>1641</v>
       </c>
       <c r="B43" t="n">
-        <v>152.0057692912704</v>
+        <v>152.005769291278</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>1642</v>
       </c>
       <c r="B44" t="n">
-        <v>154.1791830182839</v>
+        <v>154.1791830182737</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>1643</v>
       </c>
       <c r="B45" t="n">
-        <v>156.3833252905061</v>
+        <v>156.3833252905154</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>1644</v>
       </c>
       <c r="B46" t="n">
-        <v>158.618621440215</v>
+        <v>158.6186214402053</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>1645</v>
       </c>
       <c r="B47" t="n">
-        <v>160.8855024642753</v>
+        <v>160.8855024642885</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>1646</v>
       </c>
       <c r="B48" t="n">
-        <v>163.1844050956324</v>
+        <v>163.1844050956345</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>1647</v>
       </c>
       <c r="B49" t="n">
-        <v>165.5157718744226</v>
+        <v>165.5157718744253</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>1648</v>
       </c>
       <c r="B50" t="n">
-        <v>167.8800512204986</v>
+        <v>167.8800512204959</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>1649</v>
       </c>
       <c r="B51" t="n">
-        <v>170.2776975069374</v>
+        <v>170.2776975069414</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>1650</v>
       </c>
       <c r="B52" t="n">
-        <v>172.709171134157</v>
+        <v>172.7091711341443</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>1651</v>
       </c>
       <c r="B53" t="n">
-        <v>175.1749386049032</v>
+        <v>175.1749386049158</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>1652</v>
       </c>
       <c r="B54" t="n">
-        <v>177.6754726000959</v>
+        <v>177.67547260008</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>1653</v>
       </c>
       <c r="B55" t="n">
-        <v>180.2112520559872</v>
+        <v>180.211252055998</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>1654</v>
       </c>
       <c r="B56" t="n">
-        <v>182.7827622416972</v>
+        <v>182.7827622416994</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>1655</v>
       </c>
       <c r="B57" t="n">
-        <v>185.3904948376686</v>
+        <v>185.3904948376545</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>1656</v>
       </c>
       <c r="B58" t="n">
-        <v>188.0349480159432</v>
+        <v>188.0349480159523</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>1657</v>
       </c>
       <c r="B59" t="n">
-        <v>190.7166265201869</v>
+        <v>190.7166265201909</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>1658</v>
       </c>
       <c r="B60" t="n">
-        <v>193.4360417473821</v>
+        <v>193.4360417473814</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>1659</v>
       </c>
       <c r="B61" t="n">
-        <v>196.1937118305246</v>
+        <v>196.193711830519</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>1660</v>
       </c>
       <c r="B62" t="n">
-        <v>198.990161722131</v>
+        <v>198.9901617221284</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>1661</v>
       </c>
       <c r="B63" t="n">
-        <v>201.8259232785783</v>
+        <v>201.8259232785876</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>1662</v>
       </c>
       <c r="B64" t="n">
-        <v>204.7015353464136</v>
+        <v>204.7015353463965</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>1663</v>
       </c>
       <c r="B65" t="n">
-        <v>207.6175438479938</v>
+        <v>207.6175438480012</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>1664</v>
       </c>
       <c r="B66" t="n">
-        <v>210.57450187041</v>
+        <v>210.5745018704103</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>1665</v>
       </c>
       <c r="B67" t="n">
-        <v>213.5729697535936</v>
+        <v>213.5729697536031</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>1666</v>
       </c>
       <c r="B68" t="n">
-        <v>216.6135151804704</v>
+        <v>216.6135151804593</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>1667</v>
       </c>
       <c r="B69" t="n">
-        <v>219.6967132683076</v>
+        <v>219.6967132683111</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>1668</v>
       </c>
       <c r="B70" t="n">
-        <v>222.8231466610509</v>
+        <v>222.8231466610504</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>1669</v>
       </c>
       <c r="B71" t="n">
-        <v>225.9934056224999</v>
+        <v>225.9934056224961</v>
       </c>
     </row>
     <row r="72">
@@ -1003,7 +1003,7 @@
         <v>1670</v>
       </c>
       <c r="B72" t="n">
-        <v>229.2080881314882</v>
+        <v>229.2080881314902</v>
       </c>
     </row>
     <row r="73">
@@ -1011,7 +1011,7 @@
         <v>1671</v>
       </c>
       <c r="B73" t="n">
-        <v>232.467799977555</v>
+        <v>232.4677999775587</v>
       </c>
     </row>
     <row r="74">
@@ -1019,7 +1019,7 @@
         <v>1672</v>
       </c>
       <c r="B74" t="n">
-        <v>235.7731548582466</v>
+        <v>235.7731548582571</v>
       </c>
     </row>
     <row r="75">
@@ -1027,7 +1027,7 @@
         <v>1673</v>
       </c>
       <c r="B75" t="n">
-        <v>239.1247744778737</v>
+        <v>239.1247744778638</v>
       </c>
     </row>
     <row r="76">
@@ -1035,7 +1035,7 @@
         <v>1674</v>
       </c>
       <c r="B76" t="n">
-        <v>242.5232886471391</v>
+        <v>242.5232886471415</v>
       </c>
     </row>
     <row r="77">
@@ -1043,7 +1043,7 @@
         <v>1675</v>
       </c>
       <c r="B77" t="n">
-        <v>245.9693353844464</v>
+        <v>245.9693353844435</v>
       </c>
     </row>
     <row r="78">
@@ -1051,7 +1051,7 @@
         <v>1676</v>
       </c>
       <c r="B78" t="n">
-        <v>249.4635610187672</v>
+        <v>249.4635610187597</v>
       </c>
     </row>
     <row r="79">
@@ -1059,7 +1059,7 @@
         <v>1677</v>
       </c>
       <c r="B79" t="n">
-        <v>253.0066202932585</v>
+        <v>253.0066202932787</v>
       </c>
     </row>
     <row r="80">
@@ -1067,7 +1067,7 @@
         <v>1678</v>
       </c>
       <c r="B80" t="n">
-        <v>256.599176471324</v>
+        <v>256.5991764713021</v>
       </c>
     </row>
     <row r="81">
@@ -1075,7 +1075,7 @@
         <v>1679</v>
       </c>
       <c r="B81" t="n">
-        <v>260.2419014431254</v>
+        <v>260.2419014431331</v>
       </c>
     </row>
     <row r="82">
@@ -1083,7 +1083,7 @@
         <v>1680</v>
       </c>
       <c r="B82" t="n">
-        <v>263.9354758345281</v>
+        <v>263.9354758345385</v>
       </c>
     </row>
     <row r="83">
@@ -1091,7 +1091,7 @@
         <v>1681</v>
       </c>
       <c r="B83" t="n">
-        <v>267.6805891169172</v>
+        <v>267.6805891169042</v>
       </c>
     </row>
     <row r="84">
@@ -1099,7 +1099,7 @@
         <v>1682</v>
       </c>
       <c r="B84" t="n">
-        <v>271.4779397191788</v>
+        <v>271.4779397191875</v>
       </c>
     </row>
     <row r="85">
@@ -1107,7 +1107,7 @@
         <v>1683</v>
       </c>
       <c r="B85" t="n">
-        <v>275.3282351408969</v>
+        <v>275.3282351408955</v>
       </c>
     </row>
     <row r="86">
@@ -1115,7 +1115,7 @@
         <v>1684</v>
       </c>
       <c r="B86" t="n">
-        <v>279.2321920678738</v>
+        <v>279.2321920678659</v>
       </c>
     </row>
     <row r="87">
@@ -1123,7 +1123,7 @@
         <v>1685</v>
       </c>
       <c r="B87" t="n">
-        <v>283.1905364882594</v>
+        <v>283.190536488265</v>
       </c>
     </row>
     <row r="88">
@@ -1131,7 +1131,7 @@
         <v>1686</v>
       </c>
       <c r="B88" t="n">
-        <v>287.2040038117425</v>
+        <v>287.2040038117442</v>
       </c>
     </row>
     <row r="89">
@@ -1139,7 +1139,7 @@
         <v>1687</v>
       </c>
       <c r="B89" t="n">
-        <v>291.2733389901924</v>
+        <v>291.2733389901787</v>
       </c>
     </row>
     <row r="90">
@@ -1147,7 +1147,7 @@
         <v>1688</v>
       </c>
       <c r="B90" t="n">
-        <v>295.3992966394111</v>
+        <v>295.3992966394255</v>
       </c>
     </row>
     <row r="91">
@@ -1155,7 +1155,7 @@
         <v>1689</v>
       </c>
       <c r="B91" t="n">
-        <v>299.5826411640084</v>
+        <v>299.5826411640139</v>
       </c>
     </row>
     <row r="92">
@@ -1163,7 +1163,7 @@
         <v>1690</v>
       </c>
       <c r="B92" t="n">
-        <v>303.8241468837901</v>
+        <v>303.8241468837834</v>
       </c>
     </row>
     <row r="93">
@@ -1171,7 +1171,7 @@
         <v>1691</v>
       </c>
       <c r="B93" t="n">
-        <v>308.1245981618387</v>
+        <v>308.1245981618306</v>
       </c>
     </row>
     <row r="94">
@@ -1179,7 +1179,7 @@
         <v>1692</v>
       </c>
       <c r="B94" t="n">
-        <v>312.484789535307</v>
+        <v>312.4847895353213</v>
       </c>
     </row>
     <row r="95">
@@ -1187,7 +1187,7 @@
         <v>1693</v>
       </c>
       <c r="B95" t="n">
-        <v>316.905525848527</v>
+        <v>316.9055258485166</v>
       </c>
     </row>
     <row r="96">
@@ -1195,7 +1195,7 @@
         <v>1694</v>
       </c>
       <c r="B96" t="n">
-        <v>321.3876223874718</v>
+        <v>321.3876223874722</v>
       </c>
     </row>
     <row r="97">
@@ -1203,7 +1203,7 @@
         <v>1695</v>
       </c>
       <c r="B97" t="n">
-        <v>325.9319050176567</v>
+        <v>325.9319050176573</v>
       </c>
     </row>
     <row r="98">
@@ -1211,7 +1211,7 @@
         <v>1696</v>
       </c>
       <c r="B98" t="n">
-        <v>330.5392103237127</v>
+        <v>330.539210323711</v>
       </c>
     </row>
     <row r="99">
@@ -1219,7 +1219,7 @@
         <v>1697</v>
       </c>
       <c r="B99" t="n">
-        <v>335.2103857519545</v>
+        <v>335.2103857519574</v>
       </c>
     </row>
     <row r="100">
@@ -1227,7 +1227,7 @@
         <v>1698</v>
       </c>
       <c r="B100" t="n">
-        <v>339.946289755244</v>
+        <v>339.9462897552417</v>
       </c>
     </row>
     <row r="101">
@@ -1235,7 +1235,7 @@
         <v>1699</v>
       </c>
       <c r="B101" t="n">
-        <v>344.7477919402526</v>
+        <v>344.7477919402514</v>
       </c>
     </row>
     <row r="102">
@@ -1243,7 +1243,7 @@
         <v>1700</v>
       </c>
       <c r="B102" t="n">
-        <v>349.6157732183365</v>
+        <v>349.6157732183439</v>
       </c>
     </row>
     <row r="103">
@@ -1251,7 +1251,7 @@
         <v>1701</v>
       </c>
       <c r="B103" t="n">
-        <v>354.5511259586458</v>
+        <v>354.5511259586381</v>
       </c>
     </row>
     <row r="104">
@@ -1259,7 +1259,7 @@
         <v>1702</v>
       </c>
       <c r="B104" t="n">
-        <v>359.5547541436752</v>
+        <v>359.5547541436829</v>
       </c>
     </row>
     <row r="105">
@@ -1267,7 +1267,7 @@
         <v>1703</v>
       </c>
       <c r="B105" t="n">
-        <v>364.6275735294037</v>
+        <v>364.6275735293941</v>
       </c>
     </row>
     <row r="106">
@@ -1275,7 +1275,7 @@
         <v>1704</v>
       </c>
       <c r="B106" t="n">
-        <v>369.7705118068794</v>
+        <v>369.7705118068813</v>
       </c>
     </row>
     <row r="107">
@@ -1283,7 +1283,7 @@
         <v>1705</v>
       </c>
       <c r="B107" t="n">
-        <v>374.98450876843</v>
+        <v>374.9845087684347</v>
       </c>
     </row>
     <row r="108">
@@ -1291,7 +1291,7 @@
         <v>1706</v>
       </c>
       <c r="B108" t="n">
-        <v>380.2705164762603</v>
+        <v>380.2705164762529</v>
       </c>
     </row>
     <row r="109">
@@ -1299,7 +1299,7 @@
         <v>1707</v>
       </c>
       <c r="B109" t="n">
-        <v>385.6294994350657</v>
+        <v>385.6294994350765</v>
       </c>
     </row>
     <row r="110">
@@ -1307,7 +1307,7 @@
         <v>1708</v>
       </c>
       <c r="B110" t="n">
-        <v>391.0624347684754</v>
+        <v>391.0624347684644</v>
       </c>
     </row>
     <row r="111">
@@ -1315,7 +1315,7 @@
         <v>1709</v>
       </c>
       <c r="B111" t="n">
-        <v>396.5703123984892</v>
+        <v>396.5703123984957</v>
       </c>
     </row>
     <row r="112">
@@ -1323,7 +1323,7 @@
         <v>1710</v>
       </c>
       <c r="B112" t="n">
-        <v>402.154135229837</v>
+        <v>402.1541352298324</v>
       </c>
     </row>
     <row r="113">
@@ -1331,7 +1331,7 @@
         <v>1711</v>
       </c>
       <c r="B113" t="n">
-        <v>407.814919337285</v>
+        <v>407.8149193372907</v>
       </c>
     </row>
     <row r="114">
@@ -1339,7 +1339,7 @@
         <v>1712</v>
       </c>
       <c r="B114" t="n">
-        <v>413.5536941581043</v>
+        <v>413.5536941581069</v>
       </c>
     </row>
     <row r="115">
@@ -1347,7 +1347,7 @@
         <v>1713</v>
       </c>
       <c r="B115" t="n">
-        <v>419.371502688304</v>
+        <v>419.3715026883016</v>
       </c>
     </row>
     <row r="116">
@@ -1355,7 +1355,7 @@
         <v>1714</v>
       </c>
       <c r="B116" t="n">
-        <v>425.2694016835012</v>
+        <v>425.2694016835</v>
       </c>
     </row>
     <row r="117">
@@ -1363,7 +1363,7 @@
         <v>1715</v>
       </c>
       <c r="B117" t="n">
-        <v>431.2484618645168</v>
+        <v>431.248461864515</v>
       </c>
     </row>
     <row r="118">
@@ -1371,7 +1371,7 @@
         <v>1716</v>
       </c>
       <c r="B118" t="n">
-        <v>437.3097681280298</v>
+        <v>437.3097681280265</v>
       </c>
     </row>
     <row r="119">
@@ -1379,7 +1379,7 @@
         <v>1717</v>
       </c>
       <c r="B119" t="n">
-        <v>443.4544197617265</v>
+        <v>443.4544197617321</v>
       </c>
     </row>
     <row r="120">
@@ -1387,7 +1387,7 @@
         <v>1718</v>
       </c>
       <c r="B120" t="n">
-        <v>449.6835306652555</v>
+        <v>449.6835306652507</v>
       </c>
     </row>
     <row r="121">
@@ -1395,7 +1395,7 @@
         <v>1719</v>
       </c>
       <c r="B121" t="n">
-        <v>455.9982295762263</v>
+        <v>455.9982295762279</v>
       </c>
     </row>
     <row r="122">
@@ -1403,7 +1403,7 @@
         <v>1720</v>
       </c>
       <c r="B122" t="n">
-        <v>462.3996603021347</v>
+        <v>462.3996603021413</v>
       </c>
     </row>
     <row r="123">
@@ -1411,7 +1411,7 @@
         <v>1721</v>
       </c>
       <c r="B123" t="n">
-        <v>468.8889819579254</v>
+        <v>468.8889819579193</v>
       </c>
     </row>
     <row r="124">
@@ -1419,7 +1419,7 @@
         <v>1722</v>
       </c>
       <c r="B124" t="n">
-        <v>475.4673692097158</v>
+        <v>475.4673692097161</v>
       </c>
     </row>
     <row r="125">
@@ -1427,7 +1427,7 @@
         <v>1723</v>
       </c>
       <c r="B125" t="n">
-        <v>482.1360125247634</v>
+        <v>482.1360125247677</v>
       </c>
     </row>
     <row r="126">
@@ -1435,7 +1435,7 @@
         <v>1724</v>
       </c>
       <c r="B126" t="n">
-        <v>488.8961184282818</v>
+        <v>488.8961184282781</v>
       </c>
     </row>
     <row r="127">
@@ -1443,7 +1443,7 @@
         <v>1725</v>
       </c>
       <c r="B127" t="n">
-        <v>495.7489097665598</v>
+        <v>495.7489097665641</v>
       </c>
     </row>
     <row r="128">
@@ -1451,7 +1451,7 @@
         <v>1726</v>
       </c>
       <c r="B128" t="n">
-        <v>502.6956259778403</v>
+        <v>502.6956259778363</v>
       </c>
     </row>
     <row r="129">
@@ -1459,7 +1459,7 @@
         <v>1727</v>
       </c>
       <c r="B129" t="n">
-        <v>509.7375233696612</v>
+        <v>509.7375233696644</v>
       </c>
     </row>
     <row r="130">
@@ -1467,7 +1467,7 @@
         <v>1728</v>
       </c>
       <c r="B130" t="n">
-        <v>516.8758754051225</v>
+        <v>516.8758754051266</v>
       </c>
     </row>
     <row r="131">
@@ -1475,7 +1475,7 @@
         <v>1729</v>
       </c>
       <c r="B131" t="n">
-        <v>524.1119729954621</v>
+        <v>524.1119729954548</v>
       </c>
     </row>
     <row r="132">
@@ -1483,7 +1483,7 @@
         <v>1730</v>
       </c>
       <c r="B132" t="n">
-        <v>531.4471248023109</v>
+        <v>531.4471248023137</v>
       </c>
     </row>
     <row r="133">
@@ -1491,7 +1491,7 @@
         <v>1731</v>
       </c>
       <c r="B133" t="n">
-        <v>538.8826575481484</v>
+        <v>538.882657548148</v>
       </c>
     </row>
     <row r="134">
@@ -1499,7 +1499,7 @@
         <v>1732</v>
       </c>
       <c r="B134" t="n">
-        <v>546.4199163346987</v>
+        <v>546.4199163346974</v>
       </c>
     </row>
     <row r="135">
@@ -1507,7 +1507,7 @@
         <v>1733</v>
       </c>
       <c r="B135" t="n">
-        <v>554.0602649726038</v>
+        <v>554.0602649726084</v>
       </c>
     </row>
     <row r="136">
@@ -1515,7 +1515,7 @@
         <v>1734</v>
       </c>
       <c r="B136" t="n">
-        <v>561.8050863183117</v>
+        <v>561.805086318312</v>
       </c>
     </row>
     <row r="137">
@@ -1523,7 +1523,7 @@
         <v>1735</v>
       </c>
       <c r="B137" t="n">
-        <v>569.6557826229549</v>
+        <v>569.6557826229489</v>
       </c>
     </row>
     <row r="138">
@@ -1531,7 +1531,7 @@
         <v>1736</v>
       </c>
       <c r="B138" t="n">
-        <v>577.6137758908108</v>
+        <v>577.6137758908127</v>
       </c>
     </row>
     <row r="139">
@@ -1539,7 +1539,7 @@
         <v>1737</v>
       </c>
       <c r="B139" t="n">
-        <v>585.6805082482266</v>
+        <v>585.6805082482255</v>
       </c>
     </row>
     <row r="140">
@@ -1547,7 +1547,7 @@
         <v>1738</v>
       </c>
       <c r="B140" t="n">
-        <v>593.8574423245803</v>
+        <v>593.8574423245823</v>
       </c>
     </row>
     <row r="141">
@@ -1555,7 +1555,7 @@
         <v>1739</v>
       </c>
       <c r="B141" t="n">
-        <v>602.1460616444421</v>
+        <v>602.146061644443</v>
       </c>
     </row>
     <row r="142">
@@ -1563,7 +1563,7 @@
         <v>1740</v>
       </c>
       <c r="B142" t="n">
-        <v>610.5478710316072</v>
+        <v>610.5478710316085</v>
       </c>
     </row>
     <row r="143">
@@ -1571,7 +1571,7 @@
         <v>1741</v>
       </c>
       <c r="B143" t="n">
-        <v>619.0643970266333</v>
+        <v>619.0643970266348</v>
       </c>
     </row>
     <row r="144">
@@ -1579,7 +1579,7 @@
         <v>1742</v>
       </c>
       <c r="B144" t="n">
-        <v>627.6971883162835</v>
+        <v>627.697188316279</v>
       </c>
     </row>
     <row r="145">
@@ -1587,7 +1587,7 @@
         <v>1743</v>
       </c>
       <c r="B145" t="n">
-        <v>636.4478161778383</v>
+        <v>636.4478161778397</v>
       </c>
     </row>
     <row r="146">
@@ -1595,7 +1595,7 @@
         <v>1744</v>
       </c>
       <c r="B146" t="n">
-        <v>645.3178749361385</v>
+        <v>645.3178749361399</v>
       </c>
     </row>
     <row r="147">
@@ -1603,7 +1603,7 @@
         <v>1745</v>
       </c>
       <c r="B147" t="n">
-        <v>654.308982436953</v>
+        <v>654.3089824369513</v>
       </c>
     </row>
     <row r="148">
@@ -1611,7 +1611,7 @@
         <v>1746</v>
       </c>
       <c r="B148" t="n">
-        <v>663.4227805339088</v>
+        <v>663.4227805339061</v>
       </c>
     </row>
     <row r="149">
@@ -1619,7 +1619,7 @@
         <v>1747</v>
       </c>
       <c r="B149" t="n">
-        <v>672.6609355924063</v>
+        <v>672.6609355924071</v>
       </c>
     </row>
     <row r="150">
@@ -1627,7 +1627,7 @@
         <v>1748</v>
       </c>
       <c r="B150" t="n">
-        <v>682.0251390100434</v>
+        <v>682.025139010042</v>
       </c>
     </row>
     <row r="151">
@@ -1635,7 +1635,7 @@
         <v>1749</v>
       </c>
       <c r="B151" t="n">
-        <v>691.5171077528415</v>
+        <v>691.5171077528421</v>
       </c>
     </row>
     <row r="152">
@@ -1643,7 +1643,7 @@
         <v>1750</v>
       </c>
       <c r="B152" t="n">
-        <v>701.1385849110603</v>
+        <v>701.1385849110658</v>
       </c>
     </row>
     <row r="153">
@@ -1651,7 +1651,7 @@
         <v>1751</v>
       </c>
       <c r="B153" t="n">
-        <v>710.8913402716105</v>
+        <v>710.8913402716023</v>
       </c>
     </row>
     <row r="154">
@@ -1659,7 +1659,7 @@
         <v>1752</v>
       </c>
       <c r="B154" t="n">
-        <v>720.7771709111731</v>
+        <v>720.7771709111788</v>
       </c>
     </row>
     <row r="155">
@@ -1667,7 +1667,7 @@
         <v>1753</v>
       </c>
       <c r="B155" t="n">
-        <v>730.7979018081433</v>
+        <v>730.7979018081387</v>
       </c>
     </row>
     <row r="156">
@@ -1675,7 +1675,7 @@
         <v>1754</v>
       </c>
       <c r="B156" t="n">
-        <v>740.9553864750436</v>
+        <v>740.9553864750463</v>
       </c>
     </row>
     <row r="157">
@@ -1683,7 +1683,7 @@
         <v>1755</v>
       </c>
       <c r="B157" t="n">
-        <v>751.2515076137772</v>
+        <v>751.2515076137744</v>
       </c>
     </row>
     <row r="158">
@@ -1691,7 +1691,7 @@
         <v>1756</v>
       </c>
       <c r="B158" t="n">
-        <v>761.6881777908312</v>
+        <v>761.6881777908354</v>
       </c>
     </row>
     <row r="159">
@@ -1699,7 +1699,7 @@
         <v>1757</v>
       </c>
       <c r="B159" t="n">
-        <v>772.267340137633</v>
+        <v>772.2673401376313</v>
       </c>
     </row>
     <row r="160">
@@ -1707,7 +1707,7 @@
         <v>1758</v>
       </c>
       <c r="B160" t="n">
-        <v>782.990969073241</v>
+        <v>782.9909690732431</v>
       </c>
     </row>
     <row r="161">
@@ -1715,7 +1715,7 @@
         <v>1759</v>
       </c>
       <c r="B161" t="n">
-        <v>793.8610710525952</v>
+        <v>793.8610710525957</v>
       </c>
     </row>
     <row r="162">
@@ -1723,7 +1723,7 @@
         <v>1760</v>
       </c>
       <c r="B162" t="n">
-        <v>804.8796853401466</v>
+        <v>804.8796853401439</v>
       </c>
     </row>
     <row r="163">
@@ -1731,7 +1731,7 @@
         <v>1761</v>
       </c>
       <c r="B163" t="n">
-        <v>816.0488848100343</v>
+        <v>816.0488848100372</v>
       </c>
     </row>
     <row r="164">
@@ -1739,7 +1739,7 @@
         <v>1762</v>
       </c>
       <c r="B164" t="n">
-        <v>827.3707767744251</v>
+        <v>827.3707767744216</v>
       </c>
     </row>
     <row r="165">
@@ -1747,7 +1747,7 @@
         <v>1763</v>
       </c>
       <c r="B165" t="n">
-        <v>838.8475038392181</v>
+        <v>838.8475038392207</v>
       </c>
     </row>
     <row r="166">
@@ -1755,7 +1755,7 @@
         <v>1764</v>
       </c>
       <c r="B166" t="n">
-        <v>850.4812447905196</v>
+        <v>850.4812447905213</v>
       </c>
     </row>
     <row r="167">
@@ -1763,7 +1763,7 @@
         <v>1765</v>
       </c>
       <c r="B167" t="n">
-        <v>862.2742155116088</v>
+        <v>862.2742155116069</v>
       </c>
     </row>
     <row r="168">
@@ -1771,7 +1771,7 @@
         <v>1766</v>
       </c>
       <c r="B168" t="n">
-        <v>874.2286699311392</v>
+        <v>874.2286699311367</v>
       </c>
     </row>
     <row r="169">
@@ -1779,7 +1779,7 @@
         <v>1767</v>
       </c>
       <c r="B169" t="n">
-        <v>886.3469010044984</v>
+        <v>886.3469010045021</v>
       </c>
     </row>
     <row r="170">
@@ -1787,7 +1787,7 @@
         <v>1768</v>
       </c>
       <c r="B170" t="n">
-        <v>898.6312417297139</v>
+        <v>898.6312417297128</v>
       </c>
     </row>
     <row r="171">
@@ -1795,7 +1795,7 @@
         <v>1769</v>
       </c>
       <c r="B171" t="n">
-        <v>911.0840661979422</v>
+        <v>911.0840661979425</v>
       </c>
     </row>
     <row r="172">
@@ -1803,7 +1803,7 @@
         <v>1770</v>
       </c>
       <c r="B172" t="n">
-        <v>923.7077906807698</v>
+        <v>923.7077906807691</v>
       </c>
     </row>
     <row r="173">
@@ -1811,7 +1811,7 @@
         <v>1771</v>
       </c>
       <c r="B173" t="n">
-        <v>936.5048747553453</v>
+        <v>936.5048747553452</v>
       </c>
     </row>
     <row r="174">
@@ -1819,7 +1819,7 @@
         <v>1772</v>
       </c>
       <c r="B174" t="n">
-        <v>949.4778224685751</v>
+        <v>949.4778224685739</v>
       </c>
     </row>
     <row r="175">
@@ -1827,7 +1827,7 @@
         <v>1773</v>
       </c>
       <c r="B175" t="n">
-        <v>962.6291835414015</v>
+        <v>962.6291835414017</v>
       </c>
     </row>
     <row r="176">
@@ -1835,7 +1835,7 @@
         <v>1774</v>
       </c>
       <c r="B176" t="n">
-        <v>975.9615546151133</v>
+        <v>975.9615546151138</v>
       </c>
     </row>
     <row r="177">
@@ -1843,7 +1843,7 @@
         <v>1775</v>
       </c>
       <c r="B177" t="n">
-        <v>989.4775805409988</v>
+        <v>989.4775805409985</v>
       </c>
     </row>
     <row r="178">
@@ -1859,7 +1859,7 @@
         <v>1777</v>
       </c>
       <c r="B179" t="n">
-        <v>1017.071425453605</v>
+        <v>1017.071425453608</v>
       </c>
     </row>
     <row r="180">
@@ -1867,7 +1867,7 @@
         <v>1778</v>
       </c>
       <c r="B180" t="n">
-        <v>1031.154787430159</v>
+        <v>1031.154787430156</v>
       </c>
     </row>
     <row r="181">
@@ -1883,7 +1883,7 @@
         <v>1780</v>
       </c>
       <c r="B182" t="n">
-        <v>1059.908649447018</v>
+        <v>1059.908649447017</v>
       </c>
     </row>
     <row r="183">
@@ -1891,7 +1891,7 @@
         <v>1781</v>
       </c>
       <c r="B183" t="n">
-        <v>1074.585020133643</v>
+        <v>1074.585020133648</v>
       </c>
     </row>
     <row r="184">
@@ -1899,7 +1899,7 @@
         <v>1782</v>
       </c>
       <c r="B184" t="n">
-        <v>1089.465027563088</v>
+        <v>1089.46502756308</v>
       </c>
     </row>
     <row r="185">
@@ -1907,7 +1907,7 @@
         <v>1783</v>
       </c>
       <c r="B185" t="n">
-        <v>1104.551754354904</v>
+        <v>1104.551754354905</v>
       </c>
     </row>
     <row r="186">
@@ -1915,7 +1915,7 @@
         <v>1784</v>
       </c>
       <c r="B186" t="n">
-        <v>1119.848345134312</v>
+        <v>1119.848345134314</v>
       </c>
     </row>
     <row r="187">
@@ -1923,7 +1923,7 @@
         <v>1785</v>
       </c>
       <c r="B187" t="n">
-        <v>1135.358008337811</v>
+        <v>1135.35800833781</v>
       </c>
     </row>
     <row r="188">
@@ -1931,7 +1931,7 @@
         <v>1786</v>
       </c>
       <c r="B188" t="n">
-        <v>1151.084018080487</v>
+        <v>1151.084018080486</v>
       </c>
     </row>
     <row r="189">
@@ -1939,7 +1939,7 @@
         <v>1787</v>
       </c>
       <c r="B189" t="n">
-        <v>1167.02971608439</v>
+        <v>1167.029716084392</v>
       </c>
     </row>
     <row r="190">
@@ -1947,7 +1947,7 @@
         <v>1788</v>
       </c>
       <c r="B190" t="n">
-        <v>1183.198513673237</v>
+        <v>1183.198513673233</v>
       </c>
     </row>
     <row r="191">
@@ -1955,7 +1955,7 @@
         <v>1789</v>
       </c>
       <c r="B191" t="n">
-        <v>1199.59389383212</v>
+        <v>1199.593893832123</v>
       </c>
     </row>
     <row r="192">
@@ -1971,7 +1971,7 @@
         <v>1791</v>
       </c>
       <c r="B193" t="n">
-        <v>1233.078704945977</v>
+        <v>1233.078704945975</v>
       </c>
     </row>
     <row r="194">
@@ -1979,7 +1979,7 @@
         <v>1792</v>
       </c>
       <c r="B194" t="n">
-        <v>1250.175479685535</v>
+        <v>1250.175479685536</v>
       </c>
     </row>
     <row r="195">
@@ -1987,7 +1987,7 @@
         <v>1793</v>
       </c>
       <c r="B195" t="n">
-        <v>1267.513529178347</v>
+        <v>1267.513529178346</v>
       </c>
     </row>
     <row r="196">
@@ -1995,7 +1995,7 @@
         <v>1794</v>
       </c>
       <c r="B196" t="n">
-        <v>1285.096728072423</v>
+        <v>1285.096728072425</v>
       </c>
     </row>
     <row r="197">
@@ -2003,7 +2003,7 @@
         <v>1795</v>
       </c>
       <c r="B197" t="n">
-        <v>1302.929036537465</v>
+        <v>1302.929036537462</v>
       </c>
     </row>
     <row r="198">
@@ -2011,7 +2011,7 @@
         <v>1796</v>
       </c>
       <c r="B198" t="n">
-        <v>1321.014502842906</v>
+        <v>1321.014502842908</v>
       </c>
     </row>
     <row r="199">
@@ -2019,7 +2019,7 @@
         <v>1797</v>
       </c>
       <c r="B199" t="n">
-        <v>1339.357266018253</v>
+        <v>1339.357266018252</v>
       </c>
     </row>
     <row r="200">
@@ -2027,7 +2027,7 @@
         <v>1798</v>
       </c>
       <c r="B200" t="n">
-        <v>1357.961558596475</v>
+        <v>1357.961558596476</v>
       </c>
     </row>
     <row r="201">
@@ -2035,7 +2035,7 @@
         <v>1799</v>
       </c>
       <c r="B201" t="n">
-        <v>1376.831709443993</v>
+        <v>1376.831709443995</v>
       </c>
     </row>
     <row r="202">
@@ -2043,7 +2043,7 @@
         <v>1800</v>
       </c>
       <c r="B202" t="n">
-        <v>1395.972146678366</v>
+        <v>1395.972146678363</v>
       </c>
     </row>
     <row r="203">
@@ -2059,7 +2059,7 @@
         <v>1802</v>
       </c>
       <c r="B204" t="n">
-        <v>1435.082107166248</v>
+        <v>1435.082107166251</v>
       </c>
     </row>
     <row r="205">
@@ -2067,7 +2067,7 @@
         <v>1803</v>
       </c>
       <c r="B205" t="n">
-        <v>1455.061010434898</v>
+        <v>1455.061010434897</v>
       </c>
     </row>
     <row r="206">
@@ -2075,7 +2075,7 @@
         <v>1804</v>
       </c>
       <c r="B206" t="n">
-        <v>1475.328966600977</v>
+        <v>1475.328966600979</v>
       </c>
     </row>
     <row r="207">
@@ -2083,7 +2083,7 @@
         <v>1805</v>
       </c>
       <c r="B207" t="n">
-        <v>1495.890947008554</v>
+        <v>1495.890947008553</v>
       </c>
     </row>
     <row r="208">
@@ -2091,7 +2091,7 @@
         <v>1806</v>
       </c>
       <c r="B208" t="n">
-        <v>1516.75204170992</v>
+        <v>1516.752041709919</v>
       </c>
     </row>
     <row r="209">
@@ -2099,7 +2099,7 @@
         <v>1807</v>
       </c>
       <c r="B209" t="n">
-        <v>1537.917463051758</v>
+        <v>1537.91746305176</v>
       </c>
     </row>
     <row r="210">
@@ -2123,7 +2123,7 @@
         <v>1810</v>
       </c>
       <c r="B212" t="n">
-        <v>1603.29372299338</v>
+        <v>1603.293722993381</v>
       </c>
     </row>
     <row r="213">
@@ -2131,7 +2131,7 @@
         <v>1811</v>
       </c>
       <c r="B213" t="n">
-        <v>1625.731151553188</v>
+        <v>1625.731151553186</v>
       </c>
     </row>
     <row r="214">
@@ -2139,7 +2139,7 @@
         <v>1812</v>
       </c>
       <c r="B214" t="n">
-        <v>1648.500935687556</v>
+        <v>1648.500935687557</v>
       </c>
     </row>
     <row r="215">
@@ -2147,7 +2147,7 @@
         <v>1813</v>
       </c>
       <c r="B215" t="n">
-        <v>1671.609102676118</v>
+        <v>1671.609102676119</v>
       </c>
     </row>
     <row r="216">
@@ -2155,7 +2155,7 @@
         <v>1814</v>
       </c>
       <c r="B216" t="n">
-        <v>1695.061830156624</v>
+        <v>1695.061830156621</v>
       </c>
     </row>
     <row r="217">
@@ -2163,7 +2163,7 @@
         <v>1815</v>
       </c>
       <c r="B217" t="n">
-        <v>1718.865450573957</v>
+        <v>1718.865450573956</v>
       </c>
     </row>
     <row r="218">
@@ -2179,7 +2179,7 @@
         <v>1817</v>
       </c>
       <c r="B219" t="n">
-        <v>1767.551501521983</v>
+        <v>1767.551501521986</v>
       </c>
     </row>
     <row r="220">
@@ -2187,7 +2187,7 @@
         <v>1818</v>
       </c>
       <c r="B220" t="n">
-        <v>1792.447412607097</v>
+        <v>1792.447412607094</v>
       </c>
     </row>
     <row r="221">
@@ -2195,7 +2195,7 @@
         <v>1819</v>
       </c>
       <c r="B221" t="n">
-        <v>1817.721187435268</v>
+        <v>1817.721187435269</v>
       </c>
     </row>
     <row r="222">
@@ -2203,7 +2203,7 @@
         <v>1820</v>
       </c>
       <c r="B222" t="n">
-        <v>1843.380003203744</v>
+        <v>1843.380003203743</v>
       </c>
     </row>
     <row r="223">
@@ -2219,7 +2219,7 @@
         <v>1822</v>
       </c>
       <c r="B224" t="n">
-        <v>1895.882391086763</v>
+        <v>1895.882391086762</v>
       </c>
     </row>
     <row r="225">
@@ -2235,7 +2235,7 @@
         <v>1824</v>
       </c>
       <c r="B226" t="n">
-        <v>1950.015767064515</v>
+        <v>1950.015767064517</v>
       </c>
     </row>
     <row r="227">
@@ -2251,7 +2251,7 @@
         <v>1826</v>
       </c>
       <c r="B228" t="n">
-        <v>2005.844522630012</v>
+        <v>2005.844522630011</v>
       </c>
     </row>
     <row r="229">
@@ -2259,7 +2259,7 @@
         <v>1827</v>
       </c>
       <c r="B229" t="n">
-        <v>2034.415709583545</v>
+        <v>2034.415709583546</v>
       </c>
     </row>
     <row r="230">
@@ -2299,7 +2299,7 @@
         <v>1832</v>
       </c>
       <c r="B234" t="n">
-        <v>2184.198832404073</v>
+        <v>2184.19883240407</v>
       </c>
     </row>
     <row r="235">
@@ -2315,7 +2315,7 @@
         <v>1834</v>
       </c>
       <c r="B236" t="n">
-        <v>2247.523498367088</v>
+        <v>2247.523498367089</v>
       </c>
     </row>
     <row r="237">
@@ -2323,7 +2323,7 @@
         <v>1835</v>
       </c>
       <c r="B237" t="n">
-        <v>2279.957423932921</v>
+        <v>2279.957423932922</v>
       </c>
     </row>
     <row r="238">
@@ -2339,7 +2339,7 @@
         <v>1837</v>
       </c>
       <c r="B239" t="n">
-        <v>2346.422517904957</v>
+        <v>2346.422517904954</v>
       </c>
     </row>
     <row r="240">
@@ -2347,7 +2347,7 @@
         <v>1838</v>
       </c>
       <c r="B240" t="n">
-        <v>2380.476154667989</v>
+        <v>2380.47615466799</v>
       </c>
     </row>
     <row r="241">
@@ -2363,7 +2363,7 @@
         <v>1840</v>
       </c>
       <c r="B242" t="n">
-        <v>2450.283973096085</v>
+        <v>2450.283973096086</v>
       </c>
     </row>
     <row r="243">
@@ -2387,7 +2387,7 @@
         <v>1843</v>
       </c>
       <c r="B245" t="n">
-        <v>2559.431306207417</v>
+        <v>2559.431306207412</v>
       </c>
     </row>
     <row r="246">
@@ -2403,7 +2403,7 @@
         <v>1845</v>
       </c>
       <c r="B247" t="n">
-        <v>2635.304000738363</v>
+        <v>2635.304000738365</v>
       </c>
     </row>
     <row r="248">
@@ -2411,7 +2411,7 @@
         <v>1846</v>
       </c>
       <c r="B248" t="n">
-        <v>2674.213436377844</v>
+        <v>2674.213436377848</v>
       </c>
     </row>
     <row r="249">
@@ -2419,7 +2419,7 @@
         <v>1847</v>
       </c>
       <c r="B249" t="n">
-        <v>2713.790508245469</v>
+        <v>2713.790508245468</v>
       </c>
     </row>
     <row r="250">
@@ -2427,7 +2427,7 @@
         <v>1848</v>
       </c>
       <c r="B250" t="n">
-        <v>2754.049841927686</v>
+        <v>2754.049841927689</v>
       </c>
     </row>
     <row r="251">
@@ -2435,7 +2435,7 @@
         <v>1849</v>
       </c>
       <c r="B251" t="n">
-        <v>2795.00642504155</v>
+        <v>2795.006425041548</v>
       </c>
     </row>
     <row r="252">
@@ -2443,7 +2443,7 @@
         <v>1850</v>
       </c>
       <c r="B252" t="n">
-        <v>2836.675613733795</v>
+        <v>2836.675613733792</v>
       </c>
     </row>
     <row r="253">
@@ -2451,7 +2451,7 @@
         <v>1851</v>
       </c>
       <c r="B253" t="n">
-        <v>2879.07313905392</v>
+        <v>2879.073139053921</v>
       </c>
     </row>
     <row r="254">
@@ -2459,7 +2459,7 @@
         <v>1852</v>
       </c>
       <c r="B254" t="n">
-        <v>2922.215113175153</v>
+        <v>2922.215113175155</v>
       </c>
     </row>
     <row r="255">
@@ -2467,7 +2467,7 @@
         <v>1853</v>
       </c>
       <c r="B255" t="n">
-        <v>2966.118035438419</v>
+        <v>2966.118035438416</v>
       </c>
     </row>
     <row r="256">
@@ -2475,7 +2475,7 @@
         <v>1854</v>
       </c>
       <c r="B256" t="n">
-        <v>3010.798798198698</v>
+        <v>3010.798798198697</v>
       </c>
     </row>
     <row r="257">
@@ -2491,7 +2491,7 @@
         <v>1856</v>
       </c>
       <c r="B258" t="n">
-        <v>3102.563413155296</v>
+        <v>3102.563413155297</v>
       </c>
     </row>
     <row r="259">
@@ -2507,7 +2507,7 @@
         <v>1858</v>
       </c>
       <c r="B260" t="n">
-        <v>3197.65216402839</v>
+        <v>3197.652164028391</v>
       </c>
     </row>
     <row r="261">
@@ -2515,7 +2515,7 @@
         <v>1859</v>
       </c>
       <c r="B261" t="n">
-        <v>3246.489648205601</v>
+        <v>3246.489648205599</v>
       </c>
     </row>
     <row r="262">
@@ -2523,7 +2523,7 @@
         <v>1860</v>
       </c>
       <c r="B262" t="n">
-        <v>3296.214875315532</v>
+        <v>3296.214875315536</v>
       </c>
     </row>
     <row r="263">
@@ -2531,7 +2531,7 @@
         <v>1861</v>
       </c>
       <c r="B263" t="n">
-        <v>3346.84762962229</v>
+        <v>3346.847629622288</v>
       </c>
     </row>
     <row r="264">
@@ -2539,7 +2539,7 @@
         <v>1862</v>
       </c>
       <c r="B264" t="n">
-        <v>3398.408124396801</v>
+        <v>3398.408124396798</v>
       </c>
     </row>
     <row r="265">
@@ -2555,7 +2555,7 @@
         <v>1864</v>
       </c>
       <c r="B266" t="n">
-        <v>3504.395348767687</v>
+        <v>3504.395348767686</v>
       </c>
     </row>
     <row r="267">
@@ -2563,7 +2563,7 @@
         <v>1865</v>
       </c>
       <c r="B267" t="n">
-        <v>3558.864670923911</v>
+        <v>3558.86467092391</v>
       </c>
     </row>
     <row r="268">
@@ -2571,7 +2571,7 @@
         <v>1866</v>
       </c>
       <c r="B268" t="n">
-        <v>3614.346921043356</v>
+        <v>3614.346921043362</v>
       </c>
     </row>
     <row r="269">
@@ -2579,7 +2579,7 @@
         <v>1867</v>
       </c>
       <c r="B269" t="n">
-        <v>3670.864485435474</v>
+        <v>3670.864485435473</v>
       </c>
     </row>
     <row r="270">
@@ -2587,7 +2587,7 @@
         <v>1868</v>
       </c>
       <c r="B270" t="n">
-        <v>3728.440186154295</v>
+        <v>3728.440186154291</v>
       </c>
     </row>
     <row r="271">
@@ -2595,7 +2595,7 @@
         <v>1869</v>
       </c>
       <c r="B271" t="n">
-        <v>3787.097279657034</v>
+        <v>3787.097279657036</v>
       </c>
     </row>
     <row r="272">
@@ -2603,7 +2603,7 @@
         <v>1870</v>
       </c>
       <c r="B272" t="n">
-        <v>3846.859454623676</v>
+        <v>3846.859454623674</v>
       </c>
     </row>
     <row r="273">
@@ -2611,7 +2611,7 @@
         <v>1871</v>
       </c>
       <c r="B273" t="n">
-        <v>3907.750828873697</v>
+        <v>3907.750828873698</v>
       </c>
     </row>
     <row r="274">
@@ -2619,7 +2619,7 @@
         <v>1872</v>
       </c>
       <c r="B274" t="n">
-        <v>3969.795945326934</v>
+        <v>3969.795945326935</v>
       </c>
     </row>
     <row r="275">
@@ -2635,7 +2635,7 @@
         <v>1874</v>
       </c>
       <c r="B276" t="n">
-        <v>4097.447670590147</v>
+        <v>4097.447670590149</v>
       </c>
     </row>
     <row r="277">
@@ -2643,7 +2643,7 @@
         <v>1875</v>
       </c>
       <c r="B277" t="n">
-        <v>4163.10543973793</v>
+        <v>4163.105439737925</v>
       </c>
     </row>
     <row r="278">
@@ -2651,7 +2651,7 @@
         <v>1876</v>
       </c>
       <c r="B278" t="n">
-        <v>4230.019255978009</v>
+        <v>4230.019255978004</v>
       </c>
     </row>
     <row r="279">
@@ -2659,7 +2659,7 @@
         <v>1877</v>
       </c>
       <c r="B279" t="n">
-        <v>4298.215689232201</v>
+        <v>4298.215689232206</v>
       </c>
     </row>
     <row r="280">
@@ -2667,7 +2667,7 @@
         <v>1878</v>
       </c>
       <c r="B280" t="n">
-        <v>4367.721686620745</v>
+        <v>4367.721686620743</v>
       </c>
     </row>
     <row r="281">
@@ -2675,7 +2675,7 @@
         <v>1879</v>
       </c>
       <c r="B281" t="n">
-        <v>4438.564559906708</v>
+        <v>4438.564559906707</v>
       </c>
     </row>
     <row r="282">
@@ -2683,7 +2683,7 @@
         <v>1880</v>
       </c>
       <c r="B282" t="n">
-        <v>4510.771971442564</v>
+        <v>4510.771971442562</v>
       </c>
     </row>
     <row r="283">
@@ -2699,7 +2699,7 @@
         <v>1882</v>
       </c>
       <c r="B284" t="n">
-        <v>4659.392716228925</v>
+        <v>4659.39271622893</v>
       </c>
     </row>
     <row r="285">
@@ -2715,7 +2715,7 @@
         <v>1884</v>
       </c>
       <c r="B286" t="n">
-        <v>4813.811596072742</v>
+        <v>4813.811596072743</v>
       </c>
     </row>
     <row r="287">
@@ -2723,7 +2723,7 @@
         <v>1885</v>
       </c>
       <c r="B287" t="n">
-        <v>4893.267716678712</v>
+        <v>4893.267716678708</v>
       </c>
     </row>
     <row r="288">
@@ -2747,7 +2747,7 @@
         <v>1888</v>
       </c>
       <c r="B290" t="n">
-        <v>5140.975859838765</v>
+        <v>5140.975859838763</v>
       </c>
     </row>
     <row r="291">
@@ -2755,7 +2755,7 @@
         <v>1889</v>
       </c>
       <c r="B291" t="n">
-        <v>5226.757658488958</v>
+        <v>5226.757658488957</v>
       </c>
     </row>
     <row r="292">
@@ -2763,7 +2763,7 @@
         <v>1890</v>
       </c>
       <c r="B292" t="n">
-        <v>5314.195587050459</v>
+        <v>5314.195587050461</v>
       </c>
     </row>
     <row r="293">
@@ -2771,7 +2771,7 @@
         <v>1891</v>
       </c>
       <c r="B293" t="n">
-        <v>5403.319732184988</v>
+        <v>5403.319732184991</v>
       </c>
     </row>
     <row r="294">
@@ -2779,7 +2779,7 @@
         <v>1892</v>
       </c>
       <c r="B294" t="n">
-        <v>5494.160217750816</v>
+        <v>5494.160217750809</v>
       </c>
     </row>
     <row r="295">
@@ -2787,7 +2787,7 @@
         <v>1893</v>
       </c>
       <c r="B295" t="n">
-        <v>5586.7471642524</v>
+        <v>5586.747164252404</v>
       </c>
     </row>
     <row r="296">
@@ -2795,7 +2795,7 @@
         <v>1894</v>
       </c>
       <c r="B296" t="n">
-        <v>5681.110645724092</v>
+        <v>5681.110645724096</v>
       </c>
     </row>
     <row r="297">
@@ -2803,7 +2803,7 @@
         <v>1895</v>
       </c>
       <c r="B297" t="n">
-        <v>5777.280643969933</v>
+        <v>5777.28064396993</v>
       </c>
     </row>
     <row r="298">
@@ -2811,7 +2811,7 @@
         <v>1896</v>
       </c>
       <c r="B298" t="n">
-        <v>5875.287000096288</v>
+        <v>5875.287000096286</v>
       </c>
     </row>
     <row r="299">
@@ -2819,7 +2819,7 @@
         <v>1897</v>
       </c>
       <c r="B299" t="n">
-        <v>5975.159363275627</v>
+        <v>5975.159363275632</v>
       </c>
     </row>
     <row r="300">
@@ -2827,7 +2827,7 @@
         <v>1898</v>
       </c>
       <c r="B300" t="n">
-        <v>6076.92713668809</v>
+        <v>6076.927136688085</v>
       </c>
     </row>
     <row r="301">
@@ -2843,7 +2843,7 @@
         <v>1900</v>
       </c>
       <c r="B302" t="n">
-        <v>6286.264952408999</v>
+        <v>6286.264952408995</v>
       </c>
     </row>
     <row r="303">
@@ -2851,7 +2851,7 @@
         <v>1901</v>
       </c>
       <c r="B303" t="n">
-        <v>6393.892043996389</v>
+        <v>6393.892043996395</v>
       </c>
     </row>
     <row r="304">
@@ -2859,7 +2859,7 @@
         <v>1902</v>
       </c>
       <c r="B304" t="n">
-        <v>6503.528515721047</v>
+        <v>6503.52851572105</v>
       </c>
     </row>
     <row r="305">
@@ -2867,7 +2867,7 @@
         <v>1903</v>
       </c>
       <c r="B305" t="n">
-        <v>6615.201627652984</v>
+        <v>6615.201627652982</v>
       </c>
     </row>
     <row r="306">
@@ -2875,7 +2875,7 @@
         <v>1904</v>
       </c>
       <c r="B306" t="n">
-        <v>6728.938007662759</v>
+        <v>6728.938007662753</v>
       </c>
     </row>
     <row r="307">
@@ -2883,7 +2883,7 @@
         <v>1905</v>
       </c>
       <c r="B307" t="n">
-        <v>6844.763576472904</v>
+        <v>6844.763576472911</v>
       </c>
     </row>
     <row r="308">
@@ -2891,7 +2891,7 @@
         <v>1906</v>
       </c>
       <c r="B308" t="n">
-        <v>6962.703469656966</v>
+        <v>6962.703469656963</v>
       </c>
     </row>
     <row r="309">
@@ -2899,7 +2899,7 @@
         <v>1907</v>
       </c>
       <c r="B309" t="n">
-        <v>7082.781956604868</v>
+        <v>7082.781956604871</v>
       </c>
     </row>
     <row r="310">
@@ -2907,7 +2907,7 @@
         <v>1908</v>
       </c>
       <c r="B310" t="n">
-        <v>7205.022356469953</v>
+        <v>7205.022356469951</v>
       </c>
     </row>
     <row r="311">
@@ -2915,7 +2915,7 @@
         <v>1909</v>
       </c>
       <c r="B311" t="n">
-        <v>7329.446951129228</v>
+        <v>7329.446951129227</v>
       </c>
     </row>
     <row r="312">
@@ -2923,7 +2923,7 @@
         <v>1910</v>
       </c>
       <c r="B312" t="n">
-        <v>7456.076895219392</v>
+        <v>7456.076895219398</v>
       </c>
     </row>
     <row r="313">
@@ -2931,7 +2931,7 @@
         <v>1911</v>
       </c>
       <c r="B313" t="n">
-        <v>7584.932123300205</v>
+        <v>7584.932123300207</v>
       </c>
     </row>
     <row r="314">
@@ -2939,7 +2939,7 @@
         <v>1912</v>
       </c>
       <c r="B314" t="n">
-        <v>7716.031254217874</v>
+        <v>7716.031254217876</v>
       </c>
     </row>
     <row r="315">
@@ -2947,7 +2947,7 @@
         <v>1913</v>
       </c>
       <c r="B315" t="n">
-        <v>7849.39149277324</v>
+        <v>7849.391492773234</v>
       </c>
     </row>
     <row r="316">
@@ -2955,7 +2955,7 @@
         <v>1914</v>
       </c>
       <c r="B316" t="n">
-        <v>7985.028528794961</v>
+        <v>7985.028528794966</v>
       </c>
     </row>
     <row r="317">
@@ -2971,7 +2971,7 @@
         <v>1916</v>
       </c>
       <c r="B318" t="n">
-        <v>8263.187554979626</v>
+        <v>8263.187554979624</v>
       </c>
     </row>
     <row r="319">
@@ -2987,7 +2987,7 @@
         <v>1918</v>
       </c>
       <c r="B320" t="n">
-        <v>8550.59956607885</v>
+        <v>8550.599566078849</v>
       </c>
     </row>
     <row r="321">
@@ -2995,7 +2995,7 @@
         <v>1919</v>
       </c>
       <c r="B321" t="n">
-        <v>8697.795549557282</v>
+        <v>8697.795549557286</v>
       </c>
     </row>
     <row r="322">
@@ -3003,7 +3003,7 @@
         <v>1920</v>
       </c>
       <c r="B322" t="n">
-        <v>8847.324711707306</v>
+        <v>8847.324711707299</v>
       </c>
     </row>
     <row r="323">
@@ -3011,7 +3011,7 @@
         <v>1921</v>
       </c>
       <c r="B323" t="n">
-        <v>8999.189124665241</v>
+        <v>8999.189124665243</v>
       </c>
     </row>
     <row r="324">
@@ -3019,7 +3019,7 @@
         <v>1922</v>
       </c>
       <c r="B324" t="n">
-        <v>9153.388463745208</v>
+        <v>9153.388463745221</v>
       </c>
     </row>
     <row r="325">
@@ -3027,7 +3027,7 @@
         <v>1923</v>
       </c>
       <c r="B325" t="n">
-        <v>9309.919891086633</v>
+        <v>9309.919891086629</v>
       </c>
     </row>
     <row r="326">
@@ -3035,7 +3035,7 @@
         <v>1924</v>
       </c>
       <c r="B326" t="n">
-        <v>9468.777938821364</v>
+        <v>9468.777938821366</v>
       </c>
     </row>
     <row r="327">
@@ -3043,7 +3043,7 @@
         <v>1925</v>
       </c>
       <c r="B327" t="n">
-        <v>9629.954392106509</v>
+        <v>9629.954392106501</v>
       </c>
     </row>
     <row r="328">
@@ -3051,7 +3051,7 @@
         <v>1926</v>
       </c>
       <c r="B328" t="n">
-        <v>9793.438172369773</v>
+        <v>9793.438172369777</v>
       </c>
     </row>
     <row r="329">
@@ -3059,7 +3059,7 @@
         <v>1927</v>
       </c>
       <c r="B329" t="n">
-        <v>9959.215221131197</v>
+        <v>9959.215221131199</v>
       </c>
     </row>
     <row r="330">
@@ -3067,7 +3067,7 @@
         <v>1928</v>
       </c>
       <c r="B330" t="n">
-        <v>10127.26838480045</v>
+        <v>10127.26838480044</v>
       </c>
     </row>
     <row r="331">
@@ -3075,7 +3075,7 @@
         <v>1929</v>
       </c>
       <c r="B331" t="n">
-        <v>10297.5773008621</v>
+        <v>10297.57730086211</v>
       </c>
     </row>
     <row r="332">
@@ -3091,7 +3091,7 @@
         <v>1931</v>
       </c>
       <c r="B333" t="n">
-        <v>10644.86422579113</v>
+        <v>10644.86422579114</v>
       </c>
     </row>
     <row r="334">
@@ -3099,7 +3099,7 @@
         <v>1932</v>
       </c>
       <c r="B334" t="n">
-        <v>10821.7844689023</v>
+        <v>10821.78446890229</v>
       </c>
     </row>
     <row r="335">
@@ -3107,7 +3107,7 @@
         <v>1933</v>
       </c>
       <c r="B335" t="n">
-        <v>11000.84472218654</v>
+        <v>11000.84472218653</v>
       </c>
     </row>
     <row r="336">
@@ -3131,7 +3131,7 @@
         <v>1936</v>
       </c>
       <c r="B338" t="n">
-        <v>11550.4659231008</v>
+        <v>11550.46592310081</v>
       </c>
     </row>
     <row r="339">
@@ -3147,7 +3147,7 @@
         <v>1938</v>
       </c>
       <c r="B340" t="n">
-        <v>11926.77876925262</v>
+        <v>11926.77876925261</v>
       </c>
     </row>
     <row r="341">
@@ -3171,7 +3171,7 @@
         <v>1941</v>
       </c>
       <c r="B343" t="n">
-        <v>12504.97548019667</v>
+        <v>12504.97548019666</v>
       </c>
     </row>
     <row r="344">
@@ -3179,7 +3179,7 @@
         <v>1942</v>
       </c>
       <c r="B344" t="n">
-        <v>12701.10619833371</v>
+        <v>12701.10619833373</v>
       </c>
     </row>
     <row r="345">
@@ -3203,7 +3203,7 @@
         <v>1945</v>
       </c>
       <c r="B347" t="n">
-        <v>13298.63905953865</v>
+        <v>13298.63905953864</v>
       </c>
     </row>
     <row r="348">
@@ -3227,7 +3227,7 @@
         <v>1948</v>
       </c>
       <c r="B350" t="n">
-        <v>13908.06848244015</v>
+        <v>13908.06848244016</v>
       </c>
     </row>
     <row r="351">
@@ -3243,7 +3243,7 @@
         <v>1950</v>
       </c>
       <c r="B352" t="n">
-        <v>14319.67864391294</v>
+        <v>14319.67864391295</v>
       </c>
     </row>
     <row r="353">
@@ -3251,7 +3251,7 @@
         <v>1951</v>
       </c>
       <c r="B353" t="n">
-        <v>14526.76195235824</v>
+        <v>14526.76195235823</v>
       </c>
     </row>
     <row r="354">
@@ -3259,7 +3259,7 @@
         <v>1952</v>
       </c>
       <c r="B354" t="n">
-        <v>14734.54557214519</v>
+        <v>14734.54557214521</v>
       </c>
     </row>
     <row r="355">
@@ -3275,7 +3275,7 @@
         <v>1954</v>
       </c>
       <c r="B356" t="n">
-        <v>15151.73299270215</v>
+        <v>15151.73299270214</v>
       </c>
     </row>
     <row r="357">
@@ -3283,7 +3283,7 @@
         <v>1955</v>
       </c>
       <c r="B357" t="n">
-        <v>15360.8862148906</v>
+        <v>15360.88621489061</v>
       </c>
     </row>
     <row r="358">
@@ -3299,7 +3299,7 @@
         <v>1957</v>
       </c>
       <c r="B359" t="n">
-        <v>15779.65578280739</v>
+        <v>15779.65578280738</v>
       </c>
     </row>
     <row r="360">
@@ -3315,7 +3315,7 @@
         <v>1959</v>
       </c>
       <c r="B361" t="n">
-        <v>16198.12494171719</v>
+        <v>16198.1249417172</v>
       </c>
     </row>
     <row r="362">
@@ -3323,7 +3323,7 @@
         <v>1960</v>
       </c>
       <c r="B362" t="n">
-        <v>16406.88962426119</v>
+        <v>16406.8896242612</v>
       </c>
     </row>
     <row r="363">
@@ -3339,7 +3339,7 @@
         <v>1962</v>
       </c>
       <c r="B364" t="n">
-        <v>16822.73676818801</v>
+        <v>16822.73676818799</v>
       </c>
     </row>
     <row r="365">
@@ -3347,7 +3347,7 @@
         <v>1963</v>
       </c>
       <c r="B365" t="n">
-        <v>17029.51362208924</v>
+        <v>17029.51362208925</v>
       </c>
     </row>
     <row r="366">
@@ -3355,7 +3355,7 @@
         <v>1964</v>
       </c>
       <c r="B366" t="n">
-        <v>17235.31796648457</v>
+        <v>17235.31796648458</v>
       </c>
     </row>
     <row r="367">
@@ -3363,7 +3363,7 @@
         <v>1965</v>
       </c>
       <c r="B367" t="n">
-        <v>17439.99090994367</v>
+        <v>17439.99090994366</v>
       </c>
     </row>
     <row r="368">
@@ -3395,7 +3395,7 @@
         <v>1969</v>
       </c>
       <c r="B371" t="n">
-        <v>18244.12655254081</v>
+        <v>18244.12655254082</v>
       </c>
     </row>
     <row r="372">
@@ -3403,7 +3403,7 @@
         <v>1970</v>
       </c>
       <c r="B372" t="n">
-        <v>18440.69864875551</v>
+        <v>18440.69864875552</v>
       </c>
     </row>
     <row r="373">
@@ -3419,7 +3419,7 @@
         <v>1972</v>
       </c>
       <c r="B374" t="n">
-        <v>18827.32446822236</v>
+        <v>18827.32446822237</v>
       </c>
     </row>
     <row r="375">
@@ -3427,7 +3427,7 @@
         <v>1973</v>
       </c>
       <c r="B375" t="n">
-        <v>19017.04424010006</v>
+        <v>19017.04424010005</v>
       </c>
     </row>
     <row r="376">
@@ -3451,7 +3451,7 @@
         <v>1976</v>
       </c>
       <c r="B378" t="n">
-        <v>19569.83504928208</v>
+        <v>19569.83504928209</v>
       </c>
     </row>
     <row r="379">
@@ -3459,7 +3459,7 @@
         <v>1977</v>
       </c>
       <c r="B379" t="n">
-        <v>19748.09327133658</v>
+        <v>19748.09327133659</v>
       </c>
     </row>
     <row r="380">
@@ -3467,7 +3467,7 @@
         <v>1978</v>
       </c>
       <c r="B380" t="n">
-        <v>19923.07776626086</v>
+        <v>19923.07776626085</v>
       </c>
     </row>
     <row r="381">
@@ -3475,7 +3475,7 @@
         <v>1979</v>
       </c>
       <c r="B381" t="n">
-        <v>20094.62875766507</v>
+        <v>20094.62875766508</v>
       </c>
     </row>
     <row r="382">
@@ -3515,7 +3515,7 @@
         <v>1984</v>
       </c>
       <c r="B386" t="n">
-        <v>20895.47307971388</v>
+        <v>20895.47307971387</v>
       </c>
     </row>
     <row r="387">
@@ -3523,7 +3523,7 @@
         <v>1985</v>
       </c>
       <c r="B387" t="n">
-        <v>21043.22324405226</v>
+        <v>21043.22324405227</v>
       </c>
     </row>
     <row r="388">
@@ -3531,7 +3531,7 @@
         <v>1986</v>
       </c>
       <c r="B388" t="n">
-        <v>21186.50599416929</v>
+        <v>21186.50599416928</v>
       </c>
     </row>
     <row r="389">
@@ -3539,7 +3539,7 @@
         <v>1987</v>
       </c>
       <c r="B389" t="n">
-        <v>21325.18949526378</v>
+        <v>21325.1894952638</v>
       </c>
     </row>
     <row r="390">
@@ -3547,7 +3547,7 @@
         <v>1988</v>
       </c>
       <c r="B390" t="n">
-        <v>21459.14676757983</v>
+        <v>21459.1467675798</v>
       </c>
     </row>
     <row r="391">
@@ -3555,7 +3555,7 @@
         <v>1989</v>
       </c>
       <c r="B391" t="n">
-        <v>21588.25595623846</v>
+        <v>21588.25595623847</v>
       </c>
     </row>
     <row r="392">
@@ -3571,7 +3571,7 @@
         <v>1991</v>
       </c>
       <c r="B393" t="n">
-        <v>21831.46981514696</v>
+        <v>21831.46981514695</v>
       </c>
     </row>
     <row r="394">
@@ -3579,7 +3579,7 @@
         <v>1992</v>
       </c>
       <c r="B394" t="n">
-        <v>21945.35864200454</v>
+        <v>21945.35864200455</v>
       </c>
     </row>
     <row r="395">
@@ -3595,7 +3595,7 @@
         <v>1994</v>
       </c>
       <c r="B396" t="n">
-        <v>22157.20563893935</v>
+        <v>22157.20563893936</v>
       </c>
     </row>
     <row r="397">
@@ -3603,7 +3603,7 @@
         <v>1995</v>
       </c>
       <c r="B397" t="n">
-        <v>22254.98491412382</v>
+        <v>22254.98491412383</v>
       </c>
     </row>
     <row r="398">
@@ -3611,7 +3611,7 @@
         <v>1996</v>
       </c>
       <c r="B398" t="n">
-        <v>22347.22633958184</v>
+        <v>22347.22633958183</v>
       </c>
     </row>
     <row r="399">
@@ -3619,7 +3619,7 @@
         <v>1997</v>
       </c>
       <c r="B399" t="n">
-        <v>22433.85703499136</v>
+        <v>22433.85703499137</v>
       </c>
     </row>
     <row r="400">
@@ -3635,7 +3635,7 @@
         <v>1999</v>
       </c>
       <c r="B401" t="n">
-        <v>22590.0291646296</v>
+        <v>22590.02916462959</v>
       </c>
     </row>
     <row r="402">
@@ -3659,7 +3659,7 @@
         <v>2002</v>
       </c>
       <c r="B404" t="n">
-        <v>22780.78492534694</v>
+        <v>22780.78492534695</v>
       </c>
     </row>
     <row r="405">
@@ -3683,7 +3683,7 @@
         <v>2005</v>
       </c>
       <c r="B407" t="n">
-        <v>22918.47704082109</v>
+        <v>22918.47704082112</v>
       </c>
     </row>
     <row r="408">
@@ -3691,7 +3691,7 @@
         <v>2006</v>
       </c>
       <c r="B408" t="n">
-        <v>22952.4906430115</v>
+        <v>22952.49064301148</v>
       </c>
     </row>
     <row r="409">
@@ -3699,7 +3699,7 @@
         <v>2007</v>
       </c>
       <c r="B409" t="n">
-        <v>22980.55343298442</v>
+        <v>22980.55343298443</v>
       </c>
     </row>
     <row r="410">
@@ -3707,7 +3707,7 @@
         <v>2008</v>
       </c>
       <c r="B410" t="n">
-        <v>23002.67066597359</v>
+        <v>23002.6706659736</v>
       </c>
     </row>
     <row r="411">
@@ -3715,7 +3715,7 @@
         <v>2009</v>
       </c>
       <c r="B411" t="n">
-        <v>23018.85456091142</v>
+        <v>23018.8545609114</v>
       </c>
     </row>
     <row r="412">
@@ -3723,7 +3723,7 @@
         <v>2010</v>
       </c>
       <c r="B412" t="n">
-        <v>23029.12419832205</v>
+        <v>23029.12419832209</v>
       </c>
     </row>
     <row r="413">
@@ -3731,7 +3731,7 @@
         <v>2011</v>
       </c>
       <c r="B413" t="n">
-        <v>23033.50540186868</v>
+        <v>23033.50540186867</v>
       </c>
     </row>
     <row r="414">
@@ -3739,7 +3739,7 @@
         <v>2012</v>
       </c>
       <c r="B414" t="n">
-        <v>23032.03060419434</v>
+        <v>23032.03060419433</v>
       </c>
     </row>
     <row r="415">
@@ -3747,7 +3747,7 @@
         <v>2013</v>
       </c>
       <c r="B415" t="n">
-        <v>23024.73869787991</v>
+        <v>23024.73869787992</v>
       </c>
     </row>
     <row r="416">
@@ -3755,7 +3755,7 @@
         <v>2014</v>
       </c>
       <c r="B416" t="n">
-        <v>23011.67487232646</v>
+        <v>23011.67487232645</v>
       </c>
     </row>
     <row r="417">
@@ -3763,7 +3763,7 @@
         <v>2015</v>
       </c>
       <c r="B417" t="n">
-        <v>22992.89043744036</v>
+        <v>22992.89043744038</v>
       </c>
     </row>
     <row r="418">
@@ -3787,7 +3787,7 @@
         <v>2018</v>
       </c>
       <c r="B420" t="n">
-        <v>22902.8143436818</v>
+        <v>22902.81434368179</v>
       </c>
     </row>
     <row r="421">
@@ -3795,7 +3795,7 @@
         <v>2019</v>
       </c>
       <c r="B421" t="n">
-        <v>22861.77614686899</v>
+        <v>22861.776146869</v>
       </c>
     </row>
     <row r="422">
@@ -3803,7 +3803,7 @@
         <v>2020</v>
       </c>
       <c r="B422" t="n">
-        <v>22815.35871860307</v>
+        <v>22815.35871860306</v>
       </c>
     </row>
     <row r="423">
@@ -3811,7 +3811,7 @@
         <v>2021</v>
       </c>
       <c r="B423" t="n">
-        <v>22763.64576706124</v>
+        <v>22763.64576706125</v>
       </c>
     </row>
     <row r="424">
@@ -3819,7 +3819,7 @@
         <v>2022</v>
       </c>
       <c r="B424" t="n">
-        <v>22706.72559614127</v>
+        <v>22706.7255961413</v>
       </c>
     </row>
     <row r="425">
@@ -3827,7 +3827,7 @@
         <v>2023</v>
       </c>
       <c r="B425" t="n">
-        <v>22644.690857984</v>
+        <v>22644.69085798397</v>
       </c>
     </row>
     <row r="426">
@@ -3835,7 +3835,7 @@
         <v>2024</v>
       </c>
       <c r="B426" t="n">
-        <v>22577.63830100781</v>
+        <v>22577.63830100782</v>
       </c>
     </row>
     <row r="427">
@@ -3843,7 +3843,7 @@
         <v>2025</v>
       </c>
       <c r="B427" t="n">
-        <v>22505.66851450766</v>
+        <v>22505.66851450764</v>
       </c>
     </row>
     <row r="428">
@@ -3851,7 +3851,7 @@
         <v>2026</v>
       </c>
       <c r="B428" t="n">
-        <v>22428.88567075021</v>
+        <v>22428.88567075023</v>
       </c>
     </row>
     <row r="429">
@@ -3859,7 +3859,7 @@
         <v>2027</v>
       </c>
       <c r="B429" t="n">
-        <v>22347.3972654653</v>
+        <v>22347.39726546531</v>
       </c>
     </row>
     <row r="430">
@@ -3867,7 +3867,7 @@
         <v>2028</v>
       </c>
       <c r="B430" t="n">
-        <v>22261.31385768699</v>
+        <v>22261.31385768696</v>
       </c>
     </row>
     <row r="431">
@@ -3875,7 +3875,7 @@
         <v>2029</v>
       </c>
       <c r="B431" t="n">
-        <v>22170.74880978534</v>
+        <v>22170.74880978533</v>
       </c>
     </row>
     <row r="432">
@@ -3883,7 +3883,7 @@
         <v>2030</v>
       </c>
       <c r="B432" t="n">
-        <v>22075.81802851778</v>
+        <v>22075.81802851781</v>
       </c>
     </row>
     <row r="433">
@@ -3899,7 +3899,7 @@
         <v>2032</v>
       </c>
       <c r="B434" t="n">
-        <v>21873.33407489152</v>
+        <v>21873.33407489151</v>
       </c>
     </row>
     <row r="435">
@@ -3907,7 +3907,7 @@
         <v>2033</v>
       </c>
       <c r="B435" t="n">
-        <v>21766.02313780465</v>
+        <v>21766.02313780467</v>
       </c>
     </row>
     <row r="436">
@@ -3923,7 +3923,7 @@
         <v>2035</v>
       </c>
       <c r="B437" t="n">
-        <v>21539.88081455326</v>
+        <v>21539.88081455325</v>
       </c>
     </row>
     <row r="438">
@@ -3931,7 +3931,7 @@
         <v>2036</v>
       </c>
       <c r="B438" t="n">
-        <v>21421.30015198782</v>
+        <v>21421.30015198784</v>
       </c>
     </row>
     <row r="439">
@@ -3939,7 +3939,7 @@
         <v>2037</v>
       </c>
       <c r="B439" t="n">
-        <v>21299.21516352595</v>
+        <v>21299.21516352593</v>
       </c>
     </row>
     <row r="440">
@@ -3971,7 +3971,7 @@
         <v>2041</v>
       </c>
       <c r="B443" t="n">
-        <v>20778.38254563109</v>
+        <v>20778.38254563107</v>
       </c>
     </row>
     <row r="444">
@@ -3979,7 +3979,7 @@
         <v>2042</v>
       </c>
       <c r="B444" t="n">
-        <v>20640.69000184953</v>
+        <v>20640.69000184951</v>
       </c>
     </row>
     <row r="445">
@@ -3987,7 +3987,7 @@
         <v>2043</v>
       </c>
       <c r="B445" t="n">
-        <v>20500.25854211263</v>
+        <v>20500.25854211266</v>
       </c>
     </row>
     <row r="446">
@@ -3995,7 +3995,7 @@
         <v>2044</v>
       </c>
       <c r="B446" t="n">
-        <v>20357.2147228534</v>
+        <v>20357.21472285339</v>
       </c>
     </row>
     <row r="447">
@@ -4003,7 +4003,7 @@
         <v>2045</v>
       </c>
       <c r="B447" t="n">
-        <v>20211.68432502238</v>
+        <v>20211.68432502237</v>
       </c>
     </row>
     <row r="448">
@@ -4019,7 +4019,7 @@
         <v>2047</v>
       </c>
       <c r="B449" t="n">
-        <v>19913.66206647177</v>
+        <v>19913.66206647176</v>
       </c>
     </row>
     <row r="450">
@@ -4027,7 +4027,7 @@
         <v>2048</v>
       </c>
       <c r="B450" t="n">
-        <v>19761.41645994372</v>
+        <v>19761.41645994373</v>
       </c>
     </row>
     <row r="451">
@@ -4035,7 +4035,7 @@
         <v>2049</v>
       </c>
       <c r="B451" t="n">
-        <v>19607.17649881794</v>
+        <v>19607.17649881798</v>
       </c>
     </row>
     <row r="452">
@@ -4043,7 +4043,7 @@
         <v>2050</v>
       </c>
       <c r="B452" t="n">
-        <v>19451.06180315998</v>
+        <v>19451.06180315996</v>
       </c>
     </row>
   </sheetData>

--- a/Data/model_outputs_baseline/number_of_dwellings/s_delta_total.xlsx
+++ b/Data/model_outputs_baseline/number_of_dwellings/s_delta_total.xlsx
@@ -451,7 +451,7 @@
         <v>1601</v>
       </c>
       <c r="B3" t="n">
-        <v>86.01224443895785</v>
+        <v>86.01224443895705</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>1602</v>
       </c>
       <c r="B4" t="n">
-        <v>87.24817320451061</v>
+        <v>87.24817320451608</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>1603</v>
       </c>
       <c r="B5" t="n">
-        <v>88.50174149125371</v>
+        <v>88.50174149124793</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>1604</v>
       </c>
       <c r="B6" t="n">
-        <v>89.77319772958683</v>
+        <v>89.77319772958627</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>1605</v>
       </c>
       <c r="B7" t="n">
-        <v>91.06279375980762</v>
+        <v>91.06279375981103</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>1606</v>
       </c>
       <c r="B8" t="n">
-        <v>92.37078487637851</v>
+        <v>92.37078487637784</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>1607</v>
       </c>
       <c r="B9" t="n">
-        <v>93.69742987280092</v>
+        <v>93.69742987279957</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>1608</v>
       </c>
       <c r="B10" t="n">
-        <v>95.04299108781153</v>
+        <v>95.04299108782317</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>1609</v>
       </c>
       <c r="B11" t="n">
-        <v>96.40773445099074</v>
+        <v>96.40773445099015</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>1610</v>
       </c>
       <c r="B12" t="n">
-        <v>97.79192952942039</v>
+        <v>97.79192952941595</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>1611</v>
       </c>
       <c r="B13" t="n">
-        <v>99.19584957547835</v>
+        <v>99.19584957547833</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>1612</v>
       </c>
       <c r="B14" t="n">
-        <v>100.6197715739658</v>
+        <v>100.6197715739581</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>1613</v>
       </c>
       <c r="B15" t="n">
-        <v>102.0639762910183</v>
+        <v>102.0639762910211</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>1614</v>
       </c>
       <c r="B16" t="n">
-        <v>103.5287483225728</v>
+        <v>103.5287483225822</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>1615</v>
       </c>
       <c r="B17" t="n">
-        <v>105.0143761442819</v>
+        <v>105.014376144268</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>1616</v>
       </c>
       <c r="B18" t="n">
-        <v>106.5211521613072</v>
+        <v>106.5211521613219</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>1617</v>
       </c>
       <c r="B19" t="n">
-        <v>108.0493727590993</v>
+        <v>108.0493727590915</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>1618</v>
       </c>
       <c r="B20" t="n">
-        <v>109.59933835474</v>
+        <v>109.5993383547433</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>1619</v>
       </c>
       <c r="B21" t="n">
-        <v>111.1713534486103</v>
+        <v>111.1713534486108</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>1620</v>
       </c>
       <c r="B22" t="n">
-        <v>112.7657266770637</v>
+        <v>112.7657266770646</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>1621</v>
       </c>
       <c r="B23" t="n">
-        <v>114.382770865443</v>
+        <v>114.382770865433</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>1622</v>
       </c>
       <c r="B24" t="n">
-        <v>116.0228030815379</v>
+        <v>116.0228030815493</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>1623</v>
       </c>
       <c r="B25" t="n">
-        <v>117.686144690456</v>
+        <v>117.6861446904504</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>1624</v>
       </c>
       <c r="B26" t="n">
-        <v>119.3731214089887</v>
+        <v>119.3731214089974</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>1625</v>
       </c>
       <c r="B27" t="n">
-        <v>121.0840633615796</v>
+        <v>121.0840633615736</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>1626</v>
       </c>
       <c r="B28" t="n">
-        <v>122.8193051364319</v>
+        <v>122.8193051364281</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>1627</v>
       </c>
       <c r="B29" t="n">
-        <v>124.579185842347</v>
+        <v>124.5791858423432</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>1628</v>
       </c>
       <c r="B30" t="n">
-        <v>126.3640491664283</v>
+        <v>126.3640491664259</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>1629</v>
       </c>
       <c r="B31" t="n">
-        <v>128.1742434321446</v>
+        <v>128.1742434321444</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>1630</v>
       </c>
       <c r="B32" t="n">
-        <v>130.0101216582825</v>
+        <v>130.0101216582848</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>1631</v>
       </c>
       <c r="B33" t="n">
-        <v>131.8720416185355</v>
+        <v>131.872041618543</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>1632</v>
       </c>
       <c r="B34" t="n">
-        <v>133.7603659016348</v>
+        <v>133.7603659016291</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>1633</v>
       </c>
       <c r="B35" t="n">
-        <v>135.675461972528</v>
+        <v>135.6754619725178</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>1634</v>
       </c>
       <c r="B36" t="n">
-        <v>137.6177022337605</v>
+        <v>137.6177022337745</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>1635</v>
       </c>
       <c r="B37" t="n">
-        <v>139.5874640882346</v>
+        <v>139.5874640882404</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>1636</v>
       </c>
       <c r="B38" t="n">
-        <v>141.5851300017702</v>
+        <v>141.5851300017661</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>1637</v>
       </c>
       <c r="B39" t="n">
-        <v>143.6110875673229</v>
+        <v>143.6110875673202</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>1638</v>
       </c>
       <c r="B40" t="n">
-        <v>145.6657295694464</v>
+        <v>145.6657295694459</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>1639</v>
       </c>
       <c r="B41" t="n">
-        <v>147.7494540496986</v>
+        <v>147.7494540496943</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>1640</v>
       </c>
       <c r="B42" t="n">
-        <v>149.8626643722</v>
+        <v>149.862664372209</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>1641</v>
       </c>
       <c r="B43" t="n">
-        <v>152.005769291278</v>
+        <v>152.0057692912704</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>1642</v>
       </c>
       <c r="B44" t="n">
-        <v>154.1791830182737</v>
+        <v>154.1791830182839</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>1643</v>
       </c>
       <c r="B45" t="n">
-        <v>156.3833252905154</v>
+        <v>156.3833252905061</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>1644</v>
       </c>
       <c r="B46" t="n">
-        <v>158.6186214402053</v>
+        <v>158.618621440215</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>1645</v>
       </c>
       <c r="B47" t="n">
-        <v>160.8855024642885</v>
+        <v>160.8855024642753</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>1646</v>
       </c>
       <c r="B48" t="n">
-        <v>163.1844050956345</v>
+        <v>163.1844050956324</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>1647</v>
       </c>
       <c r="B49" t="n">
-        <v>165.5157718744253</v>
+        <v>165.5157718744226</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>1648</v>
       </c>
       <c r="B50" t="n">
-        <v>167.8800512204959</v>
+        <v>167.8800512204986</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>1649</v>
       </c>
       <c r="B51" t="n">
-        <v>170.2776975069414</v>
+        <v>170.2776975069374</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>1650</v>
       </c>
       <c r="B52" t="n">
-        <v>172.7091711341443</v>
+        <v>172.709171134157</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>1651</v>
       </c>
       <c r="B53" t="n">
-        <v>175.1749386049158</v>
+        <v>175.1749386049032</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>1652</v>
       </c>
       <c r="B54" t="n">
-        <v>177.67547260008</v>
+        <v>177.6754726000959</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>1653</v>
       </c>
       <c r="B55" t="n">
-        <v>180.211252055998</v>
+        <v>180.2112520559872</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>1654</v>
       </c>
       <c r="B56" t="n">
-        <v>182.7827622416994</v>
+        <v>182.7827622416972</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>1655</v>
       </c>
       <c r="B57" t="n">
-        <v>185.3904948376545</v>
+        <v>185.3904948376686</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>1656</v>
       </c>
       <c r="B58" t="n">
-        <v>188.0349480159523</v>
+        <v>188.0349480159432</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>1657</v>
       </c>
       <c r="B59" t="n">
-        <v>190.7166265201909</v>
+        <v>190.7166265201869</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>1658</v>
       </c>
       <c r="B60" t="n">
-        <v>193.4360417473814</v>
+        <v>193.4360417473821</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>1659</v>
       </c>
       <c r="B61" t="n">
-        <v>196.193711830519</v>
+        <v>196.1937118305246</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>1660</v>
       </c>
       <c r="B62" t="n">
-        <v>198.9901617221284</v>
+        <v>198.990161722131</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>1661</v>
       </c>
       <c r="B63" t="n">
-        <v>201.8259232785876</v>
+        <v>201.8259232785783</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>1662</v>
       </c>
       <c r="B64" t="n">
-        <v>204.7015353463965</v>
+        <v>204.7015353464136</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>1663</v>
       </c>
       <c r="B65" t="n">
-        <v>207.6175438480012</v>
+        <v>207.6175438479938</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>1664</v>
       </c>
       <c r="B66" t="n">
-        <v>210.5745018704103</v>
+        <v>210.57450187041</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>1665</v>
       </c>
       <c r="B67" t="n">
-        <v>213.5729697536031</v>
+        <v>213.5729697535936</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>1666</v>
       </c>
       <c r="B68" t="n">
-        <v>216.6135151804593</v>
+        <v>216.6135151804704</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>1667</v>
       </c>
       <c r="B69" t="n">
-        <v>219.6967132683111</v>
+        <v>219.6967132683076</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>1668</v>
       </c>
       <c r="B70" t="n">
-        <v>222.8231466610504</v>
+        <v>222.8231466610509</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>1669</v>
       </c>
       <c r="B71" t="n">
-        <v>225.9934056224961</v>
+        <v>225.9934056224999</v>
       </c>
     </row>
     <row r="72">
@@ -1003,7 +1003,7 @@
         <v>1670</v>
       </c>
       <c r="B72" t="n">
-        <v>229.2080881314902</v>
+        <v>229.2080881314882</v>
       </c>
     </row>
     <row r="73">
@@ -1011,7 +1011,7 @@
         <v>1671</v>
       </c>
       <c r="B73" t="n">
-        <v>232.4677999775587</v>
+        <v>232.467799977555</v>
       </c>
     </row>
     <row r="74">
@@ -1019,7 +1019,7 @@
         <v>1672</v>
       </c>
       <c r="B74" t="n">
-        <v>235.7731548582571</v>
+        <v>235.7731548582466</v>
       </c>
     </row>
     <row r="75">
@@ -1027,7 +1027,7 @@
         <v>1673</v>
       </c>
       <c r="B75" t="n">
-        <v>239.1247744778638</v>
+        <v>239.1247744778737</v>
       </c>
     </row>
     <row r="76">
@@ -1035,7 +1035,7 @@
         <v>1674</v>
       </c>
       <c r="B76" t="n">
-        <v>242.5232886471415</v>
+        <v>242.5232886471391</v>
       </c>
     </row>
     <row r="77">
@@ -1043,7 +1043,7 @@
         <v>1675</v>
       </c>
       <c r="B77" t="n">
-        <v>245.9693353844435</v>
+        <v>245.9693353844464</v>
       </c>
     </row>
     <row r="78">
@@ -1051,7 +1051,7 @@
         <v>1676</v>
       </c>
       <c r="B78" t="n">
-        <v>249.4635610187597</v>
+        <v>249.4635610187672</v>
       </c>
     </row>
     <row r="79">
@@ -1059,7 +1059,7 @@
         <v>1677</v>
       </c>
       <c r="B79" t="n">
-        <v>253.0066202932787</v>
+        <v>253.0066202932585</v>
       </c>
     </row>
     <row r="80">
@@ -1067,7 +1067,7 @@
         <v>1678</v>
       </c>
       <c r="B80" t="n">
-        <v>256.5991764713021</v>
+        <v>256.599176471324</v>
       </c>
     </row>
     <row r="81">
@@ -1075,7 +1075,7 @@
         <v>1679</v>
       </c>
       <c r="B81" t="n">
-        <v>260.2419014431331</v>
+        <v>260.2419014431254</v>
       </c>
     </row>
     <row r="82">
@@ -1083,7 +1083,7 @@
         <v>1680</v>
       </c>
       <c r="B82" t="n">
-        <v>263.9354758345385</v>
+        <v>263.9354758345281</v>
       </c>
     </row>
     <row r="83">
@@ -1091,7 +1091,7 @@
         <v>1681</v>
       </c>
       <c r="B83" t="n">
-        <v>267.6805891169042</v>
+        <v>267.6805891169172</v>
       </c>
     </row>
     <row r="84">
@@ -1099,7 +1099,7 @@
         <v>1682</v>
       </c>
       <c r="B84" t="n">
-        <v>271.4779397191875</v>
+        <v>271.4779397191788</v>
       </c>
     </row>
     <row r="85">
@@ -1107,7 +1107,7 @@
         <v>1683</v>
       </c>
       <c r="B85" t="n">
-        <v>275.3282351408955</v>
+        <v>275.3282351408969</v>
       </c>
     </row>
     <row r="86">
@@ -1115,7 +1115,7 @@
         <v>1684</v>
       </c>
       <c r="B86" t="n">
-        <v>279.2321920678659</v>
+        <v>279.2321920678738</v>
       </c>
     </row>
     <row r="87">
@@ -1123,7 +1123,7 @@
         <v>1685</v>
       </c>
       <c r="B87" t="n">
-        <v>283.190536488265</v>
+        <v>283.1905364882594</v>
       </c>
     </row>
     <row r="88">
@@ -1131,7 +1131,7 @@
         <v>1686</v>
       </c>
       <c r="B88" t="n">
-        <v>287.2040038117442</v>
+        <v>287.2040038117425</v>
       </c>
     </row>
     <row r="89">
@@ -1139,7 +1139,7 @@
         <v>1687</v>
       </c>
       <c r="B89" t="n">
-        <v>291.2733389901787</v>
+        <v>291.2733389901924</v>
       </c>
     </row>
     <row r="90">
@@ -1147,7 +1147,7 @@
         <v>1688</v>
       </c>
       <c r="B90" t="n">
-        <v>295.3992966394255</v>
+        <v>295.3992966394111</v>
       </c>
     </row>
     <row r="91">
@@ -1155,7 +1155,7 @@
         <v>1689</v>
       </c>
       <c r="B91" t="n">
-        <v>299.5826411640139</v>
+        <v>299.5826411640084</v>
       </c>
     </row>
     <row r="92">
@@ -1163,7 +1163,7 @@
         <v>1690</v>
       </c>
       <c r="B92" t="n">
-        <v>303.8241468837834</v>
+        <v>303.8241468837901</v>
       </c>
     </row>
     <row r="93">
@@ -1171,7 +1171,7 @@
         <v>1691</v>
       </c>
       <c r="B93" t="n">
-        <v>308.1245981618306</v>
+        <v>308.1245981618387</v>
       </c>
     </row>
     <row r="94">
@@ -1179,7 +1179,7 @@
         <v>1692</v>
       </c>
       <c r="B94" t="n">
-        <v>312.4847895353213</v>
+        <v>312.484789535307</v>
       </c>
     </row>
     <row r="95">
@@ -1187,7 +1187,7 @@
         <v>1693</v>
       </c>
       <c r="B95" t="n">
-        <v>316.9055258485166</v>
+        <v>316.905525848527</v>
       </c>
     </row>
     <row r="96">
@@ -1195,7 +1195,7 @@
         <v>1694</v>
       </c>
       <c r="B96" t="n">
-        <v>321.3876223874722</v>
+        <v>321.3876223874718</v>
       </c>
     </row>
     <row r="97">
@@ -1203,7 +1203,7 @@
         <v>1695</v>
       </c>
       <c r="B97" t="n">
-        <v>325.9319050176573</v>
+        <v>325.9319050176567</v>
       </c>
     </row>
     <row r="98">
@@ -1211,7 +1211,7 @@
         <v>1696</v>
       </c>
       <c r="B98" t="n">
-        <v>330.539210323711</v>
+        <v>330.5392103237127</v>
       </c>
     </row>
     <row r="99">
@@ -1219,7 +1219,7 @@
         <v>1697</v>
       </c>
       <c r="B99" t="n">
-        <v>335.2103857519574</v>
+        <v>335.2103857519545</v>
       </c>
     </row>
     <row r="100">
@@ -1227,7 +1227,7 @@
         <v>1698</v>
       </c>
       <c r="B100" t="n">
-        <v>339.9462897552417</v>
+        <v>339.946289755244</v>
       </c>
     </row>
     <row r="101">
@@ -1235,7 +1235,7 @@
         <v>1699</v>
       </c>
       <c r="B101" t="n">
-        <v>344.7477919402514</v>
+        <v>344.7477919402526</v>
       </c>
     </row>
     <row r="102">
@@ -1243,7 +1243,7 @@
         <v>1700</v>
       </c>
       <c r="B102" t="n">
-        <v>349.6157732183439</v>
+        <v>349.6157732183365</v>
       </c>
     </row>
     <row r="103">
@@ -1251,7 +1251,7 @@
         <v>1701</v>
       </c>
       <c r="B103" t="n">
-        <v>354.5511259586381</v>
+        <v>354.5511259586458</v>
       </c>
     </row>
     <row r="104">
@@ -1259,7 +1259,7 @@
         <v>1702</v>
       </c>
       <c r="B104" t="n">
-        <v>359.5547541436829</v>
+        <v>359.5547541436752</v>
       </c>
     </row>
     <row r="105">
@@ -1267,7 +1267,7 @@
         <v>1703</v>
       </c>
       <c r="B105" t="n">
-        <v>364.6275735293941</v>
+        <v>364.6275735294037</v>
       </c>
     </row>
     <row r="106">
@@ -1275,7 +1275,7 @@
         <v>1704</v>
       </c>
       <c r="B106" t="n">
-        <v>369.7705118068813</v>
+        <v>369.7705118068794</v>
       </c>
     </row>
     <row r="107">
@@ -1283,7 +1283,7 @@
         <v>1705</v>
       </c>
       <c r="B107" t="n">
-        <v>374.9845087684347</v>
+        <v>374.98450876843</v>
       </c>
     </row>
     <row r="108">
@@ -1291,7 +1291,7 @@
         <v>1706</v>
       </c>
       <c r="B108" t="n">
-        <v>380.2705164762529</v>
+        <v>380.2705164762603</v>
       </c>
     </row>
     <row r="109">
@@ -1299,7 +1299,7 @@
         <v>1707</v>
       </c>
       <c r="B109" t="n">
-        <v>385.6294994350765</v>
+        <v>385.6294994350657</v>
       </c>
     </row>
     <row r="110">
@@ -1307,7 +1307,7 @@
         <v>1708</v>
       </c>
       <c r="B110" t="n">
-        <v>391.0624347684644</v>
+        <v>391.0624347684754</v>
       </c>
     </row>
     <row r="111">
@@ -1315,7 +1315,7 @@
         <v>1709</v>
       </c>
       <c r="B111" t="n">
-        <v>396.5703123984957</v>
+        <v>396.5703123984892</v>
       </c>
     </row>
     <row r="112">
@@ -1323,7 +1323,7 @@
         <v>1710</v>
       </c>
       <c r="B112" t="n">
-        <v>402.1541352298324</v>
+        <v>402.154135229837</v>
       </c>
     </row>
     <row r="113">
@@ -1331,7 +1331,7 @@
         <v>1711</v>
       </c>
       <c r="B113" t="n">
-        <v>407.8149193372907</v>
+        <v>407.814919337285</v>
       </c>
     </row>
     <row r="114">
@@ -1339,7 +1339,7 @@
         <v>1712</v>
       </c>
       <c r="B114" t="n">
-        <v>413.5536941581069</v>
+        <v>413.5536941581043</v>
       </c>
     </row>
     <row r="115">
@@ -1347,7 +1347,7 @@
         <v>1713</v>
       </c>
       <c r="B115" t="n">
-        <v>419.3715026883016</v>
+        <v>419.371502688304</v>
       </c>
     </row>
     <row r="116">
@@ -1355,7 +1355,7 @@
         <v>1714</v>
       </c>
       <c r="B116" t="n">
-        <v>425.2694016835</v>
+        <v>425.2694016835012</v>
       </c>
     </row>
     <row r="117">
@@ -1363,7 +1363,7 @@
         <v>1715</v>
       </c>
       <c r="B117" t="n">
-        <v>431.248461864515</v>
+        <v>431.2484618645168</v>
       </c>
     </row>
     <row r="118">
@@ -1371,7 +1371,7 @@
         <v>1716</v>
       </c>
       <c r="B118" t="n">
-        <v>437.3097681280265</v>
+        <v>437.3097681280298</v>
       </c>
     </row>
     <row r="119">
@@ -1379,7 +1379,7 @@
         <v>1717</v>
       </c>
       <c r="B119" t="n">
-        <v>443.4544197617321</v>
+        <v>443.4544197617265</v>
       </c>
     </row>
     <row r="120">
@@ -1387,7 +1387,7 @@
         <v>1718</v>
       </c>
       <c r="B120" t="n">
-        <v>449.6835306652507</v>
+        <v>449.6835306652555</v>
       </c>
     </row>
     <row r="121">
@@ -1395,7 +1395,7 @@
         <v>1719</v>
       </c>
       <c r="B121" t="n">
-        <v>455.9982295762279</v>
+        <v>455.9982295762263</v>
       </c>
     </row>
     <row r="122">
@@ -1403,7 +1403,7 @@
         <v>1720</v>
       </c>
       <c r="B122" t="n">
-        <v>462.3996603021413</v>
+        <v>462.3996603021347</v>
       </c>
     </row>
     <row r="123">
@@ -1411,7 +1411,7 @@
         <v>1721</v>
       </c>
       <c r="B123" t="n">
-        <v>468.8889819579193</v>
+        <v>468.8889819579254</v>
       </c>
     </row>
     <row r="124">
@@ -1419,7 +1419,7 @@
         <v>1722</v>
       </c>
       <c r="B124" t="n">
-        <v>475.4673692097161</v>
+        <v>475.4673692097158</v>
       </c>
     </row>
     <row r="125">
@@ -1427,7 +1427,7 @@
         <v>1723</v>
       </c>
       <c r="B125" t="n">
-        <v>482.1360125247677</v>
+        <v>482.1360125247634</v>
       </c>
     </row>
     <row r="126">
@@ -1435,7 +1435,7 @@
         <v>1724</v>
       </c>
       <c r="B126" t="n">
-        <v>488.8961184282781</v>
+        <v>488.8961184282818</v>
       </c>
     </row>
     <row r="127">
@@ -1443,7 +1443,7 @@
         <v>1725</v>
       </c>
       <c r="B127" t="n">
-        <v>495.7489097665641</v>
+        <v>495.7489097665598</v>
       </c>
     </row>
     <row r="128">
@@ -1451,7 +1451,7 @@
         <v>1726</v>
       </c>
       <c r="B128" t="n">
-        <v>502.6956259778363</v>
+        <v>502.6956259778403</v>
       </c>
     </row>
     <row r="129">
@@ -1459,7 +1459,7 @@
         <v>1727</v>
       </c>
       <c r="B129" t="n">
-        <v>509.7375233696644</v>
+        <v>509.7375233696612</v>
       </c>
     </row>
     <row r="130">
@@ -1467,7 +1467,7 @@
         <v>1728</v>
       </c>
       <c r="B130" t="n">
-        <v>516.8758754051266</v>
+        <v>516.8758754051225</v>
       </c>
     </row>
     <row r="131">
@@ -1475,7 +1475,7 @@
         <v>1729</v>
       </c>
       <c r="B131" t="n">
-        <v>524.1119729954548</v>
+        <v>524.1119729954621</v>
       </c>
     </row>
     <row r="132">
@@ -1483,7 +1483,7 @@
         <v>1730</v>
       </c>
       <c r="B132" t="n">
-        <v>531.4471248023137</v>
+        <v>531.4471248023109</v>
       </c>
     </row>
     <row r="133">
@@ -1491,7 +1491,7 @@
         <v>1731</v>
       </c>
       <c r="B133" t="n">
-        <v>538.882657548148</v>
+        <v>538.8826575481484</v>
       </c>
     </row>
     <row r="134">
@@ -1499,7 +1499,7 @@
         <v>1732</v>
       </c>
       <c r="B134" t="n">
-        <v>546.4199163346974</v>
+        <v>546.4199163346987</v>
       </c>
     </row>
     <row r="135">
@@ -1507,7 +1507,7 @@
         <v>1733</v>
       </c>
       <c r="B135" t="n">
-        <v>554.0602649726084</v>
+        <v>554.0602649726038</v>
       </c>
     </row>
     <row r="136">
@@ -1515,7 +1515,7 @@
         <v>1734</v>
       </c>
       <c r="B136" t="n">
-        <v>561.805086318312</v>
+        <v>561.8050863183117</v>
       </c>
     </row>
     <row r="137">
@@ -1523,7 +1523,7 @@
         <v>1735</v>
       </c>
       <c r="B137" t="n">
-        <v>569.6557826229489</v>
+        <v>569.6557826229549</v>
       </c>
     </row>
     <row r="138">
@@ -1531,7 +1531,7 @@
         <v>1736</v>
       </c>
       <c r="B138" t="n">
-        <v>577.6137758908127</v>
+        <v>577.6137758908108</v>
       </c>
     </row>
     <row r="139">
@@ -1539,7 +1539,7 @@
         <v>1737</v>
       </c>
       <c r="B139" t="n">
-        <v>585.6805082482255</v>
+        <v>585.6805082482266</v>
       </c>
     </row>
     <row r="140">
@@ -1547,7 +1547,7 @@
         <v>1738</v>
       </c>
       <c r="B140" t="n">
-        <v>593.8574423245823</v>
+        <v>593.8574423245803</v>
       </c>
     </row>
     <row r="141">
@@ -1555,7 +1555,7 @@
         <v>1739</v>
       </c>
       <c r="B141" t="n">
-        <v>602.146061644443</v>
+        <v>602.1460616444421</v>
       </c>
     </row>
     <row r="142">
@@ -1563,7 +1563,7 @@
         <v>1740</v>
       </c>
       <c r="B142" t="n">
-        <v>610.5478710316085</v>
+        <v>610.5478710316072</v>
       </c>
     </row>
     <row r="143">
@@ -1571,7 +1571,7 @@
         <v>1741</v>
       </c>
       <c r="B143" t="n">
-        <v>619.0643970266348</v>
+        <v>619.0643970266333</v>
       </c>
     </row>
     <row r="144">
@@ -1579,7 +1579,7 @@
         <v>1742</v>
       </c>
       <c r="B144" t="n">
-        <v>627.697188316279</v>
+        <v>627.6971883162835</v>
       </c>
     </row>
     <row r="145">
@@ -1587,7 +1587,7 @@
         <v>1743</v>
       </c>
       <c r="B145" t="n">
-        <v>636.4478161778397</v>
+        <v>636.4478161778383</v>
       </c>
     </row>
     <row r="146">
@@ -1595,7 +1595,7 @@
         <v>1744</v>
       </c>
       <c r="B146" t="n">
-        <v>645.3178749361399</v>
+        <v>645.3178749361385</v>
       </c>
     </row>
     <row r="147">
@@ -1603,7 +1603,7 @@
         <v>1745</v>
       </c>
       <c r="B147" t="n">
-        <v>654.3089824369513</v>
+        <v>654.308982436953</v>
       </c>
     </row>
     <row r="148">
@@ -1611,7 +1611,7 @@
         <v>1746</v>
       </c>
       <c r="B148" t="n">
-        <v>663.4227805339061</v>
+        <v>663.4227805339088</v>
       </c>
     </row>
     <row r="149">
@@ -1619,7 +1619,7 @@
         <v>1747</v>
       </c>
       <c r="B149" t="n">
-        <v>672.6609355924071</v>
+        <v>672.6609355924063</v>
       </c>
     </row>
     <row r="150">
@@ -1627,7 +1627,7 @@
         <v>1748</v>
       </c>
       <c r="B150" t="n">
-        <v>682.025139010042</v>
+        <v>682.0251390100434</v>
       </c>
     </row>
     <row r="151">
@@ -1635,7 +1635,7 @@
         <v>1749</v>
       </c>
       <c r="B151" t="n">
-        <v>691.5171077528421</v>
+        <v>691.5171077528415</v>
       </c>
     </row>
     <row r="152">
@@ -1643,7 +1643,7 @@
         <v>1750</v>
       </c>
       <c r="B152" t="n">
-        <v>701.1385849110658</v>
+        <v>701.1385849110603</v>
       </c>
     </row>
     <row r="153">
@@ -1651,7 +1651,7 @@
         <v>1751</v>
       </c>
       <c r="B153" t="n">
-        <v>710.8913402716023</v>
+        <v>710.8913402716105</v>
       </c>
     </row>
     <row r="154">
@@ -1659,7 +1659,7 @@
         <v>1752</v>
       </c>
       <c r="B154" t="n">
-        <v>720.7771709111788</v>
+        <v>720.7771709111731</v>
       </c>
     </row>
     <row r="155">
@@ -1667,7 +1667,7 @@
         <v>1753</v>
       </c>
       <c r="B155" t="n">
-        <v>730.7979018081387</v>
+        <v>730.7979018081433</v>
       </c>
     </row>
     <row r="156">
@@ -1675,7 +1675,7 @@
         <v>1754</v>
       </c>
       <c r="B156" t="n">
-        <v>740.9553864750463</v>
+        <v>740.9553864750436</v>
       </c>
     </row>
     <row r="157">
@@ -1683,7 +1683,7 @@
         <v>1755</v>
       </c>
       <c r="B157" t="n">
-        <v>751.2515076137744</v>
+        <v>751.2515076137772</v>
       </c>
     </row>
     <row r="158">
@@ -1691,7 +1691,7 @@
         <v>1756</v>
       </c>
       <c r="B158" t="n">
-        <v>761.6881777908354</v>
+        <v>761.6881777908312</v>
       </c>
     </row>
     <row r="159">
@@ -1699,7 +1699,7 @@
         <v>1757</v>
       </c>
       <c r="B159" t="n">
-        <v>772.2673401376313</v>
+        <v>772.267340137633</v>
       </c>
     </row>
     <row r="160">
@@ -1707,7 +1707,7 @@
         <v>1758</v>
       </c>
       <c r="B160" t="n">
-        <v>782.9909690732431</v>
+        <v>782.990969073241</v>
       </c>
     </row>
     <row r="161">
@@ -1715,7 +1715,7 @@
         <v>1759</v>
       </c>
       <c r="B161" t="n">
-        <v>793.8610710525957</v>
+        <v>793.8610710525952</v>
       </c>
     </row>
     <row r="162">
@@ -1723,7 +1723,7 @@
         <v>1760</v>
       </c>
       <c r="B162" t="n">
-        <v>804.8796853401439</v>
+        <v>804.8796853401466</v>
       </c>
     </row>
     <row r="163">
@@ -1731,7 +1731,7 @@
         <v>1761</v>
       </c>
       <c r="B163" t="n">
-        <v>816.0488848100372</v>
+        <v>816.0488848100343</v>
       </c>
     </row>
     <row r="164">
@@ -1739,7 +1739,7 @@
         <v>1762</v>
       </c>
       <c r="B164" t="n">
-        <v>827.3707767744216</v>
+        <v>827.3707767744251</v>
       </c>
     </row>
     <row r="165">
@@ -1747,7 +1747,7 @@
         <v>1763</v>
       </c>
       <c r="B165" t="n">
-        <v>838.8475038392207</v>
+        <v>838.8475038392181</v>
       </c>
     </row>
     <row r="166">
@@ -1755,7 +1755,7 @@
         <v>1764</v>
       </c>
       <c r="B166" t="n">
-        <v>850.4812447905213</v>
+        <v>850.4812447905196</v>
       </c>
     </row>
     <row r="167">
@@ -1763,7 +1763,7 @@
         <v>1765</v>
       </c>
       <c r="B167" t="n">
-        <v>862.2742155116069</v>
+        <v>862.2742155116088</v>
       </c>
     </row>
     <row r="168">
@@ -1771,7 +1771,7 @@
         <v>1766</v>
       </c>
       <c r="B168" t="n">
-        <v>874.2286699311367</v>
+        <v>874.2286699311392</v>
       </c>
     </row>
     <row r="169">
@@ -1779,7 +1779,7 @@
         <v>1767</v>
       </c>
       <c r="B169" t="n">
-        <v>886.3469010045021</v>
+        <v>886.3469010044984</v>
       </c>
     </row>
     <row r="170">
@@ -1787,7 +1787,7 @@
         <v>1768</v>
       </c>
       <c r="B170" t="n">
-        <v>898.6312417297128</v>
+        <v>898.6312417297139</v>
       </c>
     </row>
     <row r="171">
@@ -1795,7 +1795,7 @@
         <v>1769</v>
       </c>
       <c r="B171" t="n">
-        <v>911.0840661979425</v>
+        <v>911.0840661979422</v>
       </c>
     </row>
     <row r="172">
@@ -1803,7 +1803,7 @@
         <v>1770</v>
       </c>
       <c r="B172" t="n">
-        <v>923.7077906807691</v>
+        <v>923.7077906807698</v>
       </c>
     </row>
     <row r="173">
@@ -1811,7 +1811,7 @@
         <v>1771</v>
       </c>
       <c r="B173" t="n">
-        <v>936.5048747553452</v>
+        <v>936.5048747553453</v>
       </c>
     </row>
     <row r="174">
@@ -1819,7 +1819,7 @@
         <v>1772</v>
       </c>
       <c r="B174" t="n">
-        <v>949.4778224685739</v>
+        <v>949.4778224685751</v>
       </c>
     </row>
     <row r="175">
@@ -1827,7 +1827,7 @@
         <v>1773</v>
       </c>
       <c r="B175" t="n">
-        <v>962.6291835414017</v>
+        <v>962.6291835414015</v>
       </c>
     </row>
     <row r="176">
@@ -1835,7 +1835,7 @@
         <v>1774</v>
       </c>
       <c r="B176" t="n">
-        <v>975.9615546151138</v>
+        <v>975.9615546151133</v>
       </c>
     </row>
     <row r="177">
@@ -1843,7 +1843,7 @@
         <v>1775</v>
       </c>
       <c r="B177" t="n">
-        <v>989.4775805409985</v>
+        <v>989.4775805409988</v>
       </c>
     </row>
     <row r="178">
@@ -1859,7 +1859,7 @@
         <v>1777</v>
       </c>
       <c r="B179" t="n">
-        <v>1017.071425453608</v>
+        <v>1017.071425453605</v>
       </c>
     </row>
     <row r="180">
@@ -1867,7 +1867,7 @@
         <v>1778</v>
       </c>
       <c r="B180" t="n">
-        <v>1031.154787430156</v>
+        <v>1031.154787430159</v>
       </c>
     </row>
     <row r="181">
@@ -1883,7 +1883,7 @@
         <v>1780</v>
       </c>
       <c r="B182" t="n">
-        <v>1059.908649447017</v>
+        <v>1059.908649447018</v>
       </c>
     </row>
     <row r="183">
@@ -1891,7 +1891,7 @@
         <v>1781</v>
       </c>
       <c r="B183" t="n">
-        <v>1074.585020133648</v>
+        <v>1074.585020133643</v>
       </c>
     </row>
     <row r="184">
@@ -1899,7 +1899,7 @@
         <v>1782</v>
       </c>
       <c r="B184" t="n">
-        <v>1089.46502756308</v>
+        <v>1089.465027563088</v>
       </c>
     </row>
     <row r="185">
@@ -1907,7 +1907,7 @@
         <v>1783</v>
       </c>
       <c r="B185" t="n">
-        <v>1104.551754354905</v>
+        <v>1104.551754354904</v>
       </c>
     </row>
     <row r="186">
@@ -1915,7 +1915,7 @@
         <v>1784</v>
       </c>
       <c r="B186" t="n">
-        <v>1119.848345134314</v>
+        <v>1119.848345134312</v>
       </c>
     </row>
     <row r="187">
@@ -1923,7 +1923,7 @@
         <v>1785</v>
       </c>
       <c r="B187" t="n">
-        <v>1135.35800833781</v>
+        <v>1135.358008337811</v>
       </c>
     </row>
     <row r="188">
@@ -1931,7 +1931,7 @@
         <v>1786</v>
       </c>
       <c r="B188" t="n">
-        <v>1151.084018080486</v>
+        <v>1151.084018080487</v>
       </c>
     </row>
     <row r="189">
@@ -1939,7 +1939,7 @@
         <v>1787</v>
       </c>
       <c r="B189" t="n">
-        <v>1167.029716084392</v>
+        <v>1167.02971608439</v>
       </c>
     </row>
     <row r="190">
@@ -1947,7 +1947,7 @@
         <v>1788</v>
       </c>
       <c r="B190" t="n">
-        <v>1183.198513673233</v>
+        <v>1183.198513673237</v>
       </c>
     </row>
     <row r="191">
@@ -1955,7 +1955,7 @@
         <v>1789</v>
       </c>
       <c r="B191" t="n">
-        <v>1199.593893832123</v>
+        <v>1199.59389383212</v>
       </c>
     </row>
     <row r="192">
@@ -1971,7 +1971,7 @@
         <v>1791</v>
       </c>
       <c r="B193" t="n">
-        <v>1233.078704945975</v>
+        <v>1233.078704945977</v>
       </c>
     </row>
     <row r="194">
@@ -1979,7 +1979,7 @@
         <v>1792</v>
       </c>
       <c r="B194" t="n">
-        <v>1250.175479685536</v>
+        <v>1250.175479685535</v>
       </c>
     </row>
     <row r="195">
@@ -1987,7 +1987,7 @@
         <v>1793</v>
       </c>
       <c r="B195" t="n">
-        <v>1267.513529178346</v>
+        <v>1267.513529178347</v>
       </c>
     </row>
     <row r="196">
@@ -1995,7 +1995,7 @@
         <v>1794</v>
       </c>
       <c r="B196" t="n">
-        <v>1285.096728072425</v>
+        <v>1285.096728072423</v>
       </c>
     </row>
     <row r="197">
@@ -2003,7 +2003,7 @@
         <v>1795</v>
       </c>
       <c r="B197" t="n">
-        <v>1302.929036537462</v>
+        <v>1302.929036537465</v>
       </c>
     </row>
     <row r="198">
@@ -2011,7 +2011,7 @@
         <v>1796</v>
       </c>
       <c r="B198" t="n">
-        <v>1321.014502842908</v>
+        <v>1321.014502842906</v>
       </c>
     </row>
     <row r="199">
@@ -2019,7 +2019,7 @@
         <v>1797</v>
       </c>
       <c r="B199" t="n">
-        <v>1339.357266018252</v>
+        <v>1339.357266018253</v>
       </c>
     </row>
     <row r="200">
@@ -2027,7 +2027,7 @@
         <v>1798</v>
       </c>
       <c r="B200" t="n">
-        <v>1357.961558596476</v>
+        <v>1357.961558596475</v>
       </c>
     </row>
     <row r="201">
@@ -2035,7 +2035,7 @@
         <v>1799</v>
       </c>
       <c r="B201" t="n">
-        <v>1376.831709443995</v>
+        <v>1376.831709443993</v>
       </c>
     </row>
     <row r="202">
@@ -2043,7 +2043,7 @@
         <v>1800</v>
       </c>
       <c r="B202" t="n">
-        <v>1395.972146678363</v>
+        <v>1395.972146678366</v>
       </c>
     </row>
     <row r="203">
@@ -2059,7 +2059,7 @@
         <v>1802</v>
       </c>
       <c r="B204" t="n">
-        <v>1435.082107166251</v>
+        <v>1435.082107166248</v>
       </c>
     </row>
     <row r="205">
@@ -2067,7 +2067,7 @@
         <v>1803</v>
       </c>
       <c r="B205" t="n">
-        <v>1455.061010434897</v>
+        <v>1455.061010434898</v>
       </c>
     </row>
     <row r="206">
@@ -2075,7 +2075,7 @@
         <v>1804</v>
       </c>
       <c r="B206" t="n">
-        <v>1475.328966600979</v>
+        <v>1475.328966600977</v>
       </c>
     </row>
     <row r="207">
@@ -2083,7 +2083,7 @@
         <v>1805</v>
       </c>
       <c r="B207" t="n">
-        <v>1495.890947008553</v>
+        <v>1495.890947008554</v>
       </c>
     </row>
     <row r="208">
@@ -2091,7 +2091,7 @@
         <v>1806</v>
       </c>
       <c r="B208" t="n">
-        <v>1516.752041709919</v>
+        <v>1516.75204170992</v>
       </c>
     </row>
     <row r="209">
@@ -2099,7 +2099,7 @@
         <v>1807</v>
       </c>
       <c r="B209" t="n">
-        <v>1537.91746305176</v>
+        <v>1537.917463051758</v>
       </c>
     </row>
     <row r="210">
@@ -2123,7 +2123,7 @@
         <v>1810</v>
       </c>
       <c r="B212" t="n">
-        <v>1603.293722993381</v>
+        <v>1603.29372299338</v>
       </c>
     </row>
     <row r="213">
@@ -2131,7 +2131,7 @@
         <v>1811</v>
       </c>
       <c r="B213" t="n">
-        <v>1625.731151553186</v>
+        <v>1625.731151553188</v>
       </c>
     </row>
     <row r="214">
@@ -2139,7 +2139,7 @@
         <v>1812</v>
       </c>
       <c r="B214" t="n">
-        <v>1648.500935687557</v>
+        <v>1648.500935687556</v>
       </c>
     </row>
     <row r="215">
@@ -2147,7 +2147,7 @@
         <v>1813</v>
       </c>
       <c r="B215" t="n">
-        <v>1671.609102676119</v>
+        <v>1671.609102676118</v>
       </c>
     </row>
     <row r="216">
@@ -2155,7 +2155,7 @@
         <v>1814</v>
       </c>
       <c r="B216" t="n">
-        <v>1695.061830156621</v>
+        <v>1695.061830156624</v>
       </c>
     </row>
     <row r="217">
@@ -2163,7 +2163,7 @@
         <v>1815</v>
       </c>
       <c r="B217" t="n">
-        <v>1718.865450573956</v>
+        <v>1718.865450573957</v>
       </c>
     </row>
     <row r="218">
@@ -2179,7 +2179,7 @@
         <v>1817</v>
       </c>
       <c r="B219" t="n">
-        <v>1767.551501521986</v>
+        <v>1767.551501521983</v>
       </c>
     </row>
     <row r="220">
@@ -2187,7 +2187,7 @@
         <v>1818</v>
       </c>
       <c r="B220" t="n">
-        <v>1792.447412607094</v>
+        <v>1792.447412607097</v>
       </c>
     </row>
     <row r="221">
@@ -2195,7 +2195,7 @@
         <v>1819</v>
       </c>
       <c r="B221" t="n">
-        <v>1817.721187435269</v>
+        <v>1817.721187435268</v>
       </c>
     </row>
     <row r="222">
@@ -2203,7 +2203,7 @@
         <v>1820</v>
       </c>
       <c r="B222" t="n">
-        <v>1843.380003203743</v>
+        <v>1843.380003203744</v>
       </c>
     </row>
     <row r="223">
@@ -2219,7 +2219,7 @@
         <v>1822</v>
       </c>
       <c r="B224" t="n">
-        <v>1895.882391086762</v>
+        <v>1895.882391086763</v>
       </c>
     </row>
     <row r="225">
@@ -2235,7 +2235,7 @@
         <v>1824</v>
       </c>
       <c r="B226" t="n">
-        <v>1950.015767064517</v>
+        <v>1950.015767064515</v>
       </c>
     </row>
     <row r="227">
@@ -2251,7 +2251,7 @@
         <v>1826</v>
       </c>
       <c r="B228" t="n">
-        <v>2005.844522630011</v>
+        <v>2005.844522630012</v>
       </c>
     </row>
     <row r="229">
@@ -2259,7 +2259,7 @@
         <v>1827</v>
       </c>
       <c r="B229" t="n">
-        <v>2034.415709583546</v>
+        <v>2034.415709583545</v>
       </c>
     </row>
     <row r="230">
@@ -2299,7 +2299,7 @@
         <v>1832</v>
       </c>
       <c r="B234" t="n">
-        <v>2184.19883240407</v>
+        <v>2184.198832404073</v>
       </c>
     </row>
     <row r="235">
@@ -2315,7 +2315,7 @@
         <v>1834</v>
       </c>
       <c r="B236" t="n">
-        <v>2247.523498367089</v>
+        <v>2247.523498367088</v>
       </c>
     </row>
     <row r="237">
@@ -2323,7 +2323,7 @@
         <v>1835</v>
       </c>
       <c r="B237" t="n">
-        <v>2279.957423932922</v>
+        <v>2279.957423932921</v>
       </c>
     </row>
     <row r="238">
@@ -2339,7 +2339,7 @@
         <v>1837</v>
       </c>
       <c r="B239" t="n">
-        <v>2346.422517904954</v>
+        <v>2346.422517904957</v>
       </c>
     </row>
     <row r="240">
@@ -2347,7 +2347,7 @@
         <v>1838</v>
       </c>
       <c r="B240" t="n">
-        <v>2380.47615466799</v>
+        <v>2380.476154667989</v>
       </c>
     </row>
     <row r="241">
@@ -2363,7 +2363,7 @@
         <v>1840</v>
       </c>
       <c r="B242" t="n">
-        <v>2450.283973096086</v>
+        <v>2450.283973096085</v>
       </c>
     </row>
     <row r="243">
@@ -2387,7 +2387,7 @@
         <v>1843</v>
       </c>
       <c r="B245" t="n">
-        <v>2559.431306207412</v>
+        <v>2559.431306207417</v>
       </c>
     </row>
     <row r="246">
@@ -2403,7 +2403,7 @@
         <v>1845</v>
       </c>
       <c r="B247" t="n">
-        <v>2635.304000738365</v>
+        <v>2635.304000738363</v>
       </c>
     </row>
     <row r="248">
@@ -2411,7 +2411,7 @@
         <v>1846</v>
       </c>
       <c r="B248" t="n">
-        <v>2674.213436377848</v>
+        <v>2674.213436377844</v>
       </c>
     </row>
     <row r="249">
@@ -2419,7 +2419,7 @@
         <v>1847</v>
       </c>
       <c r="B249" t="n">
-        <v>2713.790508245468</v>
+        <v>2713.790508245469</v>
       </c>
     </row>
     <row r="250">
@@ -2427,7 +2427,7 @@
         <v>1848</v>
       </c>
       <c r="B250" t="n">
-        <v>2754.049841927689</v>
+        <v>2754.049841927686</v>
       </c>
     </row>
     <row r="251">
@@ -2435,7 +2435,7 @@
         <v>1849</v>
       </c>
       <c r="B251" t="n">
-        <v>2795.006425041548</v>
+        <v>2795.00642504155</v>
       </c>
     </row>
     <row r="252">
@@ -2443,7 +2443,7 @@
         <v>1850</v>
       </c>
       <c r="B252" t="n">
-        <v>2836.675613733792</v>
+        <v>2836.675613733795</v>
       </c>
     </row>
     <row r="253">
@@ -2451,7 +2451,7 @@
         <v>1851</v>
       </c>
       <c r="B253" t="n">
-        <v>2879.073139053921</v>
+        <v>2879.07313905392</v>
       </c>
     </row>
     <row r="254">
@@ -2459,7 +2459,7 @@
         <v>1852</v>
       </c>
       <c r="B254" t="n">
-        <v>2922.215113175155</v>
+        <v>2922.215113175153</v>
       </c>
     </row>
     <row r="255">
@@ -2467,7 +2467,7 @@
         <v>1853</v>
       </c>
       <c r="B255" t="n">
-        <v>2966.118035438416</v>
+        <v>2966.118035438419</v>
       </c>
     </row>
     <row r="256">
@@ -2475,7 +2475,7 @@
         <v>1854</v>
       </c>
       <c r="B256" t="n">
-        <v>3010.798798198697</v>
+        <v>3010.798798198698</v>
       </c>
     </row>
     <row r="257">
@@ -2491,7 +2491,7 @@
         <v>1856</v>
       </c>
       <c r="B258" t="n">
-        <v>3102.563413155297</v>
+        <v>3102.563413155296</v>
       </c>
     </row>
     <row r="259">
@@ -2507,7 +2507,7 @@
         <v>1858</v>
       </c>
       <c r="B260" t="n">
-        <v>3197.652164028391</v>
+        <v>3197.65216402839</v>
       </c>
     </row>
     <row r="261">
@@ -2515,7 +2515,7 @@
         <v>1859</v>
       </c>
       <c r="B261" t="n">
-        <v>3246.489648205599</v>
+        <v>3246.489648205601</v>
       </c>
     </row>
     <row r="262">
@@ -2523,7 +2523,7 @@
         <v>1860</v>
       </c>
       <c r="B262" t="n">
-        <v>3296.214875315536</v>
+        <v>3296.214875315532</v>
       </c>
     </row>
     <row r="263">
@@ -2531,7 +2531,7 @@
         <v>1861</v>
       </c>
       <c r="B263" t="n">
-        <v>3346.847629622288</v>
+        <v>3346.84762962229</v>
       </c>
     </row>
     <row r="264">
@@ -2539,7 +2539,7 @@
         <v>1862</v>
       </c>
       <c r="B264" t="n">
-        <v>3398.408124396798</v>
+        <v>3398.408124396801</v>
       </c>
     </row>
     <row r="265">
@@ -2555,7 +2555,7 @@
         <v>1864</v>
       </c>
       <c r="B266" t="n">
-        <v>3504.395348767686</v>
+        <v>3504.395348767687</v>
       </c>
     </row>
     <row r="267">
@@ -2563,7 +2563,7 @@
         <v>1865</v>
       </c>
       <c r="B267" t="n">
-        <v>3558.86467092391</v>
+        <v>3558.864670923911</v>
       </c>
     </row>
     <row r="268">
@@ -2571,7 +2571,7 @@
         <v>1866</v>
       </c>
       <c r="B268" t="n">
-        <v>3614.346921043362</v>
+        <v>3614.346921043356</v>
       </c>
     </row>
     <row r="269">
@@ -2579,7 +2579,7 @@
         <v>1867</v>
       </c>
       <c r="B269" t="n">
-        <v>3670.864485435473</v>
+        <v>3670.864485435474</v>
       </c>
     </row>
     <row r="270">
@@ -2587,7 +2587,7 @@
         <v>1868</v>
       </c>
       <c r="B270" t="n">
-        <v>3728.440186154291</v>
+        <v>3728.440186154295</v>
       </c>
     </row>
     <row r="271">
@@ -2595,7 +2595,7 @@
         <v>1869</v>
       </c>
       <c r="B271" t="n">
-        <v>3787.097279657036</v>
+        <v>3787.097279657034</v>
       </c>
     </row>
     <row r="272">
@@ -2603,7 +2603,7 @@
         <v>1870</v>
       </c>
       <c r="B272" t="n">
-        <v>3846.859454623674</v>
+        <v>3846.859454623676</v>
       </c>
     </row>
     <row r="273">
@@ -2611,7 +2611,7 @@
         <v>1871</v>
       </c>
       <c r="B273" t="n">
-        <v>3907.750828873698</v>
+        <v>3907.750828873697</v>
       </c>
     </row>
     <row r="274">
@@ -2619,7 +2619,7 @@
         <v>1872</v>
       </c>
       <c r="B274" t="n">
-        <v>3969.795945326935</v>
+        <v>3969.795945326934</v>
       </c>
     </row>
     <row r="275">
@@ -2635,7 +2635,7 @@
         <v>1874</v>
       </c>
       <c r="B276" t="n">
-        <v>4097.447670590149</v>
+        <v>4097.447670590147</v>
       </c>
     </row>
     <row r="277">
@@ -2643,7 +2643,7 @@
         <v>1875</v>
       </c>
       <c r="B277" t="n">
-        <v>4163.105439737925</v>
+        <v>4163.10543973793</v>
       </c>
     </row>
     <row r="278">
@@ -2651,7 +2651,7 @@
         <v>1876</v>
       </c>
       <c r="B278" t="n">
-        <v>4230.019255978004</v>
+        <v>4230.019255978009</v>
       </c>
     </row>
     <row r="279">
@@ -2659,7 +2659,7 @@
         <v>1877</v>
       </c>
       <c r="B279" t="n">
-        <v>4298.215689232206</v>
+        <v>4298.215689232201</v>
       </c>
     </row>
     <row r="280">
@@ -2667,7 +2667,7 @@
         <v>1878</v>
       </c>
       <c r="B280" t="n">
-        <v>4367.721686620743</v>
+        <v>4367.721686620745</v>
       </c>
     </row>
     <row r="281">
@@ -2675,7 +2675,7 @@
         <v>1879</v>
       </c>
       <c r="B281" t="n">
-        <v>4438.564559906707</v>
+        <v>4438.564559906708</v>
       </c>
     </row>
     <row r="282">
@@ -2683,7 +2683,7 @@
         <v>1880</v>
       </c>
       <c r="B282" t="n">
-        <v>4510.771971442562</v>
+        <v>4510.771971442564</v>
       </c>
     </row>
     <row r="283">
@@ -2699,7 +2699,7 @@
         <v>1882</v>
       </c>
       <c r="B284" t="n">
-        <v>4659.39271622893</v>
+        <v>4659.392716228925</v>
       </c>
     </row>
     <row r="285">
@@ -2715,7 +2715,7 @@
         <v>1884</v>
       </c>
       <c r="B286" t="n">
-        <v>4813.811596072743</v>
+        <v>4813.811596072742</v>
       </c>
     </row>
     <row r="287">
@@ -2723,7 +2723,7 @@
         <v>1885</v>
       </c>
       <c r="B287" t="n">
-        <v>4893.267716678708</v>
+        <v>4893.267716678712</v>
       </c>
     </row>
     <row r="288">
@@ -2747,7 +2747,7 @@
         <v>1888</v>
       </c>
       <c r="B290" t="n">
-        <v>5140.975859838763</v>
+        <v>5140.975859838765</v>
       </c>
     </row>
     <row r="291">
@@ -2755,7 +2755,7 @@
         <v>1889</v>
       </c>
       <c r="B291" t="n">
-        <v>5226.757658488957</v>
+        <v>5226.757658488958</v>
       </c>
     </row>
     <row r="292">
@@ -2763,7 +2763,7 @@
         <v>1890</v>
       </c>
       <c r="B292" t="n">
-        <v>5314.195587050461</v>
+        <v>5314.195587050459</v>
       </c>
     </row>
     <row r="293">
@@ -2771,7 +2771,7 @@
         <v>1891</v>
       </c>
       <c r="B293" t="n">
-        <v>5403.319732184991</v>
+        <v>5403.319732184988</v>
       </c>
     </row>
     <row r="294">
@@ -2779,7 +2779,7 @@
         <v>1892</v>
       </c>
       <c r="B294" t="n">
-        <v>5494.160217750809</v>
+        <v>5494.160217750816</v>
       </c>
     </row>
     <row r="295">
@@ -2787,7 +2787,7 @@
         <v>1893</v>
       </c>
       <c r="B295" t="n">
-        <v>5586.747164252404</v>
+        <v>5586.7471642524</v>
       </c>
     </row>
     <row r="296">
@@ -2795,7 +2795,7 @@
         <v>1894</v>
       </c>
       <c r="B296" t="n">
-        <v>5681.110645724096</v>
+        <v>5681.110645724092</v>
       </c>
     </row>
     <row r="297">
@@ -2803,7 +2803,7 @@
         <v>1895</v>
       </c>
       <c r="B297" t="n">
-        <v>5777.28064396993</v>
+        <v>5777.280643969933</v>
       </c>
     </row>
     <row r="298">
@@ -2811,7 +2811,7 @@
         <v>1896</v>
       </c>
       <c r="B298" t="n">
-        <v>5875.287000096286</v>
+        <v>5875.287000096288</v>
       </c>
     </row>
     <row r="299">
@@ -2819,7 +2819,7 @@
         <v>1897</v>
       </c>
       <c r="B299" t="n">
-        <v>5975.159363275632</v>
+        <v>5975.159363275627</v>
       </c>
     </row>
     <row r="300">
@@ -2827,7 +2827,7 @@
         <v>1898</v>
       </c>
       <c r="B300" t="n">
-        <v>6076.927136688085</v>
+        <v>6076.92713668809</v>
       </c>
     </row>
     <row r="301">
@@ -2843,7 +2843,7 @@
         <v>1900</v>
       </c>
       <c r="B302" t="n">
-        <v>6286.264952408995</v>
+        <v>6286.264952408999</v>
       </c>
     </row>
     <row r="303">
@@ -2851,7 +2851,7 @@
         <v>1901</v>
       </c>
       <c r="B303" t="n">
-        <v>6393.892043996395</v>
+        <v>6393.892043996389</v>
       </c>
     </row>
     <row r="304">
@@ -2859,7 +2859,7 @@
         <v>1902</v>
       </c>
       <c r="B304" t="n">
-        <v>6503.52851572105</v>
+        <v>6503.528515721047</v>
       </c>
     </row>
     <row r="305">
@@ -2867,7 +2867,7 @@
         <v>1903</v>
       </c>
       <c r="B305" t="n">
-        <v>6615.201627652982</v>
+        <v>6615.201627652984</v>
       </c>
     </row>
     <row r="306">
@@ -2875,7 +2875,7 @@
         <v>1904</v>
       </c>
       <c r="B306" t="n">
-        <v>6728.938007662753</v>
+        <v>6728.938007662759</v>
       </c>
     </row>
     <row r="307">
@@ -2883,7 +2883,7 @@
         <v>1905</v>
       </c>
       <c r="B307" t="n">
-        <v>6844.763576472911</v>
+        <v>6844.763576472904</v>
       </c>
     </row>
     <row r="308">
@@ -2891,7 +2891,7 @@
         <v>1906</v>
       </c>
       <c r="B308" t="n">
-        <v>6962.703469656963</v>
+        <v>6962.703469656966</v>
       </c>
     </row>
     <row r="309">
@@ -2899,7 +2899,7 @@
         <v>1907</v>
       </c>
       <c r="B309" t="n">
-        <v>7082.781956604871</v>
+        <v>7082.781956604868</v>
       </c>
     </row>
     <row r="310">
@@ -2907,7 +2907,7 @@
         <v>1908</v>
       </c>
       <c r="B310" t="n">
-        <v>7205.022356469951</v>
+        <v>7205.022356469953</v>
       </c>
     </row>
     <row r="311">
@@ -2915,7 +2915,7 @@
         <v>1909</v>
       </c>
       <c r="B311" t="n">
-        <v>7329.446951129227</v>
+        <v>7329.446951129228</v>
       </c>
     </row>
     <row r="312">
@@ -2923,7 +2923,7 @@
         <v>1910</v>
       </c>
       <c r="B312" t="n">
-        <v>7456.076895219398</v>
+        <v>7456.076895219392</v>
       </c>
     </row>
     <row r="313">
@@ -2931,7 +2931,7 @@
         <v>1911</v>
       </c>
       <c r="B313" t="n">
-        <v>7584.932123300207</v>
+        <v>7584.932123300205</v>
       </c>
     </row>
     <row r="314">
@@ -2939,7 +2939,7 @@
         <v>1912</v>
       </c>
       <c r="B314" t="n">
-        <v>7716.031254217876</v>
+        <v>7716.031254217874</v>
       </c>
     </row>
     <row r="315">
@@ -2947,7 +2947,7 @@
         <v>1913</v>
       </c>
       <c r="B315" t="n">
-        <v>7849.391492773234</v>
+        <v>7849.39149277324</v>
       </c>
     </row>
     <row r="316">
@@ -2955,7 +2955,7 @@
         <v>1914</v>
       </c>
       <c r="B316" t="n">
-        <v>7985.028528794966</v>
+        <v>7985.028528794961</v>
       </c>
     </row>
     <row r="317">
@@ -2971,7 +2971,7 @@
         <v>1916</v>
       </c>
       <c r="B318" t="n">
-        <v>8263.187554979624</v>
+        <v>8263.187554979626</v>
       </c>
     </row>
     <row r="319">
@@ -2987,7 +2987,7 @@
         <v>1918</v>
       </c>
       <c r="B320" t="n">
-        <v>8550.599566078849</v>
+        <v>8550.59956607885</v>
       </c>
     </row>
     <row r="321">
@@ -2995,7 +2995,7 @@
         <v>1919</v>
       </c>
       <c r="B321" t="n">
-        <v>8697.795549557286</v>
+        <v>8697.795549557282</v>
       </c>
     </row>
     <row r="322">
@@ -3003,7 +3003,7 @@
         <v>1920</v>
       </c>
       <c r="B322" t="n">
-        <v>8847.324711707299</v>
+        <v>8847.324711707306</v>
       </c>
     </row>
     <row r="323">
@@ -3011,7 +3011,7 @@
         <v>1921</v>
       </c>
       <c r="B323" t="n">
-        <v>8999.189124665243</v>
+        <v>8999.189124665241</v>
       </c>
     </row>
     <row r="324">
@@ -3019,7 +3019,7 @@
         <v>1922</v>
       </c>
       <c r="B324" t="n">
-        <v>9153.388463745221</v>
+        <v>9153.388463745208</v>
       </c>
     </row>
     <row r="325">
@@ -3027,7 +3027,7 @@
         <v>1923</v>
       </c>
       <c r="B325" t="n">
-        <v>9309.919891086629</v>
+        <v>9309.919891086633</v>
       </c>
     </row>
     <row r="326">
@@ -3035,7 +3035,7 @@
         <v>1924</v>
       </c>
       <c r="B326" t="n">
-        <v>9468.777938821366</v>
+        <v>9468.777938821364</v>
       </c>
     </row>
     <row r="327">
@@ -3043,7 +3043,7 @@
         <v>1925</v>
       </c>
       <c r="B327" t="n">
-        <v>9629.954392106501</v>
+        <v>9629.954392106509</v>
       </c>
     </row>
     <row r="328">
@@ -3051,7 +3051,7 @@
         <v>1926</v>
       </c>
       <c r="B328" t="n">
-        <v>9793.438172369777</v>
+        <v>9793.438172369773</v>
       </c>
     </row>
     <row r="329">
@@ -3059,7 +3059,7 @@
         <v>1927</v>
       </c>
       <c r="B329" t="n">
-        <v>9959.215221131199</v>
+        <v>9959.215221131197</v>
       </c>
     </row>
     <row r="330">
@@ -3067,7 +3067,7 @@
         <v>1928</v>
       </c>
       <c r="B330" t="n">
-        <v>10127.26838480044</v>
+        <v>10127.26838480045</v>
       </c>
     </row>
     <row r="331">
@@ -3075,7 +3075,7 @@
         <v>1929</v>
       </c>
       <c r="B331" t="n">
-        <v>10297.57730086211</v>
+        <v>10297.5773008621</v>
       </c>
     </row>
     <row r="332">
@@ -3091,7 +3091,7 @@
         <v>1931</v>
       </c>
       <c r="B333" t="n">
-        <v>10644.86422579114</v>
+        <v>10644.86422579113</v>
       </c>
     </row>
     <row r="334">
@@ -3099,7 +3099,7 @@
         <v>1932</v>
       </c>
       <c r="B334" t="n">
-        <v>10821.78446890229</v>
+        <v>10821.7844689023</v>
       </c>
     </row>
     <row r="335">
@@ -3107,7 +3107,7 @@
         <v>1933</v>
       </c>
       <c r="B335" t="n">
-        <v>11000.84472218653</v>
+        <v>11000.84472218654</v>
       </c>
     </row>
     <row r="336">
@@ -3131,7 +3131,7 @@
         <v>1936</v>
       </c>
       <c r="B338" t="n">
-        <v>11550.46592310081</v>
+        <v>11550.4659231008</v>
       </c>
     </row>
     <row r="339">
@@ -3147,7 +3147,7 @@
         <v>1938</v>
       </c>
       <c r="B340" t="n">
-        <v>11926.77876925261</v>
+        <v>11926.77876925262</v>
       </c>
     </row>
     <row r="341">
@@ -3171,7 +3171,7 @@
         <v>1941</v>
       </c>
       <c r="B343" t="n">
-        <v>12504.97548019666</v>
+        <v>12504.97548019667</v>
       </c>
     </row>
     <row r="344">
@@ -3179,7 +3179,7 @@
         <v>1942</v>
       </c>
       <c r="B344" t="n">
-        <v>12701.10619833373</v>
+        <v>12701.10619833371</v>
       </c>
     </row>
     <row r="345">
@@ -3203,7 +3203,7 @@
         <v>1945</v>
       </c>
       <c r="B347" t="n">
-        <v>13298.63905953864</v>
+        <v>13298.63905953865</v>
       </c>
     </row>
     <row r="348">
@@ -3227,7 +3227,7 @@
         <v>1948</v>
       </c>
       <c r="B350" t="n">
-        <v>13908.06848244016</v>
+        <v>13908.06848244015</v>
       </c>
     </row>
     <row r="351">
@@ -3243,7 +3243,7 @@
         <v>1950</v>
       </c>
       <c r="B352" t="n">
-        <v>14319.67864391295</v>
+        <v>14319.67864391294</v>
       </c>
     </row>
     <row r="353">
@@ -3251,7 +3251,7 @@
         <v>1951</v>
       </c>
       <c r="B353" t="n">
-        <v>14526.76195235823</v>
+        <v>14526.76195235824</v>
       </c>
     </row>
     <row r="354">
@@ -3259,7 +3259,7 @@
         <v>1952</v>
       </c>
       <c r="B354" t="n">
-        <v>14734.54557214521</v>
+        <v>14734.54557214519</v>
       </c>
     </row>
     <row r="355">
@@ -3275,7 +3275,7 @@
         <v>1954</v>
       </c>
       <c r="B356" t="n">
-        <v>15151.73299270214</v>
+        <v>15151.73299270215</v>
       </c>
     </row>
     <row r="357">
@@ -3283,7 +3283,7 @@
         <v>1955</v>
       </c>
       <c r="B357" t="n">
-        <v>15360.88621489061</v>
+        <v>15360.8862148906</v>
       </c>
     </row>
     <row r="358">
@@ -3299,7 +3299,7 @@
         <v>1957</v>
       </c>
       <c r="B359" t="n">
-        <v>15779.65578280738</v>
+        <v>15779.65578280739</v>
       </c>
     </row>
     <row r="360">
@@ -3315,7 +3315,7 @@
         <v>1959</v>
       </c>
       <c r="B361" t="n">
-        <v>16198.1249417172</v>
+        <v>16198.12494171719</v>
       </c>
     </row>
     <row r="362">
@@ -3323,7 +3323,7 @@
         <v>1960</v>
       </c>
       <c r="B362" t="n">
-        <v>16406.8896242612</v>
+        <v>16406.88962426119</v>
       </c>
     </row>
     <row r="363">
@@ -3339,7 +3339,7 @@
         <v>1962</v>
       </c>
       <c r="B364" t="n">
-        <v>16822.73676818799</v>
+        <v>16822.73676818801</v>
       </c>
     </row>
     <row r="365">
@@ -3347,7 +3347,7 @@
         <v>1963</v>
       </c>
       <c r="B365" t="n">
-        <v>17029.51362208925</v>
+        <v>17029.51362208924</v>
       </c>
     </row>
     <row r="366">
@@ -3355,7 +3355,7 @@
         <v>1964</v>
       </c>
       <c r="B366" t="n">
-        <v>17235.31796648458</v>
+        <v>17235.31796648457</v>
       </c>
     </row>
     <row r="367">
@@ -3363,7 +3363,7 @@
         <v>1965</v>
       </c>
       <c r="B367" t="n">
-        <v>17439.99090994366</v>
+        <v>17439.99090994367</v>
       </c>
     </row>
     <row r="368">
@@ -3395,7 +3395,7 @@
         <v>1969</v>
       </c>
       <c r="B371" t="n">
-        <v>18244.12655254082</v>
+        <v>18244.12655254081</v>
       </c>
     </row>
     <row r="372">
@@ -3403,7 +3403,7 @@
         <v>1970</v>
       </c>
       <c r="B372" t="n">
-        <v>18440.69864875552</v>
+        <v>18440.69864875551</v>
       </c>
     </row>
     <row r="373">
@@ -3419,7 +3419,7 @@
         <v>1972</v>
       </c>
       <c r="B374" t="n">
-        <v>18827.32446822237</v>
+        <v>18827.32446822236</v>
       </c>
     </row>
     <row r="375">
@@ -3427,7 +3427,7 @@
         <v>1973</v>
       </c>
       <c r="B375" t="n">
-        <v>19017.04424010005</v>
+        <v>19017.04424010006</v>
       </c>
     </row>
     <row r="376">
@@ -3451,7 +3451,7 @@
         <v>1976</v>
       </c>
       <c r="B378" t="n">
-        <v>19569.83504928209</v>
+        <v>19569.83504928208</v>
       </c>
     </row>
     <row r="379">
@@ -3459,7 +3459,7 @@
         <v>1977</v>
       </c>
       <c r="B379" t="n">
-        <v>19748.09327133659</v>
+        <v>19748.09327133658</v>
       </c>
     </row>
     <row r="380">
@@ -3467,7 +3467,7 @@
         <v>1978</v>
       </c>
       <c r="B380" t="n">
-        <v>19923.07776626085</v>
+        <v>19923.07776626086</v>
       </c>
     </row>
     <row r="381">
@@ -3475,7 +3475,7 @@
         <v>1979</v>
       </c>
       <c r="B381" t="n">
-        <v>20094.62875766508</v>
+        <v>20094.62875766507</v>
       </c>
     </row>
     <row r="382">
@@ -3515,7 +3515,7 @@
         <v>1984</v>
       </c>
       <c r="B386" t="n">
-        <v>20895.47307971387</v>
+        <v>20895.47307971388</v>
       </c>
     </row>
     <row r="387">
@@ -3523,7 +3523,7 @@
         <v>1985</v>
       </c>
       <c r="B387" t="n">
-        <v>21043.22324405227</v>
+        <v>21043.22324405226</v>
       </c>
     </row>
     <row r="388">
@@ -3531,7 +3531,7 @@
         <v>1986</v>
       </c>
       <c r="B388" t="n">
-        <v>21186.50599416928</v>
+        <v>21186.50599416929</v>
       </c>
     </row>
     <row r="389">
@@ -3539,7 +3539,7 @@
         <v>1987</v>
       </c>
       <c r="B389" t="n">
-        <v>21325.1894952638</v>
+        <v>21325.18949526378</v>
       </c>
     </row>
     <row r="390">
@@ -3547,7 +3547,7 @@
         <v>1988</v>
       </c>
       <c r="B390" t="n">
-        <v>21459.1467675798</v>
+        <v>21459.14676757983</v>
       </c>
     </row>
     <row r="391">
@@ -3555,7 +3555,7 @@
         <v>1989</v>
       </c>
       <c r="B391" t="n">
-        <v>21588.25595623847</v>
+        <v>21588.25595623846</v>
       </c>
     </row>
     <row r="392">
@@ -3571,7 +3571,7 @@
         <v>1991</v>
       </c>
       <c r="B393" t="n">
-        <v>21831.46981514695</v>
+        <v>21831.46981514696</v>
       </c>
     </row>
     <row r="394">
@@ -3579,7 +3579,7 @@
         <v>1992</v>
       </c>
       <c r="B394" t="n">
-        <v>21945.35864200455</v>
+        <v>21945.35864200454</v>
       </c>
     </row>
     <row r="395">
@@ -3595,7 +3595,7 @@
         <v>1994</v>
       </c>
       <c r="B396" t="n">
-        <v>22157.20563893936</v>
+        <v>22157.20563893935</v>
       </c>
     </row>
     <row r="397">
@@ -3603,7 +3603,7 @@
         <v>1995</v>
       </c>
       <c r="B397" t="n">
-        <v>22254.98491412383</v>
+        <v>22254.98491412382</v>
       </c>
     </row>
     <row r="398">
@@ -3611,7 +3611,7 @@
         <v>1996</v>
       </c>
       <c r="B398" t="n">
-        <v>22347.22633958183</v>
+        <v>22347.22633958184</v>
       </c>
     </row>
     <row r="399">
@@ -3619,7 +3619,7 @@
         <v>1997</v>
       </c>
       <c r="B399" t="n">
-        <v>22433.85703499137</v>
+        <v>22433.85703499136</v>
       </c>
     </row>
     <row r="400">
@@ -3635,7 +3635,7 @@
         <v>1999</v>
       </c>
       <c r="B401" t="n">
-        <v>22590.02916462959</v>
+        <v>22590.0291646296</v>
       </c>
     </row>
     <row r="402">
@@ -3659,7 +3659,7 @@
         <v>2002</v>
       </c>
       <c r="B404" t="n">
-        <v>22780.78492534695</v>
+        <v>22780.78492534694</v>
       </c>
     </row>
     <row r="405">
@@ -3683,7 +3683,7 @@
         <v>2005</v>
       </c>
       <c r="B407" t="n">
-        <v>22918.47704082112</v>
+        <v>22918.47704082109</v>
       </c>
     </row>
     <row r="408">
@@ -3691,7 +3691,7 @@
         <v>2006</v>
       </c>
       <c r="B408" t="n">
-        <v>22952.49064301148</v>
+        <v>22952.4906430115</v>
       </c>
     </row>
     <row r="409">
@@ -3699,7 +3699,7 @@
         <v>2007</v>
       </c>
       <c r="B409" t="n">
-        <v>22980.55343298443</v>
+        <v>22980.55343298442</v>
       </c>
     </row>
     <row r="410">
@@ -3707,7 +3707,7 @@
         <v>2008</v>
       </c>
       <c r="B410" t="n">
-        <v>23002.6706659736</v>
+        <v>23002.67066597359</v>
       </c>
     </row>
     <row r="411">
@@ -3715,7 +3715,7 @@
         <v>2009</v>
       </c>
       <c r="B411" t="n">
-        <v>23018.8545609114</v>
+        <v>23018.85456091142</v>
       </c>
     </row>
     <row r="412">
@@ -3723,7 +3723,7 @@
         <v>2010</v>
       </c>
       <c r="B412" t="n">
-        <v>23029.12419832209</v>
+        <v>23029.12419832205</v>
       </c>
     </row>
     <row r="413">
@@ -3731,7 +3731,7 @@
         <v>2011</v>
       </c>
       <c r="B413" t="n">
-        <v>23033.50540186867</v>
+        <v>23033.50540186868</v>
       </c>
     </row>
     <row r="414">
@@ -3739,7 +3739,7 @@
         <v>2012</v>
       </c>
       <c r="B414" t="n">
-        <v>23032.03060419433</v>
+        <v>23032.03060419434</v>
       </c>
     </row>
     <row r="415">
@@ -3747,7 +3747,7 @@
         <v>2013</v>
       </c>
       <c r="B415" t="n">
-        <v>23024.73869787992</v>
+        <v>23024.73869787991</v>
       </c>
     </row>
     <row r="416">
@@ -3755,7 +3755,7 @@
         <v>2014</v>
       </c>
       <c r="B416" t="n">
-        <v>23011.67487232645</v>
+        <v>23011.67487232646</v>
       </c>
     </row>
     <row r="417">
@@ -3763,7 +3763,7 @@
         <v>2015</v>
       </c>
       <c r="B417" t="n">
-        <v>22992.89043744038</v>
+        <v>22992.89043744036</v>
       </c>
     </row>
     <row r="418">
@@ -3787,7 +3787,7 @@
         <v>2018</v>
       </c>
       <c r="B420" t="n">
-        <v>22902.81434368179</v>
+        <v>22902.8143436818</v>
       </c>
     </row>
     <row r="421">
@@ -3795,7 +3795,7 @@
         <v>2019</v>
       </c>
       <c r="B421" t="n">
-        <v>22861.776146869</v>
+        <v>22861.77614686899</v>
       </c>
     </row>
     <row r="422">
@@ -3803,7 +3803,7 @@
         <v>2020</v>
       </c>
       <c r="B422" t="n">
-        <v>22815.35871860306</v>
+        <v>22815.35871860307</v>
       </c>
     </row>
     <row r="423">
@@ -3811,7 +3811,7 @@
         <v>2021</v>
       </c>
       <c r="B423" t="n">
-        <v>22763.64576706125</v>
+        <v>22763.64576706124</v>
       </c>
     </row>
     <row r="424">
@@ -3819,7 +3819,7 @@
         <v>2022</v>
       </c>
       <c r="B424" t="n">
-        <v>22706.7255961413</v>
+        <v>22706.72559614127</v>
       </c>
     </row>
     <row r="425">
@@ -3827,7 +3827,7 @@
         <v>2023</v>
       </c>
       <c r="B425" t="n">
-        <v>22644.69085798397</v>
+        <v>22644.690857984</v>
       </c>
     </row>
     <row r="426">
@@ -3835,7 +3835,7 @@
         <v>2024</v>
       </c>
       <c r="B426" t="n">
-        <v>22577.63830100782</v>
+        <v>22577.63830100781</v>
       </c>
     </row>
     <row r="427">
@@ -3843,7 +3843,7 @@
         <v>2025</v>
       </c>
       <c r="B427" t="n">
-        <v>22505.66851450764</v>
+        <v>22505.66851450766</v>
       </c>
     </row>
     <row r="428">
@@ -3851,7 +3851,7 @@
         <v>2026</v>
       </c>
       <c r="B428" t="n">
-        <v>22428.88567075023</v>
+        <v>22428.88567075021</v>
       </c>
     </row>
     <row r="429">
@@ -3859,7 +3859,7 @@
         <v>2027</v>
       </c>
       <c r="B429" t="n">
-        <v>22347.39726546531</v>
+        <v>22347.3972654653</v>
       </c>
     </row>
     <row r="430">
@@ -3867,7 +3867,7 @@
         <v>2028</v>
       </c>
       <c r="B430" t="n">
-        <v>22261.31385768696</v>
+        <v>22261.31385768699</v>
       </c>
     </row>
     <row r="431">
@@ -3875,7 +3875,7 @@
         <v>2029</v>
       </c>
       <c r="B431" t="n">
-        <v>22170.74880978533</v>
+        <v>22170.74880978534</v>
       </c>
     </row>
     <row r="432">
@@ -3883,7 +3883,7 @@
         <v>2030</v>
       </c>
       <c r="B432" t="n">
-        <v>22075.81802851781</v>
+        <v>22075.81802851778</v>
       </c>
     </row>
     <row r="433">
@@ -3899,7 +3899,7 @@
         <v>2032</v>
       </c>
       <c r="B434" t="n">
-        <v>21873.33407489151</v>
+        <v>21873.33407489152</v>
       </c>
     </row>
     <row r="435">
@@ -3907,7 +3907,7 @@
         <v>2033</v>
       </c>
       <c r="B435" t="n">
-        <v>21766.02313780467</v>
+        <v>21766.02313780465</v>
       </c>
     </row>
     <row r="436">
@@ -3923,7 +3923,7 @@
         <v>2035</v>
       </c>
       <c r="B437" t="n">
-        <v>21539.88081455325</v>
+        <v>21539.88081455326</v>
       </c>
     </row>
     <row r="438">
@@ -3931,7 +3931,7 @@
         <v>2036</v>
       </c>
       <c r="B438" t="n">
-        <v>21421.30015198784</v>
+        <v>21421.30015198782</v>
       </c>
     </row>
     <row r="439">
@@ -3939,7 +3939,7 @@
         <v>2037</v>
       </c>
       <c r="B439" t="n">
-        <v>21299.21516352593</v>
+        <v>21299.21516352595</v>
       </c>
     </row>
     <row r="440">
@@ -3971,7 +3971,7 @@
         <v>2041</v>
       </c>
       <c r="B443" t="n">
-        <v>20778.38254563107</v>
+        <v>20778.38254563109</v>
       </c>
     </row>
     <row r="444">
@@ -3979,7 +3979,7 @@
         <v>2042</v>
       </c>
       <c r="B444" t="n">
-        <v>20640.69000184951</v>
+        <v>20640.69000184953</v>
       </c>
     </row>
     <row r="445">
@@ -3987,7 +3987,7 @@
         <v>2043</v>
       </c>
       <c r="B445" t="n">
-        <v>20500.25854211266</v>
+        <v>20500.25854211263</v>
       </c>
     </row>
     <row r="446">
@@ -3995,7 +3995,7 @@
         <v>2044</v>
       </c>
       <c r="B446" t="n">
-        <v>20357.21472285339</v>
+        <v>20357.2147228534</v>
       </c>
     </row>
     <row r="447">
@@ -4003,7 +4003,7 @@
         <v>2045</v>
       </c>
       <c r="B447" t="n">
-        <v>20211.68432502237</v>
+        <v>20211.68432502238</v>
       </c>
     </row>
     <row r="448">
@@ -4019,7 +4019,7 @@
         <v>2047</v>
       </c>
       <c r="B449" t="n">
-        <v>19913.66206647176</v>
+        <v>19913.66206647177</v>
       </c>
     </row>
     <row r="450">
@@ -4027,7 +4027,7 @@
         <v>2048</v>
       </c>
       <c r="B450" t="n">
-        <v>19761.41645994373</v>
+        <v>19761.41645994372</v>
       </c>
     </row>
     <row r="451">
@@ -4035,7 +4035,7 @@
         <v>2049</v>
       </c>
       <c r="B451" t="n">
-        <v>19607.17649881798</v>
+        <v>19607.17649881794</v>
       </c>
     </row>
     <row r="452">
@@ -4043,7 +4043,7 @@
         <v>2050</v>
       </c>
       <c r="B452" t="n">
-        <v>19451.06180315996</v>
+        <v>19451.06180315998</v>
       </c>
     </row>
   </sheetData>

--- a/Data/model_outputs_baseline/number_of_dwellings/s_delta_total.xlsx
+++ b/Data/model_outputs_baseline/number_of_dwellings/s_delta_total.xlsx
@@ -451,7 +451,7 @@
         <v>1601</v>
       </c>
       <c r="B3" t="n">
-        <v>86.01224443895705</v>
+        <v>86.0122444389541</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>1602</v>
       </c>
       <c r="B4" t="n">
-        <v>87.24817320451608</v>
+        <v>87.24817320450938</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>1603</v>
       </c>
       <c r="B5" t="n">
-        <v>88.50174149124793</v>
+        <v>88.50174149125228</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>1604</v>
       </c>
       <c r="B6" t="n">
-        <v>89.77319772958627</v>
+        <v>89.77319772960104</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>1605</v>
       </c>
       <c r="B7" t="n">
-        <v>91.06279375981103</v>
+        <v>91.06279375979248</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>1606</v>
       </c>
       <c r="B8" t="n">
-        <v>92.37078487637784</v>
+        <v>92.37078487636919</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>1607</v>
       </c>
       <c r="B9" t="n">
-        <v>93.69742987279957</v>
+        <v>93.69742987281522</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>1608</v>
       </c>
       <c r="B10" t="n">
-        <v>95.04299108782317</v>
+        <v>95.04299108784809</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>1609</v>
       </c>
       <c r="B11" t="n">
-        <v>96.40773445099015</v>
+        <v>96.40773445096573</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>1610</v>
       </c>
       <c r="B12" t="n">
-        <v>97.79192952941595</v>
+        <v>97.79192952941496</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>1611</v>
       </c>
       <c r="B13" t="n">
-        <v>99.19584957547833</v>
+        <v>99.19584957547104</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>1612</v>
       </c>
       <c r="B14" t="n">
-        <v>100.6197715739581</v>
+        <v>100.6197715739875</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>1613</v>
       </c>
       <c r="B15" t="n">
-        <v>102.0639762910211</v>
+        <v>102.0639762910143</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>1614</v>
       </c>
       <c r="B16" t="n">
-        <v>103.5287483225822</v>
+        <v>103.5287483225679</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>1615</v>
       </c>
       <c r="B17" t="n">
-        <v>105.014376144268</v>
+        <v>105.0143761442747</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>1616</v>
       </c>
       <c r="B18" t="n">
-        <v>106.5211521613219</v>
+        <v>106.52115216132</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>1617</v>
       </c>
       <c r="B19" t="n">
-        <v>108.0493727590915</v>
+        <v>108.0493727590804</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>1618</v>
       </c>
       <c r="B20" t="n">
-        <v>109.5993383547433</v>
+        <v>109.5993383547663</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>1619</v>
       </c>
       <c r="B21" t="n">
-        <v>111.1713534486108</v>
+        <v>111.17135344858</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>1620</v>
       </c>
       <c r="B22" t="n">
-        <v>112.7657266770646</v>
+        <v>112.765726677081</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>1621</v>
       </c>
       <c r="B23" t="n">
-        <v>114.382770865433</v>
+        <v>114.3827708654236</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>1622</v>
       </c>
       <c r="B24" t="n">
-        <v>116.0228030815493</v>
+        <v>116.0228030815422</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>1623</v>
       </c>
       <c r="B25" t="n">
-        <v>117.6861446904504</v>
+        <v>117.6861446904742</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>1624</v>
       </c>
       <c r="B26" t="n">
-        <v>119.3731214089974</v>
+        <v>119.3731214089641</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>1625</v>
       </c>
       <c r="B27" t="n">
-        <v>121.0840633615736</v>
+        <v>121.0840633615845</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>1626</v>
       </c>
       <c r="B28" t="n">
-        <v>122.8193051364281</v>
+        <v>122.8193051364239</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>1627</v>
       </c>
       <c r="B29" t="n">
-        <v>124.5791858423432</v>
+        <v>124.5791858423668</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>1628</v>
       </c>
       <c r="B30" t="n">
-        <v>126.3640491664259</v>
+        <v>126.3640491664183</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>1629</v>
       </c>
       <c r="B31" t="n">
-        <v>128.1742434321444</v>
+        <v>128.174243432163</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>1630</v>
       </c>
       <c r="B32" t="n">
-        <v>130.0101216582848</v>
+        <v>130.0101216582705</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>1631</v>
       </c>
       <c r="B33" t="n">
-        <v>131.872041618543</v>
+        <v>131.8720416185239</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>1632</v>
       </c>
       <c r="B34" t="n">
-        <v>133.7603659016291</v>
+        <v>133.7603659016334</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>1633</v>
       </c>
       <c r="B35" t="n">
-        <v>135.6754619725178</v>
+        <v>135.6754619725297</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>1634</v>
       </c>
       <c r="B36" t="n">
-        <v>137.6177022337745</v>
+        <v>137.617702233764</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>1635</v>
       </c>
       <c r="B37" t="n">
-        <v>139.5874640882404</v>
+        <v>139.5874640882212</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>1636</v>
       </c>
       <c r="B38" t="n">
-        <v>141.5851300017661</v>
+        <v>141.5851300017804</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>1637</v>
       </c>
       <c r="B39" t="n">
-        <v>143.6110875673202</v>
+        <v>143.6110875673231</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>1638</v>
       </c>
       <c r="B40" t="n">
-        <v>145.6657295694459</v>
+        <v>145.6657295694944</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>1639</v>
       </c>
       <c r="B41" t="n">
-        <v>147.7494540496943</v>
+        <v>147.7494540496711</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>1640</v>
       </c>
       <c r="B42" t="n">
-        <v>149.862664372209</v>
+        <v>149.8626643722</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>1641</v>
       </c>
       <c r="B43" t="n">
-        <v>152.0057692912704</v>
+        <v>152.0057692912448</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>1642</v>
       </c>
       <c r="B44" t="n">
-        <v>154.1791830182839</v>
+        <v>154.1791830182988</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>1643</v>
       </c>
       <c r="B45" t="n">
-        <v>156.3833252905061</v>
+        <v>156.38332529056</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>1644</v>
       </c>
       <c r="B46" t="n">
-        <v>158.618621440215</v>
+        <v>158.618621440161</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>1645</v>
       </c>
       <c r="B47" t="n">
-        <v>160.8855024642753</v>
+        <v>160.8855024642861</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>1646</v>
       </c>
       <c r="B48" t="n">
-        <v>163.1844050956324</v>
+        <v>163.1844050956489</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>1647</v>
       </c>
       <c r="B49" t="n">
-        <v>165.5157718744226</v>
+        <v>165.5157718743991</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>1648</v>
       </c>
       <c r="B50" t="n">
-        <v>167.8800512204986</v>
+        <v>167.8800512204918</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>1649</v>
       </c>
       <c r="B51" t="n">
-        <v>170.2776975069374</v>
+        <v>170.2776975069308</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>1650</v>
       </c>
       <c r="B52" t="n">
-        <v>172.709171134157</v>
+        <v>172.7091711341488</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>1651</v>
       </c>
       <c r="B53" t="n">
-        <v>175.1749386049032</v>
+        <v>175.1749386049213</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>1652</v>
       </c>
       <c r="B54" t="n">
-        <v>177.6754726000959</v>
+        <v>177.6754726000938</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>1653</v>
       </c>
       <c r="B55" t="n">
-        <v>180.2112520559872</v>
+        <v>180.2112520560076</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>1654</v>
       </c>
       <c r="B56" t="n">
-        <v>182.7827622416972</v>
+        <v>182.7827622416938</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>1655</v>
       </c>
       <c r="B57" t="n">
-        <v>185.3904948376686</v>
+        <v>185.3904948376544</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>1656</v>
       </c>
       <c r="B58" t="n">
-        <v>188.0349480159432</v>
+        <v>188.0349480159739</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>1657</v>
       </c>
       <c r="B59" t="n">
-        <v>190.7166265201869</v>
+        <v>190.7166265201591</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>1658</v>
       </c>
       <c r="B60" t="n">
-        <v>193.4360417473821</v>
+        <v>193.4360417474093</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>1659</v>
       </c>
       <c r="B61" t="n">
-        <v>196.1937118305246</v>
+        <v>196.1937118305326</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>1660</v>
       </c>
       <c r="B62" t="n">
-        <v>198.990161722131</v>
+        <v>198.9901617220879</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>1661</v>
       </c>
       <c r="B63" t="n">
-        <v>201.8259232785783</v>
+        <v>201.8259232785984</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>1662</v>
       </c>
       <c r="B64" t="n">
-        <v>204.7015353464136</v>
+        <v>204.7015353463927</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>1663</v>
       </c>
       <c r="B65" t="n">
-        <v>207.6175438479938</v>
+        <v>207.6175438479876</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>1664</v>
       </c>
       <c r="B66" t="n">
-        <v>210.57450187041</v>
+        <v>210.5745018704742</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>1665</v>
       </c>
       <c r="B67" t="n">
-        <v>213.5729697535936</v>
+        <v>213.5729697535947</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>1666</v>
       </c>
       <c r="B68" t="n">
-        <v>216.6135151804704</v>
+        <v>216.6135151804352</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>1667</v>
       </c>
       <c r="B69" t="n">
-        <v>219.6967132683076</v>
+        <v>219.6967132683061</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>1668</v>
       </c>
       <c r="B70" t="n">
-        <v>222.8231466610509</v>
+        <v>222.8231466610511</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>1669</v>
       </c>
       <c r="B71" t="n">
-        <v>225.9934056224999</v>
+        <v>225.9934056224558</v>
       </c>
     </row>
     <row r="72">
@@ -1003,7 +1003,7 @@
         <v>1670</v>
       </c>
       <c r="B72" t="n">
-        <v>229.2080881314882</v>
+        <v>229.2080881315129</v>
       </c>
     </row>
     <row r="73">
@@ -1011,7 +1011,7 @@
         <v>1671</v>
       </c>
       <c r="B73" t="n">
-        <v>232.467799977555</v>
+        <v>232.467799977573</v>
       </c>
     </row>
     <row r="74">
@@ -1019,7 +1019,7 @@
         <v>1672</v>
       </c>
       <c r="B74" t="n">
-        <v>235.7731548582466</v>
+        <v>235.7731548582409</v>
       </c>
     </row>
     <row r="75">
@@ -1027,7 +1027,7 @@
         <v>1673</v>
       </c>
       <c r="B75" t="n">
-        <v>239.1247744778737</v>
+        <v>239.1247744778846</v>
       </c>
     </row>
     <row r="76">
@@ -1035,7 +1035,7 @@
         <v>1674</v>
       </c>
       <c r="B76" t="n">
-        <v>242.5232886471391</v>
+        <v>242.5232886471207</v>
       </c>
     </row>
     <row r="77">
@@ -1043,7 +1043,7 @@
         <v>1675</v>
       </c>
       <c r="B77" t="n">
-        <v>245.9693353844464</v>
+        <v>245.9693353844526</v>
       </c>
     </row>
     <row r="78">
@@ -1051,7 +1051,7 @@
         <v>1676</v>
       </c>
       <c r="B78" t="n">
-        <v>249.4635610187672</v>
+        <v>249.4635610187816</v>
       </c>
     </row>
     <row r="79">
@@ -1059,7 +1059,7 @@
         <v>1677</v>
       </c>
       <c r="B79" t="n">
-        <v>253.0066202932585</v>
+        <v>253.0066202932626</v>
       </c>
     </row>
     <row r="80">
@@ -1067,7 +1067,7 @@
         <v>1678</v>
       </c>
       <c r="B80" t="n">
-        <v>256.599176471324</v>
+        <v>256.5991764713004</v>
       </c>
     </row>
     <row r="81">
@@ -1075,7 +1075,7 @@
         <v>1679</v>
       </c>
       <c r="B81" t="n">
-        <v>260.2419014431254</v>
+        <v>260.2419014431438</v>
       </c>
     </row>
     <row r="82">
@@ -1083,7 +1083,7 @@
         <v>1680</v>
       </c>
       <c r="B82" t="n">
-        <v>263.9354758345281</v>
+        <v>263.9354758345118</v>
       </c>
     </row>
     <row r="83">
@@ -1091,7 +1091,7 @@
         <v>1681</v>
       </c>
       <c r="B83" t="n">
-        <v>267.6805891169172</v>
+        <v>267.6805891169075</v>
       </c>
     </row>
     <row r="84">
@@ -1099,7 +1099,7 @@
         <v>1682</v>
       </c>
       <c r="B84" t="n">
-        <v>271.4779397191788</v>
+        <v>271.4779397191721</v>
       </c>
     </row>
     <row r="85">
@@ -1107,7 +1107,7 @@
         <v>1683</v>
       </c>
       <c r="B85" t="n">
-        <v>275.3282351408969</v>
+        <v>275.3282351409177</v>
       </c>
     </row>
     <row r="86">
@@ -1115,7 +1115,7 @@
         <v>1684</v>
       </c>
       <c r="B86" t="n">
-        <v>279.2321920678738</v>
+        <v>279.2321920678325</v>
       </c>
     </row>
     <row r="87">
@@ -1123,7 +1123,7 @@
         <v>1685</v>
       </c>
       <c r="B87" t="n">
-        <v>283.1905364882594</v>
+        <v>283.1905364882977</v>
       </c>
     </row>
     <row r="88">
@@ -1131,7 +1131,7 @@
         <v>1686</v>
       </c>
       <c r="B88" t="n">
-        <v>287.2040038117425</v>
+        <v>287.2040038116963</v>
       </c>
     </row>
     <row r="89">
@@ -1139,7 +1139,7 @@
         <v>1687</v>
       </c>
       <c r="B89" t="n">
-        <v>291.2733389901924</v>
+        <v>291.2733389902338</v>
       </c>
     </row>
     <row r="90">
@@ -1147,7 +1147,7 @@
         <v>1688</v>
       </c>
       <c r="B90" t="n">
-        <v>295.3992966394111</v>
+        <v>295.39929663939</v>
       </c>
     </row>
     <row r="91">
@@ -1155,7 +1155,7 @@
         <v>1689</v>
       </c>
       <c r="B91" t="n">
-        <v>299.5826411640084</v>
+        <v>299.582641164024</v>
       </c>
     </row>
     <row r="92">
@@ -1163,7 +1163,7 @@
         <v>1690</v>
       </c>
       <c r="B92" t="n">
-        <v>303.8241468837901</v>
+        <v>303.8241468838365</v>
       </c>
     </row>
     <row r="93">
@@ -1171,7 +1171,7 @@
         <v>1691</v>
       </c>
       <c r="B93" t="n">
-        <v>308.1245981618387</v>
+        <v>308.1245981617973</v>
       </c>
     </row>
     <row r="94">
@@ -1179,7 +1179,7 @@
         <v>1692</v>
       </c>
       <c r="B94" t="n">
-        <v>312.484789535307</v>
+        <v>312.4847895353481</v>
       </c>
     </row>
     <row r="95">
@@ -1187,7 +1187,7 @@
         <v>1693</v>
       </c>
       <c r="B95" t="n">
-        <v>316.905525848527</v>
+        <v>316.9055258485235</v>
       </c>
     </row>
     <row r="96">
@@ -1195,7 +1195,7 @@
         <v>1694</v>
       </c>
       <c r="B96" t="n">
-        <v>321.3876223874718</v>
+        <v>321.3876223874261</v>
       </c>
     </row>
     <row r="97">
@@ -1203,7 +1203,7 @@
         <v>1695</v>
       </c>
       <c r="B97" t="n">
-        <v>325.9319050176567</v>
+        <v>325.9319050176672</v>
       </c>
     </row>
     <row r="98">
@@ -1211,7 +1211,7 @@
         <v>1696</v>
       </c>
       <c r="B98" t="n">
-        <v>330.5392103237127</v>
+        <v>330.5392103236958</v>
       </c>
     </row>
     <row r="99">
@@ -1219,7 +1219,7 @@
         <v>1697</v>
       </c>
       <c r="B99" t="n">
-        <v>335.2103857519545</v>
+        <v>335.2103857519996</v>
       </c>
     </row>
     <row r="100">
@@ -1227,7 +1227,7 @@
         <v>1698</v>
       </c>
       <c r="B100" t="n">
-        <v>339.946289755244</v>
+        <v>339.9462897551947</v>
       </c>
     </row>
     <row r="101">
@@ -1235,7 +1235,7 @@
         <v>1699</v>
       </c>
       <c r="B101" t="n">
-        <v>344.7477919402526</v>
+        <v>344.7477919402498</v>
       </c>
     </row>
     <row r="102">
@@ -1243,7 +1243,7 @@
         <v>1700</v>
       </c>
       <c r="B102" t="n">
-        <v>349.6157732183365</v>
+        <v>349.6157732183765</v>
       </c>
     </row>
     <row r="103">
@@ -1251,7 +1251,7 @@
         <v>1701</v>
       </c>
       <c r="B103" t="n">
-        <v>354.5511259586458</v>
+        <v>354.5511259586292</v>
       </c>
     </row>
     <row r="104">
@@ -1259,7 +1259,7 @@
         <v>1702</v>
       </c>
       <c r="B104" t="n">
-        <v>359.5547541436752</v>
+        <v>359.5547541436779</v>
       </c>
     </row>
     <row r="105">
@@ -1267,7 +1267,7 @@
         <v>1703</v>
       </c>
       <c r="B105" t="n">
-        <v>364.6275735294037</v>
+        <v>364.6275735293988</v>
       </c>
     </row>
     <row r="106">
@@ -1275,7 +1275,7 @@
         <v>1704</v>
       </c>
       <c r="B106" t="n">
-        <v>369.7705118068794</v>
+        <v>369.7705118068778</v>
       </c>
     </row>
     <row r="107">
@@ -1283,7 +1283,7 @@
         <v>1705</v>
       </c>
       <c r="B107" t="n">
-        <v>374.98450876843</v>
+        <v>374.9845087684268</v>
       </c>
     </row>
     <row r="108">
@@ -1291,7 +1291,7 @@
         <v>1706</v>
       </c>
       <c r="B108" t="n">
-        <v>380.2705164762603</v>
+        <v>380.270516476266</v>
       </c>
     </row>
     <row r="109">
@@ -1299,7 +1299,7 @@
         <v>1707</v>
       </c>
       <c r="B109" t="n">
-        <v>385.6294994350657</v>
+        <v>385.6294994350738</v>
       </c>
     </row>
     <row r="110">
@@ -1307,7 +1307,7 @@
         <v>1708</v>
       </c>
       <c r="B110" t="n">
-        <v>391.0624347684754</v>
+        <v>391.0624347684757</v>
       </c>
     </row>
     <row r="111">
@@ -1315,7 +1315,7 @@
         <v>1709</v>
       </c>
       <c r="B111" t="n">
-        <v>396.5703123984892</v>
+        <v>396.5703123984912</v>
       </c>
     </row>
     <row r="112">
@@ -1323,7 +1323,7 @@
         <v>1710</v>
       </c>
       <c r="B112" t="n">
-        <v>402.154135229837</v>
+        <v>402.1541352298133</v>
       </c>
     </row>
     <row r="113">
@@ -1331,7 +1331,7 @@
         <v>1711</v>
       </c>
       <c r="B113" t="n">
-        <v>407.814919337285</v>
+        <v>407.8149193373108</v>
       </c>
     </row>
     <row r="114">
@@ -1339,7 +1339,7 @@
         <v>1712</v>
       </c>
       <c r="B114" t="n">
-        <v>413.5536941581043</v>
+        <v>413.5536941581032</v>
       </c>
     </row>
     <row r="115">
@@ -1347,7 +1347,7 @@
         <v>1713</v>
       </c>
       <c r="B115" t="n">
-        <v>419.371502688304</v>
+        <v>419.3715026882839</v>
       </c>
     </row>
     <row r="116">
@@ -1355,7 +1355,7 @@
         <v>1714</v>
       </c>
       <c r="B116" t="n">
-        <v>425.2694016835012</v>
+        <v>425.2694016835155</v>
       </c>
     </row>
     <row r="117">
@@ -1363,7 +1363,7 @@
         <v>1715</v>
       </c>
       <c r="B117" t="n">
-        <v>431.2484618645168</v>
+        <v>431.2484618645311</v>
       </c>
     </row>
     <row r="118">
@@ -1371,7 +1371,7 @@
         <v>1716</v>
       </c>
       <c r="B118" t="n">
-        <v>437.3097681280298</v>
+        <v>437.3097681280247</v>
       </c>
     </row>
     <row r="119">
@@ -1379,7 +1379,7 @@
         <v>1717</v>
       </c>
       <c r="B119" t="n">
-        <v>443.4544197617265</v>
+        <v>443.4544197617039</v>
       </c>
     </row>
     <row r="120">
@@ -1387,7 +1387,7 @@
         <v>1718</v>
       </c>
       <c r="B120" t="n">
-        <v>449.6835306652555</v>
+        <v>449.6835306652617</v>
       </c>
     </row>
     <row r="121">
@@ -1395,7 +1395,7 @@
         <v>1719</v>
       </c>
       <c r="B121" t="n">
-        <v>455.9982295762263</v>
+        <v>455.9982295762395</v>
       </c>
     </row>
     <row r="122">
@@ -1403,7 +1403,7 @@
         <v>1720</v>
       </c>
       <c r="B122" t="n">
-        <v>462.3996603021347</v>
+        <v>462.3996603021143</v>
       </c>
     </row>
     <row r="123">
@@ -1411,7 +1411,7 @@
         <v>1721</v>
       </c>
       <c r="B123" t="n">
-        <v>468.8889819579254</v>
+        <v>468.8889819579383</v>
       </c>
     </row>
     <row r="124">
@@ -1419,7 +1419,7 @@
         <v>1722</v>
       </c>
       <c r="B124" t="n">
-        <v>475.4673692097158</v>
+        <v>475.4673692097197</v>
       </c>
     </row>
     <row r="125">
@@ -1427,7 +1427,7 @@
         <v>1723</v>
       </c>
       <c r="B125" t="n">
-        <v>482.1360125247634</v>
+        <v>482.1360125247669</v>
       </c>
     </row>
     <row r="126">
@@ -1435,7 +1435,7 @@
         <v>1724</v>
       </c>
       <c r="B126" t="n">
-        <v>488.8961184282818</v>
+        <v>488.8961184282804</v>
       </c>
     </row>
     <row r="127">
@@ -1443,7 +1443,7 @@
         <v>1725</v>
       </c>
       <c r="B127" t="n">
-        <v>495.7489097665598</v>
+        <v>495.7489097665908</v>
       </c>
     </row>
     <row r="128">
@@ -1451,7 +1451,7 @@
         <v>1726</v>
       </c>
       <c r="B128" t="n">
-        <v>502.6956259778403</v>
+        <v>502.6956259777811</v>
       </c>
     </row>
     <row r="129">
@@ -1459,7 +1459,7 @@
         <v>1727</v>
       </c>
       <c r="B129" t="n">
-        <v>509.7375233696612</v>
+        <v>509.7375233697085</v>
       </c>
     </row>
     <row r="130">
@@ -1467,7 +1467,7 @@
         <v>1728</v>
       </c>
       <c r="B130" t="n">
-        <v>516.8758754051225</v>
+        <v>516.8758754051256</v>
       </c>
     </row>
     <row r="131">
@@ -1475,7 +1475,7 @@
         <v>1729</v>
       </c>
       <c r="B131" t="n">
-        <v>524.1119729954621</v>
+        <v>524.1119729954228</v>
       </c>
     </row>
     <row r="132">
@@ -1483,7 +1483,7 @@
         <v>1730</v>
       </c>
       <c r="B132" t="n">
-        <v>531.4471248023109</v>
+        <v>531.4471248023295</v>
       </c>
     </row>
     <row r="133">
@@ -1491,7 +1491,7 @@
         <v>1731</v>
       </c>
       <c r="B133" t="n">
-        <v>538.8826575481484</v>
+        <v>538.8826575481415</v>
       </c>
     </row>
     <row r="134">
@@ -1499,7 +1499,7 @@
         <v>1732</v>
       </c>
       <c r="B134" t="n">
-        <v>546.4199163346987</v>
+        <v>546.4199163347314</v>
       </c>
     </row>
     <row r="135">
@@ -1507,7 +1507,7 @@
         <v>1733</v>
       </c>
       <c r="B135" t="n">
-        <v>554.0602649726038</v>
+        <v>554.0602649725615</v>
       </c>
     </row>
     <row r="136">
@@ -1515,7 +1515,7 @@
         <v>1734</v>
       </c>
       <c r="B136" t="n">
-        <v>561.8050863183117</v>
+        <v>561.8050863183096</v>
       </c>
     </row>
     <row r="137">
@@ -1523,7 +1523,7 @@
         <v>1735</v>
       </c>
       <c r="B137" t="n">
-        <v>569.6557826229549</v>
+        <v>569.6557826229682</v>
       </c>
     </row>
     <row r="138">
@@ -1531,7 +1531,7 @@
         <v>1736</v>
       </c>
       <c r="B138" t="n">
-        <v>577.6137758908108</v>
+        <v>577.6137758908211</v>
       </c>
     </row>
     <row r="139">
@@ -1539,7 +1539,7 @@
         <v>1737</v>
       </c>
       <c r="B139" t="n">
-        <v>585.6805082482266</v>
+        <v>585.6805082482148</v>
       </c>
     </row>
     <row r="140">
@@ -1547,7 +1547,7 @@
         <v>1738</v>
       </c>
       <c r="B140" t="n">
-        <v>593.8574423245803</v>
+        <v>593.8574423245917</v>
       </c>
     </row>
     <row r="141">
@@ -1555,7 +1555,7 @@
         <v>1739</v>
       </c>
       <c r="B141" t="n">
-        <v>602.1460616444421</v>
+        <v>602.1460616444382</v>
       </c>
     </row>
     <row r="142">
@@ -1563,7 +1563,7 @@
         <v>1740</v>
       </c>
       <c r="B142" t="n">
-        <v>610.5478710316072</v>
+        <v>610.5478710316057</v>
       </c>
     </row>
     <row r="143">
@@ -1571,7 +1571,7 @@
         <v>1741</v>
       </c>
       <c r="B143" t="n">
-        <v>619.0643970266333</v>
+        <v>619.0643970266182</v>
       </c>
     </row>
     <row r="144">
@@ -1579,7 +1579,7 @@
         <v>1742</v>
       </c>
       <c r="B144" t="n">
-        <v>627.6971883162835</v>
+        <v>627.6971883163077</v>
       </c>
     </row>
     <row r="145">
@@ -1587,7 +1587,7 @@
         <v>1743</v>
       </c>
       <c r="B145" t="n">
-        <v>636.4478161778383</v>
+        <v>636.4478161778064</v>
       </c>
     </row>
     <row r="146">
@@ -1595,7 +1595,7 @@
         <v>1744</v>
       </c>
       <c r="B146" t="n">
-        <v>645.3178749361385</v>
+        <v>645.3178749361808</v>
       </c>
     </row>
     <row r="147">
@@ -1603,7 +1603,7 @@
         <v>1745</v>
       </c>
       <c r="B147" t="n">
-        <v>654.308982436953</v>
+        <v>654.3089824369406</v>
       </c>
     </row>
     <row r="148">
@@ -1611,7 +1611,7 @@
         <v>1746</v>
       </c>
       <c r="B148" t="n">
-        <v>663.4227805339088</v>
+        <v>663.4227805338905</v>
       </c>
     </row>
     <row r="149">
@@ -1619,7 +1619,7 @@
         <v>1747</v>
       </c>
       <c r="B149" t="n">
-        <v>672.6609355924063</v>
+        <v>672.6609355923839</v>
       </c>
     </row>
     <row r="150">
@@ -1627,7 +1627,7 @@
         <v>1748</v>
       </c>
       <c r="B150" t="n">
-        <v>682.0251390100434</v>
+        <v>682.0251390100271</v>
       </c>
     </row>
     <row r="151">
@@ -1635,7 +1635,7 @@
         <v>1749</v>
       </c>
       <c r="B151" t="n">
-        <v>691.5171077528415</v>
+        <v>691.5171077528865</v>
       </c>
     </row>
     <row r="152">
@@ -1643,7 +1643,7 @@
         <v>1750</v>
       </c>
       <c r="B152" t="n">
-        <v>701.1385849110603</v>
+        <v>701.1385849110792</v>
       </c>
     </row>
     <row r="153">
@@ -1651,7 +1651,7 @@
         <v>1751</v>
       </c>
       <c r="B153" t="n">
-        <v>710.8913402716105</v>
+        <v>710.8913402715896</v>
       </c>
     </row>
     <row r="154">
@@ -1659,7 +1659,7 @@
         <v>1752</v>
       </c>
       <c r="B154" t="n">
-        <v>720.7771709111731</v>
+        <v>720.777170911192</v>
       </c>
     </row>
     <row r="155">
@@ -1667,7 +1667,7 @@
         <v>1753</v>
       </c>
       <c r="B155" t="n">
-        <v>730.7979018081433</v>
+        <v>730.7979018080952</v>
       </c>
     </row>
     <row r="156">
@@ -1675,7 +1675,7 @@
         <v>1754</v>
       </c>
       <c r="B156" t="n">
-        <v>740.9553864750436</v>
+        <v>740.95538647508</v>
       </c>
     </row>
     <row r="157">
@@ -1683,7 +1683,7 @@
         <v>1755</v>
       </c>
       <c r="B157" t="n">
-        <v>751.2515076137772</v>
+        <v>751.2515076137514</v>
       </c>
     </row>
     <row r="158">
@@ -1691,7 +1691,7 @@
         <v>1756</v>
       </c>
       <c r="B158" t="n">
-        <v>761.6881777908312</v>
+        <v>761.6881777908836</v>
       </c>
     </row>
     <row r="159">
@@ -1699,7 +1699,7 @@
         <v>1757</v>
       </c>
       <c r="B159" t="n">
-        <v>772.267340137633</v>
+        <v>772.2673401375731</v>
       </c>
     </row>
     <row r="160">
@@ -1707,7 +1707,7 @@
         <v>1758</v>
       </c>
       <c r="B160" t="n">
-        <v>782.990969073241</v>
+        <v>782.9909690732767</v>
       </c>
     </row>
     <row r="161">
@@ -1715,7 +1715,7 @@
         <v>1759</v>
       </c>
       <c r="B161" t="n">
-        <v>793.8610710525952</v>
+        <v>793.8610710525888</v>
       </c>
     </row>
     <row r="162">
@@ -1723,7 +1723,7 @@
         <v>1760</v>
       </c>
       <c r="B162" t="n">
-        <v>804.8796853401466</v>
+        <v>804.8796853401273</v>
       </c>
     </row>
     <row r="163">
@@ -1731,7 +1731,7 @@
         <v>1761</v>
       </c>
       <c r="B163" t="n">
-        <v>816.0488848100343</v>
+        <v>816.0488848100566</v>
       </c>
     </row>
     <row r="164">
@@ -1739,7 +1739,7 @@
         <v>1762</v>
       </c>
       <c r="B164" t="n">
-        <v>827.3707767744251</v>
+        <v>827.370776774413</v>
       </c>
     </row>
     <row r="165">
@@ -1747,7 +1747,7 @@
         <v>1763</v>
       </c>
       <c r="B165" t="n">
-        <v>838.8475038392181</v>
+        <v>838.8475038392086</v>
       </c>
     </row>
     <row r="166">
@@ -1755,7 +1755,7 @@
         <v>1764</v>
       </c>
       <c r="B166" t="n">
-        <v>850.4812447905196</v>
+        <v>850.4812447905202</v>
       </c>
     </row>
     <row r="167">
@@ -1763,7 +1763,7 @@
         <v>1765</v>
       </c>
       <c r="B167" t="n">
-        <v>862.2742155116088</v>
+        <v>862.2742155116327</v>
       </c>
     </row>
     <row r="168">
@@ -1771,7 +1771,7 @@
         <v>1766</v>
       </c>
       <c r="B168" t="n">
-        <v>874.2286699311392</v>
+        <v>874.2286699311184</v>
       </c>
     </row>
     <row r="169">
@@ -1779,7 +1779,7 @@
         <v>1767</v>
       </c>
       <c r="B169" t="n">
-        <v>886.3469010044984</v>
+        <v>886.3469010045073</v>
       </c>
     </row>
     <row r="170">
@@ -1787,7 +1787,7 @@
         <v>1768</v>
       </c>
       <c r="B170" t="n">
-        <v>898.6312417297139</v>
+        <v>898.6312417297373</v>
       </c>
     </row>
     <row r="171">
@@ -1795,7 +1795,7 @@
         <v>1769</v>
       </c>
       <c r="B171" t="n">
-        <v>911.0840661979422</v>
+        <v>911.0840661979322</v>
       </c>
     </row>
     <row r="172">
@@ -1803,7 +1803,7 @@
         <v>1770</v>
       </c>
       <c r="B172" t="n">
-        <v>923.7077906807698</v>
+        <v>923.7077906807431</v>
       </c>
     </row>
     <row r="173">
@@ -1811,7 +1811,7 @@
         <v>1771</v>
       </c>
       <c r="B173" t="n">
-        <v>936.5048747553453</v>
+        <v>936.5048747553769</v>
       </c>
     </row>
     <row r="174">
@@ -1819,7 +1819,7 @@
         <v>1772</v>
       </c>
       <c r="B174" t="n">
-        <v>949.4778224685751</v>
+        <v>949.4778224685589</v>
       </c>
     </row>
     <row r="175">
@@ -1827,7 +1827,7 @@
         <v>1773</v>
       </c>
       <c r="B175" t="n">
-        <v>962.6291835414015</v>
+        <v>962.6291835414155</v>
       </c>
     </row>
     <row r="176">
@@ -1835,7 +1835,7 @@
         <v>1774</v>
       </c>
       <c r="B176" t="n">
-        <v>975.9615546151133</v>
+        <v>975.9615546150748</v>
       </c>
     </row>
     <row r="177">
@@ -1843,7 +1843,7 @@
         <v>1775</v>
       </c>
       <c r="B177" t="n">
-        <v>989.4775805409988</v>
+        <v>989.4775805409924</v>
       </c>
     </row>
     <row r="178">
@@ -1851,7 +1851,7 @@
         <v>1776</v>
       </c>
       <c r="B178" t="n">
-        <v>1003.1799557141</v>
+        <v>1003.179955714111</v>
       </c>
     </row>
     <row r="179">
@@ -1859,7 +1859,7 @@
         <v>1777</v>
       </c>
       <c r="B179" t="n">
-        <v>1017.071425453605</v>
+        <v>1017.071425453613</v>
       </c>
     </row>
     <row r="180">
@@ -1875,7 +1875,7 @@
         <v>1779</v>
       </c>
       <c r="B181" t="n">
-        <v>1045.432893142887</v>
+        <v>1045.432893142874</v>
       </c>
     </row>
     <row r="182">
@@ -1883,7 +1883,7 @@
         <v>1780</v>
       </c>
       <c r="B182" t="n">
-        <v>1059.908649447018</v>
+        <v>1059.908649447024</v>
       </c>
     </row>
     <row r="183">
@@ -1891,7 +1891,7 @@
         <v>1781</v>
       </c>
       <c r="B183" t="n">
-        <v>1074.585020133643</v>
+        <v>1074.585020133646</v>
       </c>
     </row>
     <row r="184">
@@ -1899,7 +1899,7 @@
         <v>1782</v>
       </c>
       <c r="B184" t="n">
-        <v>1089.465027563088</v>
+        <v>1089.465027563111</v>
       </c>
     </row>
     <row r="185">
@@ -1907,7 +1907,7 @@
         <v>1783</v>
       </c>
       <c r="B185" t="n">
-        <v>1104.551754354904</v>
+        <v>1104.551754354907</v>
       </c>
     </row>
     <row r="186">
@@ -1915,7 +1915,7 @@
         <v>1784</v>
       </c>
       <c r="B186" t="n">
-        <v>1119.848345134312</v>
+        <v>1119.848345134317</v>
       </c>
     </row>
     <row r="187">
@@ -1923,7 +1923,7 @@
         <v>1785</v>
       </c>
       <c r="B187" t="n">
-        <v>1135.358008337811</v>
+        <v>1135.358008337777</v>
       </c>
     </row>
     <row r="188">
@@ -1931,7 +1931,7 @@
         <v>1786</v>
       </c>
       <c r="B188" t="n">
-        <v>1151.084018080487</v>
+        <v>1151.084018080474</v>
       </c>
     </row>
     <row r="189">
@@ -1939,7 +1939,7 @@
         <v>1787</v>
       </c>
       <c r="B189" t="n">
-        <v>1167.02971608439</v>
+        <v>1167.029716084416</v>
       </c>
     </row>
     <row r="190">
@@ -1947,7 +1947,7 @@
         <v>1788</v>
       </c>
       <c r="B190" t="n">
-        <v>1183.198513673237</v>
+        <v>1183.198513673246</v>
       </c>
     </row>
     <row r="191">
@@ -1955,7 +1955,7 @@
         <v>1789</v>
       </c>
       <c r="B191" t="n">
-        <v>1199.59389383212</v>
+        <v>1199.593893832104</v>
       </c>
     </row>
     <row r="192">
@@ -1963,7 +1963,7 @@
         <v>1790</v>
       </c>
       <c r="B192" t="n">
-        <v>1216.219413335326</v>
+        <v>1216.219413335313</v>
       </c>
     </row>
     <row r="193">
@@ -1971,7 +1971,7 @@
         <v>1791</v>
       </c>
       <c r="B193" t="n">
-        <v>1233.078704945977</v>
+        <v>1233.078704946013</v>
       </c>
     </row>
     <row r="194">
@@ -1979,7 +1979,7 @@
         <v>1792</v>
       </c>
       <c r="B194" t="n">
-        <v>1250.175479685535</v>
+        <v>1250.175479685513</v>
       </c>
     </row>
     <row r="195">
@@ -1987,7 +1987,7 @@
         <v>1793</v>
       </c>
       <c r="B195" t="n">
-        <v>1267.513529178347</v>
+        <v>1267.513529178337</v>
       </c>
     </row>
     <row r="196">
@@ -1995,7 +1995,7 @@
         <v>1794</v>
       </c>
       <c r="B196" t="n">
-        <v>1285.096728072423</v>
+        <v>1285.096728072455</v>
       </c>
     </row>
     <row r="197">
@@ -2003,7 +2003,7 @@
         <v>1795</v>
       </c>
       <c r="B197" t="n">
-        <v>1302.929036537465</v>
+        <v>1302.929036537429</v>
       </c>
     </row>
     <row r="198">
@@ -2011,7 +2011,7 @@
         <v>1796</v>
       </c>
       <c r="B198" t="n">
-        <v>1321.014502842906</v>
+        <v>1321.014502842953</v>
       </c>
     </row>
     <row r="199">
@@ -2019,7 +2019,7 @@
         <v>1797</v>
       </c>
       <c r="B199" t="n">
-        <v>1339.357266018253</v>
+        <v>1339.357266018202</v>
       </c>
     </row>
     <row r="200">
@@ -2027,7 +2027,7 @@
         <v>1798</v>
       </c>
       <c r="B200" t="n">
-        <v>1357.961558596475</v>
+        <v>1357.961558596483</v>
       </c>
     </row>
     <row r="201">
@@ -2035,7 +2035,7 @@
         <v>1799</v>
       </c>
       <c r="B201" t="n">
-        <v>1376.831709443993</v>
+        <v>1376.831709444022</v>
       </c>
     </row>
     <row r="202">
@@ -2043,7 +2043,7 @@
         <v>1800</v>
       </c>
       <c r="B202" t="n">
-        <v>1395.972146678366</v>
+        <v>1395.972146678368</v>
       </c>
     </row>
     <row r="203">
@@ -2051,7 +2051,7 @@
         <v>1801</v>
       </c>
       <c r="B203" t="n">
-        <v>1415.38740067499</v>
+        <v>1415.387400674942</v>
       </c>
     </row>
     <row r="204">
@@ -2059,7 +2059,7 @@
         <v>1802</v>
       </c>
       <c r="B204" t="n">
-        <v>1435.082107166248</v>
+        <v>1435.082107166288</v>
       </c>
     </row>
     <row r="205">
@@ -2067,7 +2067,7 @@
         <v>1803</v>
       </c>
       <c r="B205" t="n">
-        <v>1455.061010434898</v>
+        <v>1455.06101043487</v>
       </c>
     </row>
     <row r="206">
@@ -2075,7 +2075,7 @@
         <v>1804</v>
       </c>
       <c r="B206" t="n">
-        <v>1475.328966600977</v>
+        <v>1475.328966600976</v>
       </c>
     </row>
     <row r="207">
@@ -2083,7 +2083,7 @@
         <v>1805</v>
       </c>
       <c r="B207" t="n">
-        <v>1495.890947008554</v>
+        <v>1495.890947008599</v>
       </c>
     </row>
     <row r="208">
@@ -2091,7 +2091,7 @@
         <v>1806</v>
       </c>
       <c r="B208" t="n">
-        <v>1516.75204170992</v>
+        <v>1516.752041709907</v>
       </c>
     </row>
     <row r="209">
@@ -2099,7 +2099,7 @@
         <v>1807</v>
       </c>
       <c r="B209" t="n">
-        <v>1537.917463051758</v>
+        <v>1537.917463051712</v>
       </c>
     </row>
     <row r="210">
@@ -2107,7 +2107,7 @@
         <v>1808</v>
       </c>
       <c r="B210" t="n">
-        <v>1559.392549363572</v>
+        <v>1559.392549363601</v>
       </c>
     </row>
     <row r="211">
@@ -2115,7 +2115,7 @@
         <v>1809</v>
       </c>
       <c r="B211" t="n">
-        <v>1581.182768750652</v>
+        <v>1581.182768750679</v>
       </c>
     </row>
     <row r="212">
@@ -2123,7 +2123,7 @@
         <v>1810</v>
       </c>
       <c r="B212" t="n">
-        <v>1603.29372299338</v>
+        <v>1603.293722993381</v>
       </c>
     </row>
     <row r="213">
@@ -2131,7 +2131,7 @@
         <v>1811</v>
       </c>
       <c r="B213" t="n">
-        <v>1625.731151553188</v>
+        <v>1625.731151553183</v>
       </c>
     </row>
     <row r="214">
@@ -2139,7 +2139,7 @@
         <v>1812</v>
       </c>
       <c r="B214" t="n">
-        <v>1648.500935687556</v>
+        <v>1648.500935687565</v>
       </c>
     </row>
     <row r="215">
@@ -2147,7 +2147,7 @@
         <v>1813</v>
       </c>
       <c r="B215" t="n">
-        <v>1671.609102676118</v>
+        <v>1671.609102676091</v>
       </c>
     </row>
     <row r="216">
@@ -2155,7 +2155,7 @@
         <v>1814</v>
       </c>
       <c r="B216" t="n">
-        <v>1695.061830156624</v>
+        <v>1695.061830156591</v>
       </c>
     </row>
     <row r="217">
@@ -2163,7 +2163,7 @@
         <v>1815</v>
       </c>
       <c r="B217" t="n">
-        <v>1718.865450573957</v>
+        <v>1718.865450573974</v>
       </c>
     </row>
     <row r="218">
@@ -2171,7 +2171,7 @@
         <v>1816</v>
       </c>
       <c r="B218" t="n">
-        <v>1743.026455742566</v>
+        <v>1743.026455742551</v>
       </c>
     </row>
     <row r="219">
@@ -2179,7 +2179,7 @@
         <v>1817</v>
       </c>
       <c r="B219" t="n">
-        <v>1767.551501521983</v>
+        <v>1767.551501522066</v>
       </c>
     </row>
     <row r="220">
@@ -2187,7 +2187,7 @@
         <v>1818</v>
       </c>
       <c r="B220" t="n">
-        <v>1792.447412607097</v>
+        <v>1792.447412607046</v>
       </c>
     </row>
     <row r="221">
@@ -2195,7 +2195,7 @@
         <v>1819</v>
       </c>
       <c r="B221" t="n">
-        <v>1817.721187435268</v>
+        <v>1817.721187435307</v>
       </c>
     </row>
     <row r="222">
@@ -2203,7 +2203,7 @@
         <v>1820</v>
       </c>
       <c r="B222" t="n">
-        <v>1843.380003203744</v>
+        <v>1843.380003203668</v>
       </c>
     </row>
     <row r="223">
@@ -2211,7 +2211,7 @@
         <v>1821</v>
       </c>
       <c r="B223" t="n">
-        <v>1869.431221007472</v>
+        <v>1869.431221007512</v>
       </c>
     </row>
     <row r="224">
@@ -2219,7 +2219,7 @@
         <v>1822</v>
       </c>
       <c r="B224" t="n">
-        <v>1895.882391086763</v>
+        <v>1895.882391086743</v>
       </c>
     </row>
     <row r="225">
@@ -2227,7 +2227,7 @@
         <v>1823</v>
       </c>
       <c r="B225" t="n">
-        <v>1922.741258193502</v>
+        <v>1922.741258193488</v>
       </c>
     </row>
     <row r="226">
@@ -2235,7 +2235,7 @@
         <v>1824</v>
       </c>
       <c r="B226" t="n">
-        <v>1950.015767064515</v>
+        <v>1950.015767064591</v>
       </c>
     </row>
     <row r="227">
@@ -2243,7 +2243,7 @@
         <v>1825</v>
       </c>
       <c r="B227" t="n">
-        <v>1977.714068013942</v>
+        <v>1977.714068013873</v>
       </c>
     </row>
     <row r="228">
@@ -2251,7 +2251,7 @@
         <v>1826</v>
       </c>
       <c r="B228" t="n">
-        <v>2005.844522630012</v>
+        <v>2005.844522630007</v>
       </c>
     </row>
     <row r="229">
@@ -2259,7 +2259,7 @@
         <v>1827</v>
       </c>
       <c r="B229" t="n">
-        <v>2034.415709583545</v>
+        <v>2034.415709583585</v>
       </c>
     </row>
     <row r="230">
@@ -2267,7 +2267,7 @@
         <v>1828</v>
       </c>
       <c r="B230" t="n">
-        <v>2063.436430541285</v>
+        <v>2063.436430541309</v>
       </c>
     </row>
     <row r="231">
@@ -2275,7 +2275,7 @@
         <v>1829</v>
       </c>
       <c r="B231" t="n">
-        <v>2092.91571618503</v>
+        <v>2092.915716184958</v>
       </c>
     </row>
     <row r="232">
@@ -2283,7 +2283,7 @@
         <v>1830</v>
       </c>
       <c r="B232" t="n">
-        <v>2122.86283232771</v>
+        <v>2122.862832327723</v>
       </c>
     </row>
     <row r="233">
@@ -2291,7 +2291,7 @@
         <v>1831</v>
       </c>
       <c r="B233" t="n">
-        <v>2153.287286128977</v>
+        <v>2153.287286129027</v>
       </c>
     </row>
     <row r="234">
@@ -2299,7 +2299,7 @@
         <v>1832</v>
       </c>
       <c r="B234" t="n">
-        <v>2184.198832404073</v>
+        <v>2184.198832404046</v>
       </c>
     </row>
     <row r="235">
@@ -2307,7 +2307,7 @@
         <v>1833</v>
       </c>
       <c r="B235" t="n">
-        <v>2215.607480018225</v>
+        <v>2215.60748001824</v>
       </c>
     </row>
     <row r="236">
@@ -2315,7 +2315,7 @@
         <v>1834</v>
       </c>
       <c r="B236" t="n">
-        <v>2247.523498367088</v>
+        <v>2247.523498367102</v>
       </c>
     </row>
     <row r="237">
@@ -2323,7 +2323,7 @@
         <v>1835</v>
       </c>
       <c r="B237" t="n">
-        <v>2279.957423932921</v>
+        <v>2279.957423932909</v>
       </c>
     </row>
     <row r="238">
@@ -2331,7 +2331,7 @@
         <v>1836</v>
       </c>
       <c r="B238" t="n">
-        <v>2312.920066911664</v>
+        <v>2312.920066911691</v>
       </c>
     </row>
     <row r="239">
@@ -2339,7 +2339,7 @@
         <v>1837</v>
       </c>
       <c r="B239" t="n">
-        <v>2346.422517904957</v>
+        <v>2346.422517904914</v>
       </c>
     </row>
     <row r="240">
@@ -2347,7 +2347,7 @@
         <v>1838</v>
       </c>
       <c r="B240" t="n">
-        <v>2380.476154667989</v>
+        <v>2380.476154668003</v>
       </c>
     </row>
     <row r="241">
@@ -2355,7 +2355,7 @@
         <v>1839</v>
       </c>
       <c r="B241" t="n">
-        <v>2415.092648903315</v>
+        <v>2415.092648903279</v>
       </c>
     </row>
     <row r="242">
@@ -2363,7 +2363,7 @@
         <v>1840</v>
       </c>
       <c r="B242" t="n">
-        <v>2450.283973096085</v>
+        <v>2450.283973096119</v>
       </c>
     </row>
     <row r="243">
@@ -2371,7 +2371,7 @@
         <v>1841</v>
       </c>
       <c r="B243" t="n">
-        <v>2486.06240737551</v>
+        <v>2486.062407375507</v>
       </c>
     </row>
     <row r="244">
@@ -2379,7 +2379,7 @@
         <v>1842</v>
       </c>
       <c r="B244" t="n">
-        <v>2522.440546392846</v>
+        <v>2522.440546392848</v>
       </c>
     </row>
     <row r="245">
@@ -2387,7 +2387,7 @@
         <v>1843</v>
       </c>
       <c r="B245" t="n">
-        <v>2559.431306207417</v>
+        <v>2559.431306207419</v>
       </c>
     </row>
     <row r="246">
@@ -2395,7 +2395,7 @@
         <v>1844</v>
       </c>
       <c r="B246" t="n">
-        <v>2597.047931161764</v>
+        <v>2597.047931161727</v>
       </c>
     </row>
     <row r="247">
@@ -2403,7 +2403,7 @@
         <v>1845</v>
       </c>
       <c r="B247" t="n">
-        <v>2635.304000738363</v>
+        <v>2635.304000738357</v>
       </c>
     </row>
     <row r="248">
@@ -2411,7 +2411,7 @@
         <v>1846</v>
       </c>
       <c r="B248" t="n">
-        <v>2674.213436377844</v>
+        <v>2674.213436377889</v>
       </c>
     </row>
     <row r="249">
@@ -2419,7 +2419,7 @@
         <v>1847</v>
       </c>
       <c r="B249" t="n">
-        <v>2713.790508245469</v>
+        <v>2713.790508245466</v>
       </c>
     </row>
     <row r="250">
@@ -2427,7 +2427,7 @@
         <v>1848</v>
       </c>
       <c r="B250" t="n">
-        <v>2754.049841927686</v>
+        <v>2754.049841927699</v>
       </c>
     </row>
     <row r="251">
@@ -2435,7 +2435,7 @@
         <v>1849</v>
       </c>
       <c r="B251" t="n">
-        <v>2795.00642504155</v>
+        <v>2795.006425041554</v>
       </c>
     </row>
     <row r="252">
@@ -2443,7 +2443,7 @@
         <v>1850</v>
       </c>
       <c r="B252" t="n">
-        <v>2836.675613733795</v>
+        <v>2836.67561373377</v>
       </c>
     </row>
     <row r="253">
@@ -2451,7 +2451,7 @@
         <v>1851</v>
       </c>
       <c r="B253" t="n">
-        <v>2879.07313905392</v>
+        <v>2879.073139053902</v>
       </c>
     </row>
     <row r="254">
@@ -2459,7 +2459,7 @@
         <v>1852</v>
       </c>
       <c r="B254" t="n">
-        <v>2922.215113175153</v>
+        <v>2922.215113175173</v>
       </c>
     </row>
     <row r="255">
@@ -2467,7 +2467,7 @@
         <v>1853</v>
       </c>
       <c r="B255" t="n">
-        <v>2966.118035438419</v>
+        <v>2966.118035438392</v>
       </c>
     </row>
     <row r="256">
@@ -2475,7 +2475,7 @@
         <v>1854</v>
       </c>
       <c r="B256" t="n">
-        <v>3010.798798198698</v>
+        <v>3010.798798198725</v>
       </c>
     </row>
     <row r="257">
@@ -2483,7 +2483,7 @@
         <v>1855</v>
       </c>
       <c r="B257" t="n">
-        <v>3056.274692443571</v>
+        <v>3056.274692443567</v>
       </c>
     </row>
     <row r="258">
@@ -2491,7 +2491,7 @@
         <v>1856</v>
       </c>
       <c r="B258" t="n">
-        <v>3102.563413155296</v>
+        <v>3102.563413155341</v>
       </c>
     </row>
     <row r="259">
@@ -2499,7 +2499,7 @@
         <v>1857</v>
       </c>
       <c r="B259" t="n">
-        <v>3149.683064387747</v>
+        <v>3149.683064387717</v>
       </c>
     </row>
     <row r="260">
@@ -2507,7 +2507,7 @@
         <v>1858</v>
       </c>
       <c r="B260" t="n">
-        <v>3197.65216402839</v>
+        <v>3197.652164028362</v>
       </c>
     </row>
     <row r="261">
@@ -2515,7 +2515,7 @@
         <v>1859</v>
       </c>
       <c r="B261" t="n">
-        <v>3246.489648205601</v>
+        <v>3246.489648205552</v>
       </c>
     </row>
     <row r="262">
@@ -2523,7 +2523,7 @@
         <v>1860</v>
       </c>
       <c r="B262" t="n">
-        <v>3296.214875315532</v>
+        <v>3296.214875315615</v>
       </c>
     </row>
     <row r="263">
@@ -2531,7 +2531,7 @@
         <v>1861</v>
       </c>
       <c r="B263" t="n">
-        <v>3346.84762962229</v>
+        <v>3346.847629622237</v>
       </c>
     </row>
     <row r="264">
@@ -2539,7 +2539,7 @@
         <v>1862</v>
       </c>
       <c r="B264" t="n">
-        <v>3398.408124396801</v>
+        <v>3398.408124396941</v>
       </c>
     </row>
     <row r="265">
@@ -2547,7 +2547,7 @@
         <v>1863</v>
       </c>
       <c r="B265" t="n">
-        <v>3450.917004559502</v>
+        <v>3450.917004559393</v>
       </c>
     </row>
     <row r="266">
@@ -2555,7 +2555,7 @@
         <v>1864</v>
       </c>
       <c r="B266" t="n">
-        <v>3504.395348767687</v>
+        <v>3504.395348767666</v>
       </c>
     </row>
     <row r="267">
@@ -2563,7 +2563,7 @@
         <v>1865</v>
       </c>
       <c r="B267" t="n">
-        <v>3558.864670923911</v>
+        <v>3558.864670923926</v>
       </c>
     </row>
     <row r="268">
@@ -2571,7 +2571,7 @@
         <v>1866</v>
       </c>
       <c r="B268" t="n">
-        <v>3614.346921043356</v>
+        <v>3614.346921043346</v>
       </c>
     </row>
     <row r="269">
@@ -2579,7 +2579,7 @@
         <v>1867</v>
       </c>
       <c r="B269" t="n">
-        <v>3670.864485435474</v>
+        <v>3670.864485435443</v>
       </c>
     </row>
     <row r="270">
@@ -2587,7 +2587,7 @@
         <v>1868</v>
       </c>
       <c r="B270" t="n">
-        <v>3728.440186154295</v>
+        <v>3728.440186154345</v>
       </c>
     </row>
     <row r="271">
@@ -2595,7 +2595,7 @@
         <v>1869</v>
       </c>
       <c r="B271" t="n">
-        <v>3787.097279657034</v>
+        <v>3787.097279657019</v>
       </c>
     </row>
     <row r="272">
@@ -2611,7 +2611,7 @@
         <v>1871</v>
       </c>
       <c r="B273" t="n">
-        <v>3907.750828873697</v>
+        <v>3907.750828873748</v>
       </c>
     </row>
     <row r="274">
@@ -2619,7 +2619,7 @@
         <v>1872</v>
       </c>
       <c r="B274" t="n">
-        <v>3969.795945326934</v>
+        <v>3969.795945326945</v>
       </c>
     </row>
     <row r="275">
@@ -2627,7 +2627,7 @@
         <v>1873</v>
       </c>
       <c r="B275" t="n">
-        <v>4033.01976694519</v>
+        <v>4033.019766945126</v>
       </c>
     </row>
     <row r="276">
@@ -2635,7 +2635,7 @@
         <v>1874</v>
       </c>
       <c r="B276" t="n">
-        <v>4097.447670590147</v>
+        <v>4097.447670590159</v>
       </c>
     </row>
     <row r="277">
@@ -2643,7 +2643,7 @@
         <v>1875</v>
       </c>
       <c r="B277" t="n">
-        <v>4163.10543973793</v>
+        <v>4163.105439737986</v>
       </c>
     </row>
     <row r="278">
@@ -2651,7 +2651,7 @@
         <v>1876</v>
       </c>
       <c r="B278" t="n">
-        <v>4230.019255978009</v>
+        <v>4230.019255978013</v>
       </c>
     </row>
     <row r="279">
@@ -2659,7 +2659,7 @@
         <v>1877</v>
       </c>
       <c r="B279" t="n">
-        <v>4298.215689232201</v>
+        <v>4298.215689232086</v>
       </c>
     </row>
     <row r="280">
@@ -2667,7 +2667,7 @@
         <v>1878</v>
       </c>
       <c r="B280" t="n">
-        <v>4367.721686620745</v>
+        <v>4367.721686620798</v>
       </c>
     </row>
     <row r="281">
@@ -2675,7 +2675,7 @@
         <v>1879</v>
       </c>
       <c r="B281" t="n">
-        <v>4438.564559906708</v>
+        <v>4438.564559906683</v>
       </c>
     </row>
     <row r="282">
@@ -2683,7 +2683,7 @@
         <v>1880</v>
       </c>
       <c r="B282" t="n">
-        <v>4510.771971442564</v>
+        <v>4510.771971442546</v>
       </c>
     </row>
     <row r="283">
@@ -2691,7 +2691,7 @@
         <v>1881</v>
       </c>
       <c r="B283" t="n">
-        <v>4584.37191854612</v>
+        <v>4584.371918546145</v>
       </c>
     </row>
     <row r="284">
@@ -2699,7 +2699,7 @@
         <v>1882</v>
       </c>
       <c r="B284" t="n">
-        <v>4659.392716228925</v>
+        <v>4659.392716228952</v>
       </c>
     </row>
     <row r="285">
@@ -2715,7 +2715,7 @@
         <v>1884</v>
       </c>
       <c r="B286" t="n">
-        <v>4813.811596072742</v>
+        <v>4813.811596072682</v>
       </c>
     </row>
     <row r="287">
@@ -2723,7 +2723,7 @@
         <v>1885</v>
       </c>
       <c r="B287" t="n">
-        <v>4893.267716678712</v>
+        <v>4893.267716678794</v>
       </c>
     </row>
     <row r="288">
@@ -2731,7 +2731,7 @@
         <v>1886</v>
       </c>
       <c r="B288" t="n">
-        <v>4974.260717437573</v>
+        <v>4974.260717437556</v>
       </c>
     </row>
     <row r="289">
@@ -2739,7 +2739,7 @@
         <v>1887</v>
       </c>
       <c r="B289" t="n">
-        <v>5056.820179676894</v>
+        <v>5056.820179676844</v>
       </c>
     </row>
     <row r="290">
@@ -2747,7 +2747,7 @@
         <v>1888</v>
       </c>
       <c r="B290" t="n">
-        <v>5140.975859838765</v>
+        <v>5140.975859838891</v>
       </c>
     </row>
     <row r="291">
@@ -2755,7 +2755,7 @@
         <v>1889</v>
       </c>
       <c r="B291" t="n">
-        <v>5226.757658488958</v>
+        <v>5226.757658488943</v>
       </c>
     </row>
     <row r="292">
@@ -2763,7 +2763,7 @@
         <v>1890</v>
       </c>
       <c r="B292" t="n">
-        <v>5314.195587050459</v>
+        <v>5314.195587050333</v>
       </c>
     </row>
     <row r="293">
@@ -2771,7 +2771,7 @@
         <v>1891</v>
       </c>
       <c r="B293" t="n">
-        <v>5403.319732184988</v>
+        <v>5403.319732185134</v>
       </c>
     </row>
     <row r="294">
@@ -2779,7 +2779,7 @@
         <v>1892</v>
       </c>
       <c r="B294" t="n">
-        <v>5494.160217750816</v>
+        <v>5494.160217750732</v>
       </c>
     </row>
     <row r="295">
@@ -2787,7 +2787,7 @@
         <v>1893</v>
       </c>
       <c r="B295" t="n">
-        <v>5586.7471642524</v>
+        <v>5586.747164252361</v>
       </c>
     </row>
     <row r="296">
@@ -2795,7 +2795,7 @@
         <v>1894</v>
       </c>
       <c r="B296" t="n">
-        <v>5681.110645724092</v>
+        <v>5681.110645724186</v>
       </c>
     </row>
     <row r="297">
@@ -2803,7 +2803,7 @@
         <v>1895</v>
       </c>
       <c r="B297" t="n">
-        <v>5777.280643969933</v>
+        <v>5777.280643969897</v>
       </c>
     </row>
     <row r="298">
@@ -2811,7 +2811,7 @@
         <v>1896</v>
       </c>
       <c r="B298" t="n">
-        <v>5875.287000096288</v>
+        <v>5875.287000096223</v>
       </c>
     </row>
     <row r="299">
@@ -2819,7 +2819,7 @@
         <v>1897</v>
       </c>
       <c r="B299" t="n">
-        <v>5975.159363275627</v>
+        <v>5975.159363275624</v>
       </c>
     </row>
     <row r="300">
@@ -2827,7 +2827,7 @@
         <v>1898</v>
       </c>
       <c r="B300" t="n">
-        <v>6076.92713668809</v>
+        <v>6076.927136688123</v>
       </c>
     </row>
     <row r="301">
@@ -2835,7 +2835,7 @@
         <v>1899</v>
       </c>
       <c r="B301" t="n">
-        <v>6180.619420582365</v>
+        <v>6180.619420582413</v>
       </c>
     </row>
     <row r="302">
@@ -2843,7 +2843,7 @@
         <v>1900</v>
       </c>
       <c r="B302" t="n">
-        <v>6286.264952408999</v>
+        <v>6286.26495240898</v>
       </c>
     </row>
     <row r="303">
@@ -2851,7 +2851,7 @@
         <v>1901</v>
       </c>
       <c r="B303" t="n">
-        <v>6393.892043996389</v>
+        <v>6393.892043996405</v>
       </c>
     </row>
     <row r="304">
@@ -2859,7 +2859,7 @@
         <v>1902</v>
       </c>
       <c r="B304" t="n">
-        <v>6503.528515721047</v>
+        <v>6503.528515721018</v>
       </c>
     </row>
     <row r="305">
@@ -2867,7 +2867,7 @@
         <v>1903</v>
       </c>
       <c r="B305" t="n">
-        <v>6615.201627652984</v>
+        <v>6615.201627653007</v>
       </c>
     </row>
     <row r="306">
@@ -2875,7 +2875,7 @@
         <v>1904</v>
       </c>
       <c r="B306" t="n">
-        <v>6728.938007662759</v>
+        <v>6728.938007662765</v>
       </c>
     </row>
     <row r="307">
@@ -2883,7 +2883,7 @@
         <v>1905</v>
       </c>
       <c r="B307" t="n">
-        <v>6844.763576472904</v>
+        <v>6844.763576472859</v>
       </c>
     </row>
     <row r="308">
@@ -2891,7 +2891,7 @@
         <v>1906</v>
       </c>
       <c r="B308" t="n">
-        <v>6962.703469656966</v>
+        <v>6962.70346965705</v>
       </c>
     </row>
     <row r="309">
@@ -2899,7 +2899,7 @@
         <v>1907</v>
       </c>
       <c r="B309" t="n">
-        <v>7082.781956604868</v>
+        <v>7082.78195660488</v>
       </c>
     </row>
     <row r="310">
@@ -2907,7 +2907,7 @@
         <v>1908</v>
       </c>
       <c r="B310" t="n">
-        <v>7205.022356469953</v>
+        <v>7205.022356469816</v>
       </c>
     </row>
     <row r="311">
@@ -2915,7 +2915,7 @@
         <v>1909</v>
       </c>
       <c r="B311" t="n">
-        <v>7329.446951129228</v>
+        <v>7329.446951129126</v>
       </c>
     </row>
     <row r="312">
@@ -2923,7 +2923,7 @@
         <v>1910</v>
       </c>
       <c r="B312" t="n">
-        <v>7456.076895219392</v>
+        <v>7456.076895219582</v>
       </c>
     </row>
     <row r="313">
@@ -2931,7 +2931,7 @@
         <v>1911</v>
       </c>
       <c r="B313" t="n">
-        <v>7584.932123300205</v>
+        <v>7584.932123300166</v>
       </c>
     </row>
     <row r="314">
@@ -2939,7 +2939,7 @@
         <v>1912</v>
       </c>
       <c r="B314" t="n">
-        <v>7716.031254217874</v>
+        <v>7716.031254217885</v>
       </c>
     </row>
     <row r="315">
@@ -2947,7 +2947,7 @@
         <v>1913</v>
       </c>
       <c r="B315" t="n">
-        <v>7849.39149277324</v>
+        <v>7849.39149277323</v>
       </c>
     </row>
     <row r="316">
@@ -2955,7 +2955,7 @@
         <v>1914</v>
       </c>
       <c r="B316" t="n">
-        <v>7985.028528794961</v>
+        <v>7985.028528794872</v>
       </c>
     </row>
     <row r="317">
@@ -2963,7 +2963,7 @@
         <v>1915</v>
       </c>
       <c r="B317" t="n">
-        <v>8122.956433740361</v>
+        <v>8122.956433740489</v>
       </c>
     </row>
     <row r="318">
@@ -2971,7 +2971,7 @@
         <v>1916</v>
       </c>
       <c r="B318" t="n">
-        <v>8263.187554979626</v>
+        <v>8263.187554979651</v>
       </c>
     </row>
     <row r="319">
@@ -2979,7 +2979,7 @@
         <v>1917</v>
       </c>
       <c r="B319" t="n">
-        <v>8405.732407908374</v>
+        <v>8405.732407908237</v>
       </c>
     </row>
     <row r="320">
@@ -2987,7 +2987,7 @@
         <v>1918</v>
       </c>
       <c r="B320" t="n">
-        <v>8550.59956607885</v>
+        <v>8550.599566078867</v>
       </c>
     </row>
     <row r="321">
@@ -2995,7 +2995,7 @@
         <v>1919</v>
       </c>
       <c r="B321" t="n">
-        <v>8697.795549557282</v>
+        <v>8697.795549557379</v>
       </c>
     </row>
     <row r="322">
@@ -3003,7 +3003,7 @@
         <v>1920</v>
       </c>
       <c r="B322" t="n">
-        <v>8847.324711707306</v>
+        <v>8847.324711707299</v>
       </c>
     </row>
     <row r="323">
@@ -3011,7 +3011,7 @@
         <v>1921</v>
       </c>
       <c r="B323" t="n">
-        <v>8999.189124665241</v>
+        <v>8999.189124665092</v>
       </c>
     </row>
     <row r="324">
@@ -3019,7 +3019,7 @@
         <v>1922</v>
       </c>
       <c r="B324" t="n">
-        <v>9153.388463745208</v>
+        <v>9153.388463745319</v>
       </c>
     </row>
     <row r="325">
@@ -3027,7 +3027,7 @@
         <v>1923</v>
       </c>
       <c r="B325" t="n">
-        <v>9309.919891086633</v>
+        <v>9309.919891086716</v>
       </c>
     </row>
     <row r="326">
@@ -3035,7 +3035,7 @@
         <v>1924</v>
       </c>
       <c r="B326" t="n">
-        <v>9468.777938821364</v>
+        <v>9468.777938821251</v>
       </c>
     </row>
     <row r="327">
@@ -3043,7 +3043,7 @@
         <v>1925</v>
       </c>
       <c r="B327" t="n">
-        <v>9629.954392106509</v>
+        <v>9629.954392106605</v>
       </c>
     </row>
     <row r="328">
@@ -3051,7 +3051,7 @@
         <v>1926</v>
       </c>
       <c r="B328" t="n">
-        <v>9793.438172369773</v>
+        <v>9793.438172369833</v>
       </c>
     </row>
     <row r="329">
@@ -3059,7 +3059,7 @@
         <v>1927</v>
       </c>
       <c r="B329" t="n">
-        <v>9959.215221131197</v>
+        <v>9959.21522113125</v>
       </c>
     </row>
     <row r="330">
@@ -3067,7 +3067,7 @@
         <v>1928</v>
       </c>
       <c r="B330" t="n">
-        <v>10127.26838480045</v>
+        <v>10127.26838480022</v>
       </c>
     </row>
     <row r="331">
@@ -3075,7 +3075,7 @@
         <v>1929</v>
       </c>
       <c r="B331" t="n">
-        <v>10297.5773008621</v>
+        <v>10297.57730086203</v>
       </c>
     </row>
     <row r="332">
@@ -3083,7 +3083,7 @@
         <v>1930</v>
       </c>
       <c r="B332" t="n">
-        <v>10470.11828588338</v>
+        <v>10470.11828588363</v>
       </c>
     </row>
     <row r="333">
@@ -3091,7 +3091,7 @@
         <v>1931</v>
       </c>
       <c r="B333" t="n">
-        <v>10644.86422579113</v>
+        <v>10644.8642257911</v>
       </c>
     </row>
     <row r="334">
@@ -3099,7 +3099,7 @@
         <v>1932</v>
       </c>
       <c r="B334" t="n">
-        <v>10821.7844689023</v>
+        <v>10821.78446890217</v>
       </c>
     </row>
     <row r="335">
@@ -3107,7 +3107,7 @@
         <v>1933</v>
       </c>
       <c r="B335" t="n">
-        <v>11000.84472218654</v>
+        <v>11000.8447221866</v>
       </c>
     </row>
     <row r="336">
@@ -3115,7 +3115,7 @@
         <v>1934</v>
       </c>
       <c r="B336" t="n">
-        <v>11182.00695127286</v>
+        <v>11182.00695127287</v>
       </c>
     </row>
     <row r="337">
@@ -3131,7 +3131,7 @@
         <v>1936</v>
       </c>
       <c r="B338" t="n">
-        <v>11550.4659231008</v>
+        <v>11550.46592310079</v>
       </c>
     </row>
     <row r="339">
@@ -3139,7 +3139,7 @@
         <v>1937</v>
       </c>
       <c r="B339" t="n">
-        <v>11737.66705337767</v>
+        <v>11737.66705337757</v>
       </c>
     </row>
     <row r="340">
@@ -3147,7 +3147,7 @@
         <v>1938</v>
       </c>
       <c r="B340" t="n">
-        <v>11926.77876925262</v>
+        <v>11926.77876925288</v>
       </c>
     </row>
     <row r="341">
@@ -3155,7 +3155,7 @@
         <v>1939</v>
       </c>
       <c r="B341" t="n">
-        <v>12117.74299791708</v>
+        <v>12117.74299791685</v>
       </c>
     </row>
     <row r="342">
@@ -3163,7 +3163,7 @@
         <v>1940</v>
       </c>
       <c r="B342" t="n">
-        <v>12310.49743384768</v>
+        <v>12310.49743384785</v>
       </c>
     </row>
     <row r="343">
@@ -3171,7 +3171,7 @@
         <v>1941</v>
       </c>
       <c r="B343" t="n">
-        <v>12504.97548019667</v>
+        <v>12504.97548019639</v>
       </c>
     </row>
     <row r="344">
@@ -3179,7 +3179,7 @@
         <v>1942</v>
       </c>
       <c r="B344" t="n">
-        <v>12701.10619833371</v>
+        <v>12701.1061983339</v>
       </c>
     </row>
     <row r="345">
@@ -3187,7 +3187,7 @@
         <v>1943</v>
       </c>
       <c r="B345" t="n">
-        <v>12898.81426611828</v>
+        <v>12898.81426611816</v>
       </c>
     </row>
     <row r="346">
@@ -3195,7 +3195,7 @@
         <v>1944</v>
       </c>
       <c r="B346" t="n">
-        <v>13098.01994542961</v>
+        <v>13098.01994542964</v>
       </c>
     </row>
     <row r="347">
@@ -3203,7 +3203,7 @@
         <v>1945</v>
       </c>
       <c r="B347" t="n">
-        <v>13298.63905953865</v>
+        <v>13298.63905953867</v>
       </c>
     </row>
     <row r="348">
@@ -3211,7 +3211,7 @@
         <v>1946</v>
       </c>
       <c r="B348" t="n">
-        <v>13500.58298080238</v>
+        <v>13500.58298080268</v>
       </c>
     </row>
     <row r="349">
@@ -3219,7 +3219,7 @@
         <v>1947</v>
       </c>
       <c r="B349" t="n">
-        <v>13703.75862924125</v>
+        <v>13703.75862924099</v>
       </c>
     </row>
     <row r="350">
@@ -3227,7 +3227,7 @@
         <v>1948</v>
       </c>
       <c r="B350" t="n">
-        <v>13908.06848244015</v>
+        <v>13908.06848244002</v>
       </c>
     </row>
     <row r="351">
@@ -3235,7 +3235,7 @@
         <v>1949</v>
       </c>
       <c r="B351" t="n">
-        <v>14113.41059728239</v>
+        <v>14113.41059728265</v>
       </c>
     </row>
     <row r="352">
@@ -3243,7 +3243,7 @@
         <v>1950</v>
       </c>
       <c r="B352" t="n">
-        <v>14319.67864391294</v>
+        <v>14319.6786439129</v>
       </c>
     </row>
     <row r="353">
@@ -3251,7 +3251,7 @@
         <v>1951</v>
       </c>
       <c r="B353" t="n">
-        <v>14526.76195235824</v>
+        <v>14526.76195235814</v>
       </c>
     </row>
     <row r="354">
@@ -3259,7 +3259,7 @@
         <v>1952</v>
       </c>
       <c r="B354" t="n">
-        <v>14734.54557214519</v>
+        <v>14734.54557214528</v>
       </c>
     </row>
     <row r="355">
@@ -3267,7 +3267,7 @@
         <v>1953</v>
       </c>
       <c r="B355" t="n">
-        <v>14942.91034525893</v>
+        <v>14942.91034525889</v>
       </c>
     </row>
     <row r="356">
@@ -3275,7 +3275,7 @@
         <v>1954</v>
       </c>
       <c r="B356" t="n">
-        <v>15151.73299270215</v>
+        <v>15151.73299270228</v>
       </c>
     </row>
     <row r="357">
@@ -3283,7 +3283,7 @@
         <v>1955</v>
       </c>
       <c r="B357" t="n">
-        <v>15360.8862148906</v>
+        <v>15360.8862148904</v>
       </c>
     </row>
     <row r="358">
@@ -3291,7 +3291,7 @@
         <v>1956</v>
       </c>
       <c r="B358" t="n">
-        <v>15570.2388060615</v>
+        <v>15570.23880606135</v>
       </c>
     </row>
     <row r="359">
@@ -3299,7 +3299,7 @@
         <v>1957</v>
       </c>
       <c r="B359" t="n">
-        <v>15779.65578280739</v>
+        <v>15779.65578280735</v>
       </c>
     </row>
     <row r="360">
@@ -3307,7 +3307,7 @@
         <v>1958</v>
       </c>
       <c r="B360" t="n">
-        <v>15988.99852680251</v>
+        <v>15988.99852680264</v>
       </c>
     </row>
     <row r="361">
@@ -3315,7 +3315,7 @@
         <v>1959</v>
       </c>
       <c r="B361" t="n">
-        <v>16198.12494171719</v>
+        <v>16198.12494171752</v>
       </c>
     </row>
     <row r="362">
@@ -3323,7 +3323,7 @@
         <v>1960</v>
       </c>
       <c r="B362" t="n">
-        <v>16406.88962426119</v>
+        <v>16406.88962426107</v>
       </c>
     </row>
     <row r="363">
@@ -3331,7 +3331,7 @@
         <v>1961</v>
       </c>
       <c r="B363" t="n">
-        <v>16615.14404920066</v>
+        <v>16615.14404920056</v>
       </c>
     </row>
     <row r="364">
@@ -3339,7 +3339,7 @@
         <v>1962</v>
       </c>
       <c r="B364" t="n">
-        <v>16822.73676818801</v>
+        <v>16822.73676818819</v>
       </c>
     </row>
     <row r="365">
@@ -3347,7 +3347,7 @@
         <v>1963</v>
       </c>
       <c r="B365" t="n">
-        <v>17029.51362208924</v>
+        <v>17029.51362208882</v>
       </c>
     </row>
     <row r="366">
@@ -3355,7 +3355,7 @@
         <v>1964</v>
       </c>
       <c r="B366" t="n">
-        <v>17235.31796648457</v>
+        <v>17235.31796648446</v>
       </c>
     </row>
     <row r="367">
@@ -3363,7 +3363,7 @@
         <v>1965</v>
       </c>
       <c r="B367" t="n">
-        <v>17439.99090994367</v>
+        <v>17439.99090994387</v>
       </c>
     </row>
     <row r="368">
@@ -3371,7 +3371,7 @@
         <v>1966</v>
       </c>
       <c r="B368" t="n">
-        <v>17643.37156454248</v>
+        <v>17643.37156454251</v>
       </c>
     </row>
     <row r="369">
@@ -3379,7 +3379,7 @@
         <v>1967</v>
       </c>
       <c r="B369" t="n">
-        <v>17845.29730811602</v>
+        <v>17845.29730811632</v>
       </c>
     </row>
     <row r="370">
@@ -3387,7 +3387,7 @@
         <v>1968</v>
       </c>
       <c r="B370" t="n">
-        <v>18045.60405756397</v>
+        <v>18045.60405756359</v>
       </c>
     </row>
     <row r="371">
@@ -3395,7 +3395,7 @@
         <v>1969</v>
       </c>
       <c r="B371" t="n">
-        <v>18244.12655254081</v>
+        <v>18244.12655254063</v>
       </c>
     </row>
     <row r="372">
@@ -3403,7 +3403,7 @@
         <v>1970</v>
       </c>
       <c r="B372" t="n">
-        <v>18440.69864875551</v>
+        <v>18440.69864875595</v>
       </c>
     </row>
     <row r="373">
@@ -3411,7 +3411,7 @@
         <v>1971</v>
       </c>
       <c r="B373" t="n">
-        <v>18635.15362002794</v>
+        <v>18635.1536200275</v>
       </c>
     </row>
     <row r="374">
@@ -3419,7 +3419,7 @@
         <v>1972</v>
       </c>
       <c r="B374" t="n">
-        <v>18827.32446822236</v>
+        <v>18827.3244682226</v>
       </c>
     </row>
     <row r="375">
@@ -3427,7 +3427,7 @@
         <v>1973</v>
       </c>
       <c r="B375" t="n">
-        <v>19017.04424010006</v>
+        <v>19017.04424010038</v>
       </c>
     </row>
     <row r="376">
@@ -3435,7 +3435,7 @@
         <v>1974</v>
       </c>
       <c r="B376" t="n">
-        <v>19204.14635006028</v>
+        <v>19204.14635005994</v>
       </c>
     </row>
     <row r="377">
@@ -3443,7 +3443,7 @@
         <v>1975</v>
       </c>
       <c r="B377" t="n">
-        <v>19388.46490772998</v>
+        <v>19388.46490773016</v>
       </c>
     </row>
     <row r="378">
@@ -3451,7 +3451,7 @@
         <v>1976</v>
       </c>
       <c r="B378" t="n">
-        <v>19569.83504928208</v>
+        <v>19569.83504928149</v>
       </c>
     </row>
     <row r="379">
@@ -3459,7 +3459,7 @@
         <v>1977</v>
       </c>
       <c r="B379" t="n">
-        <v>19748.09327133658</v>
+        <v>19748.09327133691</v>
       </c>
     </row>
     <row r="380">
@@ -3467,7 +3467,7 @@
         <v>1978</v>
       </c>
       <c r="B380" t="n">
-        <v>19923.07776626086</v>
+        <v>19923.07776626123</v>
       </c>
     </row>
     <row r="381">
@@ -3475,7 +3475,7 @@
         <v>1979</v>
       </c>
       <c r="B381" t="n">
-        <v>20094.62875766507</v>
+        <v>20094.62875766474</v>
       </c>
     </row>
     <row r="382">
@@ -3483,7 +3483,7 @@
         <v>1980</v>
       </c>
       <c r="B382" t="n">
-        <v>20262.58883485328</v>
+        <v>20262.58883485347</v>
       </c>
     </row>
     <row r="383">
@@ -3491,7 +3491,7 @@
         <v>1981</v>
       </c>
       <c r="B383" t="n">
-        <v>20426.80328500543</v>
+        <v>20426.80328500537</v>
       </c>
     </row>
     <row r="384">
@@ -3499,7 +3499,7 @@
         <v>1982</v>
       </c>
       <c r="B384" t="n">
-        <v>20587.12042180332</v>
+        <v>20587.12042180363</v>
       </c>
     </row>
     <row r="385">
@@ -3507,7 +3507,7 @@
         <v>1983</v>
       </c>
       <c r="B385" t="n">
-        <v>20743.39190929491</v>
+        <v>20743.39190929462</v>
       </c>
     </row>
     <row r="386">
@@ -3515,7 +3515,7 @@
         <v>1984</v>
       </c>
       <c r="B386" t="n">
-        <v>20895.47307971388</v>
+        <v>20895.47307971396</v>
       </c>
     </row>
     <row r="387">
@@ -3523,7 +3523,7 @@
         <v>1985</v>
       </c>
       <c r="B387" t="n">
-        <v>21043.22324405226</v>
+        <v>21043.22324405244</v>
       </c>
     </row>
     <row r="388">
@@ -3531,7 +3531,7 @@
         <v>1986</v>
       </c>
       <c r="B388" t="n">
-        <v>21186.50599416929</v>
+        <v>21186.50599416883</v>
       </c>
     </row>
     <row r="389">
@@ -3539,7 +3539,7 @@
         <v>1987</v>
       </c>
       <c r="B389" t="n">
-        <v>21325.18949526378</v>
+        <v>21325.18949526392</v>
       </c>
     </row>
     <row r="390">
@@ -3547,7 +3547,7 @@
         <v>1988</v>
       </c>
       <c r="B390" t="n">
-        <v>21459.14676757983</v>
+        <v>21459.14676757959</v>
       </c>
     </row>
     <row r="391">
@@ -3555,7 +3555,7 @@
         <v>1989</v>
       </c>
       <c r="B391" t="n">
-        <v>21588.25595623846</v>
+        <v>21588.255956239</v>
       </c>
     </row>
     <row r="392">
@@ -3563,7 +3563,7 @@
         <v>1990</v>
       </c>
       <c r="B392" t="n">
-        <v>21712.40058817175</v>
+        <v>21712.40058817157</v>
       </c>
     </row>
     <row r="393">
@@ -3571,7 +3571,7 @@
         <v>1991</v>
       </c>
       <c r="B393" t="n">
-        <v>21831.46981514696</v>
+        <v>21831.46981514732</v>
       </c>
     </row>
     <row r="394">
@@ -3579,7 +3579,7 @@
         <v>1992</v>
       </c>
       <c r="B394" t="n">
-        <v>21945.35864200454</v>
+        <v>21945.35864200437</v>
       </c>
     </row>
     <row r="395">
@@ -3587,7 +3587,7 @@
         <v>1993</v>
       </c>
       <c r="B395" t="n">
-        <v>22053.96813920258</v>
+        <v>22053.96813920234</v>
       </c>
     </row>
     <row r="396">
@@ -3595,7 +3595,7 @@
         <v>1994</v>
       </c>
       <c r="B396" t="n">
-        <v>22157.20563893935</v>
+        <v>22157.20563893932</v>
       </c>
     </row>
     <row r="397">
@@ -3603,7 +3603,7 @@
         <v>1995</v>
       </c>
       <c r="B397" t="n">
-        <v>22254.98491412382</v>
+        <v>22254.98491412374</v>
       </c>
     </row>
     <row r="398">
@@ -3611,7 +3611,7 @@
         <v>1996</v>
       </c>
       <c r="B398" t="n">
-        <v>22347.22633958184</v>
+        <v>22347.22633958192</v>
       </c>
     </row>
     <row r="399">
@@ -3619,7 +3619,7 @@
         <v>1997</v>
       </c>
       <c r="B399" t="n">
-        <v>22433.85703499136</v>
+        <v>22433.85703499137</v>
       </c>
     </row>
     <row r="400">
@@ -3627,7 +3627,7 @@
         <v>1998</v>
       </c>
       <c r="B400" t="n">
-        <v>22514.81098905552</v>
+        <v>22514.81098905547</v>
       </c>
     </row>
     <row r="401">
@@ -3635,7 +3635,7 @@
         <v>1999</v>
       </c>
       <c r="B401" t="n">
-        <v>22590.0291646296</v>
+        <v>22590.02916462946</v>
       </c>
     </row>
     <row r="402">
@@ -3643,7 +3643,7 @@
         <v>2000</v>
       </c>
       <c r="B402" t="n">
-        <v>22659.45958446421</v>
+        <v>22659.45958446438</v>
       </c>
     </row>
     <row r="403">
@@ -3651,7 +3651,7 @@
         <v>2001</v>
       </c>
       <c r="B403" t="n">
-        <v>22723.05739746073</v>
+        <v>22723.0573974605</v>
       </c>
     </row>
     <row r="404">
@@ -3659,7 +3659,7 @@
         <v>2002</v>
       </c>
       <c r="B404" t="n">
-        <v>22780.78492534694</v>
+        <v>22780.78492534725</v>
       </c>
     </row>
     <row r="405">
@@ -3667,7 +3667,7 @@
         <v>2003</v>
       </c>
       <c r="B405" t="n">
-        <v>22832.61168975728</v>
+        <v>22832.61168975704</v>
       </c>
     </row>
     <row r="406">
@@ -3675,7 +3675,7 @@
         <v>2004</v>
       </c>
       <c r="B406" t="n">
-        <v>22878.51441987672</v>
+        <v>22878.51441987656</v>
       </c>
     </row>
     <row r="407">
@@ -3683,7 +3683,7 @@
         <v>2005</v>
       </c>
       <c r="B407" t="n">
-        <v>22918.47704082109</v>
+        <v>22918.47704082176</v>
       </c>
     </row>
     <row r="408">
@@ -3691,7 +3691,7 @@
         <v>2006</v>
       </c>
       <c r="B408" t="n">
-        <v>22952.4906430115</v>
+        <v>22952.49064301133</v>
       </c>
     </row>
     <row r="409">
@@ -3699,7 +3699,7 @@
         <v>2007</v>
       </c>
       <c r="B409" t="n">
-        <v>22980.55343298442</v>
+        <v>22980.5534329843</v>
       </c>
     </row>
     <row r="410">
@@ -3707,7 +3707,7 @@
         <v>2008</v>
       </c>
       <c r="B410" t="n">
-        <v>23002.67066597359</v>
+        <v>23002.67066597353</v>
       </c>
     </row>
     <row r="411">
@@ -3715,7 +3715,7 @@
         <v>2009</v>
       </c>
       <c r="B411" t="n">
-        <v>23018.85456091142</v>
+        <v>23018.85456091087</v>
       </c>
     </row>
     <row r="412">
@@ -3723,7 +3723,7 @@
         <v>2010</v>
       </c>
       <c r="B412" t="n">
-        <v>23029.12419832205</v>
+        <v>23029.12419832221</v>
       </c>
     </row>
     <row r="413">
@@ -3731,7 +3731,7 @@
         <v>2011</v>
       </c>
       <c r="B413" t="n">
-        <v>23033.50540186868</v>
+        <v>23033.50540186938</v>
       </c>
     </row>
     <row r="414">
@@ -3739,7 +3739,7 @@
         <v>2012</v>
       </c>
       <c r="B414" t="n">
-        <v>23032.03060419434</v>
+        <v>23032.03060419446</v>
       </c>
     </row>
     <row r="415">
@@ -3747,7 +3747,7 @@
         <v>2013</v>
       </c>
       <c r="B415" t="n">
-        <v>23024.73869787991</v>
+        <v>23024.7386978793</v>
       </c>
     </row>
     <row r="416">
@@ -3755,7 +3755,7 @@
         <v>2014</v>
       </c>
       <c r="B416" t="n">
-        <v>23011.67487232646</v>
+        <v>23011.67487232584</v>
       </c>
     </row>
     <row r="417">
@@ -3763,7 +3763,7 @@
         <v>2015</v>
       </c>
       <c r="B417" t="n">
-        <v>22992.89043744036</v>
+        <v>22992.89043744089</v>
       </c>
     </row>
     <row r="418">
@@ -3771,7 +3771,7 @@
         <v>2016</v>
       </c>
       <c r="B418" t="n">
-        <v>22968.4426350031</v>
+        <v>22968.44263500302</v>
       </c>
     </row>
     <row r="419">
@@ -3779,7 +3779,7 @@
         <v>2017</v>
       </c>
       <c r="B419" t="n">
-        <v>22938.39443868999</v>
+        <v>22938.39443869</v>
       </c>
     </row>
     <row r="420">
@@ -3787,7 +3787,7 @@
         <v>2018</v>
       </c>
       <c r="B420" t="n">
-        <v>22902.8143436818</v>
+        <v>22902.81434368242</v>
       </c>
     </row>
     <row r="421">
@@ -3795,7 +3795,7 @@
         <v>2019</v>
       </c>
       <c r="B421" t="n">
-        <v>22861.77614686899</v>
+        <v>22861.77614686903</v>
       </c>
     </row>
     <row r="422">
@@ -3803,7 +3803,7 @@
         <v>2020</v>
       </c>
       <c r="B422" t="n">
-        <v>22815.35871860307</v>
+        <v>22815.35871860258</v>
       </c>
     </row>
     <row r="423">
@@ -3811,7 +3811,7 @@
         <v>2021</v>
       </c>
       <c r="B423" t="n">
-        <v>22763.64576706124</v>
+        <v>22763.64576706131</v>
       </c>
     </row>
     <row r="424">
@@ -3819,7 +3819,7 @@
         <v>2022</v>
       </c>
       <c r="B424" t="n">
-        <v>22706.72559614127</v>
+        <v>22706.72559614155</v>
       </c>
     </row>
     <row r="425">
@@ -3827,7 +3827,7 @@
         <v>2023</v>
       </c>
       <c r="B425" t="n">
-        <v>22644.690857984</v>
+        <v>22644.69085798407</v>
       </c>
     </row>
     <row r="426">
@@ -3835,7 +3835,7 @@
         <v>2024</v>
       </c>
       <c r="B426" t="n">
-        <v>22577.63830100781</v>
+        <v>22577.63830100744</v>
       </c>
     </row>
     <row r="427">
@@ -3843,7 +3843,7 @@
         <v>2025</v>
       </c>
       <c r="B427" t="n">
-        <v>22505.66851450766</v>
+        <v>22505.66851450792</v>
       </c>
     </row>
     <row r="428">
@@ -3851,7 +3851,7 @@
         <v>2026</v>
       </c>
       <c r="B428" t="n">
-        <v>22428.88567075021</v>
+        <v>22428.88567075039</v>
       </c>
     </row>
     <row r="429">
@@ -3859,7 +3859,7 @@
         <v>2027</v>
       </c>
       <c r="B429" t="n">
-        <v>22347.3972654653</v>
+        <v>22347.39726546474</v>
       </c>
     </row>
     <row r="430">
@@ -3867,7 +3867,7 @@
         <v>2028</v>
       </c>
       <c r="B430" t="n">
-        <v>22261.31385768699</v>
+        <v>22261.31385768784</v>
       </c>
     </row>
     <row r="431">
@@ -3875,7 +3875,7 @@
         <v>2029</v>
       </c>
       <c r="B431" t="n">
-        <v>22170.74880978534</v>
+        <v>22170.74880978529</v>
       </c>
     </row>
     <row r="432">
@@ -3883,7 +3883,7 @@
         <v>2030</v>
       </c>
       <c r="B432" t="n">
-        <v>22075.81802851778</v>
+        <v>22075.81802851675</v>
       </c>
     </row>
     <row r="433">
@@ -3899,7 +3899,7 @@
         <v>2032</v>
       </c>
       <c r="B434" t="n">
-        <v>21873.33407489152</v>
+        <v>21873.33407489223</v>
       </c>
     </row>
     <row r="435">
@@ -3907,7 +3907,7 @@
         <v>2033</v>
       </c>
       <c r="B435" t="n">
-        <v>21766.02313780465</v>
+        <v>21766.02313780503</v>
       </c>
     </row>
     <row r="436">
@@ -3915,7 +3915,7 @@
         <v>2034</v>
       </c>
       <c r="B436" t="n">
-        <v>21654.83043948887</v>
+        <v>21654.83043948799</v>
       </c>
     </row>
     <row r="437">
@@ -3923,7 +3923,7 @@
         <v>2035</v>
       </c>
       <c r="B437" t="n">
-        <v>21539.88081455326</v>
+        <v>21539.880814554</v>
       </c>
     </row>
     <row r="438">
@@ -3931,7 +3931,7 @@
         <v>2036</v>
       </c>
       <c r="B438" t="n">
-        <v>21421.30015198782</v>
+        <v>21421.30015198722</v>
       </c>
     </row>
     <row r="439">
@@ -3939,7 +3939,7 @@
         <v>2037</v>
       </c>
       <c r="B439" t="n">
-        <v>21299.21516352595</v>
+        <v>21299.2151635254</v>
       </c>
     </row>
     <row r="440">
@@ -3947,7 +3947,7 @@
         <v>2038</v>
       </c>
       <c r="B440" t="n">
-        <v>21173.75315817912</v>
+        <v>21173.75315817928</v>
       </c>
     </row>
     <row r="441">
@@ -3955,7 +3955,7 @@
         <v>2039</v>
       </c>
       <c r="B441" t="n">
-        <v>21045.04182346791</v>
+        <v>21045.04182346818</v>
       </c>
     </row>
     <row r="442">
@@ -3963,7 +3963,7 @@
         <v>2040</v>
       </c>
       <c r="B442" t="n">
-        <v>20913.20901370011</v>
+        <v>20913.20901370019</v>
       </c>
     </row>
     <row r="443">
@@ -3971,7 +3971,7 @@
         <v>2041</v>
       </c>
       <c r="B443" t="n">
-        <v>20778.38254563109</v>
+        <v>20778.38254563077</v>
       </c>
     </row>
     <row r="444">
@@ -3979,7 +3979,7 @@
         <v>2042</v>
       </c>
       <c r="B444" t="n">
-        <v>20640.69000184953</v>
+        <v>20640.69000184998</v>
       </c>
     </row>
     <row r="445">
@@ -3987,7 +3987,7 @@
         <v>2043</v>
       </c>
       <c r="B445" t="n">
-        <v>20500.25854211263</v>
+        <v>20500.25854211225</v>
       </c>
     </row>
     <row r="446">
@@ -3995,7 +3995,7 @@
         <v>2044</v>
       </c>
       <c r="B446" t="n">
-        <v>20357.2147228534</v>
+        <v>20357.21472285418</v>
       </c>
     </row>
     <row r="447">
@@ -4003,7 +4003,7 @@
         <v>2045</v>
       </c>
       <c r="B447" t="n">
-        <v>20211.68432502238</v>
+        <v>20211.68432502154</v>
       </c>
     </row>
     <row r="448">
@@ -4011,7 +4011,7 @@
         <v>2046</v>
       </c>
       <c r="B448" t="n">
-        <v>20063.79219039304</v>
+        <v>20063.79219039317</v>
       </c>
     </row>
     <row r="449">
@@ -4019,7 +4019,7 @@
         <v>2047</v>
       </c>
       <c r="B449" t="n">
-        <v>19913.66206647177</v>
+        <v>19913.66206647244</v>
       </c>
     </row>
     <row r="450">
@@ -4027,7 +4027,7 @@
         <v>2048</v>
       </c>
       <c r="B450" t="n">
-        <v>19761.41645994372</v>
+        <v>19761.41645994345</v>
       </c>
     </row>
     <row r="451">
@@ -4035,7 +4035,7 @@
         <v>2049</v>
       </c>
       <c r="B451" t="n">
-        <v>19607.17649881794</v>
+        <v>19607.17649881736</v>
       </c>
     </row>
     <row r="452">
@@ -4043,7 +4043,7 @@
         <v>2050</v>
       </c>
       <c r="B452" t="n">
-        <v>19451.06180315998</v>
+        <v>19451.0618031609</v>
       </c>
     </row>
   </sheetData>
